--- a/Assets/Resources/Data/System.xlsx
+++ b/Assets/Resources/Data/System.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="133">
   <si>
     <t>Id</t>
   </si>
@@ -125,10 +125,13 @@
     <t>命令を終了し作戦を開始します</t>
   </si>
   <si>
+    <t>4回実行でコマンドLvアップ</t>
+  </si>
+  <si>
+    <t>""</t>
+  </si>
+  <si>
     <t>\d%の確率でさらにLvアップ</t>
-  </si>
-  <si>
-    <t>""</t>
   </si>
   <si>
     <t>\d%の確率で消費(Nu)半減</t>
@@ -423,10 +426,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -443,17 +446,15 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -467,19 +468,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -490,15 +483,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -519,18 +506,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -542,7 +529,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
@@ -550,7 +537,15 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
@@ -567,14 +562,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -586,6 +574,21 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -596,31 +599,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -632,151 +767,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -787,6 +790,17 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -801,21 +815,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -839,7 +838,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -853,11 +852,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -879,11 +884,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -895,145 +898,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1656,10 +1659,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G101"/>
+  <dimension ref="A1:G102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="B83" sqref="B83"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="6"/>
@@ -1759,7 +1762,7 @@
     </row>
     <row r="9" ht="15" spans="1:7">
       <c r="A9">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
         <v>35</v>
@@ -1769,9 +1772,9 @@
       </c>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" ht="15" spans="1:7">
       <c r="A10">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10" t="s">
         <v>37</v>
@@ -1779,10 +1782,11 @@
       <c r="C10" t="s">
         <v>36</v>
       </c>
+      <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11" t="s">
         <v>38</v>
@@ -1793,7 +1797,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12" t="s">
         <v>39</v>
@@ -1804,7 +1808,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B13" t="s">
         <v>40</v>
@@ -1815,73 +1819,73 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c r="B14" t="s">
         <v>41</v>
       </c>
       <c r="C14" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" t="s">
         <v>43</v>
-      </c>
-      <c r="C15" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" t="s">
         <v>45</v>
-      </c>
-      <c r="C16" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>201</v>
+        <v>103</v>
       </c>
       <c r="B17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" t="s">
         <v>47</v>
-      </c>
-      <c r="C17" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
+        <v>201</v>
+      </c>
+      <c r="B18" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19">
         <v>202</v>
       </c>
-      <c r="B18" t="s">
-        <v>49</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="B19" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="19" customFormat="1" spans="1:3">
-      <c r="A19">
+      <c r="C19" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" customFormat="1" spans="1:3">
+      <c r="A20">
         <v>300</v>
-      </c>
-      <c r="B19" t="s">
-        <v>51</v>
-      </c>
-      <c r="C19" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20">
-        <v>301</v>
       </c>
       <c r="B20" t="s">
         <v>52</v>
@@ -1892,7 +1896,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B21" t="s">
         <v>53</v>
@@ -1903,7 +1907,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B22" t="s">
         <v>54</v>
@@ -1914,7 +1918,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B23" t="s">
         <v>55</v>
@@ -1925,7 +1929,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="B24" t="s">
         <v>56</v>
@@ -1936,7 +1940,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B25" t="s">
         <v>57</v>
@@ -1947,7 +1951,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B26" t="s">
         <v>58</v>
@@ -1958,7 +1962,7 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B27" t="s">
         <v>59</v>
@@ -1969,7 +1973,7 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B28" t="s">
         <v>60</v>
@@ -1980,7 +1984,7 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B29" t="s">
         <v>61</v>
@@ -1991,7 +1995,7 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B30" t="s">
         <v>62</v>
@@ -2002,7 +2006,7 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B31" t="s">
         <v>63</v>
@@ -2013,7 +2017,7 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="B32" t="s">
         <v>64</v>
@@ -2024,7 +2028,7 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B33" t="s">
         <v>65</v>
@@ -2035,7 +2039,7 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B34" t="s">
         <v>66</v>
@@ -2046,7 +2050,7 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B35" t="s">
         <v>67</v>
@@ -2057,7 +2061,7 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B36" t="s">
         <v>68</v>
@@ -2068,7 +2072,7 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B37" t="s">
         <v>69</v>
@@ -2079,7 +2083,7 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B38" t="s">
         <v>70</v>
@@ -2090,7 +2094,7 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B39" t="s">
         <v>71</v>
@@ -2101,7 +2105,7 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B40" t="s">
         <v>72</v>
@@ -2112,7 +2116,7 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B41" t="s">
         <v>73</v>
@@ -2123,7 +2127,7 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B42" t="s">
         <v>74</v>
@@ -2134,7 +2138,7 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B43" t="s">
         <v>75</v>
@@ -2145,7 +2149,7 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B44" t="s">
         <v>76</v>
@@ -2154,34 +2158,34 @@
         <v>36</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:3">
       <c r="A45">
+        <v>334</v>
+      </c>
+      <c r="B45" t="s">
+        <v>77</v>
+      </c>
+      <c r="C45" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46">
         <v>400</v>
       </c>
-      <c r="B45" t="s">
-        <v>59</v>
-      </c>
-      <c r="C45" t="s">
-        <v>36</v>
-      </c>
-      <c r="D45" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46">
-        <v>401</v>
-      </c>
       <c r="B46" t="s">
+        <v>60</v>
+      </c>
+      <c r="C46" t="s">
+        <v>36</v>
+      </c>
+      <c r="D46" t="s">
         <v>78</v>
-      </c>
-      <c r="C46" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B47" t="s">
         <v>79</v>
@@ -2192,9 +2196,9 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48">
-        <v>410</v>
-      </c>
-      <c r="B48" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="B48" t="s">
         <v>80</v>
       </c>
       <c r="C48" t="s">
@@ -2203,9 +2207,9 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49">
-        <v>1000</v>
-      </c>
-      <c r="B49" t="s">
+        <v>410</v>
+      </c>
+      <c r="B49" s="2" t="s">
         <v>81</v>
       </c>
       <c r="C49" t="s">
@@ -2214,7 +2218,7 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50">
-        <v>1010</v>
+        <v>1000</v>
       </c>
       <c r="B50" t="s">
         <v>82</v>
@@ -2225,7 +2229,7 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51">
-        <v>1020</v>
+        <v>1010</v>
       </c>
       <c r="B51" t="s">
         <v>83</v>
@@ -2234,20 +2238,20 @@
         <v>36</v>
       </c>
     </row>
-    <row r="52" ht="26" spans="1:3">
+    <row r="52" spans="1:3">
       <c r="A52">
+        <v>1020</v>
+      </c>
+      <c r="B52" t="s">
+        <v>84</v>
+      </c>
+      <c r="C52" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="53" ht="26" spans="1:3">
+      <c r="A53">
         <v>1030</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C52" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="53" customFormat="1" spans="1:3">
-      <c r="A53">
-        <v>1040</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>85</v>
@@ -2258,7 +2262,7 @@
     </row>
     <row r="54" customFormat="1" spans="1:3">
       <c r="A54">
-        <v>1050</v>
+        <v>1040</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>86</v>
@@ -2269,7 +2273,7 @@
     </row>
     <row r="55" customFormat="1" spans="1:3">
       <c r="A55">
-        <v>1060</v>
+        <v>1050</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>87</v>
@@ -2280,7 +2284,7 @@
     </row>
     <row r="56" customFormat="1" spans="1:3">
       <c r="A56">
-        <v>1070</v>
+        <v>1060</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>88</v>
@@ -2289,9 +2293,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="57" customFormat="1" ht="26" spans="1:3">
+    <row r="57" customFormat="1" spans="1:3">
       <c r="A57">
-        <v>1080</v>
+        <v>1070</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>89</v>
@@ -2300,9 +2304,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" customFormat="1" ht="26" spans="1:3">
       <c r="A58">
-        <v>2000</v>
+        <v>1080</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>90</v>
@@ -2311,9 +2315,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="59" ht="26" spans="1:3">
+    <row r="59" spans="1:3">
       <c r="A59">
-        <v>2010</v>
+        <v>2000</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>91</v>
@@ -2322,9 +2326,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" ht="26" spans="1:3">
       <c r="A60">
-        <v>3000</v>
+        <v>2010</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>92</v>
@@ -2335,7 +2339,7 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61">
-        <v>3001</v>
+        <v>3000</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>93</v>
@@ -2346,7 +2350,7 @@
     </row>
     <row r="62" spans="1:3">
       <c r="A62">
-        <v>3002</v>
+        <v>3001</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>94</v>
@@ -2357,7 +2361,7 @@
     </row>
     <row r="63" spans="1:3">
       <c r="A63">
-        <v>3003</v>
+        <v>3002</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>95</v>
@@ -2368,7 +2372,7 @@
     </row>
     <row r="64" spans="1:3">
       <c r="A64">
-        <v>3004</v>
+        <v>3003</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>96</v>
@@ -2379,7 +2383,7 @@
     </row>
     <row r="65" spans="1:3">
       <c r="A65">
-        <v>3010</v>
+        <v>3004</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>97</v>
@@ -2390,7 +2394,7 @@
     </row>
     <row r="66" spans="1:3">
       <c r="A66">
-        <v>3011</v>
+        <v>3010</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>98</v>
@@ -2401,7 +2405,7 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67">
-        <v>3012</v>
+        <v>3011</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>99</v>
@@ -2412,7 +2416,7 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68">
-        <v>3013</v>
+        <v>3012</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>100</v>
@@ -2423,7 +2427,7 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69">
-        <v>3020</v>
+        <v>3013</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>101</v>
@@ -2434,7 +2438,7 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70">
-        <v>3021</v>
+        <v>3020</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>102</v>
@@ -2445,7 +2449,7 @@
     </row>
     <row r="71" spans="1:3">
       <c r="A71">
-        <v>3030</v>
+        <v>3021</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>103</v>
@@ -2456,7 +2460,7 @@
     </row>
     <row r="72" spans="1:3">
       <c r="A72">
-        <v>3031</v>
+        <v>3030</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>104</v>
@@ -2467,7 +2471,7 @@
     </row>
     <row r="73" spans="1:3">
       <c r="A73">
-        <v>3040</v>
+        <v>3031</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>105</v>
@@ -2478,7 +2482,7 @@
     </row>
     <row r="74" spans="1:3">
       <c r="A74">
-        <v>3050</v>
+        <v>3040</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>106</v>
@@ -2489,7 +2493,7 @@
     </row>
     <row r="75" spans="1:3">
       <c r="A75">
-        <v>3051</v>
+        <v>3050</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>107</v>
@@ -2500,7 +2504,7 @@
     </row>
     <row r="76" spans="1:3">
       <c r="A76">
-        <v>3052</v>
+        <v>3051</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>108</v>
@@ -2511,7 +2515,7 @@
     </row>
     <row r="77" spans="1:3">
       <c r="A77">
-        <v>3060</v>
+        <v>3052</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>109</v>
@@ -2522,7 +2526,7 @@
     </row>
     <row r="78" spans="1:3">
       <c r="A78">
-        <v>4000</v>
+        <v>3060</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>110</v>
@@ -2533,7 +2537,7 @@
     </row>
     <row r="79" spans="1:3">
       <c r="A79">
-        <v>4010</v>
+        <v>4000</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>111</v>
@@ -2544,7 +2548,7 @@
     </row>
     <row r="80" spans="1:3">
       <c r="A80">
-        <v>4011</v>
+        <v>4010</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>112</v>
@@ -2555,7 +2559,7 @@
     </row>
     <row r="81" spans="1:3">
       <c r="A81">
-        <v>5000</v>
+        <v>4011</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>113</v>
@@ -2566,10 +2570,10 @@
     </row>
     <row r="82" spans="1:3">
       <c r="A82">
-        <v>5001</v>
+        <v>5000</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>36</v>
+        <v>114</v>
       </c>
       <c r="C82" t="s">
         <v>36</v>
@@ -2577,10 +2581,10 @@
     </row>
     <row r="83" spans="1:3">
       <c r="A83">
-        <v>5002</v>
+        <v>5001</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>114</v>
+        <v>36</v>
       </c>
       <c r="C83" t="s">
         <v>36</v>
@@ -2588,9 +2592,9 @@
     </row>
     <row r="84" spans="1:3">
       <c r="A84">
-        <v>11010</v>
-      </c>
-      <c r="B84" t="s">
+        <v>5002</v>
+      </c>
+      <c r="B84" s="2" t="s">
         <v>115</v>
       </c>
       <c r="C84" t="s">
@@ -2599,10 +2603,10 @@
     </row>
     <row r="85" spans="1:3">
       <c r="A85">
-        <v>11020</v>
+        <v>11010</v>
       </c>
       <c r="B85" t="s">
-        <v>78</v>
+        <v>116</v>
       </c>
       <c r="C85" t="s">
         <v>36</v>
@@ -2610,10 +2614,10 @@
     </row>
     <row r="86" spans="1:3">
       <c r="A86">
-        <v>11030</v>
+        <v>11020</v>
       </c>
       <c r="B86" t="s">
-        <v>116</v>
+        <v>79</v>
       </c>
       <c r="C86" t="s">
         <v>36</v>
@@ -2621,7 +2625,7 @@
     </row>
     <row r="87" spans="1:3">
       <c r="A87">
-        <v>11040</v>
+        <v>11030</v>
       </c>
       <c r="B87" t="s">
         <v>117</v>
@@ -2632,7 +2636,7 @@
     </row>
     <row r="88" spans="1:3">
       <c r="A88">
-        <v>11050</v>
+        <v>11040</v>
       </c>
       <c r="B88" t="s">
         <v>118</v>
@@ -2643,7 +2647,7 @@
     </row>
     <row r="89" spans="1:3">
       <c r="A89">
-        <v>11060</v>
+        <v>11050</v>
       </c>
       <c r="B89" t="s">
         <v>119</v>
@@ -2654,7 +2658,7 @@
     </row>
     <row r="90" spans="1:3">
       <c r="A90">
-        <v>11070</v>
+        <v>11060</v>
       </c>
       <c r="B90" t="s">
         <v>120</v>
@@ -2665,7 +2669,7 @@
     </row>
     <row r="91" spans="1:3">
       <c r="A91">
-        <v>11080</v>
+        <v>11070</v>
       </c>
       <c r="B91" t="s">
         <v>121</v>
@@ -2676,7 +2680,7 @@
     </row>
     <row r="92" spans="1:3">
       <c r="A92">
-        <v>13010</v>
+        <v>11080</v>
       </c>
       <c r="B92" t="s">
         <v>122</v>
@@ -2687,7 +2691,7 @@
     </row>
     <row r="93" spans="1:3">
       <c r="A93">
-        <v>14010</v>
+        <v>13010</v>
       </c>
       <c r="B93" t="s">
         <v>123</v>
@@ -2698,7 +2702,7 @@
     </row>
     <row r="94" spans="1:3">
       <c r="A94">
-        <v>14020</v>
+        <v>14010</v>
       </c>
       <c r="B94" t="s">
         <v>124</v>
@@ -2709,7 +2713,7 @@
     </row>
     <row r="95" spans="1:3">
       <c r="A95">
-        <v>14030</v>
+        <v>14020</v>
       </c>
       <c r="B95" t="s">
         <v>125</v>
@@ -2720,7 +2724,7 @@
     </row>
     <row r="96" spans="1:3">
       <c r="A96">
-        <v>14040</v>
+        <v>14030</v>
       </c>
       <c r="B96" t="s">
         <v>126</v>
@@ -2731,7 +2735,7 @@
     </row>
     <row r="97" spans="1:3">
       <c r="A97">
-        <v>14041</v>
+        <v>14040</v>
       </c>
       <c r="B97" t="s">
         <v>127</v>
@@ -2742,7 +2746,7 @@
     </row>
     <row r="98" spans="1:3">
       <c r="A98">
-        <v>14042</v>
+        <v>14041</v>
       </c>
       <c r="B98" t="s">
         <v>128</v>
@@ -2753,7 +2757,7 @@
     </row>
     <row r="99" spans="1:3">
       <c r="A99">
-        <v>15010</v>
+        <v>14042</v>
       </c>
       <c r="B99" t="s">
         <v>129</v>
@@ -2764,7 +2768,7 @@
     </row>
     <row r="100" spans="1:3">
       <c r="A100">
-        <v>15020</v>
+        <v>15010</v>
       </c>
       <c r="B100" t="s">
         <v>130</v>
@@ -2775,12 +2779,23 @@
     </row>
     <row r="101" spans="1:3">
       <c r="A101">
-        <v>15030</v>
+        <v>15020</v>
       </c>
       <c r="B101" t="s">
         <v>131</v>
       </c>
       <c r="C101" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102">
+        <v>15030</v>
+      </c>
+      <c r="B102" t="s">
+        <v>132</v>
+      </c>
+      <c r="C102" t="s">
         <v>36</v>
       </c>
     </row>

--- a/Assets/Resources/Data/System.xlsx
+++ b/Assets/Resources/Data/System.xlsx
@@ -92,7 +92,7 @@
     <t>理性拡張</t>
   </si>
   <si>
-    <t>Numinosを使用して術者(Alchemist)の魔法属性枠を増やします</t>
+    <t>Numinosを使用して術者(Alchemist)に魔法を習得させます</t>
   </si>
   <si>
     <t>存在修復</t>
@@ -116,7 +116,7 @@
     <t>術者確認</t>
   </si>
   <si>
-    <t>術者(Alchemist)のステータス確認や強化や魔法を習得します</t>
+    <t>術者(Alchemist)のステータスや魔法を確認します</t>
   </si>
   <si>
     <t>作戦開始</t>
@@ -170,10 +170,10 @@
     <t>レベルアップで入手したSPとNuminosを使用して術者(Alchemist)のステータスを強化します</t>
   </si>
   <si>
-    <t>魔法連結</t>
-  </si>
-  <si>
-    <t>Numinosを使用して術者(Alchemist)に魔法を習得します</t>
+    <t>魔法確認</t>
+  </si>
+  <si>
+    <t>術者(Alchemist)に魔法を確認します</t>
   </si>
   <si>
     <t>HP</t>
@@ -307,7 +307,7 @@
     <t>Lv.\dにレベルアップ！</t>
   </si>
   <si>
-    <t>属性に「\d」を拡張！</t>
+    <t>「\d」を習得！</t>
   </si>
   <si>
     <t>理性拡張ボーナス！</t>
@@ -426,10 +426,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -446,6 +446,22 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -453,8 +469,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -470,66 +509,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
@@ -544,11 +523,55 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -560,35 +583,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -599,187 +599,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -790,17 +790,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -838,16 +827,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -867,6 +847,35 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -881,15 +890,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -898,16 +898,16 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -916,127 +916,127 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1661,8 +1661,8 @@
   <sheetPr/>
   <dimension ref="A1:G102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="6"/>

--- a/Assets/Resources/Data/System.xlsx
+++ b/Assets/Resources/Data/System.xlsx
@@ -125,7 +125,7 @@
     <t>命令を終了し作戦を開始します</t>
   </si>
   <si>
-    <t>4回実行でコマンドLvアップ</t>
+    <t>4回実行毎にコマンドLvアップ</t>
   </si>
   <si>
     <t>""</t>
@@ -143,7 +143,7 @@
     <t>獲得(Nu)が\dアップ</t>
   </si>
   <si>
-    <t>\d%の確率で獲得(Nu)量2倍</t>
+    <t>\d%の確率で入手(Nu)2倍</t>
   </si>
   <si>
     <t>NewGame</t>
@@ -426,10 +426,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -446,16 +446,15 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
@@ -463,7 +462,52 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -478,22 +522,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -501,37 +530,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -552,7 +551,7 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
@@ -567,9 +566,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -583,8 +582,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -599,73 +599,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -677,109 +779,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -790,6 +790,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -804,6 +813,35 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -823,11 +861,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -846,50 +890,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -898,145 +898,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1661,8 +1661,8 @@
   <sheetPr/>
   <dimension ref="A1:G102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="6"/>

--- a/Assets/Resources/Data/System.xlsx
+++ b/Assets/Resources/Data/System.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7140" firstSheet="1" activeTab="4"/>
+    <workbookView windowWidth="19200" windowHeight="7140" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TacticsComand" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="132">
   <si>
     <t>Id</t>
   </si>
@@ -59,9 +59,6 @@
     <t>OPTION</t>
   </si>
   <si>
-    <t>STRENGTH</t>
-  </si>
-  <si>
     <t>SKILLLIST</t>
   </si>
   <si>
@@ -191,7 +188,7 @@
     <t>SPD</t>
   </si>
   <si>
-    <t>UsePoint</t>
+    <t>UpperRate</t>
   </si>
   <si>
     <t>Parameters</t>
@@ -427,9 +424,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -453,11 +450,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -469,8 +465,39 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -491,16 +518,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -515,36 +549,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -552,14 +557,6 @@
     <font>
       <b/>
       <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
@@ -576,7 +573,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -584,7 +581,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -605,6 +602,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -617,7 +650,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -629,7 +686,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -647,139 +740,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -790,15 +787,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -819,11 +807,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -833,15 +834,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -861,17 +853,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -890,6 +876,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -898,16 +895,16 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -919,124 +916,124 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1568,13 +1565,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelRow="2" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelRow="1" outlineLevelCol="2"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
@@ -1595,17 +1592,6 @@
         <v>13</v>
       </c>
       <c r="C2">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3">
         <v>202</v>
       </c>
     </row>
@@ -1631,20 +1617,20 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
         <v>16</v>
-      </c>
-      <c r="B2" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" s="3">
         <v>5</v>
@@ -1661,8 +1647,8 @@
   <sheetPr/>
   <dimension ref="A1:G102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="6"/>
@@ -1676,10 +1662,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
         <v>19</v>
-      </c>
-      <c r="C1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" ht="15" spans="1:7">
@@ -1687,10 +1673,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
         <v>21</v>
-      </c>
-      <c r="C2" t="s">
-        <v>22</v>
       </c>
       <c r="G2" s="1"/>
     </row>
@@ -1699,10 +1685,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1710,10 +1696,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
         <v>25</v>
-      </c>
-      <c r="C4" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1721,10 +1707,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
         <v>27</v>
-      </c>
-      <c r="C5" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1732,10 +1718,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" t="s">
         <v>29</v>
-      </c>
-      <c r="C6" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1743,10 +1729,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" t="s">
         <v>31</v>
-      </c>
-      <c r="C7" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1754,10 +1740,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" t="s">
         <v>33</v>
-      </c>
-      <c r="C8" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="9" ht="15" spans="1:7">
@@ -1765,10 +1751,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G9" s="1"/>
     </row>
@@ -1777,10 +1763,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G10" s="1"/>
     </row>
@@ -1789,10 +1775,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1800,10 +1786,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1811,10 +1797,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1822,10 +1808,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1833,10 +1819,10 @@
         <v>101</v>
       </c>
       <c r="B15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" t="s">
         <v>42</v>
-      </c>
-      <c r="C15" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1844,10 +1830,10 @@
         <v>102</v>
       </c>
       <c r="B16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" t="s">
         <v>44</v>
-      </c>
-      <c r="C16" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1855,10 +1841,10 @@
         <v>103</v>
       </c>
       <c r="B17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" t="s">
         <v>46</v>
-      </c>
-      <c r="C17" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1866,10 +1852,10 @@
         <v>201</v>
       </c>
       <c r="B18" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" t="s">
         <v>48</v>
-      </c>
-      <c r="C18" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1877,10 +1863,10 @@
         <v>202</v>
       </c>
       <c r="B19" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" t="s">
         <v>50</v>
-      </c>
-      <c r="C19" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="20" customFormat="1" spans="1:3">
@@ -1888,10 +1874,10 @@
         <v>300</v>
       </c>
       <c r="B20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1899,10 +1885,10 @@
         <v>301</v>
       </c>
       <c r="B21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1910,10 +1896,10 @@
         <v>302</v>
       </c>
       <c r="B22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1921,10 +1907,10 @@
         <v>303</v>
       </c>
       <c r="B23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1932,10 +1918,10 @@
         <v>304</v>
       </c>
       <c r="B24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1943,10 +1929,10 @@
         <v>310</v>
       </c>
       <c r="B25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1954,10 +1940,10 @@
         <v>311</v>
       </c>
       <c r="B26" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1965,10 +1951,10 @@
         <v>312</v>
       </c>
       <c r="B27" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1976,10 +1962,10 @@
         <v>313</v>
       </c>
       <c r="B28" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1987,10 +1973,10 @@
         <v>314</v>
       </c>
       <c r="B29" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1998,10 +1984,10 @@
         <v>315</v>
       </c>
       <c r="B30" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C30" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -2009,10 +1995,10 @@
         <v>316</v>
       </c>
       <c r="B31" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C31" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -2020,10 +2006,10 @@
         <v>317</v>
       </c>
       <c r="B32" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C32" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -2031,10 +2017,10 @@
         <v>321</v>
       </c>
       <c r="B33" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -2042,10 +2028,10 @@
         <v>322</v>
       </c>
       <c r="B34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C34" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -2053,10 +2039,10 @@
         <v>323</v>
       </c>
       <c r="B35" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -2064,10 +2050,10 @@
         <v>324</v>
       </c>
       <c r="B36" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C36" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -2075,10 +2061,10 @@
         <v>325</v>
       </c>
       <c r="B37" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C37" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -2086,10 +2072,10 @@
         <v>326</v>
       </c>
       <c r="B38" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C38" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -2097,10 +2083,10 @@
         <v>327</v>
       </c>
       <c r="B39" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C39" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -2108,10 +2094,10 @@
         <v>328</v>
       </c>
       <c r="B40" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C40" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -2119,10 +2105,10 @@
         <v>330</v>
       </c>
       <c r="B41" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C41" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -2130,10 +2116,10 @@
         <v>331</v>
       </c>
       <c r="B42" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C42" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -2141,10 +2127,10 @@
         <v>332</v>
       </c>
       <c r="B43" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C43" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -2152,10 +2138,10 @@
         <v>333</v>
       </c>
       <c r="B44" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C44" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -2163,10 +2149,10 @@
         <v>334</v>
       </c>
       <c r="B45" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C45" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -2174,13 +2160,13 @@
         <v>400</v>
       </c>
       <c r="B46" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C46" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D46" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -2188,10 +2174,10 @@
         <v>401</v>
       </c>
       <c r="B47" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C47" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -2199,10 +2185,10 @@
         <v>402</v>
       </c>
       <c r="B48" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C48" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -2210,10 +2196,10 @@
         <v>410</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C49" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -2221,10 +2207,10 @@
         <v>1000</v>
       </c>
       <c r="B50" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C50" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -2232,10 +2218,10 @@
         <v>1010</v>
       </c>
       <c r="B51" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C51" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -2243,10 +2229,10 @@
         <v>1020</v>
       </c>
       <c r="B52" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C52" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="53" ht="26" spans="1:3">
@@ -2254,10 +2240,10 @@
         <v>1030</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C53" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="54" customFormat="1" spans="1:3">
@@ -2265,10 +2251,10 @@
         <v>1040</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C54" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="55" customFormat="1" spans="1:3">
@@ -2276,10 +2262,10 @@
         <v>1050</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C55" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="56" customFormat="1" spans="1:3">
@@ -2287,10 +2273,10 @@
         <v>1060</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C56" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="57" customFormat="1" spans="1:3">
@@ -2298,10 +2284,10 @@
         <v>1070</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C57" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="58" customFormat="1" ht="26" spans="1:3">
@@ -2309,10 +2295,10 @@
         <v>1080</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C58" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -2320,10 +2306,10 @@
         <v>2000</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C59" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="60" ht="26" spans="1:3">
@@ -2331,10 +2317,10 @@
         <v>2010</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C60" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -2342,10 +2328,10 @@
         <v>3000</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C61" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -2353,10 +2339,10 @@
         <v>3001</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C62" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -2364,10 +2350,10 @@
         <v>3002</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C63" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -2375,10 +2361,10 @@
         <v>3003</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C64" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -2386,10 +2372,10 @@
         <v>3004</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C65" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -2397,10 +2383,10 @@
         <v>3010</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C66" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -2408,10 +2394,10 @@
         <v>3011</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C67" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -2419,10 +2405,10 @@
         <v>3012</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C68" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -2430,10 +2416,10 @@
         <v>3013</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C69" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -2441,10 +2427,10 @@
         <v>3020</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C70" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -2452,10 +2438,10 @@
         <v>3021</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C71" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -2463,10 +2449,10 @@
         <v>3030</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C72" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -2474,10 +2460,10 @@
         <v>3031</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C73" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -2485,10 +2471,10 @@
         <v>3040</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C74" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -2496,10 +2482,10 @@
         <v>3050</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C75" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -2507,10 +2493,10 @@
         <v>3051</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C76" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -2518,10 +2504,10 @@
         <v>3052</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C77" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -2529,10 +2515,10 @@
         <v>3060</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C78" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -2540,10 +2526,10 @@
         <v>4000</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C79" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -2551,10 +2537,10 @@
         <v>4010</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C80" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -2562,10 +2548,10 @@
         <v>4011</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C81" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -2573,10 +2559,10 @@
         <v>5000</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C82" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -2584,10 +2570,10 @@
         <v>5001</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C83" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -2595,10 +2581,10 @@
         <v>5002</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C84" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -2606,10 +2592,10 @@
         <v>11010</v>
       </c>
       <c r="B85" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C85" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -2617,10 +2603,10 @@
         <v>11020</v>
       </c>
       <c r="B86" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C86" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -2628,10 +2614,10 @@
         <v>11030</v>
       </c>
       <c r="B87" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C87" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -2639,10 +2625,10 @@
         <v>11040</v>
       </c>
       <c r="B88" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C88" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -2650,10 +2636,10 @@
         <v>11050</v>
       </c>
       <c r="B89" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C89" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -2661,10 +2647,10 @@
         <v>11060</v>
       </c>
       <c r="B90" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C90" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -2672,10 +2658,10 @@
         <v>11070</v>
       </c>
       <c r="B91" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C91" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -2683,10 +2669,10 @@
         <v>11080</v>
       </c>
       <c r="B92" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C92" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -2694,10 +2680,10 @@
         <v>13010</v>
       </c>
       <c r="B93" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C93" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -2705,10 +2691,10 @@
         <v>14010</v>
       </c>
       <c r="B94" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C94" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -2716,10 +2702,10 @@
         <v>14020</v>
       </c>
       <c r="B95" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C95" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -2727,10 +2713,10 @@
         <v>14030</v>
       </c>
       <c r="B96" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C96" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -2738,10 +2724,10 @@
         <v>14040</v>
       </c>
       <c r="B97" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C97" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -2749,10 +2735,10 @@
         <v>14041</v>
       </c>
       <c r="B98" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C98" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -2760,10 +2746,10 @@
         <v>14042</v>
       </c>
       <c r="B99" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C99" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -2771,10 +2757,10 @@
         <v>15010</v>
       </c>
       <c r="B100" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C100" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -2782,10 +2768,10 @@
         <v>15020</v>
       </c>
       <c r="B101" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C101" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -2793,10 +2779,10 @@
         <v>15030</v>
       </c>
       <c r="B102" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C102" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/Data/System.xlsx
+++ b/Assets/Resources/Data/System.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7140" firstSheet="1" activeTab="2"/>
+    <workbookView windowWidth="19200" windowHeight="7140" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="TacticsComand" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="133">
   <si>
     <t>Id</t>
   </si>
@@ -361,7 +361,7 @@
     <t>習得コストの\dが還元されます</t>
   </si>
   <si>
-    <t>あなたの名前を聞かせてください</t>
+    <t>あなたの名前を教えてください</t>
   </si>
   <si>
     <t>1文字以上の名前を入力してください</t>
@@ -407,6 +407,9 @@
   </si>
   <si>
     <t>神格等級がアップ</t>
+  </si>
+  <si>
+    <t>確率で\d魔法を習得</t>
   </si>
   <si>
     <t>行動選択中…</t>
@@ -424,9 +427,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -444,13 +447,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
@@ -458,7 +454,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -472,16 +468,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F76"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -511,8 +514,54 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -526,62 +575,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -596,13 +599,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -614,169 +707,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -787,6 +790,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -805,39 +817,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -849,6 +828,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -879,11 +869,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -895,16 +898,16 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -916,124 +919,124 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1567,7 +1570,7 @@
   <sheetPr/>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
@@ -1645,10 +1648,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G102"/>
+  <dimension ref="A1:G103"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="B101" sqref="B101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="6"/>
@@ -2754,7 +2757,7 @@
     </row>
     <row r="100" spans="1:3">
       <c r="A100">
-        <v>15010</v>
+        <v>14051</v>
       </c>
       <c r="B100" t="s">
         <v>129</v>
@@ -2765,7 +2768,7 @@
     </row>
     <row r="101" spans="1:3">
       <c r="A101">
-        <v>15020</v>
+        <v>15010</v>
       </c>
       <c r="B101" t="s">
         <v>130</v>
@@ -2776,12 +2779,23 @@
     </row>
     <row r="102" spans="1:3">
       <c r="A102">
-        <v>15030</v>
+        <v>15020</v>
       </c>
       <c r="B102" t="s">
         <v>131</v>
       </c>
       <c r="C102" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103">
+        <v>15030</v>
+      </c>
+      <c r="B103" t="s">
+        <v>132</v>
+      </c>
+      <c r="C103" t="s">
         <v>35</v>
       </c>
     </row>

--- a/Assets/Resources/Data/System.xlsx
+++ b/Assets/Resources/Data/System.xlsx
@@ -304,7 +304,7 @@
     <t>Lv.\dにレベルアップ！</t>
   </si>
   <si>
-    <t>「\d」を習得！</t>
+    <t>\dを習得！</t>
   </si>
   <si>
     <t>理性拡張ボーナス！</t>
@@ -426,10 +426,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -447,98 +447,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -553,8 +462,98 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -568,7 +567,15 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
@@ -577,14 +584,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -599,187 +599,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -790,30 +790,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -834,11 +810,59 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -866,30 +890,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -898,145 +898,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1650,8 +1650,8 @@
   <sheetPr/>
   <dimension ref="A1:G103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="B101" sqref="B101"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="B64" sqref="B64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="6"/>

--- a/Assets/Resources/Data/System.xlsx
+++ b/Assets/Resources/Data/System.xlsx
@@ -131,7 +131,7 @@
     <t>\d%の確率でさらにLvアップ</t>
   </si>
   <si>
-    <t>\d%の確率で消費(Nu)半減</t>
+    <t>\d%の確率で同属性の魔法を入手</t>
   </si>
   <si>
     <t>\d%の確率で全ステータス1上昇</t>
@@ -426,10 +426,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -453,27 +453,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -485,22 +468,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -515,7 +485,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -536,6 +506,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -544,9 +521,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -559,8 +535,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -575,6 +560,14 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -582,9 +575,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -599,187 +599,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -790,6 +790,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -810,59 +834,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -890,6 +866,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -898,145 +898,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1650,8 +1650,8 @@
   <sheetPr/>
   <dimension ref="A1:G103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="B64" sqref="B64"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="6"/>

--- a/Assets/Resources/Data/System.xlsx
+++ b/Assets/Resources/Data/System.xlsx
@@ -406,10 +406,10 @@
     <t>Numinosを獲得！</t>
   </si>
   <si>
-    <t>神格等級がアップ</t>
-  </si>
-  <si>
-    <t>確率で\d魔法を習得</t>
+    <t>神格等級がアップ！</t>
+  </si>
+  <si>
+    <t>確率で\d魔法を習得！</t>
   </si>
   <si>
     <t>行動選択中…</t>
@@ -427,9 +427,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -446,6 +446,21 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -453,15 +468,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
@@ -470,7 +478,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -484,23 +507,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -508,14 +525,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -536,31 +545,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
@@ -568,7 +553,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
@@ -583,8 +568,23 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -599,187 +599,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -790,6 +790,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -808,11 +832,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -834,6 +864,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -846,47 +885,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -898,145 +898,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1650,8 +1650,8 @@
   <sheetPr/>
   <dimension ref="A1:G103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="B89" sqref="B89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="6"/>

--- a/Assets/Resources/Data/System.xlsx
+++ b/Assets/Resources/Data/System.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="135">
   <si>
     <t>Id</t>
   </si>
@@ -188,7 +188,7 @@
     <t>SPD</t>
   </si>
   <si>
-    <t>UpperRate</t>
+    <t>GrowthRates</t>
   </si>
   <si>
     <t>Parameters</t>
@@ -258,6 +258,9 @@
   </si>
   <si>
     <t>Conditions</t>
+  </si>
+  <si>
+    <t>永続</t>
   </si>
   <si>
     <t>救済執行を諦めて撤退しますか？</t>
@@ -388,6 +391,9 @@
     <t>ここまでの進行状況をセーブしますか？</t>
   </si>
   <si>
+    <t>ヒロインを選択してください</t>
+  </si>
+  <si>
     <t>終焉まで</t>
   </si>
   <si>
@@ -406,10 +412,10 @@
     <t>Numinosを獲得！</t>
   </si>
   <si>
-    <t>神格等級がアップ！</t>
-  </si>
-  <si>
-    <t>確率で\d魔法を習得！</t>
+    <t>神格等級がアップ</t>
+  </si>
+  <si>
+    <t>確率で\d魔法を習得</t>
   </si>
   <si>
     <t>行動選択中…</t>
@@ -427,8 +433,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="21">
@@ -446,9 +452,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -468,37 +473,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -508,8 +482,24 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -517,7 +507,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -544,8 +534,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
@@ -553,7 +551,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
@@ -568,7 +566,23 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
@@ -581,14 +595,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -599,25 +605,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -629,7 +743,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -641,43 +773,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -689,97 +785,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -793,11 +799,43 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -817,17 +855,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -847,41 +888,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -898,7 +904,7 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -907,7 +913,7 @@
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -916,127 +922,127 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1648,10 +1654,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G103"/>
+  <dimension ref="A1:G105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="B89" sqref="B89"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="B102" sqref="B102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="6"/>
@@ -2196,9 +2202,9 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49">
-        <v>410</v>
-      </c>
-      <c r="B49" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B49" t="s">
         <v>80</v>
       </c>
       <c r="C49" t="s">
@@ -2207,9 +2213,9 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50">
-        <v>1000</v>
-      </c>
-      <c r="B50" t="s">
+        <v>410</v>
+      </c>
+      <c r="B50" s="2" t="s">
         <v>81</v>
       </c>
       <c r="C50" t="s">
@@ -2218,7 +2224,7 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51">
-        <v>1010</v>
+        <v>1000</v>
       </c>
       <c r="B51" t="s">
         <v>82</v>
@@ -2229,7 +2235,7 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52">
-        <v>1020</v>
+        <v>1010</v>
       </c>
       <c r="B52" t="s">
         <v>83</v>
@@ -2238,20 +2244,20 @@
         <v>35</v>
       </c>
     </row>
-    <row r="53" ht="26" spans="1:3">
+    <row r="53" spans="1:3">
       <c r="A53">
+        <v>1020</v>
+      </c>
+      <c r="B53" t="s">
+        <v>84</v>
+      </c>
+      <c r="C53" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="54" ht="26" spans="1:3">
+      <c r="A54">
         <v>1030</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C53" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="54" customFormat="1" spans="1:3">
-      <c r="A54">
-        <v>1040</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>85</v>
@@ -2262,7 +2268,7 @@
     </row>
     <row r="55" customFormat="1" spans="1:3">
       <c r="A55">
-        <v>1050</v>
+        <v>1040</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>86</v>
@@ -2273,7 +2279,7 @@
     </row>
     <row r="56" customFormat="1" spans="1:3">
       <c r="A56">
-        <v>1060</v>
+        <v>1050</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>87</v>
@@ -2284,7 +2290,7 @@
     </row>
     <row r="57" customFormat="1" spans="1:3">
       <c r="A57">
-        <v>1070</v>
+        <v>1060</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>88</v>
@@ -2293,9 +2299,9 @@
         <v>35</v>
       </c>
     </row>
-    <row r="58" customFormat="1" ht="26" spans="1:3">
+    <row r="58" customFormat="1" spans="1:3">
       <c r="A58">
-        <v>1080</v>
+        <v>1070</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>89</v>
@@ -2304,9 +2310,9 @@
         <v>35</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" customFormat="1" ht="26" spans="1:3">
       <c r="A59">
-        <v>2000</v>
+        <v>1080</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>90</v>
@@ -2315,9 +2321,9 @@
         <v>35</v>
       </c>
     </row>
-    <row r="60" ht="26" spans="1:3">
+    <row r="60" spans="1:3">
       <c r="A60">
-        <v>2010</v>
+        <v>2000</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>91</v>
@@ -2326,9 +2332,9 @@
         <v>35</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" ht="26" spans="1:3">
       <c r="A61">
-        <v>3000</v>
+        <v>2010</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>92</v>
@@ -2339,7 +2345,7 @@
     </row>
     <row r="62" spans="1:3">
       <c r="A62">
-        <v>3001</v>
+        <v>3000</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>93</v>
@@ -2350,7 +2356,7 @@
     </row>
     <row r="63" spans="1:3">
       <c r="A63">
-        <v>3002</v>
+        <v>3001</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>94</v>
@@ -2361,7 +2367,7 @@
     </row>
     <row r="64" spans="1:3">
       <c r="A64">
-        <v>3003</v>
+        <v>3002</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>95</v>
@@ -2372,7 +2378,7 @@
     </row>
     <row r="65" spans="1:3">
       <c r="A65">
-        <v>3004</v>
+        <v>3003</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>96</v>
@@ -2383,7 +2389,7 @@
     </row>
     <row r="66" spans="1:3">
       <c r="A66">
-        <v>3010</v>
+        <v>3004</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>97</v>
@@ -2394,7 +2400,7 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67">
-        <v>3011</v>
+        <v>3010</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>98</v>
@@ -2405,7 +2411,7 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68">
-        <v>3012</v>
+        <v>3011</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>99</v>
@@ -2416,7 +2422,7 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69">
-        <v>3013</v>
+        <v>3012</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>100</v>
@@ -2427,7 +2433,7 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70">
-        <v>3020</v>
+        <v>3013</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>101</v>
@@ -2438,7 +2444,7 @@
     </row>
     <row r="71" spans="1:3">
       <c r="A71">
-        <v>3021</v>
+        <v>3020</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>102</v>
@@ -2449,7 +2455,7 @@
     </row>
     <row r="72" spans="1:3">
       <c r="A72">
-        <v>3030</v>
+        <v>3021</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>103</v>
@@ -2460,7 +2466,7 @@
     </row>
     <row r="73" spans="1:3">
       <c r="A73">
-        <v>3031</v>
+        <v>3030</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>104</v>
@@ -2471,7 +2477,7 @@
     </row>
     <row r="74" spans="1:3">
       <c r="A74">
-        <v>3040</v>
+        <v>3031</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>105</v>
@@ -2482,7 +2488,7 @@
     </row>
     <row r="75" spans="1:3">
       <c r="A75">
-        <v>3050</v>
+        <v>3040</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>106</v>
@@ -2493,7 +2499,7 @@
     </row>
     <row r="76" spans="1:3">
       <c r="A76">
-        <v>3051</v>
+        <v>3050</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>107</v>
@@ -2504,7 +2510,7 @@
     </row>
     <row r="77" spans="1:3">
       <c r="A77">
-        <v>3052</v>
+        <v>3051</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>108</v>
@@ -2515,7 +2521,7 @@
     </row>
     <row r="78" spans="1:3">
       <c r="A78">
-        <v>3060</v>
+        <v>3052</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>109</v>
@@ -2526,7 +2532,7 @@
     </row>
     <row r="79" spans="1:3">
       <c r="A79">
-        <v>4000</v>
+        <v>3060</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>110</v>
@@ -2537,7 +2543,7 @@
     </row>
     <row r="80" spans="1:3">
       <c r="A80">
-        <v>4010</v>
+        <v>4000</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>111</v>
@@ -2548,7 +2554,7 @@
     </row>
     <row r="81" spans="1:3">
       <c r="A81">
-        <v>4011</v>
+        <v>4010</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>112</v>
@@ -2559,7 +2565,7 @@
     </row>
     <row r="82" spans="1:3">
       <c r="A82">
-        <v>5000</v>
+        <v>4011</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>113</v>
@@ -2570,10 +2576,10 @@
     </row>
     <row r="83" spans="1:3">
       <c r="A83">
-        <v>5001</v>
+        <v>5000</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>35</v>
+        <v>114</v>
       </c>
       <c r="C83" t="s">
         <v>35</v>
@@ -2581,10 +2587,10 @@
     </row>
     <row r="84" spans="1:3">
       <c r="A84">
-        <v>5002</v>
+        <v>5001</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>114</v>
+        <v>35</v>
       </c>
       <c r="C84" t="s">
         <v>35</v>
@@ -2592,9 +2598,9 @@
     </row>
     <row r="85" spans="1:3">
       <c r="A85">
-        <v>11010</v>
-      </c>
-      <c r="B85" t="s">
+        <v>5002</v>
+      </c>
+      <c r="B85" s="2" t="s">
         <v>115</v>
       </c>
       <c r="C85" t="s">
@@ -2603,10 +2609,10 @@
     </row>
     <row r="86" spans="1:3">
       <c r="A86">
-        <v>11020</v>
+        <v>11010</v>
       </c>
       <c r="B86" t="s">
-        <v>78</v>
+        <v>116</v>
       </c>
       <c r="C86" t="s">
         <v>35</v>
@@ -2614,10 +2620,10 @@
     </row>
     <row r="87" spans="1:3">
       <c r="A87">
-        <v>11030</v>
+        <v>11020</v>
       </c>
       <c r="B87" t="s">
-        <v>116</v>
+        <v>78</v>
       </c>
       <c r="C87" t="s">
         <v>35</v>
@@ -2625,7 +2631,7 @@
     </row>
     <row r="88" spans="1:3">
       <c r="A88">
-        <v>11040</v>
+        <v>11030</v>
       </c>
       <c r="B88" t="s">
         <v>117</v>
@@ -2636,7 +2642,7 @@
     </row>
     <row r="89" spans="1:3">
       <c r="A89">
-        <v>11050</v>
+        <v>11040</v>
       </c>
       <c r="B89" t="s">
         <v>118</v>
@@ -2647,7 +2653,7 @@
     </row>
     <row r="90" spans="1:3">
       <c r="A90">
-        <v>11060</v>
+        <v>11050</v>
       </c>
       <c r="B90" t="s">
         <v>119</v>
@@ -2658,7 +2664,7 @@
     </row>
     <row r="91" spans="1:3">
       <c r="A91">
-        <v>11070</v>
+        <v>11060</v>
       </c>
       <c r="B91" t="s">
         <v>120</v>
@@ -2669,7 +2675,7 @@
     </row>
     <row r="92" spans="1:3">
       <c r="A92">
-        <v>11080</v>
+        <v>11070</v>
       </c>
       <c r="B92" t="s">
         <v>121</v>
@@ -2680,7 +2686,7 @@
     </row>
     <row r="93" spans="1:3">
       <c r="A93">
-        <v>13010</v>
+        <v>11080</v>
       </c>
       <c r="B93" t="s">
         <v>122</v>
@@ -2691,7 +2697,7 @@
     </row>
     <row r="94" spans="1:3">
       <c r="A94">
-        <v>14010</v>
+        <v>11090</v>
       </c>
       <c r="B94" t="s">
         <v>123</v>
@@ -2702,7 +2708,7 @@
     </row>
     <row r="95" spans="1:3">
       <c r="A95">
-        <v>14020</v>
+        <v>13010</v>
       </c>
       <c r="B95" t="s">
         <v>124</v>
@@ -2713,7 +2719,7 @@
     </row>
     <row r="96" spans="1:3">
       <c r="A96">
-        <v>14030</v>
+        <v>14010</v>
       </c>
       <c r="B96" t="s">
         <v>125</v>
@@ -2724,7 +2730,7 @@
     </row>
     <row r="97" spans="1:3">
       <c r="A97">
-        <v>14040</v>
+        <v>14020</v>
       </c>
       <c r="B97" t="s">
         <v>126</v>
@@ -2735,7 +2741,7 @@
     </row>
     <row r="98" spans="1:3">
       <c r="A98">
-        <v>14041</v>
+        <v>14030</v>
       </c>
       <c r="B98" t="s">
         <v>127</v>
@@ -2746,7 +2752,7 @@
     </row>
     <row r="99" spans="1:3">
       <c r="A99">
-        <v>14042</v>
+        <v>14040</v>
       </c>
       <c r="B99" t="s">
         <v>128</v>
@@ -2757,7 +2763,7 @@
     </row>
     <row r="100" spans="1:3">
       <c r="A100">
-        <v>14051</v>
+        <v>14041</v>
       </c>
       <c r="B100" t="s">
         <v>129</v>
@@ -2768,7 +2774,7 @@
     </row>
     <row r="101" spans="1:3">
       <c r="A101">
-        <v>15010</v>
+        <v>14042</v>
       </c>
       <c r="B101" t="s">
         <v>130</v>
@@ -2779,7 +2785,7 @@
     </row>
     <row r="102" spans="1:3">
       <c r="A102">
-        <v>15020</v>
+        <v>14051</v>
       </c>
       <c r="B102" t="s">
         <v>131</v>
@@ -2790,12 +2796,34 @@
     </row>
     <row r="103" spans="1:3">
       <c r="A103">
-        <v>15030</v>
+        <v>15010</v>
       </c>
       <c r="B103" t="s">
         <v>132</v>
       </c>
       <c r="C103" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104">
+        <v>15020</v>
+      </c>
+      <c r="B104" t="s">
+        <v>133</v>
+      </c>
+      <c r="C104" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105">
+        <v>15030</v>
+      </c>
+      <c r="B105" t="s">
+        <v>134</v>
+      </c>
+      <c r="C105" t="s">
         <v>35</v>
       </c>
     </row>

--- a/Assets/Resources/Data/System.xlsx
+++ b/Assets/Resources/Data/System.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="136">
   <si>
     <t>Id</t>
   </si>
@@ -293,6 +293,9 @@
   <si>
     <t>を使用しますか？
 ※使用しない場合は破棄されます</t>
+  </si>
+  <si>
+    <t>隷従属度</t>
   </si>
   <si>
     <t>組織開発を確定しますか？</t>
@@ -432,10 +435,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -453,21 +456,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -481,17 +478,67 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -507,66 +554,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
@@ -575,14 +562,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
@@ -595,6 +582,22 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -611,43 +614,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -659,97 +776,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -761,31 +788,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -814,13 +817,35 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
-      </top>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -836,6 +861,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -857,42 +891,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -904,145 +907,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1654,10 +1657,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G105"/>
+  <dimension ref="A1:G106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="B102" sqref="B102"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="6"/>
@@ -2321,9 +2324,9 @@
         <v>35</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" customFormat="1" spans="1:3">
       <c r="A60">
-        <v>2000</v>
+        <v>1090</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>91</v>
@@ -2332,9 +2335,9 @@
         <v>35</v>
       </c>
     </row>
-    <row r="61" ht="26" spans="1:3">
+    <row r="61" spans="1:3">
       <c r="A61">
-        <v>2010</v>
+        <v>2000</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>92</v>
@@ -2343,9 +2346,9 @@
         <v>35</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" ht="26" spans="1:3">
       <c r="A62">
-        <v>3000</v>
+        <v>2010</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>93</v>
@@ -2356,7 +2359,7 @@
     </row>
     <row r="63" spans="1:3">
       <c r="A63">
-        <v>3001</v>
+        <v>3000</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>94</v>
@@ -2367,7 +2370,7 @@
     </row>
     <row r="64" spans="1:3">
       <c r="A64">
-        <v>3002</v>
+        <v>3001</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>95</v>
@@ -2378,7 +2381,7 @@
     </row>
     <row r="65" spans="1:3">
       <c r="A65">
-        <v>3003</v>
+        <v>3002</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>96</v>
@@ -2389,7 +2392,7 @@
     </row>
     <row r="66" spans="1:3">
       <c r="A66">
-        <v>3004</v>
+        <v>3003</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>97</v>
@@ -2400,7 +2403,7 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67">
-        <v>3010</v>
+        <v>3004</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>98</v>
@@ -2411,7 +2414,7 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68">
-        <v>3011</v>
+        <v>3010</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>99</v>
@@ -2422,7 +2425,7 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69">
-        <v>3012</v>
+        <v>3011</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>100</v>
@@ -2433,7 +2436,7 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70">
-        <v>3013</v>
+        <v>3012</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>101</v>
@@ -2444,7 +2447,7 @@
     </row>
     <row r="71" spans="1:3">
       <c r="A71">
-        <v>3020</v>
+        <v>3013</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>102</v>
@@ -2455,7 +2458,7 @@
     </row>
     <row r="72" spans="1:3">
       <c r="A72">
-        <v>3021</v>
+        <v>3020</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>103</v>
@@ -2466,7 +2469,7 @@
     </row>
     <row r="73" spans="1:3">
       <c r="A73">
-        <v>3030</v>
+        <v>3021</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>104</v>
@@ -2477,7 +2480,7 @@
     </row>
     <row r="74" spans="1:3">
       <c r="A74">
-        <v>3031</v>
+        <v>3030</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>105</v>
@@ -2488,7 +2491,7 @@
     </row>
     <row r="75" spans="1:3">
       <c r="A75">
-        <v>3040</v>
+        <v>3031</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>106</v>
@@ -2499,7 +2502,7 @@
     </row>
     <row r="76" spans="1:3">
       <c r="A76">
-        <v>3050</v>
+        <v>3040</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>107</v>
@@ -2510,7 +2513,7 @@
     </row>
     <row r="77" spans="1:3">
       <c r="A77">
-        <v>3051</v>
+        <v>3050</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>108</v>
@@ -2521,7 +2524,7 @@
     </row>
     <row r="78" spans="1:3">
       <c r="A78">
-        <v>3052</v>
+        <v>3051</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>109</v>
@@ -2532,7 +2535,7 @@
     </row>
     <row r="79" spans="1:3">
       <c r="A79">
-        <v>3060</v>
+        <v>3052</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>110</v>
@@ -2543,7 +2546,7 @@
     </row>
     <row r="80" spans="1:3">
       <c r="A80">
-        <v>4000</v>
+        <v>3060</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>111</v>
@@ -2554,7 +2557,7 @@
     </row>
     <row r="81" spans="1:3">
       <c r="A81">
-        <v>4010</v>
+        <v>4000</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>112</v>
@@ -2565,7 +2568,7 @@
     </row>
     <row r="82" spans="1:3">
       <c r="A82">
-        <v>4011</v>
+        <v>4010</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>113</v>
@@ -2576,7 +2579,7 @@
     </row>
     <row r="83" spans="1:3">
       <c r="A83">
-        <v>5000</v>
+        <v>4011</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>114</v>
@@ -2587,10 +2590,10 @@
     </row>
     <row r="84" spans="1:3">
       <c r="A84">
-        <v>5001</v>
+        <v>5000</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>35</v>
+        <v>115</v>
       </c>
       <c r="C84" t="s">
         <v>35</v>
@@ -2598,10 +2601,10 @@
     </row>
     <row r="85" spans="1:3">
       <c r="A85">
-        <v>5002</v>
+        <v>5001</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>115</v>
+        <v>35</v>
       </c>
       <c r="C85" t="s">
         <v>35</v>
@@ -2609,9 +2612,9 @@
     </row>
     <row r="86" spans="1:3">
       <c r="A86">
-        <v>11010</v>
-      </c>
-      <c r="B86" t="s">
+        <v>5002</v>
+      </c>
+      <c r="B86" s="2" t="s">
         <v>116</v>
       </c>
       <c r="C86" t="s">
@@ -2620,10 +2623,10 @@
     </row>
     <row r="87" spans="1:3">
       <c r="A87">
-        <v>11020</v>
+        <v>11010</v>
       </c>
       <c r="B87" t="s">
-        <v>78</v>
+        <v>117</v>
       </c>
       <c r="C87" t="s">
         <v>35</v>
@@ -2631,10 +2634,10 @@
     </row>
     <row r="88" spans="1:3">
       <c r="A88">
-        <v>11030</v>
+        <v>11020</v>
       </c>
       <c r="B88" t="s">
-        <v>117</v>
+        <v>78</v>
       </c>
       <c r="C88" t="s">
         <v>35</v>
@@ -2642,7 +2645,7 @@
     </row>
     <row r="89" spans="1:3">
       <c r="A89">
-        <v>11040</v>
+        <v>11030</v>
       </c>
       <c r="B89" t="s">
         <v>118</v>
@@ -2653,7 +2656,7 @@
     </row>
     <row r="90" spans="1:3">
       <c r="A90">
-        <v>11050</v>
+        <v>11040</v>
       </c>
       <c r="B90" t="s">
         <v>119</v>
@@ -2664,7 +2667,7 @@
     </row>
     <row r="91" spans="1:3">
       <c r="A91">
-        <v>11060</v>
+        <v>11050</v>
       </c>
       <c r="B91" t="s">
         <v>120</v>
@@ -2675,7 +2678,7 @@
     </row>
     <row r="92" spans="1:3">
       <c r="A92">
-        <v>11070</v>
+        <v>11060</v>
       </c>
       <c r="B92" t="s">
         <v>121</v>
@@ -2686,7 +2689,7 @@
     </row>
     <row r="93" spans="1:3">
       <c r="A93">
-        <v>11080</v>
+        <v>11070</v>
       </c>
       <c r="B93" t="s">
         <v>122</v>
@@ -2697,7 +2700,7 @@
     </row>
     <row r="94" spans="1:3">
       <c r="A94">
-        <v>11090</v>
+        <v>11080</v>
       </c>
       <c r="B94" t="s">
         <v>123</v>
@@ -2708,7 +2711,7 @@
     </row>
     <row r="95" spans="1:3">
       <c r="A95">
-        <v>13010</v>
+        <v>11090</v>
       </c>
       <c r="B95" t="s">
         <v>124</v>
@@ -2719,7 +2722,7 @@
     </row>
     <row r="96" spans="1:3">
       <c r="A96">
-        <v>14010</v>
+        <v>13010</v>
       </c>
       <c r="B96" t="s">
         <v>125</v>
@@ -2730,7 +2733,7 @@
     </row>
     <row r="97" spans="1:3">
       <c r="A97">
-        <v>14020</v>
+        <v>14010</v>
       </c>
       <c r="B97" t="s">
         <v>126</v>
@@ -2741,7 +2744,7 @@
     </row>
     <row r="98" spans="1:3">
       <c r="A98">
-        <v>14030</v>
+        <v>14020</v>
       </c>
       <c r="B98" t="s">
         <v>127</v>
@@ -2752,7 +2755,7 @@
     </row>
     <row r="99" spans="1:3">
       <c r="A99">
-        <v>14040</v>
+        <v>14030</v>
       </c>
       <c r="B99" t="s">
         <v>128</v>
@@ -2763,7 +2766,7 @@
     </row>
     <row r="100" spans="1:3">
       <c r="A100">
-        <v>14041</v>
+        <v>14040</v>
       </c>
       <c r="B100" t="s">
         <v>129</v>
@@ -2774,7 +2777,7 @@
     </row>
     <row r="101" spans="1:3">
       <c r="A101">
-        <v>14042</v>
+        <v>14041</v>
       </c>
       <c r="B101" t="s">
         <v>130</v>
@@ -2785,7 +2788,7 @@
     </row>
     <row r="102" spans="1:3">
       <c r="A102">
-        <v>14051</v>
+        <v>14042</v>
       </c>
       <c r="B102" t="s">
         <v>131</v>
@@ -2796,7 +2799,7 @@
     </row>
     <row r="103" spans="1:3">
       <c r="A103">
-        <v>15010</v>
+        <v>14051</v>
       </c>
       <c r="B103" t="s">
         <v>132</v>
@@ -2807,7 +2810,7 @@
     </row>
     <row r="104" spans="1:3">
       <c r="A104">
-        <v>15020</v>
+        <v>15010</v>
       </c>
       <c r="B104" t="s">
         <v>133</v>
@@ -2818,12 +2821,23 @@
     </row>
     <row r="105" spans="1:3">
       <c r="A105">
-        <v>15030</v>
+        <v>15020</v>
       </c>
       <c r="B105" t="s">
         <v>134</v>
       </c>
       <c r="C105" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106">
+        <v>15030</v>
+      </c>
+      <c r="B106" t="s">
+        <v>135</v>
+      </c>
+      <c r="C106" t="s">
         <v>35</v>
       </c>
     </row>

--- a/Assets/Resources/Data/System.xlsx
+++ b/Assets/Resources/Data/System.xlsx
@@ -134,7 +134,7 @@
     <t>\d%の確率で同属性の魔法を入手</t>
   </si>
   <si>
-    <t>\d%の確率で全ステータス1上昇</t>
+    <t>\d%の確率で全ステータス1アップ</t>
   </si>
   <si>
     <t>獲得(Nu)が\dアップ</t>
@@ -328,7 +328,7 @@
     <t>存在修復ボーナス！</t>
   </si>
   <si>
-    <t>全ステータス1上昇！</t>
+    <t>\dの全ステータスが１アップ！</t>
   </si>
   <si>
     <t>\dにより</t>
@@ -340,7 +340,7 @@
     <t>\dの命令ランクがアップ！</t>
   </si>
   <si>
-    <t>Bonus!</t>
+    <t>Bonus！</t>
   </si>
   <si>
     <t>次へ</t>
@@ -435,10 +435,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -456,23 +456,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -480,20 +464,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -508,37 +478,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -554,7 +502,58 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -569,17 +568,10 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -593,6 +585,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
@@ -608,25 +608,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -638,157 +746,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -832,24 +832,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -868,8 +850,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -891,6 +873,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -907,145 +907,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1659,8 +1659,8 @@
   <sheetPr/>
   <dimension ref="A1:G106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="B61" sqref="B61"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="6"/>

--- a/Assets/Resources/Data/System.xlsx
+++ b/Assets/Resources/Data/System.xlsx
@@ -435,10 +435,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -455,8 +455,46 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -478,15 +516,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -501,15 +531,16 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -517,20 +548,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -552,40 +569,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -598,6 +584,20 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -608,31 +608,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -644,151 +776,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -799,6 +799,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -817,16 +826,34 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -847,44 +874,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -907,145 +907,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1660,7 +1660,7 @@
   <dimension ref="A1:G106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B4" sqref="B4:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="6"/>

--- a/Assets/Resources/Data/System.xlsx
+++ b/Assets/Resources/Data/System.xlsx
@@ -4,21 +4,22 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7140" firstSheet="1" activeTab="4"/>
+    <workbookView windowWidth="19200" windowHeight="7140" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="TacticsComand" sheetId="1" r:id="rId1"/>
     <sheet name="TitleCommand" sheetId="2" r:id="rId2"/>
     <sheet name="StatusCommand" sheetId="5" r:id="rId3"/>
-    <sheet name="GameDefine" sheetId="3" r:id="rId4"/>
-    <sheet name="TextData" sheetId="4" r:id="rId5"/>
+    <sheet name="OptionCommand" sheetId="6" r:id="rId4"/>
+    <sheet name="GameDefine" sheetId="3" r:id="rId5"/>
+    <sheet name="TextData" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="143">
   <si>
     <t>Id</t>
   </si>
@@ -62,6 +63,15 @@
     <t>SKILLLIST</t>
   </si>
   <si>
+    <t>SYSTEM</t>
+  </si>
+  <si>
+    <t>TACTICS</t>
+  </si>
+  <si>
+    <t>DATA</t>
+  </si>
+  <si>
     <t>ActorId</t>
   </si>
   <si>
@@ -264,6 +274,18 @@
   </si>
   <si>
     <t>救済執行を諦めて撤退しますか？</t>
+  </si>
+  <si>
+    <t>System</t>
+  </si>
+  <si>
+    <t>Tactics</t>
+  </si>
+  <si>
+    <t>Battle</t>
+  </si>
+  <si>
+    <t>Data</t>
   </si>
   <si>
     <t>(Nu)</t>
@@ -437,8 +459,8 @@
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -453,22 +475,6 @@
       <color theme="1"/>
       <name val="装甲明朝"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -487,14 +493,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -507,16 +506,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -531,16 +523,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -548,6 +532,27 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -571,22 +576,39 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -608,187 +630,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -802,11 +824,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -826,11 +854,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -838,8 +872,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -859,32 +893,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -907,16 +929,16 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -925,127 +947,127 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1580,7 +1602,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+      <selection activeCell="A2" sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelRow="1" outlineLevelCol="2"/>
@@ -1614,6 +1636,78 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelRow="4" outlineLevelCol="2"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5">
+        <v>504</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:B3"/>
@@ -1629,20 +1723,20 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B3" s="3">
         <v>5</v>
@@ -1654,13 +1748,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G106"/>
+  <dimension ref="A1:G110"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:B8"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="6"/>
@@ -1674,10 +1768,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" ht="15" spans="1:7">
@@ -1685,10 +1779,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G2" s="1"/>
     </row>
@@ -1697,10 +1791,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1708,10 +1802,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1719,10 +1813,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1730,10 +1824,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1741,10 +1835,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1752,10 +1846,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" ht="15" spans="1:7">
@@ -1763,10 +1857,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G9" s="1"/>
     </row>
@@ -1775,10 +1869,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G10" s="1"/>
     </row>
@@ -1787,10 +1881,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C11" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1798,10 +1892,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C12" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1809,10 +1903,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C13" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1820,10 +1914,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C14" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1831,10 +1925,10 @@
         <v>101</v>
       </c>
       <c r="B15" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C15" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1842,10 +1936,10 @@
         <v>102</v>
       </c>
       <c r="B16" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C16" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1853,10 +1947,10 @@
         <v>103</v>
       </c>
       <c r="B17" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C17" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1864,10 +1958,10 @@
         <v>201</v>
       </c>
       <c r="B18" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C18" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1875,10 +1969,10 @@
         <v>202</v>
       </c>
       <c r="B19" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C19" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" customFormat="1" spans="1:3">
@@ -1886,10 +1980,10 @@
         <v>300</v>
       </c>
       <c r="B20" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C20" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1897,10 +1991,10 @@
         <v>301</v>
       </c>
       <c r="B21" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C21" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1908,10 +2002,10 @@
         <v>302</v>
       </c>
       <c r="B22" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C22" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1919,10 +2013,10 @@
         <v>303</v>
       </c>
       <c r="B23" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C23" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1930,10 +2024,10 @@
         <v>304</v>
       </c>
       <c r="B24" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C24" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1941,10 +2035,10 @@
         <v>310</v>
       </c>
       <c r="B25" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C25" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1952,10 +2046,10 @@
         <v>311</v>
       </c>
       <c r="B26" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C26" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1963,10 +2057,10 @@
         <v>312</v>
       </c>
       <c r="B27" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C27" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1974,10 +2068,10 @@
         <v>313</v>
       </c>
       <c r="B28" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C28" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1985,10 +2079,10 @@
         <v>314</v>
       </c>
       <c r="B29" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C29" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1996,10 +2090,10 @@
         <v>315</v>
       </c>
       <c r="B30" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C30" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -2007,10 +2101,10 @@
         <v>316</v>
       </c>
       <c r="B31" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C31" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -2018,10 +2112,10 @@
         <v>317</v>
       </c>
       <c r="B32" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C32" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -2029,10 +2123,10 @@
         <v>321</v>
       </c>
       <c r="B33" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C33" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -2040,10 +2134,10 @@
         <v>322</v>
       </c>
       <c r="B34" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C34" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -2051,10 +2145,10 @@
         <v>323</v>
       </c>
       <c r="B35" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C35" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -2062,10 +2156,10 @@
         <v>324</v>
       </c>
       <c r="B36" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C36" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -2073,10 +2167,10 @@
         <v>325</v>
       </c>
       <c r="B37" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C37" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -2084,10 +2178,10 @@
         <v>326</v>
       </c>
       <c r="B38" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C38" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -2095,10 +2189,10 @@
         <v>327</v>
       </c>
       <c r="B39" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C39" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -2106,10 +2200,10 @@
         <v>328</v>
       </c>
       <c r="B40" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C40" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -2117,10 +2211,10 @@
         <v>330</v>
       </c>
       <c r="B41" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C41" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -2128,10 +2222,10 @@
         <v>331</v>
       </c>
       <c r="B42" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C42" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -2139,10 +2233,10 @@
         <v>332</v>
       </c>
       <c r="B43" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C43" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -2150,10 +2244,10 @@
         <v>333</v>
       </c>
       <c r="B44" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C44" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -2161,10 +2255,10 @@
         <v>334</v>
       </c>
       <c r="B45" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C45" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -2172,13 +2266,13 @@
         <v>400</v>
       </c>
       <c r="B46" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C46" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D46" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -2186,10 +2280,10 @@
         <v>401</v>
       </c>
       <c r="B47" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C47" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -2197,10 +2291,10 @@
         <v>402</v>
       </c>
       <c r="B48" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C48" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -2208,10 +2302,10 @@
         <v>403</v>
       </c>
       <c r="B49" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C49" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -2219,626 +2313,670 @@
         <v>410</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C50" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51">
-        <v>1000</v>
-      </c>
-      <c r="B51" t="s">
-        <v>82</v>
+        <v>501</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="C51" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52">
-        <v>1010</v>
-      </c>
-      <c r="B52" t="s">
-        <v>83</v>
+        <v>502</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>86</v>
       </c>
       <c r="C52" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53">
+        <v>503</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C53" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54">
+        <v>504</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C54" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55">
+        <v>1000</v>
+      </c>
+      <c r="B55" t="s">
+        <v>89</v>
+      </c>
+      <c r="C55" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56">
+        <v>1010</v>
+      </c>
+      <c r="B56" t="s">
+        <v>90</v>
+      </c>
+      <c r="C56" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57">
         <v>1020</v>
       </c>
-      <c r="B53" t="s">
-        <v>84</v>
-      </c>
-      <c r="C53" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="54" ht="26" spans="1:3">
-      <c r="A54">
+      <c r="B57" t="s">
+        <v>91</v>
+      </c>
+      <c r="C57" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="58" ht="26" spans="1:3">
+      <c r="A58">
         <v>1030</v>
       </c>
-      <c r="B54" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C54" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="55" customFormat="1" spans="1:3">
-      <c r="A55">
+      <c r="B58" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C58" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="59" customFormat="1" spans="1:3">
+      <c r="A59">
         <v>1040</v>
       </c>
-      <c r="B55" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C55" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="56" customFormat="1" spans="1:3">
-      <c r="A56">
-        <v>1050</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C56" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="57" customFormat="1" spans="1:3">
-      <c r="A57">
-        <v>1060</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C57" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="58" customFormat="1" spans="1:3">
-      <c r="A58">
-        <v>1070</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C58" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="59" customFormat="1" ht="26" spans="1:3">
-      <c r="A59">
-        <v>1080</v>
-      </c>
       <c r="B59" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C59" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="60" customFormat="1" spans="1:3">
       <c r="A60">
+        <v>1050</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C60" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="61" customFormat="1" spans="1:3">
+      <c r="A61">
+        <v>1060</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C61" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="62" customFormat="1" spans="1:3">
+      <c r="A62">
+        <v>1070</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C62" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="63" customFormat="1" ht="26" spans="1:3">
+      <c r="A63">
+        <v>1080</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C63" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="64" customFormat="1" spans="1:3">
+      <c r="A64">
         <v>1090</v>
       </c>
-      <c r="B60" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C60" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
-      <c r="A61">
-        <v>2000</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C61" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="62" ht="26" spans="1:3">
-      <c r="A62">
-        <v>2010</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C62" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
-      <c r="A63">
-        <v>3000</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C63" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
-      <c r="A64">
-        <v>3001</v>
-      </c>
       <c r="B64" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C64" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65">
-        <v>3002</v>
+        <v>2000</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C65" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="66" ht="26" spans="1:3">
       <c r="A66">
-        <v>3003</v>
+        <v>2010</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C66" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67">
-        <v>3004</v>
+        <v>3000</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C67" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68">
-        <v>3010</v>
+        <v>3001</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C68" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69">
-        <v>3011</v>
+        <v>3002</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C69" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70">
-        <v>3012</v>
+        <v>3003</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C70" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71">
-        <v>3013</v>
+        <v>3004</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C71" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72">
-        <v>3020</v>
+        <v>3010</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C72" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73">
-        <v>3021</v>
+        <v>3011</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C73" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74">
-        <v>3030</v>
+        <v>3012</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C74" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75">
-        <v>3031</v>
+        <v>3013</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C75" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76">
-        <v>3040</v>
+        <v>3020</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C76" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77">
-        <v>3050</v>
+        <v>3021</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C77" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78">
-        <v>3051</v>
+        <v>3030</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C78" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79">
-        <v>3052</v>
+        <v>3031</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C79" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80">
-        <v>3060</v>
+        <v>3040</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C80" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81">
-        <v>4000</v>
+        <v>3050</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C81" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82">
-        <v>4010</v>
+        <v>3051</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C82" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83">
-        <v>4011</v>
+        <v>3052</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C83" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84">
-        <v>5000</v>
+        <v>3060</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C84" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85">
-        <v>5001</v>
+        <v>4000</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>35</v>
+        <v>119</v>
       </c>
       <c r="C85" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86">
-        <v>5002</v>
+        <v>4010</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C86" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87">
-        <v>11010</v>
-      </c>
-      <c r="B87" t="s">
-        <v>117</v>
+        <v>4011</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>121</v>
       </c>
       <c r="C87" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88">
-        <v>11020</v>
-      </c>
-      <c r="B88" t="s">
-        <v>78</v>
+        <v>5000</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>122</v>
       </c>
       <c r="C88" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89">
-        <v>11030</v>
-      </c>
-      <c r="B89" t="s">
-        <v>118</v>
+        <v>5001</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="C89" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90">
-        <v>11040</v>
-      </c>
-      <c r="B90" t="s">
-        <v>119</v>
+        <v>5002</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>123</v>
       </c>
       <c r="C90" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91">
-        <v>11050</v>
+        <v>11010</v>
       </c>
       <c r="B91" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C91" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92">
-        <v>11060</v>
+        <v>11020</v>
       </c>
       <c r="B92" t="s">
-        <v>121</v>
+        <v>81</v>
       </c>
       <c r="C92" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93">
-        <v>11070</v>
+        <v>11030</v>
       </c>
       <c r="B93" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C93" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94">
-        <v>11080</v>
+        <v>11040</v>
       </c>
       <c r="B94" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C94" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95">
-        <v>11090</v>
+        <v>11050</v>
       </c>
       <c r="B95" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C95" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96">
-        <v>13010</v>
+        <v>11060</v>
       </c>
       <c r="B96" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C96" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97">
-        <v>14010</v>
+        <v>11070</v>
       </c>
       <c r="B97" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C97" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98">
-        <v>14020</v>
+        <v>11080</v>
       </c>
       <c r="B98" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C98" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99">
-        <v>14030</v>
+        <v>11090</v>
       </c>
       <c r="B99" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C99" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100">
-        <v>14040</v>
+        <v>13010</v>
       </c>
       <c r="B100" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C100" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101">
-        <v>14041</v>
+        <v>14010</v>
       </c>
       <c r="B101" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C101" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102">
-        <v>14042</v>
+        <v>14020</v>
       </c>
       <c r="B102" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C102" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103">
-        <v>14051</v>
+        <v>14030</v>
       </c>
       <c r="B103" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C103" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104">
-        <v>15010</v>
+        <v>14040</v>
       </c>
       <c r="B104" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C104" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105">
-        <v>15020</v>
+        <v>14041</v>
       </c>
       <c r="B105" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C105" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106">
+        <v>14042</v>
+      </c>
+      <c r="B106" t="s">
+        <v>138</v>
+      </c>
+      <c r="C106" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107">
+        <v>14051</v>
+      </c>
+      <c r="B107" t="s">
+        <v>139</v>
+      </c>
+      <c r="C107" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108">
+        <v>15010</v>
+      </c>
+      <c r="B108" t="s">
+        <v>140</v>
+      </c>
+      <c r="C108" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109">
+        <v>15020</v>
+      </c>
+      <c r="B109" t="s">
+        <v>141</v>
+      </c>
+      <c r="C109" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110">
         <v>15030</v>
       </c>
-      <c r="B106" t="s">
-        <v>135</v>
-      </c>
-      <c r="C106" t="s">
-        <v>35</v>
+      <c r="B110" t="s">
+        <v>142</v>
+      </c>
+      <c r="C110" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/Data/System.xlsx
+++ b/Assets/Resources/Data/System.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7140" firstSheet="2" activeTab="3"/>
+    <workbookView windowWidth="19200" windowHeight="7140" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="TacticsComand" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="147">
   <si>
     <t>Id</t>
   </si>
@@ -419,6 +419,10 @@
     <t>ヒロインを選択してください</t>
   </si>
   <si>
+    <t>全体順位を取得しますか？
+！通信を使用します！</t>
+  </si>
+  <si>
     <t>終焉まで</t>
   </si>
   <si>
@@ -450,6 +454,15 @@
   </si>
   <si>
     <t>作戦失敗</t>
+  </si>
+  <si>
+    <t>結果を総戦力ランキングに登録しますか？</t>
+  </si>
+  <si>
+    <t>ゲーム終了</t>
+  </si>
+  <si>
+    <t>転生中…</t>
   </si>
 </sst>
 </file>
@@ -457,10 +470,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -477,6 +490,36 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -491,16 +534,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -509,6 +545,13 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -524,7 +567,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -538,37 +581,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -583,10 +596,26 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -598,24 +627,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -630,7 +643,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -642,7 +679,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -654,7 +703,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -666,7 +715,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -678,127 +811,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -810,7 +823,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -821,21 +834,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -854,6 +852,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -865,6 +872,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -895,8 +917,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -906,17 +930,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -929,154 +942,157 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1640,7 +1656,7 @@
   <sheetPr/>
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -1738,7 +1754,7 @@
       <c r="A3" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="4">
         <v>5</v>
       </c>
     </row>
@@ -1751,10 +1767,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G110"/>
+  <dimension ref="A1:G114"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B55" sqref="B55"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="C100" sqref="C100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="6"/>
@@ -2858,11 +2874,11 @@
         <v>38</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" ht="26" spans="1:3">
       <c r="A100">
-        <v>13010</v>
-      </c>
-      <c r="B100" t="s">
+        <v>11100</v>
+      </c>
+      <c r="B100" s="3" t="s">
         <v>132</v>
       </c>
       <c r="C100" t="s">
@@ -2871,7 +2887,7 @@
     </row>
     <row r="101" spans="1:3">
       <c r="A101">
-        <v>14010</v>
+        <v>13010</v>
       </c>
       <c r="B101" t="s">
         <v>133</v>
@@ -2882,7 +2898,7 @@
     </row>
     <row r="102" spans="1:3">
       <c r="A102">
-        <v>14020</v>
+        <v>14010</v>
       </c>
       <c r="B102" t="s">
         <v>134</v>
@@ -2893,7 +2909,7 @@
     </row>
     <row r="103" spans="1:3">
       <c r="A103">
-        <v>14030</v>
+        <v>14020</v>
       </c>
       <c r="B103" t="s">
         <v>135</v>
@@ -2904,7 +2920,7 @@
     </row>
     <row r="104" spans="1:3">
       <c r="A104">
-        <v>14040</v>
+        <v>14030</v>
       </c>
       <c r="B104" t="s">
         <v>136</v>
@@ -2915,7 +2931,7 @@
     </row>
     <row r="105" spans="1:3">
       <c r="A105">
-        <v>14041</v>
+        <v>14040</v>
       </c>
       <c r="B105" t="s">
         <v>137</v>
@@ -2926,7 +2942,7 @@
     </row>
     <row r="106" spans="1:3">
       <c r="A106">
-        <v>14042</v>
+        <v>14041</v>
       </c>
       <c r="B106" t="s">
         <v>138</v>
@@ -2937,7 +2953,7 @@
     </row>
     <row r="107" spans="1:3">
       <c r="A107">
-        <v>14051</v>
+        <v>14042</v>
       </c>
       <c r="B107" t="s">
         <v>139</v>
@@ -2948,7 +2964,7 @@
     </row>
     <row r="108" spans="1:3">
       <c r="A108">
-        <v>15010</v>
+        <v>14051</v>
       </c>
       <c r="B108" t="s">
         <v>140</v>
@@ -2959,7 +2975,7 @@
     </row>
     <row r="109" spans="1:3">
       <c r="A109">
-        <v>15020</v>
+        <v>15010</v>
       </c>
       <c r="B109" t="s">
         <v>141</v>
@@ -2970,12 +2986,56 @@
     </row>
     <row r="110" spans="1:3">
       <c r="A110">
-        <v>15030</v>
+        <v>15020</v>
       </c>
       <c r="B110" t="s">
         <v>142</v>
       </c>
       <c r="C110" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111">
+        <v>15030</v>
+      </c>
+      <c r="B111" t="s">
+        <v>143</v>
+      </c>
+      <c r="C111" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112">
+        <v>16010</v>
+      </c>
+      <c r="B112" t="s">
+        <v>144</v>
+      </c>
+      <c r="C112" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113">
+        <v>16020</v>
+      </c>
+      <c r="B113" t="s">
+        <v>145</v>
+      </c>
+      <c r="C113" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114">
+        <v>16030</v>
+      </c>
+      <c r="B114" t="s">
+        <v>146</v>
+      </c>
+      <c r="C114" t="s">
         <v>38</v>
       </c>
     </row>

--- a/Assets/Resources/Data/System.xlsx
+++ b/Assets/Resources/Data/System.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="152">
   <si>
     <t>Id</t>
   </si>
@@ -84,6 +84,21 @@
     <t>initCurrency</t>
   </si>
   <si>
+    <t>trainCount</t>
+  </si>
+  <si>
+    <t>alchemyCount</t>
+  </si>
+  <si>
+    <t>recoveryCount</t>
+  </si>
+  <si>
+    <t>battleCount</t>
+  </si>
+  <si>
+    <t>resourceCount</t>
+  </si>
+  <si>
     <t>Text</t>
   </si>
   <si>
@@ -132,7 +147,7 @@
     <t>命令を終了し作戦を開始します</t>
   </si>
   <si>
-    <t>4回実行毎にコマンドLvアップ</t>
+    <t>\d回実行毎にコマンドLvアップ</t>
   </si>
   <si>
     <t>""</t>
@@ -470,9 +485,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="21">
@@ -490,36 +505,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -534,9 +519,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -550,13 +557,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -565,9 +565,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -581,23 +580,38 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF7F7F7F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -612,14 +626,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -627,8 +633,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -643,6 +658,48 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -655,13 +712,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -673,13 +742,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -697,49 +766,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -751,67 +820,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -823,7 +832,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -834,6 +849,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -852,11 +882,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -876,21 +912,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -900,17 +921,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -925,15 +949,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -942,16 +957,16 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -960,139 +975,136 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1726,13 +1738,13 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelRow="2" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelRow="7" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
@@ -1754,8 +1766,48 @@
       <c r="A3" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="3">
         <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1769,8 +1821,8 @@
   <sheetPr/>
   <dimension ref="A1:G114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="C100" sqref="C100"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="6"/>
@@ -1784,10 +1836,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" ht="15" spans="1:7">
@@ -1795,10 +1847,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="G2" s="1"/>
     </row>
@@ -1807,10 +1859,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1818,10 +1870,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1829,10 +1881,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1840,10 +1892,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1851,10 +1903,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1862,10 +1914,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C8" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" ht="15" spans="1:7">
@@ -1873,10 +1925,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C9" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G9" s="1"/>
     </row>
@@ -1885,10 +1937,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C10" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G10" s="1"/>
     </row>
@@ -1897,10 +1949,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1908,10 +1960,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C12" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1919,10 +1971,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C13" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1930,10 +1982,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C14" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1941,10 +1993,10 @@
         <v>101</v>
       </c>
       <c r="B15" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C15" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1952,10 +2004,10 @@
         <v>102</v>
       </c>
       <c r="B16" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C16" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1963,10 +2015,10 @@
         <v>103</v>
       </c>
       <c r="B17" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C17" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1974,10 +2026,10 @@
         <v>201</v>
       </c>
       <c r="B18" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C18" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1985,10 +2037,10 @@
         <v>202</v>
       </c>
       <c r="B19" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C19" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" customFormat="1" spans="1:3">
@@ -1996,10 +2048,10 @@
         <v>300</v>
       </c>
       <c r="B20" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C20" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -2007,10 +2059,10 @@
         <v>301</v>
       </c>
       <c r="B21" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C21" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -2018,10 +2070,10 @@
         <v>302</v>
       </c>
       <c r="B22" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C22" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -2029,10 +2081,10 @@
         <v>303</v>
       </c>
       <c r="B23" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C23" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -2040,10 +2092,10 @@
         <v>304</v>
       </c>
       <c r="B24" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C24" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -2051,10 +2103,10 @@
         <v>310</v>
       </c>
       <c r="B25" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C25" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -2062,10 +2114,10 @@
         <v>311</v>
       </c>
       <c r="B26" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C26" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -2073,10 +2125,10 @@
         <v>312</v>
       </c>
       <c r="B27" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C27" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -2084,10 +2136,10 @@
         <v>313</v>
       </c>
       <c r="B28" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C28" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -2095,10 +2147,10 @@
         <v>314</v>
       </c>
       <c r="B29" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C29" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -2106,10 +2158,10 @@
         <v>315</v>
       </c>
       <c r="B30" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C30" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -2117,10 +2169,10 @@
         <v>316</v>
       </c>
       <c r="B31" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C31" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -2128,10 +2180,10 @@
         <v>317</v>
       </c>
       <c r="B32" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C32" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -2139,10 +2191,10 @@
         <v>321</v>
       </c>
       <c r="B33" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C33" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -2150,10 +2202,10 @@
         <v>322</v>
       </c>
       <c r="B34" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C34" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -2161,10 +2213,10 @@
         <v>323</v>
       </c>
       <c r="B35" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C35" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -2172,10 +2224,10 @@
         <v>324</v>
       </c>
       <c r="B36" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C36" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -2183,10 +2235,10 @@
         <v>325</v>
       </c>
       <c r="B37" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C37" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -2194,10 +2246,10 @@
         <v>326</v>
       </c>
       <c r="B38" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C38" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -2205,10 +2257,10 @@
         <v>327</v>
       </c>
       <c r="B39" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C39" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -2216,10 +2268,10 @@
         <v>328</v>
       </c>
       <c r="B40" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C40" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -2227,10 +2279,10 @@
         <v>330</v>
       </c>
       <c r="B41" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C41" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -2238,10 +2290,10 @@
         <v>331</v>
       </c>
       <c r="B42" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C42" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -2249,10 +2301,10 @@
         <v>332</v>
       </c>
       <c r="B43" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C43" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -2260,10 +2312,10 @@
         <v>333</v>
       </c>
       <c r="B44" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C44" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -2271,10 +2323,10 @@
         <v>334</v>
       </c>
       <c r="B45" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C45" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -2282,13 +2334,13 @@
         <v>400</v>
       </c>
       <c r="B46" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C46" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D46" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -2296,10 +2348,10 @@
         <v>401</v>
       </c>
       <c r="B47" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C47" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -2307,10 +2359,10 @@
         <v>402</v>
       </c>
       <c r="B48" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C48" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -2318,10 +2370,10 @@
         <v>403</v>
       </c>
       <c r="B49" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C49" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -2329,10 +2381,10 @@
         <v>410</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C50" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -2340,10 +2392,10 @@
         <v>501</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C51" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -2351,10 +2403,10 @@
         <v>502</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C52" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -2362,10 +2414,10 @@
         <v>503</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="C53" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -2373,10 +2425,10 @@
         <v>504</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="C54" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -2384,10 +2436,10 @@
         <v>1000</v>
       </c>
       <c r="B55" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C55" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -2395,10 +2447,10 @@
         <v>1010</v>
       </c>
       <c r="B56" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="C56" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -2406,10 +2458,10 @@
         <v>1020</v>
       </c>
       <c r="B57" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="C57" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="58" ht="26" spans="1:3">
@@ -2417,10 +2469,10 @@
         <v>1030</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="C58" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="59" customFormat="1" spans="1:3">
@@ -2428,10 +2480,10 @@
         <v>1040</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="C59" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="60" customFormat="1" spans="1:3">
@@ -2439,10 +2491,10 @@
         <v>1050</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C60" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="61" customFormat="1" spans="1:3">
@@ -2450,10 +2502,10 @@
         <v>1060</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="C61" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="62" customFormat="1" spans="1:3">
@@ -2461,10 +2513,10 @@
         <v>1070</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="C62" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="63" customFormat="1" ht="26" spans="1:3">
@@ -2472,10 +2524,10 @@
         <v>1080</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="C63" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="64" customFormat="1" spans="1:3">
@@ -2483,10 +2535,10 @@
         <v>1090</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="C64" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -2494,10 +2546,10 @@
         <v>2000</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="C65" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="66" ht="26" spans="1:3">
@@ -2505,10 +2557,10 @@
         <v>2010</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="C66" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -2516,10 +2568,10 @@
         <v>3000</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="C67" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -2527,10 +2579,10 @@
         <v>3001</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="C68" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -2538,10 +2590,10 @@
         <v>3002</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="C69" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -2549,10 +2601,10 @@
         <v>3003</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="C70" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -2560,10 +2612,10 @@
         <v>3004</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="C71" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -2571,10 +2623,10 @@
         <v>3010</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="C72" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -2582,10 +2634,10 @@
         <v>3011</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C73" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -2593,10 +2645,10 @@
         <v>3012</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="C74" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -2604,10 +2656,10 @@
         <v>3013</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="C75" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -2615,10 +2667,10 @@
         <v>3020</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="C76" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -2626,10 +2678,10 @@
         <v>3021</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="C77" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -2637,10 +2689,10 @@
         <v>3030</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="C78" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -2648,10 +2700,10 @@
         <v>3031</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="C79" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -2659,10 +2711,10 @@
         <v>3040</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="C80" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -2670,10 +2722,10 @@
         <v>3050</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="C81" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -2681,10 +2733,10 @@
         <v>3051</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="C82" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -2692,10 +2744,10 @@
         <v>3052</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="C83" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -2703,10 +2755,10 @@
         <v>3060</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="C84" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -2714,10 +2766,10 @@
         <v>4000</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="C85" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -2725,10 +2777,10 @@
         <v>4010</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="C86" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -2736,10 +2788,10 @@
         <v>4011</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="C87" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -2747,10 +2799,10 @@
         <v>5000</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="C88" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -2758,10 +2810,10 @@
         <v>5001</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C89" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -2769,10 +2821,10 @@
         <v>5002</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="C90" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -2780,10 +2832,10 @@
         <v>11010</v>
       </c>
       <c r="B91" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="C91" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -2791,10 +2843,10 @@
         <v>11020</v>
       </c>
       <c r="B92" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C92" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -2802,10 +2854,10 @@
         <v>11030</v>
       </c>
       <c r="B93" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="C93" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -2813,10 +2865,10 @@
         <v>11040</v>
       </c>
       <c r="B94" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="C94" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -2824,10 +2876,10 @@
         <v>11050</v>
       </c>
       <c r="B95" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="C95" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -2835,10 +2887,10 @@
         <v>11060</v>
       </c>
       <c r="B96" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="C96" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -2846,10 +2898,10 @@
         <v>11070</v>
       </c>
       <c r="B97" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="C97" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -2857,10 +2909,10 @@
         <v>11080</v>
       </c>
       <c r="B98" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="C98" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -2868,21 +2920,21 @@
         <v>11090</v>
       </c>
       <c r="B99" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C99" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="100" ht="26" spans="1:3">
       <c r="A100">
         <v>11100</v>
       </c>
-      <c r="B100" s="3" t="s">
-        <v>132</v>
+      <c r="B100" s="2" t="s">
+        <v>137</v>
       </c>
       <c r="C100" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -2890,10 +2942,10 @@
         <v>13010</v>
       </c>
       <c r="B101" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="C101" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -2901,10 +2953,10 @@
         <v>14010</v>
       </c>
       <c r="B102" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="C102" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -2912,10 +2964,10 @@
         <v>14020</v>
       </c>
       <c r="B103" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="C103" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -2923,10 +2975,10 @@
         <v>14030</v>
       </c>
       <c r="B104" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="C104" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -2934,10 +2986,10 @@
         <v>14040</v>
       </c>
       <c r="B105" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="C105" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -2945,10 +2997,10 @@
         <v>14041</v>
       </c>
       <c r="B106" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="C106" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -2956,10 +3008,10 @@
         <v>14042</v>
       </c>
       <c r="B107" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="C107" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -2967,10 +3019,10 @@
         <v>14051</v>
       </c>
       <c r="B108" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="C108" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -2978,10 +3030,10 @@
         <v>15010</v>
       </c>
       <c r="B109" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="C109" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -2989,10 +3041,10 @@
         <v>15020</v>
       </c>
       <c r="B110" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="C110" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -3000,10 +3052,10 @@
         <v>15030</v>
       </c>
       <c r="B111" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="C111" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -3011,10 +3063,10 @@
         <v>16010</v>
       </c>
       <c r="B112" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="C112" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -3022,10 +3074,10 @@
         <v>16020</v>
       </c>
       <c r="B113" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="C113" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -3033,10 +3085,10 @@
         <v>16030</v>
       </c>
       <c r="B114" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="C114" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/Data/System.xlsx
+++ b/Assets/Resources/Data/System.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="153">
   <si>
     <t>Id</t>
   </si>
@@ -460,6 +460,9 @@
   </si>
   <si>
     <t>確率で\d魔法を習得</t>
+  </si>
+  <si>
+    <t>魂の終焉に回帰</t>
   </si>
   <si>
     <t>行動選択中…</t>
@@ -486,8 +489,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="21">
@@ -506,52 +509,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -566,21 +531,77 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -594,24 +615,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -625,25 +645,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -658,7 +661,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -670,7 +793,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -682,37 +823,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -724,121 +841,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -849,6 +852,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -863,6 +890,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -882,6 +918,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -896,59 +952,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -957,7 +960,7 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -966,7 +969,7 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -975,127 +978,127 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1819,10 +1822,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G114"/>
+  <dimension ref="A1:G115"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A102" workbookViewId="0">
+      <selection activeCell="B110" sqref="B110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="6"/>
@@ -3027,7 +3030,7 @@
     </row>
     <row r="109" spans="1:3">
       <c r="A109">
-        <v>15010</v>
+        <v>14060</v>
       </c>
       <c r="B109" t="s">
         <v>146</v>
@@ -3038,7 +3041,7 @@
     </row>
     <row r="110" spans="1:3">
       <c r="A110">
-        <v>15020</v>
+        <v>15010</v>
       </c>
       <c r="B110" t="s">
         <v>147</v>
@@ -3049,7 +3052,7 @@
     </row>
     <row r="111" spans="1:3">
       <c r="A111">
-        <v>15030</v>
+        <v>15020</v>
       </c>
       <c r="B111" t="s">
         <v>148</v>
@@ -3060,7 +3063,7 @@
     </row>
     <row r="112" spans="1:3">
       <c r="A112">
-        <v>16010</v>
+        <v>15030</v>
       </c>
       <c r="B112" t="s">
         <v>149</v>
@@ -3071,7 +3074,7 @@
     </row>
     <row r="113" spans="1:3">
       <c r="A113">
-        <v>16020</v>
+        <v>16010</v>
       </c>
       <c r="B113" t="s">
         <v>150</v>
@@ -3082,12 +3085,23 @@
     </row>
     <row r="114" spans="1:3">
       <c r="A114">
-        <v>16030</v>
+        <v>16020</v>
       </c>
       <c r="B114" t="s">
         <v>151</v>
       </c>
       <c r="C114" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115">
+        <v>16030</v>
+      </c>
+      <c r="B115" t="s">
+        <v>152</v>
+      </c>
+      <c r="C115" t="s">
         <v>43</v>
       </c>
     </row>

--- a/Assets/Resources/Data/System.xlsx
+++ b/Assets/Resources/Data/System.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="154">
   <si>
     <t>Id</t>
   </si>
@@ -365,7 +365,7 @@
     <t>存在修復ボーナス！</t>
   </si>
   <si>
-    <t>\dの全ステータスが１アップ！</t>
+    <t>\dのステータスが1アップ！</t>
   </si>
   <si>
     <t>\dにより</t>
@@ -463,6 +463,9 @@
   </si>
   <si>
     <t>魂の終焉に回帰</t>
+  </si>
+  <si>
+    <t>全ステータスが\dアップ</t>
   </si>
   <si>
     <t>行動選択中…</t>
@@ -488,9 +491,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="21">
@@ -509,7 +512,44 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -517,6 +557,21 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -531,22 +586,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
@@ -561,10 +608,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -584,67 +648,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -661,7 +664,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -673,85 +820,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -763,85 +844,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -852,54 +855,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -920,10 +875,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -932,8 +885,47 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -952,6 +944,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -960,16 +963,16 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -978,127 +981,127 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1822,9 +1825,9 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G115"/>
+  <dimension ref="A1:G116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A102" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
       <selection activeCell="B110" sqref="B110"/>
     </sheetView>
   </sheetViews>
@@ -3041,7 +3044,7 @@
     </row>
     <row r="110" spans="1:3">
       <c r="A110">
-        <v>15010</v>
+        <v>14070</v>
       </c>
       <c r="B110" t="s">
         <v>147</v>
@@ -3052,7 +3055,7 @@
     </row>
     <row r="111" spans="1:3">
       <c r="A111">
-        <v>15020</v>
+        <v>15010</v>
       </c>
       <c r="B111" t="s">
         <v>148</v>
@@ -3063,7 +3066,7 @@
     </row>
     <row r="112" spans="1:3">
       <c r="A112">
-        <v>15030</v>
+        <v>15020</v>
       </c>
       <c r="B112" t="s">
         <v>149</v>
@@ -3074,7 +3077,7 @@
     </row>
     <row r="113" spans="1:3">
       <c r="A113">
-        <v>16010</v>
+        <v>15030</v>
       </c>
       <c r="B113" t="s">
         <v>150</v>
@@ -3085,7 +3088,7 @@
     </row>
     <row r="114" spans="1:3">
       <c r="A114">
-        <v>16020</v>
+        <v>16010</v>
       </c>
       <c r="B114" t="s">
         <v>151</v>
@@ -3096,12 +3099,23 @@
     </row>
     <row r="115" spans="1:3">
       <c r="A115">
-        <v>16030</v>
+        <v>16020</v>
       </c>
       <c r="B115" t="s">
         <v>152</v>
       </c>
       <c r="C115" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116">
+        <v>16030</v>
+      </c>
+      <c r="B116" t="s">
+        <v>153</v>
+      </c>
+      <c r="C116" t="s">
         <v>43</v>
       </c>
     </row>

--- a/Assets/Resources/Data/System.xlsx
+++ b/Assets/Resources/Data/System.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7140" firstSheet="2" activeTab="5"/>
+    <workbookView windowWidth="19200" windowHeight="7070" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="TacticsComand" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="155">
   <si>
     <t>Id</t>
   </si>
@@ -466,6 +466,9 @@
   </si>
   <si>
     <t>全ステータスが\dアップ</t>
+  </si>
+  <si>
+    <t>ステータス強化</t>
   </si>
   <si>
     <t>行動選択中…</t>
@@ -492,9 +495,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -511,10 +514,19 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -525,15 +537,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
@@ -549,6 +562,30 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
@@ -556,7 +593,51 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -571,85 +652,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -664,13 +667,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -682,85 +829,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -772,79 +847,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -855,6 +858,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -877,16 +889,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -924,8 +927,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -963,7 +966,7 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -972,7 +975,7 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -981,127 +984,127 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1825,10 +1828,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G116"/>
+  <dimension ref="A1:G117"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="B110" sqref="B110"/>
+      <selection activeCell="B112" sqref="B112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="6"/>
@@ -1848,7 +1851,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" ht="15" spans="1:7">
+    <row r="2" ht="14" spans="1:7">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1926,7 +1929,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" ht="15" spans="1:7">
+    <row r="9" ht="14" spans="1:7">
       <c r="A9">
         <v>10</v>
       </c>
@@ -1938,7 +1941,7 @@
       </c>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" ht="15" spans="1:7">
+    <row r="10" ht="14" spans="1:7">
       <c r="A10">
         <v>11</v>
       </c>
@@ -3055,7 +3058,7 @@
     </row>
     <row r="111" spans="1:3">
       <c r="A111">
-        <v>15010</v>
+        <v>14071</v>
       </c>
       <c r="B111" t="s">
         <v>148</v>
@@ -3066,7 +3069,7 @@
     </row>
     <row r="112" spans="1:3">
       <c r="A112">
-        <v>15020</v>
+        <v>15010</v>
       </c>
       <c r="B112" t="s">
         <v>149</v>
@@ -3077,7 +3080,7 @@
     </row>
     <row r="113" spans="1:3">
       <c r="A113">
-        <v>15030</v>
+        <v>15020</v>
       </c>
       <c r="B113" t="s">
         <v>150</v>
@@ -3088,7 +3091,7 @@
     </row>
     <row r="114" spans="1:3">
       <c r="A114">
-        <v>16010</v>
+        <v>15030</v>
       </c>
       <c r="B114" t="s">
         <v>151</v>
@@ -3099,7 +3102,7 @@
     </row>
     <row r="115" spans="1:3">
       <c r="A115">
-        <v>16020</v>
+        <v>16010</v>
       </c>
       <c r="B115" t="s">
         <v>152</v>
@@ -3110,12 +3113,23 @@
     </row>
     <row r="116" spans="1:3">
       <c r="A116">
-        <v>16030</v>
+        <v>16020</v>
       </c>
       <c r="B116" t="s">
         <v>153</v>
       </c>
       <c r="C116" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117">
+        <v>16030</v>
+      </c>
+      <c r="B117" t="s">
+        <v>154</v>
+      </c>
+      <c r="C117" t="s">
         <v>43</v>
       </c>
     </row>

--- a/Assets/Resources/Data/System.xlsx
+++ b/Assets/Resources/Data/System.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="158">
   <si>
     <t>Id</t>
   </si>
@@ -279,13 +279,19 @@
     <t>State用</t>
   </si>
   <si>
-    <t>ターン</t>
+    <t>残り\dターン</t>
   </si>
   <si>
     <t>Conditions</t>
   </si>
   <si>
     <t>永続</t>
+  </si>
+  <si>
+    <t>残り\d回</t>
+  </si>
+  <si>
+    <t>残り\dフレーム</t>
   </si>
   <si>
     <t>救済執行を諦めて撤退しますか？</t>
@@ -411,6 +417,9 @@
   </si>
   <si>
     <t>終焉まで :</t>
+  </si>
+  <si>
+    <t>ターン</t>
   </si>
   <si>
     <t>総クリア数 :</t>
@@ -495,9 +504,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -514,19 +523,10 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -537,24 +537,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -568,39 +567,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -621,7 +589,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -635,16 +619,41 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -673,7 +682,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -685,7 +754,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -697,31 +802,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -733,91 +844,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -829,25 +856,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -864,8 +873,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -881,6 +890,45 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -909,45 +957,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -966,145 +975,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1828,10 +1837,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G117"/>
+  <dimension ref="A1:G119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="B112" sqref="B112"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="6"/>
@@ -2387,9 +2396,9 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50">
-        <v>410</v>
-      </c>
-      <c r="B50" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="B50" t="s">
         <v>89</v>
       </c>
       <c r="C50" t="s">
@@ -2398,9 +2407,9 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51">
-        <v>501</v>
-      </c>
-      <c r="B51" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="B51" t="s">
         <v>90</v>
       </c>
       <c r="C51" t="s">
@@ -2409,7 +2418,7 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52">
-        <v>502</v>
+        <v>410</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>91</v>
@@ -2420,7 +2429,7 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>92</v>
@@ -2431,7 +2440,7 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>93</v>
@@ -2442,9 +2451,9 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55">
-        <v>1000</v>
-      </c>
-      <c r="B55" t="s">
+        <v>503</v>
+      </c>
+      <c r="B55" s="2" t="s">
         <v>94</v>
       </c>
       <c r="C55" t="s">
@@ -2453,9 +2462,9 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56">
-        <v>1010</v>
-      </c>
-      <c r="B56" t="s">
+        <v>504</v>
+      </c>
+      <c r="B56" s="2" t="s">
         <v>95</v>
       </c>
       <c r="C56" t="s">
@@ -2464,7 +2473,7 @@
     </row>
     <row r="57" spans="1:3">
       <c r="A57">
-        <v>1020</v>
+        <v>1000</v>
       </c>
       <c r="B57" t="s">
         <v>96</v>
@@ -2473,31 +2482,31 @@
         <v>43</v>
       </c>
     </row>
-    <row r="58" ht="26" spans="1:3">
+    <row r="58" spans="1:3">
       <c r="A58">
+        <v>1010</v>
+      </c>
+      <c r="B58" t="s">
+        <v>97</v>
+      </c>
+      <c r="C58" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59">
+        <v>1020</v>
+      </c>
+      <c r="B59" t="s">
+        <v>98</v>
+      </c>
+      <c r="C59" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="60" ht="26" spans="1:3">
+      <c r="A60">
         <v>1030</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C58" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="59" customFormat="1" spans="1:3">
-      <c r="A59">
-        <v>1040</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C59" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="60" customFormat="1" spans="1:3">
-      <c r="A60">
-        <v>1050</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>99</v>
@@ -2508,7 +2517,7 @@
     </row>
     <row r="61" customFormat="1" spans="1:3">
       <c r="A61">
-        <v>1060</v>
+        <v>1040</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>100</v>
@@ -2519,7 +2528,7 @@
     </row>
     <row r="62" customFormat="1" spans="1:3">
       <c r="A62">
-        <v>1070</v>
+        <v>1050</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>101</v>
@@ -2528,9 +2537,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="63" customFormat="1" ht="26" spans="1:3">
+    <row r="63" customFormat="1" spans="1:3">
       <c r="A63">
-        <v>1080</v>
+        <v>1060</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>102</v>
@@ -2541,7 +2550,7 @@
     </row>
     <row r="64" customFormat="1" spans="1:3">
       <c r="A64">
-        <v>1090</v>
+        <v>1070</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>103</v>
@@ -2550,9 +2559,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" customFormat="1" ht="26" spans="1:3">
       <c r="A65">
-        <v>2000</v>
+        <v>1080</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>104</v>
@@ -2561,9 +2570,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="66" ht="26" spans="1:3">
+    <row r="66" customFormat="1" spans="1:3">
       <c r="A66">
-        <v>2010</v>
+        <v>1090</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>105</v>
@@ -2574,7 +2583,7 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>106</v>
@@ -2583,9 +2592,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" ht="26" spans="1:3">
       <c r="A68">
-        <v>3001</v>
+        <v>2010</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>107</v>
@@ -2596,7 +2605,7 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69">
-        <v>3002</v>
+        <v>3000</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>108</v>
@@ -2607,7 +2616,7 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70">
-        <v>3003</v>
+        <v>3001</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>109</v>
@@ -2618,7 +2627,7 @@
     </row>
     <row r="71" spans="1:3">
       <c r="A71">
-        <v>3004</v>
+        <v>3002</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>110</v>
@@ -2629,7 +2638,7 @@
     </row>
     <row r="72" spans="1:3">
       <c r="A72">
-        <v>3010</v>
+        <v>3003</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>111</v>
@@ -2640,7 +2649,7 @@
     </row>
     <row r="73" spans="1:3">
       <c r="A73">
-        <v>3011</v>
+        <v>3004</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>112</v>
@@ -2651,7 +2660,7 @@
     </row>
     <row r="74" spans="1:3">
       <c r="A74">
-        <v>3012</v>
+        <v>3010</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>113</v>
@@ -2662,7 +2671,7 @@
     </row>
     <row r="75" spans="1:3">
       <c r="A75">
-        <v>3013</v>
+        <v>3011</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>114</v>
@@ -2673,7 +2682,7 @@
     </row>
     <row r="76" spans="1:3">
       <c r="A76">
-        <v>3020</v>
+        <v>3012</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>115</v>
@@ -2684,7 +2693,7 @@
     </row>
     <row r="77" spans="1:3">
       <c r="A77">
-        <v>3021</v>
+        <v>3013</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>116</v>
@@ -2695,7 +2704,7 @@
     </row>
     <row r="78" spans="1:3">
       <c r="A78">
-        <v>3030</v>
+        <v>3020</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>117</v>
@@ -2706,7 +2715,7 @@
     </row>
     <row r="79" spans="1:3">
       <c r="A79">
-        <v>3031</v>
+        <v>3021</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>118</v>
@@ -2717,7 +2726,7 @@
     </row>
     <row r="80" spans="1:3">
       <c r="A80">
-        <v>3040</v>
+        <v>3030</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>119</v>
@@ -2728,7 +2737,7 @@
     </row>
     <row r="81" spans="1:3">
       <c r="A81">
-        <v>3050</v>
+        <v>3031</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>120</v>
@@ -2739,7 +2748,7 @@
     </row>
     <row r="82" spans="1:3">
       <c r="A82">
-        <v>3051</v>
+        <v>3040</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>121</v>
@@ -2750,7 +2759,7 @@
     </row>
     <row r="83" spans="1:3">
       <c r="A83">
-        <v>3052</v>
+        <v>3050</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>122</v>
@@ -2761,7 +2770,7 @@
     </row>
     <row r="84" spans="1:3">
       <c r="A84">
-        <v>3060</v>
+        <v>3051</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>123</v>
@@ -2772,7 +2781,7 @@
     </row>
     <row r="85" spans="1:3">
       <c r="A85">
-        <v>4000</v>
+        <v>3052</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>124</v>
@@ -2783,7 +2792,7 @@
     </row>
     <row r="86" spans="1:3">
       <c r="A86">
-        <v>4010</v>
+        <v>3060</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>125</v>
@@ -2794,7 +2803,7 @@
     </row>
     <row r="87" spans="1:3">
       <c r="A87">
-        <v>4011</v>
+        <v>4000</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>126</v>
@@ -2805,7 +2814,7 @@
     </row>
     <row r="88" spans="1:3">
       <c r="A88">
-        <v>5000</v>
+        <v>4010</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>127</v>
@@ -2816,10 +2825,10 @@
     </row>
     <row r="89" spans="1:3">
       <c r="A89">
-        <v>5001</v>
+        <v>4011</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>43</v>
+        <v>128</v>
       </c>
       <c r="C89" t="s">
         <v>43</v>
@@ -2827,10 +2836,10 @@
     </row>
     <row r="90" spans="1:3">
       <c r="A90">
-        <v>5002</v>
+        <v>5000</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C90" t="s">
         <v>43</v>
@@ -2838,10 +2847,10 @@
     </row>
     <row r="91" spans="1:3">
       <c r="A91">
-        <v>11010</v>
-      </c>
-      <c r="B91" t="s">
-        <v>129</v>
+        <v>5001</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="C91" t="s">
         <v>43</v>
@@ -2849,10 +2858,10 @@
     </row>
     <row r="92" spans="1:3">
       <c r="A92">
-        <v>11020</v>
-      </c>
-      <c r="B92" t="s">
-        <v>86</v>
+        <v>5002</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>130</v>
       </c>
       <c r="C92" t="s">
         <v>43</v>
@@ -2860,10 +2869,10 @@
     </row>
     <row r="93" spans="1:3">
       <c r="A93">
-        <v>11030</v>
+        <v>11010</v>
       </c>
       <c r="B93" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C93" t="s">
         <v>43</v>
@@ -2871,10 +2880,10 @@
     </row>
     <row r="94" spans="1:3">
       <c r="A94">
-        <v>11040</v>
+        <v>11020</v>
       </c>
       <c r="B94" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C94" t="s">
         <v>43</v>
@@ -2882,10 +2891,10 @@
     </row>
     <row r="95" spans="1:3">
       <c r="A95">
-        <v>11050</v>
+        <v>11030</v>
       </c>
       <c r="B95" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C95" t="s">
         <v>43</v>
@@ -2893,10 +2902,10 @@
     </row>
     <row r="96" spans="1:3">
       <c r="A96">
-        <v>11060</v>
+        <v>11040</v>
       </c>
       <c r="B96" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C96" t="s">
         <v>43</v>
@@ -2904,10 +2913,10 @@
     </row>
     <row r="97" spans="1:3">
       <c r="A97">
-        <v>11070</v>
+        <v>11050</v>
       </c>
       <c r="B97" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C97" t="s">
         <v>43</v>
@@ -2915,10 +2924,10 @@
     </row>
     <row r="98" spans="1:3">
       <c r="A98">
-        <v>11080</v>
+        <v>11060</v>
       </c>
       <c r="B98" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C98" t="s">
         <v>43</v>
@@ -2926,21 +2935,21 @@
     </row>
     <row r="99" spans="1:3">
       <c r="A99">
-        <v>11090</v>
+        <v>11070</v>
       </c>
       <c r="B99" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C99" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="100" ht="26" spans="1:3">
+    <row r="100" spans="1:3">
       <c r="A100">
-        <v>11100</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>137</v>
+        <v>11080</v>
+      </c>
+      <c r="B100" t="s">
+        <v>138</v>
       </c>
       <c r="C100" t="s">
         <v>43</v>
@@ -2948,21 +2957,21 @@
     </row>
     <row r="101" spans="1:3">
       <c r="A101">
-        <v>13010</v>
+        <v>11090</v>
       </c>
       <c r="B101" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C101" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" ht="26" spans="1:3">
       <c r="A102">
-        <v>14010</v>
-      </c>
-      <c r="B102" t="s">
-        <v>139</v>
+        <v>11100</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>140</v>
       </c>
       <c r="C102" t="s">
         <v>43</v>
@@ -2970,10 +2979,10 @@
     </row>
     <row r="103" spans="1:3">
       <c r="A103">
-        <v>14020</v>
+        <v>13010</v>
       </c>
       <c r="B103" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C103" t="s">
         <v>43</v>
@@ -2981,10 +2990,10 @@
     </row>
     <row r="104" spans="1:3">
       <c r="A104">
-        <v>14030</v>
+        <v>14010</v>
       </c>
       <c r="B104" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C104" t="s">
         <v>43</v>
@@ -2992,10 +3001,10 @@
     </row>
     <row r="105" spans="1:3">
       <c r="A105">
-        <v>14040</v>
+        <v>14020</v>
       </c>
       <c r="B105" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C105" t="s">
         <v>43</v>
@@ -3003,10 +3012,10 @@
     </row>
     <row r="106" spans="1:3">
       <c r="A106">
-        <v>14041</v>
+        <v>14030</v>
       </c>
       <c r="B106" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C106" t="s">
         <v>43</v>
@@ -3014,10 +3023,10 @@
     </row>
     <row r="107" spans="1:3">
       <c r="A107">
-        <v>14042</v>
+        <v>14040</v>
       </c>
       <c r="B107" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C107" t="s">
         <v>43</v>
@@ -3025,10 +3034,10 @@
     </row>
     <row r="108" spans="1:3">
       <c r="A108">
-        <v>14051</v>
+        <v>14041</v>
       </c>
       <c r="B108" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C108" t="s">
         <v>43</v>
@@ -3036,10 +3045,10 @@
     </row>
     <row r="109" spans="1:3">
       <c r="A109">
-        <v>14060</v>
+        <v>14042</v>
       </c>
       <c r="B109" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C109" t="s">
         <v>43</v>
@@ -3047,10 +3056,10 @@
     </row>
     <row r="110" spans="1:3">
       <c r="A110">
-        <v>14070</v>
+        <v>14051</v>
       </c>
       <c r="B110" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C110" t="s">
         <v>43</v>
@@ -3058,10 +3067,10 @@
     </row>
     <row r="111" spans="1:3">
       <c r="A111">
-        <v>14071</v>
+        <v>14060</v>
       </c>
       <c r="B111" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C111" t="s">
         <v>43</v>
@@ -3069,10 +3078,10 @@
     </row>
     <row r="112" spans="1:3">
       <c r="A112">
-        <v>15010</v>
+        <v>14070</v>
       </c>
       <c r="B112" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C112" t="s">
         <v>43</v>
@@ -3080,10 +3089,10 @@
     </row>
     <row r="113" spans="1:3">
       <c r="A113">
-        <v>15020</v>
+        <v>14071</v>
       </c>
       <c r="B113" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C113" t="s">
         <v>43</v>
@@ -3091,10 +3100,10 @@
     </row>
     <row r="114" spans="1:3">
       <c r="A114">
-        <v>15030</v>
+        <v>15010</v>
       </c>
       <c r="B114" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C114" t="s">
         <v>43</v>
@@ -3102,10 +3111,10 @@
     </row>
     <row r="115" spans="1:3">
       <c r="A115">
-        <v>16010</v>
+        <v>15020</v>
       </c>
       <c r="B115" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C115" t="s">
         <v>43</v>
@@ -3113,10 +3122,10 @@
     </row>
     <row r="116" spans="1:3">
       <c r="A116">
-        <v>16020</v>
+        <v>15030</v>
       </c>
       <c r="B116" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C116" t="s">
         <v>43</v>
@@ -3124,12 +3133,34 @@
     </row>
     <row r="117" spans="1:3">
       <c r="A117">
+        <v>16010</v>
+      </c>
+      <c r="B117" t="s">
+        <v>155</v>
+      </c>
+      <c r="C117" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118">
+        <v>16020</v>
+      </c>
+      <c r="B118" t="s">
+        <v>156</v>
+      </c>
+      <c r="C118" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119">
         <v>16030</v>
       </c>
-      <c r="B117" t="s">
-        <v>154</v>
-      </c>
-      <c r="C117" t="s">
+      <c r="B119" t="s">
+        <v>157</v>
+      </c>
+      <c r="C119" t="s">
         <v>43</v>
       </c>
     </row>

--- a/Assets/Resources/Data/System.xlsx
+++ b/Assets/Resources/Data/System.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="161">
   <si>
     <t>Id</t>
   </si>
@@ -166,6 +166,12 @@
   </si>
   <si>
     <t>\d%の確率で入手(Nu)2倍</t>
+  </si>
+  <si>
+    <t>裁定真理</t>
+  </si>
+  <si>
+    <t>隔世離脱</t>
   </si>
   <si>
     <t>NewGame</t>
@@ -339,6 +345,10 @@
   </si>
   <si>
     <t>隷従属度</t>
+  </si>
+  <si>
+    <t>シナリオを諦めて終了しますか？
+！保存データは消去されます！</t>
   </si>
   <si>
     <t>組織開発を確定しますか？</t>
@@ -503,10 +513,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -523,8 +533,23 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -545,7 +570,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -559,37 +584,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -606,6 +610,14 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -637,22 +649,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
@@ -661,7 +657,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -676,13 +686,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -700,121 +848,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -826,37 +860,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -867,15 +877,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -894,6 +895,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -905,6 +915,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -933,15 +954,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -959,11 +971,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -975,145 +985,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1837,10 +1847,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G119"/>
+  <dimension ref="A1:G122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="6"/>
@@ -2006,86 +2016,88 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" ht="14" spans="1:7">
       <c r="A15">
-        <v>101</v>
+        <v>21</v>
       </c>
       <c r="B15" t="s">
         <v>49</v>
       </c>
       <c r="C15" t="s">
+        <v>43</v>
+      </c>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" ht="14" spans="1:7">
+      <c r="A16">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16">
-        <v>102</v>
-      </c>
-      <c r="B16" t="s">
-        <v>51</v>
-      </c>
       <c r="C16" t="s">
-        <v>52</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C17" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>201</v>
+        <v>102</v>
       </c>
       <c r="B18" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C18" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>202</v>
+        <v>103</v>
       </c>
       <c r="B19" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20">
+        <v>201</v>
+      </c>
+      <c r="B20" t="s">
         <v>57</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C20" t="s">
         <v>58</v>
-      </c>
-    </row>
-    <row r="20" customFormat="1" spans="1:3">
-      <c r="A20">
-        <v>300</v>
-      </c>
-      <c r="B20" t="s">
-        <v>59</v>
-      </c>
-      <c r="C20" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>301</v>
+        <v>202</v>
       </c>
       <c r="B21" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" t="s">
         <v>60</v>
       </c>
-      <c r="C21" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+    </row>
+    <row r="22" customFormat="1" spans="1:3">
       <c r="A22">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B22" t="s">
         <v>61</v>
@@ -2096,7 +2108,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B23" t="s">
         <v>62</v>
@@ -2107,7 +2119,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B24" t="s">
         <v>63</v>
@@ -2118,7 +2130,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="B25" t="s">
         <v>64</v>
@@ -2129,7 +2141,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="B26" t="s">
         <v>65</v>
@@ -2140,7 +2152,7 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B27" t="s">
         <v>66</v>
@@ -2151,7 +2163,7 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B28" t="s">
         <v>67</v>
@@ -2162,7 +2174,7 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B29" t="s">
         <v>68</v>
@@ -2173,7 +2185,7 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B30" t="s">
         <v>69</v>
@@ -2184,7 +2196,7 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B31" t="s">
         <v>70</v>
@@ -2195,7 +2207,7 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B32" t="s">
         <v>71</v>
@@ -2206,7 +2218,7 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="B33" t="s">
         <v>72</v>
@@ -2217,7 +2229,7 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="B34" t="s">
         <v>73</v>
@@ -2228,7 +2240,7 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B35" t="s">
         <v>74</v>
@@ -2239,7 +2251,7 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B36" t="s">
         <v>75</v>
@@ -2250,7 +2262,7 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B37" t="s">
         <v>76</v>
@@ -2261,7 +2273,7 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B38" t="s">
         <v>77</v>
@@ -2272,7 +2284,7 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B39" t="s">
         <v>78</v>
@@ -2283,7 +2295,7 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B40" t="s">
         <v>79</v>
@@ -2294,7 +2306,7 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B41" t="s">
         <v>80</v>
@@ -2305,7 +2317,7 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B42" t="s">
         <v>81</v>
@@ -2316,7 +2328,7 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B43" t="s">
         <v>82</v>
@@ -2327,7 +2339,7 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B44" t="s">
         <v>83</v>
@@ -2338,7 +2350,7 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B45" t="s">
         <v>84</v>
@@ -2347,23 +2359,20 @@
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:3">
       <c r="A46">
-        <v>400</v>
+        <v>333</v>
       </c>
       <c r="B46" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="C46" t="s">
         <v>43</v>
-      </c>
-      <c r="D46" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47">
-        <v>401</v>
+        <v>334</v>
       </c>
       <c r="B47" t="s">
         <v>86</v>
@@ -2372,20 +2381,23 @@
         <v>43</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:4">
       <c r="A48">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B48" t="s">
+        <v>69</v>
+      </c>
+      <c r="C48" t="s">
+        <v>43</v>
+      </c>
+      <c r="D48" t="s">
         <v>87</v>
-      </c>
-      <c r="C48" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B49" t="s">
         <v>88</v>
@@ -2396,7 +2408,7 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B50" t="s">
         <v>89</v>
@@ -2407,7 +2419,7 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B51" t="s">
         <v>90</v>
@@ -2418,9 +2430,9 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52">
-        <v>410</v>
-      </c>
-      <c r="B52" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="B52" t="s">
         <v>91</v>
       </c>
       <c r="C52" t="s">
@@ -2429,9 +2441,9 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53">
-        <v>501</v>
-      </c>
-      <c r="B53" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="B53" t="s">
         <v>92</v>
       </c>
       <c r="C53" t="s">
@@ -2440,7 +2452,7 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54">
-        <v>502</v>
+        <v>410</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>93</v>
@@ -2451,7 +2463,7 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>94</v>
@@ -2462,7 +2474,7 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>95</v>
@@ -2473,9 +2485,9 @@
     </row>
     <row r="57" spans="1:3">
       <c r="A57">
-        <v>1000</v>
-      </c>
-      <c r="B57" t="s">
+        <v>503</v>
+      </c>
+      <c r="B57" s="2" t="s">
         <v>96</v>
       </c>
       <c r="C57" t="s">
@@ -2484,9 +2496,9 @@
     </row>
     <row r="58" spans="1:3">
       <c r="A58">
-        <v>1010</v>
-      </c>
-      <c r="B58" t="s">
+        <v>504</v>
+      </c>
+      <c r="B58" s="2" t="s">
         <v>97</v>
       </c>
       <c r="C58" t="s">
@@ -2495,7 +2507,7 @@
     </row>
     <row r="59" spans="1:3">
       <c r="A59">
-        <v>1020</v>
+        <v>1000</v>
       </c>
       <c r="B59" t="s">
         <v>98</v>
@@ -2504,31 +2516,31 @@
         <v>43</v>
       </c>
     </row>
-    <row r="60" ht="26" spans="1:3">
+    <row r="60" spans="1:3">
       <c r="A60">
+        <v>1010</v>
+      </c>
+      <c r="B60" t="s">
+        <v>99</v>
+      </c>
+      <c r="C60" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61">
+        <v>1020</v>
+      </c>
+      <c r="B61" t="s">
+        <v>100</v>
+      </c>
+      <c r="C61" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="62" ht="26" spans="1:3">
+      <c r="A62">
         <v>1030</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C60" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="61" customFormat="1" spans="1:3">
-      <c r="A61">
-        <v>1040</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C61" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="62" customFormat="1" spans="1:3">
-      <c r="A62">
-        <v>1050</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>101</v>
@@ -2539,7 +2551,7 @@
     </row>
     <row r="63" customFormat="1" spans="1:3">
       <c r="A63">
-        <v>1060</v>
+        <v>1040</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>102</v>
@@ -2550,7 +2562,7 @@
     </row>
     <row r="64" customFormat="1" spans="1:3">
       <c r="A64">
-        <v>1070</v>
+        <v>1050</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>103</v>
@@ -2559,9 +2571,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="65" customFormat="1" ht="26" spans="1:3">
+    <row r="65" customFormat="1" spans="1:3">
       <c r="A65">
-        <v>1080</v>
+        <v>1060</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>104</v>
@@ -2572,7 +2584,7 @@
     </row>
     <row r="66" customFormat="1" spans="1:3">
       <c r="A66">
-        <v>1090</v>
+        <v>1070</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>105</v>
@@ -2581,9 +2593,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" customFormat="1" ht="26" spans="1:3">
       <c r="A67">
-        <v>2000</v>
+        <v>1080</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>106</v>
@@ -2592,9 +2604,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="68" ht="26" spans="1:3">
+    <row r="68" customFormat="1" spans="1:3">
       <c r="A68">
-        <v>2010</v>
+        <v>1090</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>107</v>
@@ -2603,9 +2615,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" customFormat="1" ht="26" spans="1:3">
       <c r="A69">
-        <v>3000</v>
+        <v>1100</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>108</v>
@@ -2616,7 +2628,7 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70">
-        <v>3001</v>
+        <v>2000</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>109</v>
@@ -2625,9 +2637,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" ht="26" spans="1:3">
       <c r="A71">
-        <v>3002</v>
+        <v>2010</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>110</v>
@@ -2638,7 +2650,7 @@
     </row>
     <row r="72" spans="1:3">
       <c r="A72">
-        <v>3003</v>
+        <v>3000</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>111</v>
@@ -2649,7 +2661,7 @@
     </row>
     <row r="73" spans="1:3">
       <c r="A73">
-        <v>3004</v>
+        <v>3001</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>112</v>
@@ -2660,7 +2672,7 @@
     </row>
     <row r="74" spans="1:3">
       <c r="A74">
-        <v>3010</v>
+        <v>3002</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>113</v>
@@ -2671,7 +2683,7 @@
     </row>
     <row r="75" spans="1:3">
       <c r="A75">
-        <v>3011</v>
+        <v>3003</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>114</v>
@@ -2682,7 +2694,7 @@
     </row>
     <row r="76" spans="1:3">
       <c r="A76">
-        <v>3012</v>
+        <v>3004</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>115</v>
@@ -2693,7 +2705,7 @@
     </row>
     <row r="77" spans="1:3">
       <c r="A77">
-        <v>3013</v>
+        <v>3010</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>116</v>
@@ -2704,7 +2716,7 @@
     </row>
     <row r="78" spans="1:3">
       <c r="A78">
-        <v>3020</v>
+        <v>3011</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>117</v>
@@ -2715,7 +2727,7 @@
     </row>
     <row r="79" spans="1:3">
       <c r="A79">
-        <v>3021</v>
+        <v>3012</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>118</v>
@@ -2726,7 +2738,7 @@
     </row>
     <row r="80" spans="1:3">
       <c r="A80">
-        <v>3030</v>
+        <v>3013</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>119</v>
@@ -2737,7 +2749,7 @@
     </row>
     <row r="81" spans="1:3">
       <c r="A81">
-        <v>3031</v>
+        <v>3020</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>120</v>
@@ -2748,7 +2760,7 @@
     </row>
     <row r="82" spans="1:3">
       <c r="A82">
-        <v>3040</v>
+        <v>3021</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>121</v>
@@ -2759,7 +2771,7 @@
     </row>
     <row r="83" spans="1:3">
       <c r="A83">
-        <v>3050</v>
+        <v>3030</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>122</v>
@@ -2770,7 +2782,7 @@
     </row>
     <row r="84" spans="1:3">
       <c r="A84">
-        <v>3051</v>
+        <v>3031</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>123</v>
@@ -2781,7 +2793,7 @@
     </row>
     <row r="85" spans="1:3">
       <c r="A85">
-        <v>3052</v>
+        <v>3040</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>124</v>
@@ -2792,7 +2804,7 @@
     </row>
     <row r="86" spans="1:3">
       <c r="A86">
-        <v>3060</v>
+        <v>3050</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>125</v>
@@ -2803,7 +2815,7 @@
     </row>
     <row r="87" spans="1:3">
       <c r="A87">
-        <v>4000</v>
+        <v>3051</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>126</v>
@@ -2814,7 +2826,7 @@
     </row>
     <row r="88" spans="1:3">
       <c r="A88">
-        <v>4010</v>
+        <v>3052</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>127</v>
@@ -2825,7 +2837,7 @@
     </row>
     <row r="89" spans="1:3">
       <c r="A89">
-        <v>4011</v>
+        <v>3060</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>128</v>
@@ -2836,7 +2848,7 @@
     </row>
     <row r="90" spans="1:3">
       <c r="A90">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>129</v>
@@ -2847,10 +2859,10 @@
     </row>
     <row r="91" spans="1:3">
       <c r="A91">
-        <v>5001</v>
+        <v>4010</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>43</v>
+        <v>130</v>
       </c>
       <c r="C91" t="s">
         <v>43</v>
@@ -2858,10 +2870,10 @@
     </row>
     <row r="92" spans="1:3">
       <c r="A92">
-        <v>5002</v>
+        <v>4011</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C92" t="s">
         <v>43</v>
@@ -2869,10 +2881,10 @@
     </row>
     <row r="93" spans="1:3">
       <c r="A93">
-        <v>11010</v>
-      </c>
-      <c r="B93" t="s">
-        <v>131</v>
+        <v>5000</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>132</v>
       </c>
       <c r="C93" t="s">
         <v>43</v>
@@ -2880,10 +2892,10 @@
     </row>
     <row r="94" spans="1:3">
       <c r="A94">
-        <v>11020</v>
-      </c>
-      <c r="B94" t="s">
-        <v>132</v>
+        <v>5001</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="C94" t="s">
         <v>43</v>
@@ -2891,9 +2903,9 @@
     </row>
     <row r="95" spans="1:3">
       <c r="A95">
-        <v>11030</v>
-      </c>
-      <c r="B95" t="s">
+        <v>5002</v>
+      </c>
+      <c r="B95" s="2" t="s">
         <v>133</v>
       </c>
       <c r="C95" t="s">
@@ -2902,7 +2914,7 @@
     </row>
     <row r="96" spans="1:3">
       <c r="A96">
-        <v>11040</v>
+        <v>11010</v>
       </c>
       <c r="B96" t="s">
         <v>134</v>
@@ -2913,7 +2925,7 @@
     </row>
     <row r="97" spans="1:3">
       <c r="A97">
-        <v>11050</v>
+        <v>11020</v>
       </c>
       <c r="B97" t="s">
         <v>135</v>
@@ -2924,7 +2936,7 @@
     </row>
     <row r="98" spans="1:3">
       <c r="A98">
-        <v>11060</v>
+        <v>11030</v>
       </c>
       <c r="B98" t="s">
         <v>136</v>
@@ -2935,7 +2947,7 @@
     </row>
     <row r="99" spans="1:3">
       <c r="A99">
-        <v>11070</v>
+        <v>11040</v>
       </c>
       <c r="B99" t="s">
         <v>137</v>
@@ -2946,7 +2958,7 @@
     </row>
     <row r="100" spans="1:3">
       <c r="A100">
-        <v>11080</v>
+        <v>11050</v>
       </c>
       <c r="B100" t="s">
         <v>138</v>
@@ -2957,7 +2969,7 @@
     </row>
     <row r="101" spans="1:3">
       <c r="A101">
-        <v>11090</v>
+        <v>11060</v>
       </c>
       <c r="B101" t="s">
         <v>139</v>
@@ -2966,11 +2978,11 @@
         <v>43</v>
       </c>
     </row>
-    <row r="102" ht="26" spans="1:3">
+    <row r="102" spans="1:3">
       <c r="A102">
-        <v>11100</v>
-      </c>
-      <c r="B102" s="2" t="s">
+        <v>11070</v>
+      </c>
+      <c r="B102" t="s">
         <v>140</v>
       </c>
       <c r="C102" t="s">
@@ -2979,7 +2991,7 @@
     </row>
     <row r="103" spans="1:3">
       <c r="A103">
-        <v>13010</v>
+        <v>11080</v>
       </c>
       <c r="B103" t="s">
         <v>141</v>
@@ -2990,7 +3002,7 @@
     </row>
     <row r="104" spans="1:3">
       <c r="A104">
-        <v>14010</v>
+        <v>11090</v>
       </c>
       <c r="B104" t="s">
         <v>142</v>
@@ -2999,11 +3011,11 @@
         <v>43</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" ht="26" spans="1:3">
       <c r="A105">
-        <v>14020</v>
-      </c>
-      <c r="B105" t="s">
+        <v>11100</v>
+      </c>
+      <c r="B105" s="2" t="s">
         <v>143</v>
       </c>
       <c r="C105" t="s">
@@ -3012,7 +3024,7 @@
     </row>
     <row r="106" spans="1:3">
       <c r="A106">
-        <v>14030</v>
+        <v>13010</v>
       </c>
       <c r="B106" t="s">
         <v>144</v>
@@ -3023,7 +3035,7 @@
     </row>
     <row r="107" spans="1:3">
       <c r="A107">
-        <v>14040</v>
+        <v>14010</v>
       </c>
       <c r="B107" t="s">
         <v>145</v>
@@ -3034,7 +3046,7 @@
     </row>
     <row r="108" spans="1:3">
       <c r="A108">
-        <v>14041</v>
+        <v>14020</v>
       </c>
       <c r="B108" t="s">
         <v>146</v>
@@ -3045,7 +3057,7 @@
     </row>
     <row r="109" spans="1:3">
       <c r="A109">
-        <v>14042</v>
+        <v>14030</v>
       </c>
       <c r="B109" t="s">
         <v>147</v>
@@ -3056,7 +3068,7 @@
     </row>
     <row r="110" spans="1:3">
       <c r="A110">
-        <v>14051</v>
+        <v>14040</v>
       </c>
       <c r="B110" t="s">
         <v>148</v>
@@ -3067,7 +3079,7 @@
     </row>
     <row r="111" spans="1:3">
       <c r="A111">
-        <v>14060</v>
+        <v>14041</v>
       </c>
       <c r="B111" t="s">
         <v>149</v>
@@ -3078,7 +3090,7 @@
     </row>
     <row r="112" spans="1:3">
       <c r="A112">
-        <v>14070</v>
+        <v>14042</v>
       </c>
       <c r="B112" t="s">
         <v>150</v>
@@ -3089,7 +3101,7 @@
     </row>
     <row r="113" spans="1:3">
       <c r="A113">
-        <v>14071</v>
+        <v>14051</v>
       </c>
       <c r="B113" t="s">
         <v>151</v>
@@ -3100,7 +3112,7 @@
     </row>
     <row r="114" spans="1:3">
       <c r="A114">
-        <v>15010</v>
+        <v>14060</v>
       </c>
       <c r="B114" t="s">
         <v>152</v>
@@ -3111,7 +3123,7 @@
     </row>
     <row r="115" spans="1:3">
       <c r="A115">
-        <v>15020</v>
+        <v>14070</v>
       </c>
       <c r="B115" t="s">
         <v>153</v>
@@ -3122,7 +3134,7 @@
     </row>
     <row r="116" spans="1:3">
       <c r="A116">
-        <v>15030</v>
+        <v>14071</v>
       </c>
       <c r="B116" t="s">
         <v>154</v>
@@ -3133,7 +3145,7 @@
     </row>
     <row r="117" spans="1:3">
       <c r="A117">
-        <v>16010</v>
+        <v>15010</v>
       </c>
       <c r="B117" t="s">
         <v>155</v>
@@ -3144,7 +3156,7 @@
     </row>
     <row r="118" spans="1:3">
       <c r="A118">
-        <v>16020</v>
+        <v>15020</v>
       </c>
       <c r="B118" t="s">
         <v>156</v>
@@ -3155,12 +3167,45 @@
     </row>
     <row r="119" spans="1:3">
       <c r="A119">
-        <v>16030</v>
+        <v>15030</v>
       </c>
       <c r="B119" t="s">
         <v>157</v>
       </c>
       <c r="C119" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120">
+        <v>16010</v>
+      </c>
+      <c r="B120" t="s">
+        <v>158</v>
+      </c>
+      <c r="C120" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121">
+        <v>16020</v>
+      </c>
+      <c r="B121" t="s">
+        <v>159</v>
+      </c>
+      <c r="C121" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122">
+        <v>16030</v>
+      </c>
+      <c r="B122" t="s">
+        <v>160</v>
+      </c>
+      <c r="C122" t="s">
         <v>43</v>
       </c>
     </row>

--- a/Assets/Resources/Data/System.xlsx
+++ b/Assets/Resources/Data/System.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7070" firstSheet="2" activeTab="5"/>
+    <workbookView windowWidth="19200" windowHeight="7070" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TacticsComand" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="160">
   <si>
     <t>Id</t>
   </si>
@@ -55,9 +55,6 @@
   </si>
   <si>
     <t>CONTINUE</t>
-  </si>
-  <si>
-    <t>OPTION</t>
   </si>
   <si>
     <t>SKILLLIST</t>
@@ -514,9 +511,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -533,6 +530,13 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -541,66 +545,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
@@ -615,6 +569,43 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -623,9 +614,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -640,10 +645,17 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -655,23 +667,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -686,7 +683,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -698,7 +719,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -710,73 +791,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -788,13 +809,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -812,7 +833,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -824,49 +863,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -877,6 +874,33 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -891,15 +915,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -945,15 +960,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -968,15 +974,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -985,16 +982,16 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1003,127 +1000,127 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1594,13 +1591,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelRow="3" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelRow="2" outlineLevelCol="2"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
@@ -1633,17 +1630,6 @@
       </c>
       <c r="C3">
         <v>102</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4">
-        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -1679,7 +1665,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C2">
         <v>202</v>
@@ -1718,7 +1704,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C2">
         <v>501</v>
@@ -1729,7 +1715,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3">
         <v>502</v>
@@ -1751,7 +1737,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5">
         <v>504</v>
@@ -1779,20 +1765,20 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
         <v>18</v>
-      </c>
-      <c r="B2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" s="3">
         <v>5</v>
@@ -1800,7 +1786,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4">
         <v>4</v>
@@ -1808,7 +1794,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -1816,7 +1802,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B6">
         <v>3</v>
@@ -1824,7 +1810,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B7">
         <v>4</v>
@@ -1832,7 +1818,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B8">
         <v>3</v>
@@ -1849,7 +1835,7 @@
   <sheetPr/>
   <dimension ref="A1:G122"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
@@ -1864,10 +1850,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" t="s">
         <v>26</v>
-      </c>
-      <c r="C1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="2" ht="14" spans="1:7">
@@ -1875,10 +1861,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" t="s">
         <v>28</v>
-      </c>
-      <c r="C2" t="s">
-        <v>29</v>
       </c>
       <c r="G2" s="1"/>
     </row>
@@ -1887,10 +1873,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" t="s">
         <v>30</v>
-      </c>
-      <c r="C3" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1898,10 +1884,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" t="s">
         <v>32</v>
-      </c>
-      <c r="C4" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1909,10 +1895,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" t="s">
         <v>34</v>
-      </c>
-      <c r="C5" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1920,10 +1906,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" t="s">
         <v>36</v>
-      </c>
-      <c r="C6" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1931,10 +1917,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" t="s">
         <v>38</v>
-      </c>
-      <c r="C7" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1942,10 +1928,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" t="s">
         <v>40</v>
-      </c>
-      <c r="C8" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="9" ht="14" spans="1:7">
@@ -1953,10 +1939,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G9" s="1"/>
     </row>
@@ -1965,10 +1951,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G10" s="1"/>
     </row>
@@ -1977,10 +1963,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1988,10 +1974,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1999,10 +1985,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -2010,10 +1996,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" ht="14" spans="1:7">
@@ -2021,10 +2007,10 @@
         <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G15" s="1"/>
     </row>
@@ -2033,10 +2019,10 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G16" s="1"/>
     </row>
@@ -2045,10 +2031,10 @@
         <v>101</v>
       </c>
       <c r="B17" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" t="s">
         <v>51</v>
-      </c>
-      <c r="C17" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -2056,10 +2042,10 @@
         <v>102</v>
       </c>
       <c r="B18" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" t="s">
         <v>53</v>
-      </c>
-      <c r="C18" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -2067,10 +2053,10 @@
         <v>103</v>
       </c>
       <c r="B19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" t="s">
         <v>55</v>
-      </c>
-      <c r="C19" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -2078,10 +2064,10 @@
         <v>201</v>
       </c>
       <c r="B20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" t="s">
         <v>57</v>
-      </c>
-      <c r="C20" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -2089,10 +2075,10 @@
         <v>202</v>
       </c>
       <c r="B21" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" t="s">
         <v>59</v>
-      </c>
-      <c r="C21" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="22" customFormat="1" spans="1:3">
@@ -2100,10 +2086,10 @@
         <v>300</v>
       </c>
       <c r="B22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -2111,10 +2097,10 @@
         <v>301</v>
       </c>
       <c r="B23" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -2122,10 +2108,10 @@
         <v>302</v>
       </c>
       <c r="B24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -2133,10 +2119,10 @@
         <v>303</v>
       </c>
       <c r="B25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -2144,10 +2130,10 @@
         <v>304</v>
       </c>
       <c r="B26" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C26" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -2155,10 +2141,10 @@
         <v>310</v>
       </c>
       <c r="B27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -2166,10 +2152,10 @@
         <v>311</v>
       </c>
       <c r="B28" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C28" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -2177,10 +2163,10 @@
         <v>312</v>
       </c>
       <c r="B29" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C29" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -2188,10 +2174,10 @@
         <v>313</v>
       </c>
       <c r="B30" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C30" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -2199,10 +2185,10 @@
         <v>314</v>
       </c>
       <c r="B31" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C31" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -2210,10 +2196,10 @@
         <v>315</v>
       </c>
       <c r="B32" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C32" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -2221,10 +2207,10 @@
         <v>316</v>
       </c>
       <c r="B33" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C33" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -2232,10 +2218,10 @@
         <v>317</v>
       </c>
       <c r="B34" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -2243,10 +2229,10 @@
         <v>321</v>
       </c>
       <c r="B35" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C35" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -2254,10 +2240,10 @@
         <v>322</v>
       </c>
       <c r="B36" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C36" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -2265,10 +2251,10 @@
         <v>323</v>
       </c>
       <c r="B37" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C37" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -2276,10 +2262,10 @@
         <v>324</v>
       </c>
       <c r="B38" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C38" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -2287,10 +2273,10 @@
         <v>325</v>
       </c>
       <c r="B39" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C39" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -2298,10 +2284,10 @@
         <v>326</v>
       </c>
       <c r="B40" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C40" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -2309,10 +2295,10 @@
         <v>327</v>
       </c>
       <c r="B41" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C41" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -2320,10 +2306,10 @@
         <v>328</v>
       </c>
       <c r="B42" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C42" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -2331,10 +2317,10 @@
         <v>330</v>
       </c>
       <c r="B43" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C43" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -2342,10 +2328,10 @@
         <v>331</v>
       </c>
       <c r="B44" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C44" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -2353,10 +2339,10 @@
         <v>332</v>
       </c>
       <c r="B45" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C45" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -2364,10 +2350,10 @@
         <v>333</v>
       </c>
       <c r="B46" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C46" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -2375,10 +2361,10 @@
         <v>334</v>
       </c>
       <c r="B47" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C47" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -2386,13 +2372,13 @@
         <v>400</v>
       </c>
       <c r="B48" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C48" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D48" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -2400,10 +2386,10 @@
         <v>401</v>
       </c>
       <c r="B49" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C49" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -2411,10 +2397,10 @@
         <v>402</v>
       </c>
       <c r="B50" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C50" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -2422,10 +2408,10 @@
         <v>403</v>
       </c>
       <c r="B51" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C51" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -2433,10 +2419,10 @@
         <v>404</v>
       </c>
       <c r="B52" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C52" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -2444,10 +2430,10 @@
         <v>405</v>
       </c>
       <c r="B53" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C53" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -2455,10 +2441,10 @@
         <v>410</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C54" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -2466,10 +2452,10 @@
         <v>501</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C55" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -2477,10 +2463,10 @@
         <v>502</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C56" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -2488,10 +2474,10 @@
         <v>503</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C57" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -2499,10 +2485,10 @@
         <v>504</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C58" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -2510,10 +2496,10 @@
         <v>1000</v>
       </c>
       <c r="B59" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C59" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -2521,10 +2507,10 @@
         <v>1010</v>
       </c>
       <c r="B60" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C60" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -2532,10 +2518,10 @@
         <v>1020</v>
       </c>
       <c r="B61" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C61" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="62" ht="26" spans="1:3">
@@ -2543,10 +2529,10 @@
         <v>1030</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C62" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="63" customFormat="1" spans="1:3">
@@ -2554,10 +2540,10 @@
         <v>1040</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C63" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="64" customFormat="1" spans="1:3">
@@ -2565,10 +2551,10 @@
         <v>1050</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C64" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="65" customFormat="1" spans="1:3">
@@ -2576,10 +2562,10 @@
         <v>1060</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C65" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="66" customFormat="1" spans="1:3">
@@ -2587,10 +2573,10 @@
         <v>1070</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C66" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="67" customFormat="1" ht="26" spans="1:3">
@@ -2598,10 +2584,10 @@
         <v>1080</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C67" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="68" customFormat="1" spans="1:3">
@@ -2609,10 +2595,10 @@
         <v>1090</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C68" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="69" customFormat="1" ht="26" spans="1:3">
@@ -2620,10 +2606,10 @@
         <v>1100</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C69" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -2631,10 +2617,10 @@
         <v>2000</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C70" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="71" ht="26" spans="1:3">
@@ -2642,10 +2628,10 @@
         <v>2010</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C71" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -2653,10 +2639,10 @@
         <v>3000</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C72" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -2664,10 +2650,10 @@
         <v>3001</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C73" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -2675,10 +2661,10 @@
         <v>3002</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C74" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -2686,10 +2672,10 @@
         <v>3003</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C75" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -2697,10 +2683,10 @@
         <v>3004</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C76" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -2708,10 +2694,10 @@
         <v>3010</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C77" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -2719,10 +2705,10 @@
         <v>3011</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C78" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -2730,10 +2716,10 @@
         <v>3012</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C79" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -2741,10 +2727,10 @@
         <v>3013</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C80" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -2752,10 +2738,10 @@
         <v>3020</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C81" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -2763,10 +2749,10 @@
         <v>3021</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C82" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -2774,10 +2760,10 @@
         <v>3030</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C83" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -2785,10 +2771,10 @@
         <v>3031</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C84" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -2796,10 +2782,10 @@
         <v>3040</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C85" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -2807,10 +2793,10 @@
         <v>3050</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C86" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -2818,10 +2804,10 @@
         <v>3051</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C87" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -2829,10 +2815,10 @@
         <v>3052</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C88" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -2840,10 +2826,10 @@
         <v>3060</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C89" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -2851,10 +2837,10 @@
         <v>4000</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C90" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -2862,10 +2848,10 @@
         <v>4010</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C91" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -2873,10 +2859,10 @@
         <v>4011</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C92" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -2884,10 +2870,10 @@
         <v>5000</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C93" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -2895,10 +2881,10 @@
         <v>5001</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C94" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -2906,10 +2892,10 @@
         <v>5002</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C95" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -2917,10 +2903,10 @@
         <v>11010</v>
       </c>
       <c r="B96" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C96" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -2928,10 +2914,10 @@
         <v>11020</v>
       </c>
       <c r="B97" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C97" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -2939,10 +2925,10 @@
         <v>11030</v>
       </c>
       <c r="B98" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C98" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -2950,10 +2936,10 @@
         <v>11040</v>
       </c>
       <c r="B99" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C99" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -2961,10 +2947,10 @@
         <v>11050</v>
       </c>
       <c r="B100" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C100" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -2972,10 +2958,10 @@
         <v>11060</v>
       </c>
       <c r="B101" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C101" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -2983,10 +2969,10 @@
         <v>11070</v>
       </c>
       <c r="B102" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C102" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -2994,10 +2980,10 @@
         <v>11080</v>
       </c>
       <c r="B103" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C103" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -3005,10 +2991,10 @@
         <v>11090</v>
       </c>
       <c r="B104" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C104" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="105" ht="26" spans="1:3">
@@ -3016,10 +3002,10 @@
         <v>11100</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C105" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -3027,10 +3013,10 @@
         <v>13010</v>
       </c>
       <c r="B106" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C106" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -3038,10 +3024,10 @@
         <v>14010</v>
       </c>
       <c r="B107" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C107" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -3049,10 +3035,10 @@
         <v>14020</v>
       </c>
       <c r="B108" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C108" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -3060,10 +3046,10 @@
         <v>14030</v>
       </c>
       <c r="B109" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C109" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -3071,10 +3057,10 @@
         <v>14040</v>
       </c>
       <c r="B110" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C110" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -3082,10 +3068,10 @@
         <v>14041</v>
       </c>
       <c r="B111" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C111" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -3093,10 +3079,10 @@
         <v>14042</v>
       </c>
       <c r="B112" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C112" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -3104,10 +3090,10 @@
         <v>14051</v>
       </c>
       <c r="B113" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C113" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -3115,10 +3101,10 @@
         <v>14060</v>
       </c>
       <c r="B114" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C114" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -3126,10 +3112,10 @@
         <v>14070</v>
       </c>
       <c r="B115" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C115" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -3137,10 +3123,10 @@
         <v>14071</v>
       </c>
       <c r="B116" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C116" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -3148,10 +3134,10 @@
         <v>15010</v>
       </c>
       <c r="B117" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C117" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -3159,10 +3145,10 @@
         <v>15020</v>
       </c>
       <c r="B118" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C118" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -3170,10 +3156,10 @@
         <v>15030</v>
       </c>
       <c r="B119" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C119" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -3181,10 +3167,10 @@
         <v>16010</v>
       </c>
       <c r="B120" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C120" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -3192,10 +3178,10 @@
         <v>16020</v>
       </c>
       <c r="B121" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C121" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -3203,10 +3189,10 @@
         <v>16030</v>
       </c>
       <c r="B122" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C122" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/Data/System.xlsx
+++ b/Assets/Resources/Data/System.xlsx
@@ -4,22 +4,23 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7070" activeTab="1"/>
+    <workbookView windowWidth="19200" windowHeight="7070" firstSheet="3" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="TacticsComand" sheetId="1" r:id="rId1"/>
     <sheet name="TitleCommand" sheetId="2" r:id="rId2"/>
     <sheet name="StatusCommand" sheetId="5" r:id="rId3"/>
     <sheet name="OptionCommand" sheetId="6" r:id="rId4"/>
-    <sheet name="GameDefine" sheetId="3" r:id="rId5"/>
-    <sheet name="TextData" sheetId="4" r:id="rId6"/>
+    <sheet name="InputGuide" sheetId="7" r:id="rId5"/>
+    <sheet name="GameDefine" sheetId="3" r:id="rId6"/>
+    <sheet name="TextData" sheetId="4" r:id="rId7"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="202">
   <si>
     <t>Id</t>
   </si>
@@ -60,13 +61,82 @@
     <t>SKILLLIST</t>
   </si>
   <si>
-    <t>SYSTEM</t>
+    <t>Toggle</t>
+  </si>
+  <si>
+    <t>ToggleText1</t>
+  </si>
+  <si>
+    <t>ToggleText2</t>
+  </si>
+  <si>
+    <t>BGM_VOLUME</t>
+  </si>
+  <si>
+    <t>SE_VOLUME</t>
+  </si>
+  <si>
+    <t>GRAPHIC_QUALITY</t>
+  </si>
+  <si>
+    <t>EVENT_SKIP</t>
+  </si>
+  <si>
+    <t>COMMAND_END_CHECK</t>
+  </si>
+  <si>
+    <t>BATTLE_WAIT</t>
+  </si>
+  <si>
+    <t>BATTLE_ANIMATION</t>
+  </si>
+  <si>
+    <t>KeyId</t>
+  </si>
+  <si>
+    <t>TextId</t>
+  </si>
+  <si>
+    <t>TITLE</t>
+  </si>
+  <si>
+    <t>決定</t>
+  </si>
+  <si>
+    <t>オプション</t>
+  </si>
+  <si>
+    <t>左</t>
+  </si>
+  <si>
+    <t>右</t>
+  </si>
+  <si>
+    <t>OPTION</t>
+  </si>
+  <si>
+    <t>キャンセル</t>
   </si>
   <si>
     <t>TACTICS</t>
   </si>
   <si>
-    <t>DATA</t>
+    <t>リタイア</t>
+  </si>
+  <si>
+    <t>NAMEENTRY</t>
+  </si>
+  <si>
+    <t>スタート</t>
+  </si>
+  <si>
+    <t>MAINMENU</t>
+  </si>
+  <si>
+    <t>上</t>
+  </si>
+  <si>
+    <t>下</t>
   </si>
   <si>
     <t>ActorId</t>
@@ -300,16 +370,76 @@
     <t>救済執行を諦めて撤退しますか？</t>
   </si>
   <si>
-    <t>System</t>
-  </si>
-  <si>
-    <t>Tactics</t>
-  </si>
-  <si>
-    <t>Battle</t>
-  </si>
-  <si>
-    <t>Data</t>
+    <t>BGM Volume</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - BGMの音量を変更します</t>
+  </si>
+  <si>
+    <t>SE Volume</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - SEの音量を変更します</t>
+  </si>
+  <si>
+    <t>Graphic Quality</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 画質のクオリティを変更します</t>
+  </si>
+  <si>
+    <t>Event Skip</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 選択肢を除きイベントをスキップするか変更します</t>
+  </si>
+  <si>
+    <t>Command Check</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 全てのアルケミストに命令を終えた時に命令終了コマンドを呼ぶか変更します</t>
+  </si>
+  <si>
+    <t>Battle Wait</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - バトルで行動順番待ち時間を表示するかスキップする変更します</t>
+  </si>
+  <si>
+    <t>Battle Animation</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - バトルアニメーション演出表示の有無を切り替えます</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>スキップしない</t>
+  </si>
+  <si>
+    <t>スキップする</t>
+  </si>
+  <si>
+    <t>呼び出す</t>
+  </si>
+  <si>
+    <t>呼ばない</t>
+  </si>
+  <si>
+    <t>表示する</t>
+  </si>
+  <si>
+    <t>カーソル移動</t>
+  </si>
+  <si>
+    <t>戻る</t>
+  </si>
+  <si>
+    <t>値変更</t>
   </si>
   <si>
     <t>(Nu)</t>
@@ -394,9 +524,6 @@
   </si>
   <si>
     <t>次へ</t>
-  </si>
-  <si>
-    <t>決定</t>
   </si>
   <si>
     <t>中止</t>
@@ -510,10 +637,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -537,47 +664,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -591,18 +686,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -621,6 +717,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -629,15 +755,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
@@ -652,23 +779,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -683,7 +810,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -695,13 +846,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -713,19 +858,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -737,97 +870,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -845,13 +900,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -863,7 +948,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -874,6 +1001,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -888,33 +1030,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -936,11 +1056,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -974,6 +1092,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -982,145 +1109,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1593,7 +1720,7 @@
   <sheetPr/>
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4:C4"/>
     </sheetView>
   </sheetViews>
@@ -1680,15 +1807,15 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelRow="4" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelRow="7" outlineLevelCol="5"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1698,49 +1825,154 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C2">
         <v>501</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C3">
         <v>502</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C4">
         <v>503</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>521</v>
+      </c>
+      <c r="F4">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C5">
         <v>504</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>526</v>
+      </c>
+      <c r="F5">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6">
+        <v>505</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>531</v>
+      </c>
+      <c r="F6">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7">
+        <v>506</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>536</v>
+      </c>
+      <c r="F7">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8">
+        <v>507</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>536</v>
+      </c>
+      <c r="F8">
+        <v>527</v>
       </c>
     </row>
   </sheetData>
@@ -1752,76 +1984,260 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelRow="7" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="3"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+        <v>23</v>
+      </c>
+      <c r="C1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>25</v>
+      </c>
+      <c r="B2">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>802</v>
+      </c>
+      <c r="D2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="3">
+        <v>25</v>
+      </c>
+      <c r="B3">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>803</v>
+      </c>
+      <c r="D3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>801</v>
+      </c>
+      <c r="D4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>800</v>
+      </c>
+      <c r="D5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5">
+      <c r="C6">
+        <v>804</v>
+      </c>
+      <c r="D6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+      <c r="C7">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B8">
         <v>3</v>
+      </c>
+      <c r="C8">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11">
+        <v>802</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12">
+        <v>6</v>
+      </c>
+      <c r="C12">
+        <v>803</v>
+      </c>
+      <c r="D12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13">
+        <v>8</v>
+      </c>
+      <c r="C13">
+        <v>806</v>
+      </c>
+      <c r="D13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14">
+        <v>801</v>
+      </c>
+      <c r="D14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15">
+        <v>800</v>
+      </c>
+      <c r="D15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16">
+        <v>12</v>
+      </c>
+      <c r="C16">
+        <v>802</v>
+      </c>
+      <c r="D16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>801</v>
+      </c>
+      <c r="D17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>800</v>
+      </c>
+      <c r="D18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19">
+        <v>4</v>
+      </c>
+      <c r="C19">
+        <v>802</v>
       </c>
     </row>
   </sheetData>
@@ -1833,10 +2249,91 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G122"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelRow="7" outlineLevelCol="1"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G139"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="B76" sqref="B76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="6"/>
@@ -1850,10 +2347,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="C1" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" ht="14" spans="1:7">
@@ -1861,10 +2358,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="G2" s="1"/>
     </row>
@@ -1873,10 +2370,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1884,10 +2381,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1895,10 +2392,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1906,10 +2403,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="C6" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1917,10 +2414,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="C7" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1928,10 +2425,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="C8" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" ht="14" spans="1:7">
@@ -1939,10 +2436,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="C9" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="G9" s="1"/>
     </row>
@@ -1951,10 +2448,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="C10" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="G10" s="1"/>
     </row>
@@ -1963,10 +2460,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="C11" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1974,10 +2471,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="C12" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1985,10 +2482,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="C13" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1996,10 +2493,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="C14" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" ht="14" spans="1:7">
@@ -2007,10 +2504,10 @@
         <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="C15" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="G15" s="1"/>
     </row>
@@ -2019,10 +2516,10 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="C16" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="G16" s="1"/>
     </row>
@@ -2031,10 +2528,10 @@
         <v>101</v>
       </c>
       <c r="B17" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="C17" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -2042,10 +2539,10 @@
         <v>102</v>
       </c>
       <c r="B18" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="C18" t="s">
-        <v>53</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -2053,10 +2550,10 @@
         <v>103</v>
       </c>
       <c r="B19" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="C19" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -2064,10 +2561,10 @@
         <v>201</v>
       </c>
       <c r="B20" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="C20" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -2075,10 +2572,10 @@
         <v>202</v>
       </c>
       <c r="B21" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="C21" t="s">
-        <v>59</v>
+        <v>82</v>
       </c>
     </row>
     <row r="22" customFormat="1" spans="1:3">
@@ -2086,10 +2583,10 @@
         <v>300</v>
       </c>
       <c r="B22" t="s">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="C22" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -2097,10 +2594,10 @@
         <v>301</v>
       </c>
       <c r="B23" t="s">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="C23" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -2108,10 +2605,10 @@
         <v>302</v>
       </c>
       <c r="B24" t="s">
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="C24" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -2119,10 +2616,10 @@
         <v>303</v>
       </c>
       <c r="B25" t="s">
-        <v>63</v>
+        <v>86</v>
       </c>
       <c r="C25" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -2130,10 +2627,10 @@
         <v>304</v>
       </c>
       <c r="B26" t="s">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="C26" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -2141,10 +2638,10 @@
         <v>310</v>
       </c>
       <c r="B27" t="s">
-        <v>65</v>
+        <v>88</v>
       </c>
       <c r="C27" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -2152,10 +2649,10 @@
         <v>311</v>
       </c>
       <c r="B28" t="s">
-        <v>66</v>
+        <v>89</v>
       </c>
       <c r="C28" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -2163,10 +2660,10 @@
         <v>312</v>
       </c>
       <c r="B29" t="s">
-        <v>67</v>
+        <v>90</v>
       </c>
       <c r="C29" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -2174,10 +2671,10 @@
         <v>313</v>
       </c>
       <c r="B30" t="s">
-        <v>68</v>
+        <v>91</v>
       </c>
       <c r="C30" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -2185,10 +2682,10 @@
         <v>314</v>
       </c>
       <c r="B31" t="s">
-        <v>69</v>
+        <v>92</v>
       </c>
       <c r="C31" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -2196,10 +2693,10 @@
         <v>315</v>
       </c>
       <c r="B32" t="s">
-        <v>70</v>
+        <v>93</v>
       </c>
       <c r="C32" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -2207,10 +2704,10 @@
         <v>316</v>
       </c>
       <c r="B33" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="C33" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -2218,10 +2715,10 @@
         <v>317</v>
       </c>
       <c r="B34" t="s">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="C34" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -2229,10 +2726,10 @@
         <v>321</v>
       </c>
       <c r="B35" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="C35" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -2240,10 +2737,10 @@
         <v>322</v>
       </c>
       <c r="B36" t="s">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="C36" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -2251,10 +2748,10 @@
         <v>323</v>
       </c>
       <c r="B37" t="s">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="C37" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -2262,10 +2759,10 @@
         <v>324</v>
       </c>
       <c r="B38" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="C38" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -2273,10 +2770,10 @@
         <v>325</v>
       </c>
       <c r="B39" t="s">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="C39" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -2284,10 +2781,10 @@
         <v>326</v>
       </c>
       <c r="B40" t="s">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="C40" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -2295,10 +2792,10 @@
         <v>327</v>
       </c>
       <c r="B41" t="s">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="C41" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -2306,10 +2803,10 @@
         <v>328</v>
       </c>
       <c r="B42" t="s">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="C42" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -2317,10 +2814,10 @@
         <v>330</v>
       </c>
       <c r="B43" t="s">
-        <v>81</v>
+        <v>104</v>
       </c>
       <c r="C43" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -2328,10 +2825,10 @@
         <v>331</v>
       </c>
       <c r="B44" t="s">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="C44" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -2339,10 +2836,10 @@
         <v>332</v>
       </c>
       <c r="B45" t="s">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="C45" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -2350,10 +2847,10 @@
         <v>333</v>
       </c>
       <c r="B46" t="s">
-        <v>84</v>
+        <v>107</v>
       </c>
       <c r="C46" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -2361,10 +2858,10 @@
         <v>334</v>
       </c>
       <c r="B47" t="s">
-        <v>85</v>
+        <v>108</v>
       </c>
       <c r="C47" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -2372,13 +2869,13 @@
         <v>400</v>
       </c>
       <c r="B48" t="s">
-        <v>68</v>
+        <v>91</v>
       </c>
       <c r="C48" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="D48" t="s">
-        <v>86</v>
+        <v>109</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -2386,10 +2883,10 @@
         <v>401</v>
       </c>
       <c r="B49" t="s">
-        <v>87</v>
+        <v>110</v>
       </c>
       <c r="C49" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -2397,10 +2894,10 @@
         <v>402</v>
       </c>
       <c r="B50" t="s">
-        <v>88</v>
+        <v>111</v>
       </c>
       <c r="C50" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -2408,10 +2905,10 @@
         <v>403</v>
       </c>
       <c r="B51" t="s">
-        <v>89</v>
+        <v>112</v>
       </c>
       <c r="C51" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -2419,10 +2916,10 @@
         <v>404</v>
       </c>
       <c r="B52" t="s">
-        <v>90</v>
+        <v>113</v>
       </c>
       <c r="C52" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -2430,10 +2927,10 @@
         <v>405</v>
       </c>
       <c r="B53" t="s">
-        <v>91</v>
+        <v>114</v>
       </c>
       <c r="C53" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -2441,10 +2938,10 @@
         <v>410</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>92</v>
+        <v>115</v>
       </c>
       <c r="C54" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -2452,10 +2949,10 @@
         <v>501</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>93</v>
+        <v>116</v>
       </c>
       <c r="C55" t="s">
-        <v>42</v>
+        <v>117</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -2463,10 +2960,10 @@
         <v>502</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="C56" t="s">
-        <v>42</v>
+        <v>119</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -2474,10 +2971,10 @@
         <v>503</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="C57" t="s">
-        <v>42</v>
+        <v>121</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -2485,714 +2982,901 @@
         <v>504</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>96</v>
+        <v>122</v>
       </c>
       <c r="C58" t="s">
-        <v>42</v>
+        <v>123</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59">
-        <v>1000</v>
-      </c>
-      <c r="B59" t="s">
-        <v>97</v>
+        <v>505</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>124</v>
       </c>
       <c r="C59" t="s">
-        <v>42</v>
+        <v>125</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60">
-        <v>1010</v>
-      </c>
-      <c r="B60" t="s">
-        <v>98</v>
+        <v>506</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>126</v>
       </c>
       <c r="C60" t="s">
-        <v>42</v>
+        <v>127</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61">
-        <v>1020</v>
-      </c>
-      <c r="B61" t="s">
-        <v>99</v>
+        <v>507</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>128</v>
       </c>
       <c r="C61" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="62" ht="26" spans="1:3">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
       <c r="A62">
-        <v>1030</v>
+        <v>521</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="C62" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="63" customFormat="1" spans="1:3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
       <c r="A63">
-        <v>1040</v>
+        <v>522</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>101</v>
+        <v>131</v>
       </c>
       <c r="C63" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="64" customFormat="1" spans="1:3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
       <c r="A64">
-        <v>1050</v>
+        <v>526</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>102</v>
+        <v>132</v>
       </c>
       <c r="C64" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="65" customFormat="1" spans="1:3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
       <c r="A65">
-        <v>1060</v>
+        <v>527</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>103</v>
+        <v>133</v>
       </c>
       <c r="C65" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="66" customFormat="1" spans="1:3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
       <c r="A66">
-        <v>1070</v>
+        <v>531</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>104</v>
+        <v>134</v>
       </c>
       <c r="C66" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="67" customFormat="1" ht="26" spans="1:3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
       <c r="A67">
-        <v>1080</v>
+        <v>532</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>105</v>
+        <v>135</v>
       </c>
       <c r="C67" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="68" customFormat="1" spans="1:3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
       <c r="A68">
-        <v>1090</v>
+        <v>536</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>106</v>
+        <v>136</v>
       </c>
       <c r="C68" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="69" customFormat="1" ht="26" spans="1:3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
       <c r="A69">
-        <v>1100</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>107</v>
+        <v>800</v>
+      </c>
+      <c r="B69" t="s">
+        <v>65</v>
       </c>
       <c r="C69" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70">
-        <v>2000</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>108</v>
+        <v>801</v>
+      </c>
+      <c r="B70" t="s">
+        <v>137</v>
       </c>
       <c r="C70" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="71" ht="26" spans="1:3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
       <c r="A71">
-        <v>2010</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>109</v>
+        <v>802</v>
+      </c>
+      <c r="B71" t="s">
+        <v>26</v>
       </c>
       <c r="C71" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72">
-        <v>3000</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>110</v>
+        <v>803</v>
+      </c>
+      <c r="B72" t="s">
+        <v>27</v>
       </c>
       <c r="C72" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73">
-        <v>3001</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>111</v>
+        <v>804</v>
+      </c>
+      <c r="B73" t="s">
+        <v>138</v>
       </c>
       <c r="C73" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74">
-        <v>3002</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>112</v>
+        <v>805</v>
+      </c>
+      <c r="B74" t="s">
+        <v>139</v>
       </c>
       <c r="C74" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75">
-        <v>3003</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>113</v>
+        <v>806</v>
+      </c>
+      <c r="B75" t="s">
+        <v>33</v>
       </c>
       <c r="C75" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76">
-        <v>3004</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>114</v>
+        <v>1000</v>
+      </c>
+      <c r="B76" t="s">
+        <v>140</v>
       </c>
       <c r="C76" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77">
-        <v>3010</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>115</v>
+        <v>1010</v>
+      </c>
+      <c r="B77" t="s">
+        <v>141</v>
       </c>
       <c r="C77" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78">
-        <v>3011</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>116</v>
+        <v>1020</v>
+      </c>
+      <c r="B78" t="s">
+        <v>142</v>
       </c>
       <c r="C78" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="79" ht="26" spans="1:3">
       <c r="A79">
-        <v>3012</v>
+        <v>1030</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>117</v>
+        <v>143</v>
       </c>
       <c r="C79" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="80" customFormat="1" spans="1:3">
       <c r="A80">
-        <v>3013</v>
+        <v>1040</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>118</v>
+        <v>144</v>
       </c>
       <c r="C80" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="81" customFormat="1" spans="1:3">
       <c r="A81">
-        <v>3020</v>
+        <v>1050</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>119</v>
+        <v>145</v>
       </c>
       <c r="C81" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="82" customFormat="1" spans="1:3">
       <c r="A82">
-        <v>3021</v>
+        <v>1060</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>120</v>
+        <v>146</v>
       </c>
       <c r="C82" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="83" customFormat="1" spans="1:3">
       <c r="A83">
-        <v>3030</v>
+        <v>1070</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>121</v>
+        <v>147</v>
       </c>
       <c r="C83" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="84" customFormat="1" ht="26" spans="1:3">
       <c r="A84">
-        <v>3031</v>
+        <v>1080</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>122</v>
+        <v>148</v>
       </c>
       <c r="C84" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="85" customFormat="1" spans="1:3">
       <c r="A85">
-        <v>3040</v>
+        <v>1090</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>123</v>
+        <v>149</v>
       </c>
       <c r="C85" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="86" customFormat="1" ht="26" spans="1:3">
       <c r="A86">
-        <v>3050</v>
+        <v>1100</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>124</v>
+        <v>150</v>
       </c>
       <c r="C86" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87">
-        <v>3051</v>
+        <v>2000</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>125</v>
+        <v>151</v>
       </c>
       <c r="C87" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="88" ht="26" spans="1:3">
       <c r="A88">
-        <v>3052</v>
+        <v>2010</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>126</v>
+        <v>152</v>
       </c>
       <c r="C88" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89">
-        <v>3060</v>
+        <v>3000</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>127</v>
+        <v>153</v>
       </c>
       <c r="C89" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90">
-        <v>4000</v>
+        <v>3001</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>128</v>
+        <v>154</v>
       </c>
       <c r="C90" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91">
-        <v>4010</v>
+        <v>3002</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>129</v>
+        <v>155</v>
       </c>
       <c r="C91" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92">
-        <v>4011</v>
+        <v>3003</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>130</v>
+        <v>156</v>
       </c>
       <c r="C92" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93">
-        <v>5000</v>
+        <v>3004</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>131</v>
+        <v>157</v>
       </c>
       <c r="C93" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94">
-        <v>5001</v>
+        <v>3010</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>42</v>
+        <v>158</v>
       </c>
       <c r="C94" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95">
-        <v>5002</v>
+        <v>3011</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>132</v>
+        <v>159</v>
       </c>
       <c r="C95" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96">
-        <v>11010</v>
-      </c>
-      <c r="B96" t="s">
-        <v>133</v>
+        <v>3012</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>160</v>
       </c>
       <c r="C96" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97">
-        <v>11020</v>
-      </c>
-      <c r="B97" t="s">
-        <v>134</v>
+        <v>3013</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>161</v>
       </c>
       <c r="C97" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98">
-        <v>11030</v>
-      </c>
-      <c r="B98" t="s">
-        <v>135</v>
+        <v>3020</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>162</v>
       </c>
       <c r="C98" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99">
-        <v>11040</v>
-      </c>
-      <c r="B99" t="s">
-        <v>136</v>
+        <v>3021</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>163</v>
       </c>
       <c r="C99" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100">
-        <v>11050</v>
-      </c>
-      <c r="B100" t="s">
-        <v>137</v>
+        <v>3030</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>164</v>
       </c>
       <c r="C100" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101">
-        <v>11060</v>
-      </c>
-      <c r="B101" t="s">
-        <v>138</v>
+        <v>3031</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>165</v>
       </c>
       <c r="C101" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102">
-        <v>11070</v>
-      </c>
-      <c r="B102" t="s">
-        <v>139</v>
+        <v>3040</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>166</v>
       </c>
       <c r="C102" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103">
-        <v>11080</v>
-      </c>
-      <c r="B103" t="s">
-        <v>140</v>
+        <v>3050</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="C103" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104">
-        <v>11090</v>
-      </c>
-      <c r="B104" t="s">
-        <v>141</v>
+        <v>3051</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>167</v>
       </c>
       <c r="C104" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="105" ht="26" spans="1:3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
       <c r="A105">
-        <v>11100</v>
+        <v>3052</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>142</v>
+        <v>168</v>
       </c>
       <c r="C105" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106">
-        <v>13010</v>
-      </c>
-      <c r="B106" t="s">
-        <v>143</v>
+        <v>3060</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>169</v>
       </c>
       <c r="C106" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107">
-        <v>14010</v>
-      </c>
-      <c r="B107" t="s">
-        <v>144</v>
+        <v>4000</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>170</v>
       </c>
       <c r="C107" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108">
-        <v>14020</v>
-      </c>
-      <c r="B108" t="s">
-        <v>145</v>
+        <v>4010</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>171</v>
       </c>
       <c r="C108" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109">
-        <v>14030</v>
-      </c>
-      <c r="B109" t="s">
-        <v>146</v>
+        <v>4011</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>172</v>
       </c>
       <c r="C109" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110">
-        <v>14040</v>
-      </c>
-      <c r="B110" t="s">
-        <v>147</v>
+        <v>5000</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>173</v>
       </c>
       <c r="C110" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111">
-        <v>14041</v>
-      </c>
-      <c r="B111" t="s">
-        <v>148</v>
+        <v>5001</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>65</v>
       </c>
       <c r="C111" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112">
-        <v>14042</v>
-      </c>
-      <c r="B112" t="s">
-        <v>149</v>
+        <v>5002</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>174</v>
       </c>
       <c r="C112" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113">
-        <v>14051</v>
+        <v>11010</v>
       </c>
       <c r="B113" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="C113" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114">
-        <v>14060</v>
+        <v>11020</v>
       </c>
       <c r="B114" t="s">
-        <v>151</v>
+        <v>176</v>
       </c>
       <c r="C114" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115">
-        <v>14070</v>
+        <v>11030</v>
       </c>
       <c r="B115" t="s">
-        <v>152</v>
+        <v>177</v>
       </c>
       <c r="C115" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116">
-        <v>14071</v>
+        <v>11040</v>
       </c>
       <c r="B116" t="s">
-        <v>153</v>
+        <v>178</v>
       </c>
       <c r="C116" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117">
-        <v>15010</v>
+        <v>11050</v>
       </c>
       <c r="B117" t="s">
-        <v>154</v>
+        <v>179</v>
       </c>
       <c r="C117" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118">
-        <v>15020</v>
+        <v>11060</v>
       </c>
       <c r="B118" t="s">
-        <v>155</v>
+        <v>180</v>
       </c>
       <c r="C118" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119">
-        <v>15030</v>
+        <v>11070</v>
       </c>
       <c r="B119" t="s">
-        <v>156</v>
+        <v>181</v>
       </c>
       <c r="C119" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120">
-        <v>16010</v>
+        <v>11080</v>
       </c>
       <c r="B120" t="s">
-        <v>157</v>
+        <v>182</v>
       </c>
       <c r="C120" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121">
+        <v>11090</v>
+      </c>
+      <c r="B121" t="s">
+        <v>183</v>
+      </c>
+      <c r="C121" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="122" ht="26" spans="1:3">
+      <c r="A122">
+        <v>11100</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C122" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123">
+        <v>13010</v>
+      </c>
+      <c r="B123" t="s">
+        <v>185</v>
+      </c>
+      <c r="C123" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124">
+        <v>14010</v>
+      </c>
+      <c r="B124" t="s">
+        <v>186</v>
+      </c>
+      <c r="C124" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125">
+        <v>14020</v>
+      </c>
+      <c r="B125" t="s">
+        <v>187</v>
+      </c>
+      <c r="C125" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126">
+        <v>14030</v>
+      </c>
+      <c r="B126" t="s">
+        <v>188</v>
+      </c>
+      <c r="C126" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127">
+        <v>14040</v>
+      </c>
+      <c r="B127" t="s">
+        <v>189</v>
+      </c>
+      <c r="C127" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128">
+        <v>14041</v>
+      </c>
+      <c r="B128" t="s">
+        <v>190</v>
+      </c>
+      <c r="C128" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129">
+        <v>14042</v>
+      </c>
+      <c r="B129" t="s">
+        <v>191</v>
+      </c>
+      <c r="C129" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130">
+        <v>14051</v>
+      </c>
+      <c r="B130" t="s">
+        <v>192</v>
+      </c>
+      <c r="C130" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131">
+        <v>14060</v>
+      </c>
+      <c r="B131" t="s">
+        <v>193</v>
+      </c>
+      <c r="C131" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132">
+        <v>14070</v>
+      </c>
+      <c r="B132" t="s">
+        <v>194</v>
+      </c>
+      <c r="C132" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133">
+        <v>14071</v>
+      </c>
+      <c r="B133" t="s">
+        <v>195</v>
+      </c>
+      <c r="C133" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134">
+        <v>15010</v>
+      </c>
+      <c r="B134" t="s">
+        <v>196</v>
+      </c>
+      <c r="C134" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135">
+        <v>15020</v>
+      </c>
+      <c r="B135" t="s">
+        <v>197</v>
+      </c>
+      <c r="C135" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136">
+        <v>15030</v>
+      </c>
+      <c r="B136" t="s">
+        <v>198</v>
+      </c>
+      <c r="C136" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137">
+        <v>16010</v>
+      </c>
+      <c r="B137" t="s">
+        <v>199</v>
+      </c>
+      <c r="C137" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138">
         <v>16020</v>
       </c>
-      <c r="B121" t="s">
-        <v>158</v>
-      </c>
-      <c r="C121" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3">
-      <c r="A122">
+      <c r="B138" t="s">
+        <v>200</v>
+      </c>
+      <c r="C138" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139">
         <v>16030</v>
       </c>
-      <c r="B122" t="s">
-        <v>159</v>
-      </c>
-      <c r="C122" t="s">
-        <v>42</v>
+      <c r="B139" t="s">
+        <v>201</v>
+      </c>
+      <c r="C139" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/Data/System.xlsx
+++ b/Assets/Resources/Data/System.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="206">
   <si>
     <t>Id</t>
   </si>
@@ -112,10 +112,16 @@
     <t>右</t>
   </si>
   <si>
+    <t>SIDEMENU</t>
+  </si>
+  <si>
+    <t>キャンセル</t>
+  </si>
+  <si>
     <t>OPTION</t>
   </si>
   <si>
-    <t>キャンセル</t>
+    <t>CREDIT</t>
   </si>
   <si>
     <t>TACTICS</t>
@@ -431,6 +437,12 @@
   </si>
   <si>
     <t>表示する</t>
+  </si>
+  <si>
+    <t>版権表示</t>
+  </si>
+  <si>
+    <t>オプションやその他の項目を確認します</t>
   </si>
   <si>
     <t>カーソル移動</t>
@@ -1984,10 +1996,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="3"/>
@@ -2064,127 +2076,127 @@
         <v>30</v>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="D6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>30</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C7">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>804</v>
+      </c>
+      <c r="D7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>30</v>
       </c>
       <c r="B8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>801</v>
+      </c>
+      <c r="D8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>30</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C9">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>800</v>
+      </c>
+      <c r="D9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C10">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>804</v>
+      </c>
+      <c r="D10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>32</v>
       </c>
       <c r="B11">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C11">
-        <v>802</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>32</v>
       </c>
       <c r="B12">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C12">
-        <v>803</v>
-      </c>
-      <c r="D12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>32</v>
       </c>
       <c r="B13">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C13">
-        <v>806</v>
-      </c>
-      <c r="D13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>32</v>
       </c>
       <c r="B14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C14">
-        <v>801</v>
-      </c>
-      <c r="D14" t="s">
-        <v>28</v>
+        <v>800</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B15">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C15">
-        <v>800</v>
+        <v>804</v>
       </c>
       <c r="D15" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2192,51 +2204,121 @@
         <v>34</v>
       </c>
       <c r="B16">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C16">
         <v>802</v>
       </c>
       <c r="D16" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C17">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="D17" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18">
+        <v>8</v>
+      </c>
+      <c r="C18">
+        <v>806</v>
+      </c>
+      <c r="D18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>801</v>
+      </c>
+      <c r="D19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20">
+        <v>800</v>
+      </c>
+      <c r="D20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
         <v>36</v>
       </c>
-      <c r="B18">
+      <c r="B21">
+        <v>12</v>
+      </c>
+      <c r="C21">
+        <v>802</v>
+      </c>
+      <c r="D21" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>801</v>
+      </c>
+      <c r="D22" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23">
         <v>1</v>
       </c>
-      <c r="C18">
+      <c r="C23">
         <v>800</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19">
+      <c r="B24">
         <v>4</v>
       </c>
-      <c r="C19">
+      <c r="C24">
         <v>802</v>
       </c>
     </row>
@@ -2262,20 +2344,20 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B3" s="3">
         <v>5</v>
@@ -2283,7 +2365,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B4">
         <v>4</v>
@@ -2291,7 +2373,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -2299,7 +2381,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B6">
         <v>3</v>
@@ -2307,7 +2389,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B7">
         <v>4</v>
@@ -2315,7 +2397,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B8">
         <v>3</v>
@@ -2330,10 +2412,10 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G139"/>
+  <dimension ref="A1:G141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="B76" sqref="B76"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="C71" sqref="C71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="6"/>
@@ -2347,10 +2429,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" ht="14" spans="1:7">
@@ -2358,10 +2440,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G2" s="1"/>
     </row>
@@ -2370,10 +2452,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2381,10 +2463,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2392,10 +2474,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2403,10 +2485,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2414,10 +2496,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2425,10 +2507,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" ht="14" spans="1:7">
@@ -2436,10 +2518,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C9" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G9" s="1"/>
     </row>
@@ -2448,10 +2530,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C10" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G10" s="1"/>
     </row>
@@ -2460,10 +2542,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C11" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2471,10 +2553,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C12" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2482,10 +2564,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C13" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -2493,10 +2575,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C14" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" ht="14" spans="1:7">
@@ -2504,10 +2586,10 @@
         <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C15" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G15" s="1"/>
     </row>
@@ -2516,10 +2598,10 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C16" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G16" s="1"/>
     </row>
@@ -2528,10 +2610,10 @@
         <v>101</v>
       </c>
       <c r="B17" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C17" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -2539,10 +2621,10 @@
         <v>102</v>
       </c>
       <c r="B18" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C18" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -2550,10 +2632,10 @@
         <v>103</v>
       </c>
       <c r="B19" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C19" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -2561,10 +2643,10 @@
         <v>201</v>
       </c>
       <c r="B20" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C20" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -2572,10 +2654,10 @@
         <v>202</v>
       </c>
       <c r="B21" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C21" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="22" customFormat="1" spans="1:3">
@@ -2583,10 +2665,10 @@
         <v>300</v>
       </c>
       <c r="B22" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C22" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -2594,10 +2676,10 @@
         <v>301</v>
       </c>
       <c r="B23" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C23" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -2605,10 +2687,10 @@
         <v>302</v>
       </c>
       <c r="B24" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C24" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -2616,10 +2698,10 @@
         <v>303</v>
       </c>
       <c r="B25" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C25" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -2627,10 +2709,10 @@
         <v>304</v>
       </c>
       <c r="B26" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C26" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -2638,10 +2720,10 @@
         <v>310</v>
       </c>
       <c r="B27" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C27" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -2649,10 +2731,10 @@
         <v>311</v>
       </c>
       <c r="B28" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C28" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -2660,10 +2742,10 @@
         <v>312</v>
       </c>
       <c r="B29" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C29" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -2671,10 +2753,10 @@
         <v>313</v>
       </c>
       <c r="B30" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C30" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -2682,10 +2764,10 @@
         <v>314</v>
       </c>
       <c r="B31" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C31" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -2693,10 +2775,10 @@
         <v>315</v>
       </c>
       <c r="B32" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C32" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -2704,10 +2786,10 @@
         <v>316</v>
       </c>
       <c r="B33" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C33" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -2715,10 +2797,10 @@
         <v>317</v>
       </c>
       <c r="B34" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C34" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -2726,10 +2808,10 @@
         <v>321</v>
       </c>
       <c r="B35" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C35" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -2737,10 +2819,10 @@
         <v>322</v>
       </c>
       <c r="B36" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C36" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -2748,10 +2830,10 @@
         <v>323</v>
       </c>
       <c r="B37" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C37" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -2759,10 +2841,10 @@
         <v>324</v>
       </c>
       <c r="B38" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C38" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -2770,10 +2852,10 @@
         <v>325</v>
       </c>
       <c r="B39" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C39" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -2781,10 +2863,10 @@
         <v>326</v>
       </c>
       <c r="B40" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C40" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -2792,10 +2874,10 @@
         <v>327</v>
       </c>
       <c r="B41" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C41" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -2803,10 +2885,10 @@
         <v>328</v>
       </c>
       <c r="B42" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C42" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -2814,10 +2896,10 @@
         <v>330</v>
       </c>
       <c r="B43" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C43" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -2825,10 +2907,10 @@
         <v>331</v>
       </c>
       <c r="B44" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C44" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -2836,10 +2918,10 @@
         <v>332</v>
       </c>
       <c r="B45" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C45" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -2847,10 +2929,10 @@
         <v>333</v>
       </c>
       <c r="B46" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C46" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -2858,10 +2940,10 @@
         <v>334</v>
       </c>
       <c r="B47" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C47" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -2869,13 +2951,13 @@
         <v>400</v>
       </c>
       <c r="B48" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C48" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D48" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -2883,10 +2965,10 @@
         <v>401</v>
       </c>
       <c r="B49" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C49" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -2894,10 +2976,10 @@
         <v>402</v>
       </c>
       <c r="B50" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C50" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -2905,10 +2987,10 @@
         <v>403</v>
       </c>
       <c r="B51" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C51" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -2916,10 +2998,10 @@
         <v>404</v>
       </c>
       <c r="B52" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C52" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -2927,10 +3009,10 @@
         <v>405</v>
       </c>
       <c r="B53" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C53" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -2938,10 +3020,10 @@
         <v>410</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C54" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -2949,10 +3031,10 @@
         <v>501</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C55" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -2960,10 +3042,10 @@
         <v>502</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C56" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -2971,10 +3053,10 @@
         <v>503</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C57" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -2982,10 +3064,10 @@
         <v>504</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C58" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -2993,10 +3075,10 @@
         <v>505</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C59" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -3004,10 +3086,10 @@
         <v>506</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C60" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -3015,10 +3097,10 @@
         <v>507</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C61" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -3026,10 +3108,10 @@
         <v>521</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C62" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -3037,10 +3119,10 @@
         <v>522</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C63" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -3048,10 +3130,10 @@
         <v>526</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C64" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -3059,10 +3141,10 @@
         <v>527</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C65" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -3070,10 +3152,10 @@
         <v>531</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C66" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -3081,10 +3163,10 @@
         <v>532</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C67" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -3092,791 +3174,813 @@
         <v>536</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C68" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="B69" t="s">
-        <v>65</v>
+        <v>139</v>
       </c>
       <c r="C69" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70">
-        <v>801</v>
+        <v>701</v>
       </c>
       <c r="B70" t="s">
-        <v>137</v>
+        <v>27</v>
       </c>
       <c r="C70" t="s">
-        <v>65</v>
+        <v>140</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="B71" t="s">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="C71" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="B72" t="s">
-        <v>27</v>
+        <v>141</v>
       </c>
       <c r="C72" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="B73" t="s">
-        <v>138</v>
+        <v>26</v>
       </c>
       <c r="C73" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="B74" t="s">
-        <v>139</v>
+        <v>27</v>
       </c>
       <c r="C74" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="B75" t="s">
-        <v>33</v>
+        <v>142</v>
       </c>
       <c r="C75" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76">
-        <v>1000</v>
+        <v>805</v>
       </c>
       <c r="B76" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C76" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77">
-        <v>1010</v>
+        <v>806</v>
       </c>
       <c r="B77" t="s">
-        <v>141</v>
+        <v>35</v>
       </c>
       <c r="C77" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78">
+        <v>1000</v>
+      </c>
+      <c r="B78" t="s">
+        <v>144</v>
+      </c>
+      <c r="C78" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79">
+        <v>1010</v>
+      </c>
+      <c r="B79" t="s">
+        <v>145</v>
+      </c>
+      <c r="C79" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80">
         <v>1020</v>
       </c>
-      <c r="B78" t="s">
-        <v>142</v>
-      </c>
-      <c r="C78" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="79" ht="26" spans="1:3">
-      <c r="A79">
+      <c r="B80" t="s">
+        <v>146</v>
+      </c>
+      <c r="C80" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="81" ht="26" spans="1:3">
+      <c r="A81">
         <v>1030</v>
       </c>
-      <c r="B79" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C79" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="80" customFormat="1" spans="1:3">
-      <c r="A80">
-        <v>1040</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="C80" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="81" customFormat="1" spans="1:3">
-      <c r="A81">
-        <v>1050</v>
-      </c>
       <c r="B81" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C81" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="82" customFormat="1" spans="1:3">
       <c r="A82">
-        <v>1060</v>
+        <v>1040</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C82" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="83" customFormat="1" spans="1:3">
       <c r="A83">
-        <v>1070</v>
+        <v>1050</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C83" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="84" customFormat="1" ht="26" spans="1:3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="84" customFormat="1" spans="1:3">
       <c r="A84">
-        <v>1080</v>
+        <v>1060</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C84" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="85" customFormat="1" spans="1:3">
       <c r="A85">
-        <v>1090</v>
+        <v>1070</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C85" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="86" customFormat="1" ht="26" spans="1:3">
       <c r="A86">
+        <v>1080</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C86" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="87" customFormat="1" spans="1:3">
+      <c r="A87">
+        <v>1090</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C87" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="88" customFormat="1" ht="26" spans="1:3">
+      <c r="A88">
         <v>1100</v>
       </c>
-      <c r="B86" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="C86" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
-      <c r="A87">
-        <v>2000</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C87" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="88" ht="26" spans="1:3">
-      <c r="A88">
-        <v>2010</v>
-      </c>
       <c r="B88" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C88" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C89" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="90" ht="26" spans="1:3">
       <c r="A90">
-        <v>3001</v>
+        <v>2010</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C90" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91">
-        <v>3002</v>
+        <v>3000</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C91" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92">
-        <v>3003</v>
+        <v>3001</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C92" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93">
-        <v>3004</v>
+        <v>3002</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C93" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94">
-        <v>3010</v>
+        <v>3003</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C94" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95">
-        <v>3011</v>
+        <v>3004</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C95" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96">
-        <v>3012</v>
+        <v>3010</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C96" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97">
-        <v>3013</v>
+        <v>3011</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C97" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98">
-        <v>3020</v>
+        <v>3012</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C98" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99">
-        <v>3021</v>
+        <v>3013</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C99" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100">
-        <v>3030</v>
+        <v>3020</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C100" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101">
-        <v>3031</v>
+        <v>3021</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C101" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102">
-        <v>3040</v>
+        <v>3030</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C102" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103">
-        <v>3050</v>
+        <v>3031</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>26</v>
+        <v>169</v>
       </c>
       <c r="C103" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104">
-        <v>3051</v>
+        <v>3040</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="C104" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105">
-        <v>3052</v>
+        <v>3050</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>168</v>
+        <v>26</v>
       </c>
       <c r="C105" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106">
-        <v>3060</v>
+        <v>3051</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C106" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107">
-        <v>4000</v>
+        <v>3052</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C107" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108">
-        <v>4010</v>
+        <v>3060</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C108" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109">
-        <v>4011</v>
+        <v>4000</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C109" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110">
-        <v>5000</v>
+        <v>4010</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C110" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111">
-        <v>5001</v>
+        <v>4011</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>65</v>
+        <v>176</v>
       </c>
       <c r="C111" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112">
-        <v>5002</v>
+        <v>5000</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C112" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113">
-        <v>11010</v>
-      </c>
-      <c r="B113" t="s">
-        <v>175</v>
+        <v>5001</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="C113" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114">
-        <v>11020</v>
-      </c>
-      <c r="B114" t="s">
-        <v>176</v>
+        <v>5002</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>178</v>
       </c>
       <c r="C114" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115">
-        <v>11030</v>
+        <v>11010</v>
       </c>
       <c r="B115" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C115" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116">
-        <v>11040</v>
+        <v>11020</v>
       </c>
       <c r="B116" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C116" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117">
-        <v>11050</v>
+        <v>11030</v>
       </c>
       <c r="B117" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C117" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118">
-        <v>11060</v>
+        <v>11040</v>
       </c>
       <c r="B118" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C118" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119">
-        <v>11070</v>
+        <v>11050</v>
       </c>
       <c r="B119" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C119" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120">
-        <v>11080</v>
+        <v>11060</v>
       </c>
       <c r="B120" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C120" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121">
-        <v>11090</v>
+        <v>11070</v>
       </c>
       <c r="B121" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C121" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="122" ht="26" spans="1:3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
       <c r="A122">
-        <v>11100</v>
-      </c>
-      <c r="B122" s="2" t="s">
-        <v>184</v>
+        <v>11080</v>
+      </c>
+      <c r="B122" t="s">
+        <v>186</v>
       </c>
       <c r="C122" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123">
-        <v>13010</v>
+        <v>11090</v>
       </c>
       <c r="B123" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C123" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="124" ht="26" spans="1:3">
       <c r="A124">
-        <v>14010</v>
-      </c>
-      <c r="B124" t="s">
-        <v>186</v>
+        <v>11100</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>188</v>
       </c>
       <c r="C124" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125">
-        <v>14020</v>
+        <v>13010</v>
       </c>
       <c r="B125" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C125" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126">
-        <v>14030</v>
+        <v>14010</v>
       </c>
       <c r="B126" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C126" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127">
-        <v>14040</v>
+        <v>14020</v>
       </c>
       <c r="B127" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C127" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128">
-        <v>14041</v>
+        <v>14030</v>
       </c>
       <c r="B128" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C128" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129">
-        <v>14042</v>
+        <v>14040</v>
       </c>
       <c r="B129" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C129" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130">
-        <v>14051</v>
+        <v>14041</v>
       </c>
       <c r="B130" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C130" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131">
-        <v>14060</v>
+        <v>14042</v>
       </c>
       <c r="B131" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C131" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132">
-        <v>14070</v>
+        <v>14051</v>
       </c>
       <c r="B132" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C132" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133">
-        <v>14071</v>
+        <v>14060</v>
       </c>
       <c r="B133" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C133" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134">
-        <v>15010</v>
+        <v>14070</v>
       </c>
       <c r="B134" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C134" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135">
-        <v>15020</v>
+        <v>14071</v>
       </c>
       <c r="B135" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C135" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136">
-        <v>15030</v>
+        <v>15010</v>
       </c>
       <c r="B136" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C136" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137">
-        <v>16010</v>
+        <v>15020</v>
       </c>
       <c r="B137" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C137" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138">
-        <v>16020</v>
+        <v>15030</v>
       </c>
       <c r="B138" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C138" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139">
+        <v>16010</v>
+      </c>
+      <c r="B139" t="s">
+        <v>203</v>
+      </c>
+      <c r="C139" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140">
+        <v>16020</v>
+      </c>
+      <c r="B140" t="s">
+        <v>204</v>
+      </c>
+      <c r="C140" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141">
         <v>16030</v>
       </c>
-      <c r="B139" t="s">
-        <v>201</v>
-      </c>
-      <c r="C139" t="s">
-        <v>65</v>
+      <c r="B141" t="s">
+        <v>205</v>
+      </c>
+      <c r="C141" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/Data/System.xlsx
+++ b/Assets/Resources/Data/System.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7070" firstSheet="3" activeTab="6"/>
+    <workbookView windowWidth="19200" windowHeight="7070" firstSheet="3" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="TacticsComand" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="232">
   <si>
     <t>Id</t>
   </si>
@@ -127,7 +127,25 @@
     <t>TACTICS</t>
   </si>
   <si>
-    <t>リタイア</t>
+    <t>上</t>
+  </si>
+  <si>
+    <t>下</t>
+  </si>
+  <si>
+    <t>ALCHEMY_ATTRIBUTE</t>
+  </si>
+  <si>
+    <t>ALCHEMY_SKILL</t>
+  </si>
+  <si>
+    <t>RECOVERY</t>
+  </si>
+  <si>
+    <t>ENEMY_SELECT</t>
+  </si>
+  <si>
+    <t>ENEMY_BATTLE</t>
   </si>
   <si>
     <t>NAMEENTRY</t>
@@ -139,10 +157,40 @@
     <t>MAINMENU</t>
   </si>
   <si>
-    <t>上</t>
-  </si>
-  <si>
-    <t>下</t>
+    <t>STRATEGY</t>
+  </si>
+  <si>
+    <t>LEVELUP</t>
+  </si>
+  <si>
+    <t>STRATEGY_BATTLE</t>
+  </si>
+  <si>
+    <t>オプション２</t>
+  </si>
+  <si>
+    <t>サイド</t>
+  </si>
+  <si>
+    <t>BATTLE_ENEMY</t>
+  </si>
+  <si>
+    <t>BATTLE_PARTY</t>
+  </si>
+  <si>
+    <t>SELECT_HEROINE</t>
+  </si>
+  <si>
+    <t>STATUS_SKILL</t>
+  </si>
+  <si>
+    <t>HEROINE_SKILL</t>
+  </si>
+  <si>
+    <t>ENEMYINFO</t>
+  </si>
+  <si>
+    <t>ENEMYINFO_BATTLE</t>
   </si>
   <si>
     <t>ActorId</t>
@@ -274,7 +322,7 @@
     <t>魔法確認</t>
   </si>
   <si>
-    <t>術者(Alchemist)に魔法を確認します</t>
+    <t>術者(Alchemist)の魔法を確認します</t>
   </si>
   <si>
     <t>HP</t>
@@ -445,6 +493,9 @@
     <t>オプションやその他の項目を確認します</t>
   </si>
   <si>
+    <t>全体順位</t>
+  </si>
+  <si>
     <t>カーソル移動</t>
   </si>
   <si>
@@ -452,6 +503,33 @@
   </si>
   <si>
     <t>値変更</t>
+  </si>
+  <si>
+    <t>属性切替</t>
+  </si>
+  <si>
+    <t>撤退する</t>
+  </si>
+  <si>
+    <t>列変更</t>
+  </si>
+  <si>
+    <t>敵詳細</t>
+  </si>
+  <si>
+    <t>敵の魔法やステータスを確認します</t>
+  </si>
+  <si>
+    <t>術者切替</t>
+  </si>
+  <si>
+    <t>魔法有効切替</t>
+  </si>
+  <si>
+    <t>敵切替</t>
+  </si>
+  <si>
+    <t>項目切替</t>
   </si>
   <si>
     <t>(Nu)</t>
@@ -650,9 +728,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -670,9 +748,24 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -683,8 +776,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF7F7F7F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -698,25 +792,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -736,6 +814,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -744,16 +838,23 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -761,7 +862,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -776,38 +877,15 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -822,7 +900,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -834,67 +1038,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -906,49 +1062,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -960,49 +1080,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1031,26 +1109,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1066,15 +1124,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1086,6 +1135,33 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1107,9 +1183,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1121,7 +1199,7 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1130,7 +1208,7 @@
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1139,19 +1217,19 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1160,115 +1238,118 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1996,13 +2077,16 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D117"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="C80" sqref="C80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="22.5454545454545" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
@@ -2048,7 +2132,7 @@
         <v>25</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4">
         <v>801</v>
@@ -2062,7 +2146,7 @@
         <v>25</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>800</v>
@@ -2104,7 +2188,7 @@
         <v>30</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C8">
         <v>801</v>
@@ -2118,7 +2202,7 @@
         <v>30</v>
       </c>
       <c r="B9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C9">
         <v>800</v>
@@ -2146,7 +2230,7 @@
         <v>32</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C11">
         <v>805</v>
@@ -2157,7 +2241,7 @@
         <v>32</v>
       </c>
       <c r="B12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C12">
         <v>805</v>
@@ -2168,7 +2252,7 @@
         <v>32</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13">
         <v>801</v>
@@ -2179,7 +2263,7 @@
         <v>32</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14">
         <v>800</v>
@@ -2232,13 +2316,13 @@
         <v>34</v>
       </c>
       <c r="B18">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C18">
-        <v>806</v>
+        <v>801</v>
       </c>
       <c r="D18" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -2249,77 +2333,1373 @@
         <v>2</v>
       </c>
       <c r="C19">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="D19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="B20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C20">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="D20" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="B21">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C21">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="D21" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C22">
         <v>801</v>
       </c>
       <c r="D22" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C23">
         <v>800</v>
       </c>
       <c r="D23" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="B24">
         <v>4</v>
       </c>
       <c r="C24">
         <v>802</v>
+      </c>
+      <c r="D24" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25">
+        <v>5</v>
+      </c>
+      <c r="C25">
+        <v>804</v>
+      </c>
+      <c r="D25" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>801</v>
+      </c>
+      <c r="D26" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>800</v>
+      </c>
+      <c r="D27" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28">
+        <v>4</v>
+      </c>
+      <c r="C28">
+        <v>802</v>
+      </c>
+      <c r="D28" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29">
+        <v>5</v>
+      </c>
+      <c r="C29">
+        <v>804</v>
+      </c>
+      <c r="D29" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30">
+        <v>3</v>
+      </c>
+      <c r="C30">
+        <v>801</v>
+      </c>
+      <c r="D30" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31">
+        <v>2</v>
+      </c>
+      <c r="C31">
+        <v>800</v>
+      </c>
+      <c r="D31" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32">
+        <v>4</v>
+      </c>
+      <c r="C32">
+        <v>802</v>
+      </c>
+      <c r="D32" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33">
+        <v>5</v>
+      </c>
+      <c r="C33">
+        <v>804</v>
+      </c>
+      <c r="D33" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>801</v>
+      </c>
+      <c r="D34" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>800</v>
+      </c>
+      <c r="D35" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36">
+        <v>4</v>
+      </c>
+      <c r="C36">
+        <v>802</v>
+      </c>
+      <c r="D36" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37">
+        <v>5</v>
+      </c>
+      <c r="C37">
+        <v>804</v>
+      </c>
+      <c r="D37" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38">
+        <v>3</v>
+      </c>
+      <c r="C38">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39">
+        <v>2</v>
+      </c>
+      <c r="C39">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40">
+        <v>801</v>
+      </c>
+      <c r="D40" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <v>800</v>
+      </c>
+      <c r="D41" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>4</v>
+      </c>
+      <c r="C42">
+        <v>802</v>
+      </c>
+      <c r="D42" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
+        <v>40</v>
+      </c>
+      <c r="B43">
+        <v>5</v>
+      </c>
+      <c r="C43">
+        <v>804</v>
+      </c>
+      <c r="D43" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>40</v>
+      </c>
+      <c r="B44">
+        <v>6</v>
+      </c>
+      <c r="C44">
+        <v>809</v>
+      </c>
+      <c r="D44" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
+        <v>40</v>
+      </c>
+      <c r="B45">
+        <v>3</v>
+      </c>
+      <c r="C45">
+        <v>801</v>
+      </c>
+      <c r="D45" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" t="s">
+        <v>40</v>
+      </c>
+      <c r="B46">
+        <v>2</v>
+      </c>
+      <c r="C46">
+        <v>800</v>
+      </c>
+      <c r="D46" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
+        <v>40</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47">
+        <v>800</v>
+      </c>
+      <c r="D47" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
+        <v>40</v>
+      </c>
+      <c r="B48">
+        <v>0</v>
+      </c>
+      <c r="C48">
+        <v>800</v>
+      </c>
+      <c r="D48" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" t="s">
+        <v>41</v>
+      </c>
+      <c r="B49">
+        <v>4</v>
+      </c>
+      <c r="C49">
+        <v>802</v>
+      </c>
+      <c r="D49" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" t="s">
+        <v>41</v>
+      </c>
+      <c r="B50">
+        <v>5</v>
+      </c>
+      <c r="C50">
+        <v>804</v>
+      </c>
+      <c r="D50" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" t="s">
+        <v>41</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51">
+        <v>801</v>
+      </c>
+      <c r="D51" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" t="s">
+        <v>41</v>
+      </c>
+      <c r="B52">
+        <v>0</v>
+      </c>
+      <c r="C52">
+        <v>800</v>
+      </c>
+      <c r="D52" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" t="s">
+        <v>7</v>
+      </c>
+      <c r="B53">
+        <v>4</v>
+      </c>
+      <c r="C53">
+        <v>802</v>
+      </c>
+      <c r="D53" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" t="s">
+        <v>7</v>
+      </c>
+      <c r="B54">
+        <v>5</v>
+      </c>
+      <c r="C54">
+        <v>804</v>
+      </c>
+      <c r="D54" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" t="s">
+        <v>7</v>
+      </c>
+      <c r="B55">
+        <v>1</v>
+      </c>
+      <c r="C55">
+        <v>801</v>
+      </c>
+      <c r="D55" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" t="s">
+        <v>7</v>
+      </c>
+      <c r="B56">
+        <v>0</v>
+      </c>
+      <c r="C56">
+        <v>800</v>
+      </c>
+      <c r="D56" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" t="s">
+        <v>42</v>
+      </c>
+      <c r="B57">
+        <v>12</v>
+      </c>
+      <c r="C57">
+        <v>802</v>
+      </c>
+      <c r="D57" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" t="s">
+        <v>44</v>
+      </c>
+      <c r="B58">
+        <v>4</v>
+      </c>
+      <c r="C58">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" t="s">
+        <v>44</v>
+      </c>
+      <c r="B59">
+        <v>6</v>
+      </c>
+      <c r="C59">
+        <v>803</v>
+      </c>
+      <c r="D59" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" t="s">
+        <v>44</v>
+      </c>
+      <c r="B60">
+        <v>1</v>
+      </c>
+      <c r="C60">
+        <v>801</v>
+      </c>
+      <c r="D60" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" t="s">
+        <v>44</v>
+      </c>
+      <c r="B61">
+        <v>0</v>
+      </c>
+      <c r="C61">
+        <v>800</v>
+      </c>
+      <c r="D61" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" t="s">
+        <v>45</v>
+      </c>
+      <c r="B62">
+        <v>4</v>
+      </c>
+      <c r="C62">
+        <v>802</v>
+      </c>
+      <c r="D62" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" t="s">
+        <v>45</v>
+      </c>
+      <c r="B63">
+        <v>3</v>
+      </c>
+      <c r="C63">
+        <v>801</v>
+      </c>
+      <c r="D63" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" t="s">
+        <v>45</v>
+      </c>
+      <c r="B64">
+        <v>2</v>
+      </c>
+      <c r="C64">
+        <v>800</v>
+      </c>
+      <c r="D64" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" t="s">
+        <v>46</v>
+      </c>
+      <c r="B65">
+        <v>4</v>
+      </c>
+      <c r="C65">
+        <v>802</v>
+      </c>
+      <c r="D65" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" t="s">
+        <v>47</v>
+      </c>
+      <c r="B66">
+        <v>4</v>
+      </c>
+      <c r="C66">
+        <v>802</v>
+      </c>
+      <c r="D66" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" t="s">
+        <v>47</v>
+      </c>
+      <c r="B67">
+        <v>6</v>
+      </c>
+      <c r="C67">
+        <v>803</v>
+      </c>
+      <c r="D67" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" t="s">
+        <v>47</v>
+      </c>
+      <c r="B68">
+        <v>3</v>
+      </c>
+      <c r="C68">
+        <v>801</v>
+      </c>
+      <c r="D68" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" t="s">
+        <v>47</v>
+      </c>
+      <c r="B69">
+        <v>2</v>
+      </c>
+      <c r="C69">
+        <v>800</v>
+      </c>
+      <c r="D69" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" t="s">
+        <v>6</v>
+      </c>
+      <c r="B70">
+        <v>4</v>
+      </c>
+      <c r="C70">
+        <v>802</v>
+      </c>
+      <c r="D70" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" t="s">
+        <v>6</v>
+      </c>
+      <c r="B71">
+        <v>7</v>
+      </c>
+      <c r="C71">
+        <v>807</v>
+      </c>
+      <c r="D71" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" t="s">
+        <v>6</v>
+      </c>
+      <c r="B72">
+        <v>6</v>
+      </c>
+      <c r="C72">
+        <v>803</v>
+      </c>
+      <c r="D72" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" t="s">
+        <v>6</v>
+      </c>
+      <c r="B73">
+        <v>9</v>
+      </c>
+      <c r="C73">
+        <v>806</v>
+      </c>
+      <c r="D73" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" t="s">
+        <v>6</v>
+      </c>
+      <c r="B74">
+        <v>8</v>
+      </c>
+      <c r="C74">
+        <v>800</v>
+      </c>
+      <c r="D74" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" t="s">
+        <v>6</v>
+      </c>
+      <c r="B75">
+        <v>1</v>
+      </c>
+      <c r="C75">
+        <v>801</v>
+      </c>
+      <c r="D75" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" t="s">
+        <v>6</v>
+      </c>
+      <c r="B76">
+        <v>0</v>
+      </c>
+      <c r="C76">
+        <v>800</v>
+      </c>
+      <c r="D76" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" t="s">
+        <v>50</v>
+      </c>
+      <c r="B77">
+        <v>4</v>
+      </c>
+      <c r="C77">
+        <v>802</v>
+      </c>
+      <c r="D77" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" t="s">
+        <v>50</v>
+      </c>
+      <c r="B78">
+        <v>5</v>
+      </c>
+      <c r="C78">
+        <v>804</v>
+      </c>
+      <c r="D78" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" t="s">
+        <v>50</v>
+      </c>
+      <c r="B79">
+        <v>6</v>
+      </c>
+      <c r="C79">
+        <v>809</v>
+      </c>
+      <c r="D79" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" t="s">
+        <v>50</v>
+      </c>
+      <c r="B80">
+        <v>1</v>
+      </c>
+      <c r="C80">
+        <v>808</v>
+      </c>
+      <c r="D80" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" t="s">
+        <v>50</v>
+      </c>
+      <c r="B81">
+        <v>0</v>
+      </c>
+      <c r="C81">
+        <v>800</v>
+      </c>
+      <c r="D81" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" t="s">
+        <v>50</v>
+      </c>
+      <c r="B82">
+        <v>3</v>
+      </c>
+      <c r="C82">
+        <v>801</v>
+      </c>
+      <c r="D82" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" t="s">
+        <v>50</v>
+      </c>
+      <c r="B83">
+        <v>2</v>
+      </c>
+      <c r="C83">
+        <v>800</v>
+      </c>
+      <c r="D83" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" t="s">
+        <v>51</v>
+      </c>
+      <c r="B84">
+        <v>4</v>
+      </c>
+      <c r="C84">
+        <v>802</v>
+      </c>
+      <c r="D84" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" t="s">
+        <v>51</v>
+      </c>
+      <c r="B85">
+        <v>5</v>
+      </c>
+      <c r="C85">
+        <v>804</v>
+      </c>
+      <c r="D85" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" t="s">
+        <v>51</v>
+      </c>
+      <c r="B86">
+        <v>1</v>
+      </c>
+      <c r="C86">
+        <v>801</v>
+      </c>
+      <c r="D86" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" t="s">
+        <v>51</v>
+      </c>
+      <c r="B87">
+        <v>0</v>
+      </c>
+      <c r="C87">
+        <v>800</v>
+      </c>
+      <c r="D87" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" t="s">
+        <v>8</v>
+      </c>
+      <c r="B88">
+        <v>4</v>
+      </c>
+      <c r="C88">
+        <v>811</v>
+      </c>
+      <c r="D88" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" t="s">
+        <v>8</v>
+      </c>
+      <c r="B89">
+        <v>5</v>
+      </c>
+      <c r="C89">
+        <v>804</v>
+      </c>
+      <c r="D89" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" t="s">
+        <v>8</v>
+      </c>
+      <c r="B90">
+        <v>9</v>
+      </c>
+      <c r="C90">
+        <v>810</v>
+      </c>
+      <c r="D90" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" t="s">
+        <v>8</v>
+      </c>
+      <c r="B91">
+        <v>8</v>
+      </c>
+      <c r="C91">
+        <v>800</v>
+      </c>
+      <c r="D91" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" t="s">
+        <v>52</v>
+      </c>
+      <c r="B92">
+        <v>4</v>
+      </c>
+      <c r="C92">
+        <v>811</v>
+      </c>
+      <c r="D92" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" t="s">
+        <v>52</v>
+      </c>
+      <c r="B93">
+        <v>12</v>
+      </c>
+      <c r="C93">
+        <v>802</v>
+      </c>
+      <c r="D93" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" t="s">
+        <v>52</v>
+      </c>
+      <c r="B94">
+        <v>5</v>
+      </c>
+      <c r="C94">
+        <v>804</v>
+      </c>
+      <c r="D94" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" t="s">
+        <v>52</v>
+      </c>
+      <c r="B95">
+        <v>9</v>
+      </c>
+      <c r="C95">
+        <v>810</v>
+      </c>
+      <c r="D95" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" t="s">
+        <v>52</v>
+      </c>
+      <c r="B96">
+        <v>8</v>
+      </c>
+      <c r="C96">
+        <v>800</v>
+      </c>
+      <c r="D96" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" t="s">
+        <v>53</v>
+      </c>
+      <c r="B97">
+        <v>4</v>
+      </c>
+      <c r="C97">
+        <v>812</v>
+      </c>
+      <c r="D97" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" t="s">
+        <v>53</v>
+      </c>
+      <c r="B98">
+        <v>5</v>
+      </c>
+      <c r="C98">
+        <v>804</v>
+      </c>
+      <c r="D98" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" t="s">
+        <v>53</v>
+      </c>
+      <c r="B99">
+        <v>9</v>
+      </c>
+      <c r="C99">
+        <v>806</v>
+      </c>
+      <c r="D99" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" t="s">
+        <v>53</v>
+      </c>
+      <c r="B100">
+        <v>8</v>
+      </c>
+      <c r="C100">
+        <v>800</v>
+      </c>
+      <c r="D100" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" t="s">
+        <v>53</v>
+      </c>
+      <c r="B101">
+        <v>1</v>
+      </c>
+      <c r="C101">
+        <v>801</v>
+      </c>
+      <c r="D101" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" t="s">
+        <v>53</v>
+      </c>
+      <c r="B102">
+        <v>0</v>
+      </c>
+      <c r="C102">
+        <v>800</v>
+      </c>
+      <c r="D102" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" t="s">
+        <v>54</v>
+      </c>
+      <c r="B103">
+        <v>5</v>
+      </c>
+      <c r="C103">
+        <v>804</v>
+      </c>
+      <c r="D103" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" t="s">
+        <v>54</v>
+      </c>
+      <c r="B104">
+        <v>9</v>
+      </c>
+      <c r="C104">
+        <v>806</v>
+      </c>
+      <c r="D104" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" t="s">
+        <v>54</v>
+      </c>
+      <c r="B105">
+        <v>8</v>
+      </c>
+      <c r="C105">
+        <v>800</v>
+      </c>
+      <c r="D105" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" t="s">
+        <v>54</v>
+      </c>
+      <c r="B106">
+        <v>1</v>
+      </c>
+      <c r="C106">
+        <v>801</v>
+      </c>
+      <c r="D106" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" t="s">
+        <v>54</v>
+      </c>
+      <c r="B107">
+        <v>0</v>
+      </c>
+      <c r="C107">
+        <v>800</v>
+      </c>
+      <c r="D107" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" t="s">
+        <v>55</v>
+      </c>
+      <c r="B108">
+        <v>5</v>
+      </c>
+      <c r="C108">
+        <v>804</v>
+      </c>
+      <c r="D108" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" t="s">
+        <v>55</v>
+      </c>
+      <c r="B109">
+        <v>9</v>
+      </c>
+      <c r="C109">
+        <v>813</v>
+      </c>
+      <c r="D109" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" t="s">
+        <v>55</v>
+      </c>
+      <c r="B110">
+        <v>8</v>
+      </c>
+      <c r="C110">
+        <v>800</v>
+      </c>
+      <c r="D110" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" t="s">
+        <v>55</v>
+      </c>
+      <c r="B111">
+        <v>1</v>
+      </c>
+      <c r="C111">
+        <v>801</v>
+      </c>
+      <c r="D111" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" t="s">
+        <v>55</v>
+      </c>
+      <c r="B112">
+        <v>0</v>
+      </c>
+      <c r="C112">
+        <v>800</v>
+      </c>
+      <c r="D112" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" t="s">
+        <v>56</v>
+      </c>
+      <c r="B113">
+        <v>5</v>
+      </c>
+      <c r="C113">
+        <v>804</v>
+      </c>
+      <c r="D113" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" t="s">
+        <v>56</v>
+      </c>
+      <c r="B114">
+        <v>9</v>
+      </c>
+      <c r="C114">
+        <v>814</v>
+      </c>
+      <c r="D114" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" t="s">
+        <v>56</v>
+      </c>
+      <c r="B115">
+        <v>8</v>
+      </c>
+      <c r="C115">
+        <v>800</v>
+      </c>
+      <c r="D115" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" t="s">
+        <v>56</v>
+      </c>
+      <c r="B116">
+        <v>1</v>
+      </c>
+      <c r="C116">
+        <v>801</v>
+      </c>
+      <c r="D116" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" t="s">
+        <v>56</v>
+      </c>
+      <c r="B117">
+        <v>0</v>
+      </c>
+      <c r="C117">
+        <v>800</v>
+      </c>
+      <c r="D117" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -2344,28 +3724,28 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B3" s="3">
+        <v>60</v>
+      </c>
+      <c r="B3" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="B4">
         <v>4</v>
@@ -2373,7 +3753,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -2381,7 +3761,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="B6">
         <v>3</v>
@@ -2389,7 +3769,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="B7">
         <v>4</v>
@@ -2397,7 +3777,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="B8">
         <v>3</v>
@@ -2412,10 +3792,10 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G141"/>
+  <dimension ref="A1:G152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="C71" sqref="C71"/>
+    <sheetView topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="B90" sqref="B90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="6"/>
@@ -2429,10 +3809,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="C1" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" ht="14" spans="1:7">
@@ -2440,10 +3820,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="C2" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="G2" s="1"/>
     </row>
@@ -2452,10 +3832,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="C3" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2463,10 +3843,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="C4" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2474,10 +3854,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="C5" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2485,10 +3865,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="C6" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2496,10 +3876,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="C7" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2507,10 +3887,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="C8" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" ht="14" spans="1:7">
@@ -2518,10 +3898,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="C9" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="G9" s="1"/>
     </row>
@@ -2530,10 +3910,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="C10" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="G10" s="1"/>
     </row>
@@ -2542,10 +3922,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="C11" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2553,10 +3933,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="C12" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2564,10 +3944,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="C13" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -2575,10 +3955,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="C14" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" ht="14" spans="1:7">
@@ -2586,10 +3966,10 @@
         <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="C15" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="G15" s="1"/>
     </row>
@@ -2598,10 +3978,10 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="C16" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="G16" s="1"/>
     </row>
@@ -2610,10 +3990,10 @@
         <v>101</v>
       </c>
       <c r="B17" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="C17" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -2621,10 +4001,10 @@
         <v>102</v>
       </c>
       <c r="B18" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="C18" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -2632,10 +4012,10 @@
         <v>103</v>
       </c>
       <c r="B19" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="C19" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -2643,10 +4023,10 @@
         <v>201</v>
       </c>
       <c r="B20" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="C20" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -2654,10 +4034,10 @@
         <v>202</v>
       </c>
       <c r="B21" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="C21" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22" customFormat="1" spans="1:3">
@@ -2665,10 +4045,10 @@
         <v>300</v>
       </c>
       <c r="B22" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="C22" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -2676,10 +4056,10 @@
         <v>301</v>
       </c>
       <c r="B23" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="C23" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -2687,10 +4067,10 @@
         <v>302</v>
       </c>
       <c r="B24" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="C24" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -2698,10 +4078,10 @@
         <v>303</v>
       </c>
       <c r="B25" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="C25" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -2709,10 +4089,10 @@
         <v>304</v>
       </c>
       <c r="B26" t="s">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="C26" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -2720,10 +4100,10 @@
         <v>310</v>
       </c>
       <c r="B27" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="C27" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -2731,10 +4111,10 @@
         <v>311</v>
       </c>
       <c r="B28" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="C28" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -2742,10 +4122,10 @@
         <v>312</v>
       </c>
       <c r="B29" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="C29" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -2753,10 +4133,10 @@
         <v>313</v>
       </c>
       <c r="B30" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="C30" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -2764,10 +4144,10 @@
         <v>314</v>
       </c>
       <c r="B31" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="C31" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -2775,10 +4155,10 @@
         <v>315</v>
       </c>
       <c r="B32" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="C32" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -2786,10 +4166,10 @@
         <v>316</v>
       </c>
       <c r="B33" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="C33" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -2797,10 +4177,10 @@
         <v>317</v>
       </c>
       <c r="B34" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="C34" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -2808,10 +4188,10 @@
         <v>321</v>
       </c>
       <c r="B35" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="C35" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -2819,10 +4199,10 @@
         <v>322</v>
       </c>
       <c r="B36" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="C36" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -2830,10 +4210,10 @@
         <v>323</v>
       </c>
       <c r="B37" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="C37" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -2841,10 +4221,10 @@
         <v>324</v>
       </c>
       <c r="B38" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="C38" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -2852,10 +4232,10 @@
         <v>325</v>
       </c>
       <c r="B39" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="C39" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -2863,10 +4243,10 @@
         <v>326</v>
       </c>
       <c r="B40" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="C40" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -2874,10 +4254,10 @@
         <v>327</v>
       </c>
       <c r="B41" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="C41" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -2885,10 +4265,10 @@
         <v>328</v>
       </c>
       <c r="B42" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="C42" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -2896,10 +4276,10 @@
         <v>330</v>
       </c>
       <c r="B43" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="C43" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -2907,10 +4287,10 @@
         <v>331</v>
       </c>
       <c r="B44" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="C44" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -2918,10 +4298,10 @@
         <v>332</v>
       </c>
       <c r="B45" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="C45" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -2929,10 +4309,10 @@
         <v>333</v>
       </c>
       <c r="B46" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="C46" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -2940,10 +4320,10 @@
         <v>334</v>
       </c>
       <c r="B47" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="C47" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -2951,13 +4331,13 @@
         <v>400</v>
       </c>
       <c r="B48" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="C48" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="D48" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -2965,10 +4345,10 @@
         <v>401</v>
       </c>
       <c r="B49" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="C49" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -2976,10 +4356,10 @@
         <v>402</v>
       </c>
       <c r="B50" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="C50" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -2987,10 +4367,10 @@
         <v>403</v>
       </c>
       <c r="B51" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="C51" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -2998,10 +4378,10 @@
         <v>404</v>
       </c>
       <c r="B52" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="C52" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -3009,10 +4389,10 @@
         <v>405</v>
       </c>
       <c r="B53" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="C53" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -3020,10 +4400,10 @@
         <v>410</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="C54" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -3031,10 +4411,10 @@
         <v>501</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="C55" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -3042,10 +4422,10 @@
         <v>502</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="C56" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -3053,10 +4433,10 @@
         <v>503</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="C57" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -3064,10 +4444,10 @@
         <v>504</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="C58" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -3075,10 +4455,10 @@
         <v>505</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="C59" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -3086,10 +4466,10 @@
         <v>506</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="C60" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -3097,10 +4477,10 @@
         <v>507</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
       <c r="C61" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -3108,10 +4488,10 @@
         <v>521</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="C62" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -3119,10 +4499,10 @@
         <v>522</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="C63" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -3130,10 +4510,10 @@
         <v>526</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="C64" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -3141,10 +4521,10 @@
         <v>527</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="C65" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -3152,10 +4532,10 @@
         <v>531</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="C66" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -3163,10 +4543,10 @@
         <v>532</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="C67" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -3174,10 +4554,10 @@
         <v>536</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="C68" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -3185,10 +4565,10 @@
         <v>700</v>
       </c>
       <c r="B69" t="s">
-        <v>139</v>
+        <v>155</v>
       </c>
       <c r="C69" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -3199,788 +4579,909 @@
         <v>27</v>
       </c>
       <c r="C70" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71">
-        <v>800</v>
-      </c>
-      <c r="B71" t="s">
-        <v>67</v>
+        <v>702</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>157</v>
       </c>
       <c r="C71" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72">
-        <v>801</v>
-      </c>
-      <c r="B72" t="s">
-        <v>141</v>
+        <v>703</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>89</v>
       </c>
       <c r="C72" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73">
-        <v>802</v>
-      </c>
-      <c r="B73" t="s">
-        <v>26</v>
+        <v>704</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>90</v>
       </c>
       <c r="C73" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="B74" t="s">
-        <v>27</v>
+        <v>83</v>
       </c>
       <c r="C74" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="B75" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="C75" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="B76" t="s">
-        <v>143</v>
+        <v>26</v>
       </c>
       <c r="C76" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="B77" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C77" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78">
-        <v>1000</v>
+        <v>804</v>
       </c>
       <c r="B78" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="C78" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79">
-        <v>1010</v>
+        <v>805</v>
       </c>
       <c r="B79" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="C79" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80">
-        <v>1020</v>
+        <v>806</v>
       </c>
       <c r="B80" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="C80" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="81" ht="26" spans="1:3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
       <c r="A81">
-        <v>1030</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>147</v>
+        <v>807</v>
+      </c>
+      <c r="B81" t="s">
+        <v>162</v>
       </c>
       <c r="C81" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="82" customFormat="1" spans="1:3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
       <c r="A82">
-        <v>1040</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>148</v>
+        <v>808</v>
+      </c>
+      <c r="B82" t="s">
+        <v>163</v>
       </c>
       <c r="C82" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="83" customFormat="1" spans="1:3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
       <c r="A83">
-        <v>1050</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>149</v>
+        <v>809</v>
+      </c>
+      <c r="B83" t="s">
+        <v>164</v>
       </c>
       <c r="C83" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="84" customFormat="1" spans="1:3">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
       <c r="A84">
-        <v>1060</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>150</v>
+        <v>810</v>
+      </c>
+      <c r="B84" t="s">
+        <v>166</v>
       </c>
       <c r="C84" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="85" customFormat="1" spans="1:3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
       <c r="A85">
-        <v>1070</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>151</v>
+        <v>811</v>
+      </c>
+      <c r="B85" t="s">
+        <v>99</v>
       </c>
       <c r="C85" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="86" customFormat="1" ht="26" spans="1:3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
       <c r="A86">
-        <v>1080</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>152</v>
+        <v>812</v>
+      </c>
+      <c r="B86" t="s">
+        <v>167</v>
       </c>
       <c r="C86" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="87" customFormat="1" spans="1:3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
       <c r="A87">
-        <v>1090</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>153</v>
+        <v>813</v>
+      </c>
+      <c r="B87" t="s">
+        <v>168</v>
       </c>
       <c r="C87" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="88" customFormat="1" ht="26" spans="1:3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
       <c r="A88">
-        <v>1100</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>154</v>
+        <v>814</v>
+      </c>
+      <c r="B88" t="s">
+        <v>169</v>
       </c>
       <c r="C88" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89">
-        <v>2000</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>155</v>
+        <v>1000</v>
+      </c>
+      <c r="B89" t="s">
+        <v>170</v>
       </c>
       <c r="C89" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="90" ht="26" spans="1:3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
       <c r="A90">
-        <v>2010</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>156</v>
+        <v>1010</v>
+      </c>
+      <c r="B90" t="s">
+        <v>171</v>
       </c>
       <c r="C90" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91">
-        <v>3000</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>157</v>
+        <v>1020</v>
+      </c>
+      <c r="B91" t="s">
+        <v>172</v>
       </c>
       <c r="C91" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="92" ht="26" spans="1:3">
       <c r="A92">
-        <v>3001</v>
+        <v>1030</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="C92" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="93" customFormat="1" spans="1:3">
       <c r="A93">
-        <v>3002</v>
+        <v>1040</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="C93" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="94" customFormat="1" spans="1:3">
       <c r="A94">
-        <v>3003</v>
+        <v>1050</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="C94" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="95" customFormat="1" spans="1:3">
       <c r="A95">
-        <v>3004</v>
+        <v>1060</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="C95" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="96" customFormat="1" spans="1:3">
       <c r="A96">
-        <v>3010</v>
+        <v>1070</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="C96" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="97" customFormat="1" ht="26" spans="1:3">
       <c r="A97">
-        <v>3011</v>
+        <v>1080</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="C97" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="98" customFormat="1" spans="1:3">
       <c r="A98">
-        <v>3012</v>
+        <v>1090</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="C98" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="99" customFormat="1" ht="26" spans="1:3">
       <c r="A99">
-        <v>3013</v>
+        <v>1100</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="C99" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100">
-        <v>3020</v>
+        <v>2000</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="C100" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="101" ht="26" spans="1:3">
       <c r="A101">
-        <v>3021</v>
+        <v>2010</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="C101" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102">
-        <v>3030</v>
+        <v>3000</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="C102" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103">
-        <v>3031</v>
+        <v>3001</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="C103" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104">
-        <v>3040</v>
+        <v>3002</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="C104" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105">
-        <v>3050</v>
+        <v>3003</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>26</v>
+        <v>186</v>
       </c>
       <c r="C105" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106">
-        <v>3051</v>
+        <v>3004</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="C106" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107">
-        <v>3052</v>
+        <v>3010</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
       <c r="C107" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108">
-        <v>3060</v>
+        <v>3011</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>173</v>
+        <v>189</v>
       </c>
       <c r="C108" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109">
-        <v>4000</v>
+        <v>3012</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="C109" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110">
-        <v>4010</v>
+        <v>3013</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="C110" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111">
-        <v>4011</v>
+        <v>3020</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="C111" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112">
-        <v>5000</v>
+        <v>3021</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="C112" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113">
-        <v>5001</v>
+        <v>3030</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>67</v>
+        <v>194</v>
       </c>
       <c r="C113" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114">
-        <v>5002</v>
+        <v>3031</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
       <c r="C114" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115">
-        <v>11010</v>
-      </c>
-      <c r="B115" t="s">
-        <v>179</v>
+        <v>3040</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>196</v>
       </c>
       <c r="C115" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116">
-        <v>11020</v>
-      </c>
-      <c r="B116" t="s">
-        <v>180</v>
+        <v>3050</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="C116" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117">
-        <v>11030</v>
-      </c>
-      <c r="B117" t="s">
-        <v>181</v>
+        <v>3051</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>197</v>
       </c>
       <c r="C117" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118">
-        <v>11040</v>
-      </c>
-      <c r="B118" t="s">
-        <v>182</v>
+        <v>3052</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>198</v>
       </c>
       <c r="C118" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119">
-        <v>11050</v>
-      </c>
-      <c r="B119" t="s">
-        <v>183</v>
+        <v>3060</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>199</v>
       </c>
       <c r="C119" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120">
-        <v>11060</v>
-      </c>
-      <c r="B120" t="s">
-        <v>184</v>
+        <v>4000</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>200</v>
       </c>
       <c r="C120" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121">
-        <v>11070</v>
-      </c>
-      <c r="B121" t="s">
-        <v>185</v>
+        <v>4010</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>201</v>
       </c>
       <c r="C121" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122">
-        <v>11080</v>
-      </c>
-      <c r="B122" t="s">
-        <v>186</v>
+        <v>4011</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>202</v>
       </c>
       <c r="C122" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123">
-        <v>11090</v>
-      </c>
-      <c r="B123" t="s">
-        <v>187</v>
+        <v>5000</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>203</v>
       </c>
       <c r="C123" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="124" ht="26" spans="1:3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
       <c r="A124">
-        <v>11100</v>
+        <v>5001</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>188</v>
+        <v>83</v>
       </c>
       <c r="C124" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125">
-        <v>13010</v>
-      </c>
-      <c r="B125" t="s">
-        <v>189</v>
+        <v>5002</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>204</v>
       </c>
       <c r="C125" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126">
-        <v>14010</v>
+        <v>11010</v>
       </c>
       <c r="B126" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="C126" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127">
-        <v>14020</v>
+        <v>11020</v>
       </c>
       <c r="B127" t="s">
-        <v>191</v>
+        <v>206</v>
       </c>
       <c r="C127" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128">
-        <v>14030</v>
+        <v>11030</v>
       </c>
       <c r="B128" t="s">
-        <v>192</v>
+        <v>207</v>
       </c>
       <c r="C128" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129">
-        <v>14040</v>
+        <v>11040</v>
       </c>
       <c r="B129" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="C129" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130">
-        <v>14041</v>
+        <v>11050</v>
       </c>
       <c r="B130" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="C130" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131">
-        <v>14042</v>
+        <v>11060</v>
       </c>
       <c r="B131" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="C131" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132">
-        <v>14051</v>
+        <v>11070</v>
       </c>
       <c r="B132" t="s">
-        <v>196</v>
+        <v>211</v>
       </c>
       <c r="C132" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133">
-        <v>14060</v>
+        <v>11080</v>
       </c>
       <c r="B133" t="s">
-        <v>197</v>
+        <v>212</v>
       </c>
       <c r="C133" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134">
-        <v>14070</v>
+        <v>11090</v>
       </c>
       <c r="B134" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="C134" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="135" ht="26" spans="1:3">
       <c r="A135">
-        <v>14071</v>
-      </c>
-      <c r="B135" t="s">
-        <v>199</v>
+        <v>11100</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>214</v>
       </c>
       <c r="C135" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136">
-        <v>15010</v>
+        <v>13010</v>
       </c>
       <c r="B136" t="s">
-        <v>200</v>
+        <v>215</v>
       </c>
       <c r="C136" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137">
-        <v>15020</v>
+        <v>14010</v>
       </c>
       <c r="B137" t="s">
-        <v>201</v>
+        <v>216</v>
       </c>
       <c r="C137" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138">
-        <v>15030</v>
+        <v>14020</v>
       </c>
       <c r="B138" t="s">
-        <v>202</v>
+        <v>217</v>
       </c>
       <c r="C138" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139">
-        <v>16010</v>
+        <v>14030</v>
       </c>
       <c r="B139" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="C139" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140">
-        <v>16020</v>
+        <v>14040</v>
       </c>
       <c r="B140" t="s">
-        <v>204</v>
+        <v>219</v>
       </c>
       <c r="C140" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141">
+        <v>14041</v>
+      </c>
+      <c r="B141" t="s">
+        <v>220</v>
+      </c>
+      <c r="C141" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142">
+        <v>14042</v>
+      </c>
+      <c r="B142" t="s">
+        <v>221</v>
+      </c>
+      <c r="C142" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143">
+        <v>14051</v>
+      </c>
+      <c r="B143" t="s">
+        <v>222</v>
+      </c>
+      <c r="C143" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144">
+        <v>14060</v>
+      </c>
+      <c r="B144" t="s">
+        <v>223</v>
+      </c>
+      <c r="C144" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145">
+        <v>14070</v>
+      </c>
+      <c r="B145" t="s">
+        <v>224</v>
+      </c>
+      <c r="C145" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146">
+        <v>14071</v>
+      </c>
+      <c r="B146" t="s">
+        <v>225</v>
+      </c>
+      <c r="C146" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147">
+        <v>15010</v>
+      </c>
+      <c r="B147" t="s">
+        <v>226</v>
+      </c>
+      <c r="C147" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148">
+        <v>15020</v>
+      </c>
+      <c r="B148" t="s">
+        <v>227</v>
+      </c>
+      <c r="C148" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149">
+        <v>15030</v>
+      </c>
+      <c r="B149" t="s">
+        <v>228</v>
+      </c>
+      <c r="C149" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150">
+        <v>16010</v>
+      </c>
+      <c r="B150" t="s">
+        <v>229</v>
+      </c>
+      <c r="C150" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151">
+        <v>16020</v>
+      </c>
+      <c r="B151" t="s">
+        <v>230</v>
+      </c>
+      <c r="C151" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152">
         <v>16030</v>
       </c>
-      <c r="B141" t="s">
-        <v>205</v>
-      </c>
-      <c r="C141" t="s">
-        <v>67</v>
+      <c r="B152" t="s">
+        <v>231</v>
+      </c>
+      <c r="C152" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/Data/System.xlsx
+++ b/Assets/Resources/Data/System.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="233">
   <si>
     <t>Id</t>
   </si>
@@ -191,6 +191,9 @@
   </si>
   <si>
     <t>ENEMYINFO_BATTLE</t>
+  </si>
+  <si>
+    <t>RULING</t>
   </si>
   <si>
     <t>ActorId</t>
@@ -747,8 +750,24 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -762,10 +781,25 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -776,9 +810,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF800080"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -792,33 +826,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -837,16 +848,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
@@ -875,21 +893,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -900,13 +903,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -924,13 +981,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -942,61 +1017,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1014,73 +1077,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1091,6 +1094,35 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1148,24 +1180,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1180,17 +1194,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1199,7 +1202,7 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1208,7 +1211,7 @@
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1217,139 +1220,136 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2077,10 +2077,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D117"/>
+  <dimension ref="A1:D120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="C80" sqref="C80"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="C68" sqref="C68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="3"/>
@@ -2996,7 +2996,7 @@
         <v>6</v>
       </c>
       <c r="C67">
-        <v>803</v>
+        <v>809</v>
       </c>
       <c r="D67" t="s">
         <v>27</v>
@@ -3699,6 +3699,48 @@
         <v>800</v>
       </c>
       <c r="D117" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" t="s">
+        <v>57</v>
+      </c>
+      <c r="B118">
+        <v>5</v>
+      </c>
+      <c r="C118">
+        <v>804</v>
+      </c>
+      <c r="D118" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" t="s">
+        <v>57</v>
+      </c>
+      <c r="B119">
+        <v>1</v>
+      </c>
+      <c r="C119">
+        <v>801</v>
+      </c>
+      <c r="D119" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" t="s">
+        <v>57</v>
+      </c>
+      <c r="B120">
+        <v>0</v>
+      </c>
+      <c r="C120">
+        <v>800</v>
+      </c>
+      <c r="D120" t="s">
         <v>36</v>
       </c>
     </row>
@@ -3724,28 +3766,28 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B3" s="4">
+        <v>61</v>
+      </c>
+      <c r="B3" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B4">
         <v>4</v>
@@ -3753,7 +3795,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -3761,7 +3803,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B6">
         <v>3</v>
@@ -3769,7 +3811,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B7">
         <v>4</v>
@@ -3777,7 +3819,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B8">
         <v>3</v>
@@ -3809,10 +3851,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" ht="14" spans="1:7">
@@ -3820,10 +3862,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G2" s="1"/>
     </row>
@@ -3832,10 +3874,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3843,10 +3885,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3854,10 +3896,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3865,10 +3907,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3876,10 +3918,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3887,10 +3929,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" ht="14" spans="1:7">
@@ -3898,10 +3940,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C9" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G9" s="1"/>
     </row>
@@ -3910,10 +3952,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C10" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G10" s="1"/>
     </row>
@@ -3922,10 +3964,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -3933,10 +3975,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C12" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -3944,10 +3986,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C13" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -3955,10 +3997,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C14" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" ht="14" spans="1:7">
@@ -3966,10 +4008,10 @@
         <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C15" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G15" s="1"/>
     </row>
@@ -3978,10 +4020,10 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C16" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G16" s="1"/>
     </row>
@@ -3990,10 +4032,10 @@
         <v>101</v>
       </c>
       <c r="B17" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C17" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -4001,10 +4043,10 @@
         <v>102</v>
       </c>
       <c r="B18" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C18" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -4012,10 +4054,10 @@
         <v>103</v>
       </c>
       <c r="B19" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C19" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -4023,10 +4065,10 @@
         <v>201</v>
       </c>
       <c r="B20" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C20" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -4034,10 +4076,10 @@
         <v>202</v>
       </c>
       <c r="B21" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C21" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="22" customFormat="1" spans="1:3">
@@ -4045,10 +4087,10 @@
         <v>300</v>
       </c>
       <c r="B22" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C22" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -4056,10 +4098,10 @@
         <v>301</v>
       </c>
       <c r="B23" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C23" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -4067,10 +4109,10 @@
         <v>302</v>
       </c>
       <c r="B24" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C24" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -4078,10 +4120,10 @@
         <v>303</v>
       </c>
       <c r="B25" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C25" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -4089,10 +4131,10 @@
         <v>304</v>
       </c>
       <c r="B26" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C26" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -4100,10 +4142,10 @@
         <v>310</v>
       </c>
       <c r="B27" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C27" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -4111,10 +4153,10 @@
         <v>311</v>
       </c>
       <c r="B28" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C28" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -4122,10 +4164,10 @@
         <v>312</v>
       </c>
       <c r="B29" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C29" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -4133,10 +4175,10 @@
         <v>313</v>
       </c>
       <c r="B30" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C30" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -4144,10 +4186,10 @@
         <v>314</v>
       </c>
       <c r="B31" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C31" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -4155,10 +4197,10 @@
         <v>315</v>
       </c>
       <c r="B32" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C32" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -4166,10 +4208,10 @@
         <v>316</v>
       </c>
       <c r="B33" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C33" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -4177,10 +4219,10 @@
         <v>317</v>
       </c>
       <c r="B34" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C34" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -4188,10 +4230,10 @@
         <v>321</v>
       </c>
       <c r="B35" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C35" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -4199,10 +4241,10 @@
         <v>322</v>
       </c>
       <c r="B36" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C36" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -4210,10 +4252,10 @@
         <v>323</v>
       </c>
       <c r="B37" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C37" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -4221,10 +4263,10 @@
         <v>324</v>
       </c>
       <c r="B38" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C38" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -4232,10 +4274,10 @@
         <v>325</v>
       </c>
       <c r="B39" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C39" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -4243,10 +4285,10 @@
         <v>326</v>
       </c>
       <c r="B40" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C40" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -4254,10 +4296,10 @@
         <v>327</v>
       </c>
       <c r="B41" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C41" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -4265,10 +4307,10 @@
         <v>328</v>
       </c>
       <c r="B42" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C42" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -4276,10 +4318,10 @@
         <v>330</v>
       </c>
       <c r="B43" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C43" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -4287,10 +4329,10 @@
         <v>331</v>
       </c>
       <c r="B44" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C44" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -4298,10 +4340,10 @@
         <v>332</v>
       </c>
       <c r="B45" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C45" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -4309,10 +4351,10 @@
         <v>333</v>
       </c>
       <c r="B46" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C46" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -4320,10 +4362,10 @@
         <v>334</v>
       </c>
       <c r="B47" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C47" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -4331,13 +4373,13 @@
         <v>400</v>
       </c>
       <c r="B48" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C48" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D48" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -4345,10 +4387,10 @@
         <v>401</v>
       </c>
       <c r="B49" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C49" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -4356,10 +4398,10 @@
         <v>402</v>
       </c>
       <c r="B50" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C50" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -4367,10 +4409,10 @@
         <v>403</v>
       </c>
       <c r="B51" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C51" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -4378,10 +4420,10 @@
         <v>404</v>
       </c>
       <c r="B52" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C52" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -4389,10 +4431,10 @@
         <v>405</v>
       </c>
       <c r="B53" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C53" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -4400,10 +4442,10 @@
         <v>410</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C54" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -4411,10 +4453,10 @@
         <v>501</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C55" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -4422,10 +4464,10 @@
         <v>502</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C56" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -4433,10 +4475,10 @@
         <v>503</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C57" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -4444,10 +4486,10 @@
         <v>504</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C58" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -4455,10 +4497,10 @@
         <v>505</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C59" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -4466,10 +4508,10 @@
         <v>506</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C60" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -4477,10 +4519,10 @@
         <v>507</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C61" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -4488,10 +4530,10 @@
         <v>521</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C62" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -4499,10 +4541,10 @@
         <v>522</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C63" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -4510,10 +4552,10 @@
         <v>526</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C64" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -4521,10 +4563,10 @@
         <v>527</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C65" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -4532,10 +4574,10 @@
         <v>531</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C66" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -4543,10 +4585,10 @@
         <v>532</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C67" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -4554,10 +4596,10 @@
         <v>536</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C68" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -4565,10 +4607,10 @@
         <v>700</v>
       </c>
       <c r="B69" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C69" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -4579,40 +4621,40 @@
         <v>27</v>
       </c>
       <c r="C70" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71">
         <v>702</v>
       </c>
-      <c r="B71" s="3" t="s">
-        <v>157</v>
+      <c r="B71" s="2" t="s">
+        <v>158</v>
       </c>
       <c r="C71" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72">
         <v>703</v>
       </c>
-      <c r="B72" s="3" t="s">
-        <v>89</v>
+      <c r="B72" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="C72" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73">
         <v>704</v>
       </c>
-      <c r="B73" s="3" t="s">
-        <v>90</v>
+      <c r="B73" s="2" t="s">
+        <v>91</v>
       </c>
       <c r="C73" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -4620,10 +4662,10 @@
         <v>800</v>
       </c>
       <c r="B74" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C74" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -4631,10 +4673,10 @@
         <v>801</v>
       </c>
       <c r="B75" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C75" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -4645,7 +4687,7 @@
         <v>26</v>
       </c>
       <c r="C76" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -4656,7 +4698,7 @@
         <v>27</v>
       </c>
       <c r="C77" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -4664,10 +4706,10 @@
         <v>804</v>
       </c>
       <c r="B78" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C78" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -4675,10 +4717,10 @@
         <v>805</v>
       </c>
       <c r="B79" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C79" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -4686,10 +4728,10 @@
         <v>806</v>
       </c>
       <c r="B80" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C80" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -4697,10 +4739,10 @@
         <v>807</v>
       </c>
       <c r="B81" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C81" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -4708,10 +4750,10 @@
         <v>808</v>
       </c>
       <c r="B82" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C82" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -4719,10 +4761,10 @@
         <v>809</v>
       </c>
       <c r="B83" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C83" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -4730,10 +4772,10 @@
         <v>810</v>
       </c>
       <c r="B84" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C84" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -4741,10 +4783,10 @@
         <v>811</v>
       </c>
       <c r="B85" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C85" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -4752,10 +4794,10 @@
         <v>812</v>
       </c>
       <c r="B86" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C86" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -4763,10 +4805,10 @@
         <v>813</v>
       </c>
       <c r="B87" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C87" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -4774,10 +4816,10 @@
         <v>814</v>
       </c>
       <c r="B88" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C88" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -4785,10 +4827,10 @@
         <v>1000</v>
       </c>
       <c r="B89" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C89" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -4796,10 +4838,10 @@
         <v>1010</v>
       </c>
       <c r="B90" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C90" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -4807,10 +4849,10 @@
         <v>1020</v>
       </c>
       <c r="B91" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C91" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="92" ht="26" spans="1:3">
@@ -4818,10 +4860,10 @@
         <v>1030</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C92" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="93" customFormat="1" spans="1:3">
@@ -4829,10 +4871,10 @@
         <v>1040</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C93" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="94" customFormat="1" spans="1:3">
@@ -4840,10 +4882,10 @@
         <v>1050</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C94" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="95" customFormat="1" spans="1:3">
@@ -4851,10 +4893,10 @@
         <v>1060</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C95" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="96" customFormat="1" spans="1:3">
@@ -4862,10 +4904,10 @@
         <v>1070</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C96" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="97" customFormat="1" ht="26" spans="1:3">
@@ -4873,10 +4915,10 @@
         <v>1080</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C97" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="98" customFormat="1" spans="1:3">
@@ -4884,10 +4926,10 @@
         <v>1090</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C98" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="99" customFormat="1" ht="26" spans="1:3">
@@ -4895,10 +4937,10 @@
         <v>1100</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C99" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -4906,10 +4948,10 @@
         <v>2000</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C100" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="101" ht="26" spans="1:3">
@@ -4917,10 +4959,10 @@
         <v>2010</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C101" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -4928,10 +4970,10 @@
         <v>3000</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C102" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -4939,10 +4981,10 @@
         <v>3001</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C103" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -4950,10 +4992,10 @@
         <v>3002</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C104" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -4961,10 +5003,10 @@
         <v>3003</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C105" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -4972,10 +5014,10 @@
         <v>3004</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C106" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -4983,10 +5025,10 @@
         <v>3010</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C107" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -4994,10 +5036,10 @@
         <v>3011</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C108" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -5005,10 +5047,10 @@
         <v>3012</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C109" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -5016,10 +5058,10 @@
         <v>3013</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C110" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -5027,10 +5069,10 @@
         <v>3020</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C111" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -5038,10 +5080,10 @@
         <v>3021</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C112" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -5049,10 +5091,10 @@
         <v>3030</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C113" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -5060,10 +5102,10 @@
         <v>3031</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C114" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -5071,10 +5113,10 @@
         <v>3040</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C115" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -5085,7 +5127,7 @@
         <v>26</v>
       </c>
       <c r="C116" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -5093,10 +5135,10 @@
         <v>3051</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C117" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -5104,10 +5146,10 @@
         <v>3052</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C118" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -5115,10 +5157,10 @@
         <v>3060</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C119" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -5126,10 +5168,10 @@
         <v>4000</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C120" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -5137,10 +5179,10 @@
         <v>4010</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C121" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -5148,10 +5190,10 @@
         <v>4011</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C122" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -5159,10 +5201,10 @@
         <v>5000</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C123" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -5170,10 +5212,10 @@
         <v>5001</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C124" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -5181,10 +5223,10 @@
         <v>5002</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C125" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -5192,10 +5234,10 @@
         <v>11010</v>
       </c>
       <c r="B126" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C126" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -5203,10 +5245,10 @@
         <v>11020</v>
       </c>
       <c r="B127" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C127" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -5214,10 +5256,10 @@
         <v>11030</v>
       </c>
       <c r="B128" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C128" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -5225,10 +5267,10 @@
         <v>11040</v>
       </c>
       <c r="B129" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C129" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -5236,10 +5278,10 @@
         <v>11050</v>
       </c>
       <c r="B130" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C130" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -5247,10 +5289,10 @@
         <v>11060</v>
       </c>
       <c r="B131" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C131" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -5258,10 +5300,10 @@
         <v>11070</v>
       </c>
       <c r="B132" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C132" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -5269,10 +5311,10 @@
         <v>11080</v>
       </c>
       <c r="B133" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C133" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -5280,10 +5322,10 @@
         <v>11090</v>
       </c>
       <c r="B134" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C134" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="135" ht="26" spans="1:3">
@@ -5291,10 +5333,10 @@
         <v>11100</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C135" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -5302,10 +5344,10 @@
         <v>13010</v>
       </c>
       <c r="B136" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C136" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -5313,10 +5355,10 @@
         <v>14010</v>
       </c>
       <c r="B137" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C137" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -5324,10 +5366,10 @@
         <v>14020</v>
       </c>
       <c r="B138" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C138" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -5335,10 +5377,10 @@
         <v>14030</v>
       </c>
       <c r="B139" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C139" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -5346,10 +5388,10 @@
         <v>14040</v>
       </c>
       <c r="B140" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C140" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -5357,10 +5399,10 @@
         <v>14041</v>
       </c>
       <c r="B141" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C141" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -5368,10 +5410,10 @@
         <v>14042</v>
       </c>
       <c r="B142" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C142" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -5379,10 +5421,10 @@
         <v>14051</v>
       </c>
       <c r="B143" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C143" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -5390,10 +5432,10 @@
         <v>14060</v>
       </c>
       <c r="B144" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C144" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -5401,10 +5443,10 @@
         <v>14070</v>
       </c>
       <c r="B145" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C145" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -5412,10 +5454,10 @@
         <v>14071</v>
       </c>
       <c r="B146" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C146" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -5423,10 +5465,10 @@
         <v>15010</v>
       </c>
       <c r="B147" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C147" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -5434,10 +5476,10 @@
         <v>15020</v>
       </c>
       <c r="B148" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C148" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -5445,10 +5487,10 @@
         <v>15030</v>
       </c>
       <c r="B149" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C149" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -5456,10 +5498,10 @@
         <v>16010</v>
       </c>
       <c r="B150" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C150" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -5467,10 +5509,10 @@
         <v>16020</v>
       </c>
       <c r="B151" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C151" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -5478,10 +5520,10 @@
         <v>16030</v>
       </c>
       <c r="B152" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C152" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/Data/System.xlsx
+++ b/Assets/Resources/Data/System.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7070" firstSheet="3" activeTab="4"/>
+    <workbookView windowWidth="19200" windowHeight="7070" firstSheet="3" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="TacticsComand" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="238">
   <si>
     <t>Id</t>
   </si>
@@ -91,6 +91,9 @@
     <t>BATTLE_ANIMATION</t>
   </si>
   <si>
+    <t>INPUT_TYPE</t>
+  </si>
+  <si>
     <t>KeyId</t>
   </si>
   <si>
@@ -469,6 +472,12 @@
     <t xml:space="preserve"> - バトルアニメーション演出表示の有無を切り替えます</t>
   </si>
   <si>
+    <t>Input Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - キーボード・ゲームパッド操作を有効にするか変更します</t>
+  </si>
+  <si>
     <t>Normal</t>
   </si>
   <si>
@@ -488,6 +497,12 @@
   </si>
   <si>
     <t>表示する</t>
+  </si>
+  <si>
+    <t>マウス</t>
+  </si>
+  <si>
+    <t>キーボード・ゲームパッド</t>
   </si>
   <si>
     <t>版権表示</t>
@@ -732,8 +747,8 @@
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -751,7 +766,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
@@ -765,11 +780,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -780,31 +816,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -818,31 +847,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -856,13 +869,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -871,10 +877,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -893,6 +900,14 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -903,7 +918,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -915,49 +1050,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -969,79 +1062,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1059,31 +1086,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1099,29 +1114,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1141,17 +1136,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1171,11 +1160,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1194,6 +1198,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1202,19 +1217,19 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1223,124 +1238,124 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1900,13 +1915,13 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelRow="7" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="5"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
@@ -2066,6 +2081,26 @@
       </c>
       <c r="F8">
         <v>527</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9">
+        <v>508</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>541</v>
+      </c>
+      <c r="F9">
+        <v>542</v>
       </c>
     </row>
   </sheetData>
@@ -2079,7 +2114,7 @@
   <sheetPr/>
   <dimension ref="A1:D120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+    <sheetView topLeftCell="A55" workbookViewId="0">
       <selection activeCell="C68" sqref="C68"/>
     </sheetView>
   </sheetViews>
@@ -2093,15 +2128,15 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B2">
         <v>4</v>
@@ -2110,12 +2145,12 @@
         <v>802</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B3">
         <v>6</v>
@@ -2124,12 +2159,12 @@
         <v>803</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -2138,12 +2173,12 @@
         <v>801</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -2152,12 +2187,12 @@
         <v>800</v>
       </c>
       <c r="D5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B6">
         <v>4</v>
@@ -2166,12 +2201,12 @@
         <v>802</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B7">
         <v>5</v>
@@ -2180,12 +2215,12 @@
         <v>804</v>
       </c>
       <c r="D7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B8">
         <v>3</v>
@@ -2194,12 +2229,12 @@
         <v>801</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B9">
         <v>2</v>
@@ -2208,12 +2243,12 @@
         <v>800</v>
       </c>
       <c r="D9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B10">
         <v>5</v>
@@ -2222,12 +2257,12 @@
         <v>804</v>
       </c>
       <c r="D10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B11">
         <v>3</v>
@@ -2238,7 +2273,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B12">
         <v>2</v>
@@ -2249,7 +2284,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -2260,7 +2295,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -2271,7 +2306,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B15">
         <v>5</v>
@@ -2280,12 +2315,12 @@
         <v>804</v>
       </c>
       <c r="D15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B16">
         <v>4</v>
@@ -2294,12 +2329,12 @@
         <v>802</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B17">
         <v>6</v>
@@ -2308,12 +2343,12 @@
         <v>803</v>
       </c>
       <c r="D17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B18">
         <v>3</v>
@@ -2322,12 +2357,12 @@
         <v>801</v>
       </c>
       <c r="D18" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B19">
         <v>2</v>
@@ -2336,7 +2371,7 @@
         <v>800</v>
       </c>
       <c r="D19" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -2350,7 +2385,7 @@
         <v>802</v>
       </c>
       <c r="D20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -2364,7 +2399,7 @@
         <v>804</v>
       </c>
       <c r="D21" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -2378,7 +2413,7 @@
         <v>801</v>
       </c>
       <c r="D22" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -2392,7 +2427,7 @@
         <v>800</v>
       </c>
       <c r="D23" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -2406,7 +2441,7 @@
         <v>802</v>
       </c>
       <c r="D24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -2420,7 +2455,7 @@
         <v>804</v>
       </c>
       <c r="D25" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -2434,7 +2469,7 @@
         <v>801</v>
       </c>
       <c r="D26" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -2448,12 +2483,12 @@
         <v>800</v>
       </c>
       <c r="D27" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B28">
         <v>4</v>
@@ -2462,12 +2497,12 @@
         <v>802</v>
       </c>
       <c r="D28" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B29">
         <v>5</v>
@@ -2476,12 +2511,12 @@
         <v>804</v>
       </c>
       <c r="D29" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B30">
         <v>3</v>
@@ -2490,12 +2525,12 @@
         <v>801</v>
       </c>
       <c r="D30" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B31">
         <v>2</v>
@@ -2504,12 +2539,12 @@
         <v>800</v>
       </c>
       <c r="D31" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B32">
         <v>4</v>
@@ -2518,12 +2553,12 @@
         <v>802</v>
       </c>
       <c r="D32" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B33">
         <v>5</v>
@@ -2532,12 +2567,12 @@
         <v>804</v>
       </c>
       <c r="D33" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -2546,12 +2581,12 @@
         <v>801</v>
       </c>
       <c r="D34" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -2560,12 +2595,12 @@
         <v>800</v>
       </c>
       <c r="D35" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B36">
         <v>4</v>
@@ -2574,12 +2609,12 @@
         <v>802</v>
       </c>
       <c r="D36" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B37">
         <v>5</v>
@@ -2588,12 +2623,12 @@
         <v>804</v>
       </c>
       <c r="D37" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B38">
         <v>3</v>
@@ -2604,7 +2639,7 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B39">
         <v>2</v>
@@ -2615,7 +2650,7 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B40">
         <v>1</v>
@@ -2624,12 +2659,12 @@
         <v>801</v>
       </c>
       <c r="D40" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -2638,12 +2673,12 @@
         <v>800</v>
       </c>
       <c r="D41" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B42">
         <v>4</v>
@@ -2652,12 +2687,12 @@
         <v>802</v>
       </c>
       <c r="D42" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B43">
         <v>5</v>
@@ -2666,12 +2701,12 @@
         <v>804</v>
       </c>
       <c r="D43" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B44">
         <v>6</v>
@@ -2680,12 +2715,12 @@
         <v>809</v>
       </c>
       <c r="D44" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B45">
         <v>3</v>
@@ -2694,12 +2729,12 @@
         <v>801</v>
       </c>
       <c r="D45" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B46">
         <v>2</v>
@@ -2708,12 +2743,12 @@
         <v>800</v>
       </c>
       <c r="D46" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B47">
         <v>1</v>
@@ -2722,12 +2757,12 @@
         <v>800</v>
       </c>
       <c r="D47" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -2736,12 +2771,12 @@
         <v>800</v>
       </c>
       <c r="D48" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B49">
         <v>4</v>
@@ -2750,12 +2785,12 @@
         <v>802</v>
       </c>
       <c r="D49" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B50">
         <v>5</v>
@@ -2764,12 +2799,12 @@
         <v>804</v>
       </c>
       <c r="D50" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B51">
         <v>1</v>
@@ -2778,12 +2813,12 @@
         <v>801</v>
       </c>
       <c r="D51" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -2792,7 +2827,7 @@
         <v>800</v>
       </c>
       <c r="D52" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -2806,7 +2841,7 @@
         <v>802</v>
       </c>
       <c r="D53" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -2820,7 +2855,7 @@
         <v>804</v>
       </c>
       <c r="D54" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -2834,7 +2869,7 @@
         <v>801</v>
       </c>
       <c r="D55" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -2848,12 +2883,12 @@
         <v>800</v>
       </c>
       <c r="D56" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B57">
         <v>12</v>
@@ -2862,12 +2897,12 @@
         <v>802</v>
       </c>
       <c r="D57" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B58">
         <v>4</v>
@@ -2878,7 +2913,7 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B59">
         <v>6</v>
@@ -2887,12 +2922,12 @@
         <v>803</v>
       </c>
       <c r="D59" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B60">
         <v>1</v>
@@ -2901,12 +2936,12 @@
         <v>801</v>
       </c>
       <c r="D60" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -2915,12 +2950,12 @@
         <v>800</v>
       </c>
       <c r="D61" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B62">
         <v>4</v>
@@ -2929,12 +2964,12 @@
         <v>802</v>
       </c>
       <c r="D62" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B63">
         <v>3</v>
@@ -2943,12 +2978,12 @@
         <v>801</v>
       </c>
       <c r="D63" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B64">
         <v>2</v>
@@ -2957,12 +2992,12 @@
         <v>800</v>
       </c>
       <c r="D64" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B65">
         <v>4</v>
@@ -2971,12 +3006,12 @@
         <v>802</v>
       </c>
       <c r="D65" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B66">
         <v>4</v>
@@ -2985,12 +3020,12 @@
         <v>802</v>
       </c>
       <c r="D66" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B67">
         <v>6</v>
@@ -2999,12 +3034,12 @@
         <v>809</v>
       </c>
       <c r="D67" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B68">
         <v>3</v>
@@ -3013,12 +3048,12 @@
         <v>801</v>
       </c>
       <c r="D68" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B69">
         <v>2</v>
@@ -3027,7 +3062,7 @@
         <v>800</v>
       </c>
       <c r="D69" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -3041,7 +3076,7 @@
         <v>802</v>
       </c>
       <c r="D70" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -3055,7 +3090,7 @@
         <v>807</v>
       </c>
       <c r="D71" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -3069,7 +3104,7 @@
         <v>803</v>
       </c>
       <c r="D72" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -3083,7 +3118,7 @@
         <v>806</v>
       </c>
       <c r="D73" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -3097,7 +3132,7 @@
         <v>800</v>
       </c>
       <c r="D74" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -3111,7 +3146,7 @@
         <v>801</v>
       </c>
       <c r="D75" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -3125,12 +3160,12 @@
         <v>800</v>
       </c>
       <c r="D76" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B77">
         <v>4</v>
@@ -3139,12 +3174,12 @@
         <v>802</v>
       </c>
       <c r="D77" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B78">
         <v>5</v>
@@ -3153,12 +3188,12 @@
         <v>804</v>
       </c>
       <c r="D78" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B79">
         <v>6</v>
@@ -3167,12 +3202,12 @@
         <v>809</v>
       </c>
       <c r="D79" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B80">
         <v>1</v>
@@ -3181,12 +3216,12 @@
         <v>808</v>
       </c>
       <c r="D80" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -3195,12 +3230,12 @@
         <v>800</v>
       </c>
       <c r="D81" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B82">
         <v>3</v>
@@ -3209,12 +3244,12 @@
         <v>801</v>
       </c>
       <c r="D82" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B83">
         <v>2</v>
@@ -3223,12 +3258,12 @@
         <v>800</v>
       </c>
       <c r="D83" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B84">
         <v>4</v>
@@ -3237,12 +3272,12 @@
         <v>802</v>
       </c>
       <c r="D84" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B85">
         <v>5</v>
@@ -3251,12 +3286,12 @@
         <v>804</v>
       </c>
       <c r="D85" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B86">
         <v>1</v>
@@ -3265,12 +3300,12 @@
         <v>801</v>
       </c>
       <c r="D86" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -3279,7 +3314,7 @@
         <v>800</v>
       </c>
       <c r="D87" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -3293,7 +3328,7 @@
         <v>811</v>
       </c>
       <c r="D88" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -3307,7 +3342,7 @@
         <v>804</v>
       </c>
       <c r="D89" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -3321,7 +3356,7 @@
         <v>810</v>
       </c>
       <c r="D90" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -3335,12 +3370,12 @@
         <v>800</v>
       </c>
       <c r="D91" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B92">
         <v>4</v>
@@ -3349,12 +3384,12 @@
         <v>811</v>
       </c>
       <c r="D92" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B93">
         <v>12</v>
@@ -3363,12 +3398,12 @@
         <v>802</v>
       </c>
       <c r="D93" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B94">
         <v>5</v>
@@ -3377,12 +3412,12 @@
         <v>804</v>
       </c>
       <c r="D94" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B95">
         <v>9</v>
@@ -3391,12 +3426,12 @@
         <v>810</v>
       </c>
       <c r="D95" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B96">
         <v>8</v>
@@ -3405,12 +3440,12 @@
         <v>800</v>
       </c>
       <c r="D96" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B97">
         <v>4</v>
@@ -3419,12 +3454,12 @@
         <v>812</v>
       </c>
       <c r="D97" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B98">
         <v>5</v>
@@ -3433,12 +3468,12 @@
         <v>804</v>
       </c>
       <c r="D98" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B99">
         <v>9</v>
@@ -3447,12 +3482,12 @@
         <v>806</v>
       </c>
       <c r="D99" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B100">
         <v>8</v>
@@ -3461,12 +3496,12 @@
         <v>800</v>
       </c>
       <c r="D100" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B101">
         <v>1</v>
@@ -3475,12 +3510,12 @@
         <v>801</v>
       </c>
       <c r="D101" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -3489,12 +3524,12 @@
         <v>800</v>
       </c>
       <c r="D102" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B103">
         <v>5</v>
@@ -3503,12 +3538,12 @@
         <v>804</v>
       </c>
       <c r="D103" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B104">
         <v>9</v>
@@ -3517,12 +3552,12 @@
         <v>806</v>
       </c>
       <c r="D104" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B105">
         <v>8</v>
@@ -3531,12 +3566,12 @@
         <v>800</v>
       </c>
       <c r="D105" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B106">
         <v>1</v>
@@ -3545,12 +3580,12 @@
         <v>801</v>
       </c>
       <c r="D106" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B107">
         <v>0</v>
@@ -3559,12 +3594,12 @@
         <v>800</v>
       </c>
       <c r="D107" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B108">
         <v>5</v>
@@ -3573,12 +3608,12 @@
         <v>804</v>
       </c>
       <c r="D108" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B109">
         <v>9</v>
@@ -3587,12 +3622,12 @@
         <v>813</v>
       </c>
       <c r="D109" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B110">
         <v>8</v>
@@ -3601,12 +3636,12 @@
         <v>800</v>
       </c>
       <c r="D110" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B111">
         <v>1</v>
@@ -3615,12 +3650,12 @@
         <v>801</v>
       </c>
       <c r="D111" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B112">
         <v>0</v>
@@ -3629,12 +3664,12 @@
         <v>800</v>
       </c>
       <c r="D112" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B113">
         <v>5</v>
@@ -3643,12 +3678,12 @@
         <v>804</v>
       </c>
       <c r="D113" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="114" spans="1:4">
       <c r="A114" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B114">
         <v>9</v>
@@ -3657,12 +3692,12 @@
         <v>814</v>
       </c>
       <c r="D114" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B115">
         <v>8</v>
@@ -3671,12 +3706,12 @@
         <v>800</v>
       </c>
       <c r="D115" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B116">
         <v>1</v>
@@ -3685,12 +3720,12 @@
         <v>801</v>
       </c>
       <c r="D116" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B117">
         <v>0</v>
@@ -3699,12 +3734,12 @@
         <v>800</v>
       </c>
       <c r="D117" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="118" spans="1:4">
       <c r="A118" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B118">
         <v>5</v>
@@ -3713,12 +3748,12 @@
         <v>804</v>
       </c>
       <c r="D118" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="119" spans="1:4">
       <c r="A119" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B119">
         <v>1</v>
@@ -3727,12 +3762,12 @@
         <v>801</v>
       </c>
       <c r="D119" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="A120" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B120">
         <v>0</v>
@@ -3741,7 +3776,7 @@
         <v>800</v>
       </c>
       <c r="D120" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -3755,7 +3790,7 @@
   <sheetPr/>
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -3766,20 +3801,20 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B3" s="3">
         <v>5</v>
@@ -3787,7 +3822,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B4">
         <v>4</v>
@@ -3795,7 +3830,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -3803,7 +3838,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B6">
         <v>3</v>
@@ -3811,7 +3846,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B7">
         <v>4</v>
@@ -3819,7 +3854,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B8">
         <v>3</v>
@@ -3834,10 +3869,10 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G152"/>
+  <dimension ref="A1:G156"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="B90" sqref="B90"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="6"/>
@@ -3851,10 +3886,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" ht="14" spans="1:7">
@@ -3862,10 +3897,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G2" s="1"/>
     </row>
@@ -3874,10 +3909,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3885,10 +3920,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3896,10 +3931,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3907,10 +3942,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3918,10 +3953,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3929,10 +3964,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" ht="14" spans="1:7">
@@ -3940,10 +3975,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C9" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G9" s="1"/>
     </row>
@@ -3952,10 +3987,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C10" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G10" s="1"/>
     </row>
@@ -3964,10 +3999,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C11" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -3975,10 +4010,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C12" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -3986,10 +4021,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C13" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -3997,10 +4032,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C14" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" ht="14" spans="1:7">
@@ -4008,10 +4043,10 @@
         <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C15" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G15" s="1"/>
     </row>
@@ -4020,10 +4055,10 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C16" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G16" s="1"/>
     </row>
@@ -4032,10 +4067,10 @@
         <v>101</v>
       </c>
       <c r="B17" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C17" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -4043,10 +4078,10 @@
         <v>102</v>
       </c>
       <c r="B18" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C18" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -4054,10 +4089,10 @@
         <v>103</v>
       </c>
       <c r="B19" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C19" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -4065,10 +4100,10 @@
         <v>201</v>
       </c>
       <c r="B20" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C20" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -4076,10 +4111,10 @@
         <v>202</v>
       </c>
       <c r="B21" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C21" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="22" customFormat="1" spans="1:3">
@@ -4087,10 +4122,10 @@
         <v>300</v>
       </c>
       <c r="B22" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C22" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -4098,10 +4133,10 @@
         <v>301</v>
       </c>
       <c r="B23" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C23" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -4109,10 +4144,10 @@
         <v>302</v>
       </c>
       <c r="B24" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C24" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -4120,10 +4155,10 @@
         <v>303</v>
       </c>
       <c r="B25" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C25" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -4131,10 +4166,10 @@
         <v>304</v>
       </c>
       <c r="B26" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C26" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -4142,10 +4177,10 @@
         <v>310</v>
       </c>
       <c r="B27" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C27" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -4153,10 +4188,10 @@
         <v>311</v>
       </c>
       <c r="B28" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C28" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -4164,10 +4199,10 @@
         <v>312</v>
       </c>
       <c r="B29" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C29" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -4175,10 +4210,10 @@
         <v>313</v>
       </c>
       <c r="B30" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C30" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -4186,10 +4221,10 @@
         <v>314</v>
       </c>
       <c r="B31" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C31" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -4197,10 +4232,10 @@
         <v>315</v>
       </c>
       <c r="B32" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C32" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -4208,10 +4243,10 @@
         <v>316</v>
       </c>
       <c r="B33" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C33" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -4219,10 +4254,10 @@
         <v>317</v>
       </c>
       <c r="B34" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C34" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -4230,10 +4265,10 @@
         <v>321</v>
       </c>
       <c r="B35" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C35" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -4241,10 +4276,10 @@
         <v>322</v>
       </c>
       <c r="B36" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C36" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -4252,10 +4287,10 @@
         <v>323</v>
       </c>
       <c r="B37" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C37" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -4263,10 +4298,10 @@
         <v>324</v>
       </c>
       <c r="B38" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C38" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -4274,10 +4309,10 @@
         <v>325</v>
       </c>
       <c r="B39" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C39" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -4285,10 +4320,10 @@
         <v>326</v>
       </c>
       <c r="B40" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C40" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -4296,10 +4331,10 @@
         <v>327</v>
       </c>
       <c r="B41" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C41" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -4307,10 +4342,10 @@
         <v>328</v>
       </c>
       <c r="B42" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C42" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -4318,10 +4353,10 @@
         <v>330</v>
       </c>
       <c r="B43" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C43" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -4329,10 +4364,10 @@
         <v>331</v>
       </c>
       <c r="B44" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C44" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -4340,10 +4375,10 @@
         <v>332</v>
       </c>
       <c r="B45" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C45" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -4351,10 +4386,10 @@
         <v>333</v>
       </c>
       <c r="B46" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C46" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -4362,10 +4397,10 @@
         <v>334</v>
       </c>
       <c r="B47" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C47" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -4373,13 +4408,13 @@
         <v>400</v>
       </c>
       <c r="B48" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C48" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D48" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -4387,10 +4422,10 @@
         <v>401</v>
       </c>
       <c r="B49" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C49" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -4398,10 +4433,10 @@
         <v>402</v>
       </c>
       <c r="B50" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C50" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -4409,10 +4444,10 @@
         <v>403</v>
       </c>
       <c r="B51" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C51" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -4420,10 +4455,10 @@
         <v>404</v>
       </c>
       <c r="B52" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C52" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -4431,10 +4466,10 @@
         <v>405</v>
       </c>
       <c r="B53" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C53" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -4442,1088 +4477,1132 @@
         <v>410</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C54" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>135</v>
+        <v>85</v>
       </c>
       <c r="C55" t="s">
-        <v>136</v>
+        <v>98</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B56" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C56" t="s">
         <v>137</v>
-      </c>
-      <c r="C56" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B57" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C57" t="s">
         <v>139</v>
-      </c>
-      <c r="C57" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B58" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C58" t="s">
         <v>141</v>
-      </c>
-      <c r="C58" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B59" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C59" t="s">
         <v>143</v>
-      </c>
-      <c r="C59" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B60" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C60" t="s">
         <v>145</v>
-      </c>
-      <c r="C60" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B61" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C61" t="s">
         <v>147</v>
-      </c>
-      <c r="C61" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62">
-        <v>521</v>
+        <v>507</v>
       </c>
       <c r="B62" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C62" t="s">
         <v>149</v>
-      </c>
-      <c r="C62" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63">
-        <v>522</v>
+        <v>508</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>150</v>
       </c>
       <c r="C63" t="s">
-        <v>84</v>
+        <v>151</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C64" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C65" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C66" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C67" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C68" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69">
-        <v>700</v>
-      </c>
-      <c r="B69" t="s">
-        <v>156</v>
+        <v>532</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>157</v>
       </c>
       <c r="C69" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70">
-        <v>701</v>
-      </c>
-      <c r="B70" t="s">
-        <v>27</v>
+        <v>536</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>158</v>
       </c>
       <c r="C70" t="s">
-        <v>157</v>
+        <v>85</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71">
-        <v>702</v>
+        <v>541</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C71" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72">
-        <v>703</v>
+        <v>542</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>90</v>
+        <v>160</v>
       </c>
       <c r="C72" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73">
-        <v>704</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>91</v>
+        <v>700</v>
+      </c>
+      <c r="B73" t="s">
+        <v>161</v>
       </c>
       <c r="C73" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74">
-        <v>800</v>
+        <v>701</v>
       </c>
       <c r="B74" t="s">
-        <v>84</v>
+        <v>28</v>
       </c>
       <c r="C74" t="s">
-        <v>84</v>
+        <v>162</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75">
-        <v>801</v>
-      </c>
-      <c r="B75" t="s">
-        <v>159</v>
+        <v>702</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>163</v>
       </c>
       <c r="C75" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76">
-        <v>802</v>
-      </c>
-      <c r="B76" t="s">
-        <v>26</v>
+        <v>703</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>91</v>
       </c>
       <c r="C76" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77">
-        <v>803</v>
-      </c>
-      <c r="B77" t="s">
-        <v>27</v>
+        <v>704</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>92</v>
       </c>
       <c r="C77" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78">
-        <v>804</v>
+        <v>800</v>
       </c>
       <c r="B78" t="s">
-        <v>160</v>
+        <v>85</v>
       </c>
       <c r="C78" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79">
-        <v>805</v>
+        <v>801</v>
       </c>
       <c r="B79" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C79" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="B80" t="s">
-        <v>162</v>
+        <v>27</v>
       </c>
       <c r="C80" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81">
-        <v>807</v>
+        <v>803</v>
       </c>
       <c r="B81" t="s">
-        <v>163</v>
+        <v>28</v>
       </c>
       <c r="C81" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82">
-        <v>808</v>
+        <v>804</v>
       </c>
       <c r="B82" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C82" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="B83" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C83" t="s">
-        <v>166</v>
+        <v>85</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84">
-        <v>810</v>
+        <v>806</v>
       </c>
       <c r="B84" t="s">
         <v>167</v>
       </c>
       <c r="C84" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="B85" t="s">
-        <v>100</v>
+        <v>168</v>
       </c>
       <c r="C85" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="B86" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C86" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="B87" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C87" t="s">
-        <v>84</v>
+        <v>171</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="B88" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C88" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89">
-        <v>1000</v>
+        <v>811</v>
       </c>
       <c r="B89" t="s">
-        <v>171</v>
+        <v>101</v>
       </c>
       <c r="C89" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90">
-        <v>1010</v>
+        <v>812</v>
       </c>
       <c r="B90" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C90" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91">
+        <v>813</v>
+      </c>
+      <c r="B91" t="s">
+        <v>174</v>
+      </c>
+      <c r="C91" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92">
+        <v>814</v>
+      </c>
+      <c r="B92" t="s">
+        <v>175</v>
+      </c>
+      <c r="C92" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93">
+        <v>1000</v>
+      </c>
+      <c r="B93" t="s">
+        <v>176</v>
+      </c>
+      <c r="C93" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94">
+        <v>1010</v>
+      </c>
+      <c r="B94" t="s">
+        <v>177</v>
+      </c>
+      <c r="C94" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95">
         <v>1020</v>
       </c>
-      <c r="B91" t="s">
-        <v>173</v>
-      </c>
-      <c r="C91" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="92" ht="26" spans="1:3">
-      <c r="A92">
+      <c r="B95" t="s">
+        <v>178</v>
+      </c>
+      <c r="C95" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="96" ht="26" spans="1:3">
+      <c r="A96">
         <v>1030</v>
       </c>
-      <c r="B92" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="C92" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="93" customFormat="1" spans="1:3">
-      <c r="A93">
+      <c r="B96" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C96" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="97" customFormat="1" spans="1:3">
+      <c r="A97">
         <v>1040</v>
       </c>
-      <c r="B93" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="C93" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="94" customFormat="1" spans="1:3">
-      <c r="A94">
-        <v>1050</v>
-      </c>
-      <c r="B94" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="C94" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="95" customFormat="1" spans="1:3">
-      <c r="A95">
-        <v>1060</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="C95" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="96" customFormat="1" spans="1:3">
-      <c r="A96">
-        <v>1070</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="C96" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="97" customFormat="1" ht="26" spans="1:3">
-      <c r="A97">
-        <v>1080</v>
-      </c>
       <c r="B97" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C97" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="98" customFormat="1" spans="1:3">
       <c r="A98">
+        <v>1050</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C98" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="99" customFormat="1" spans="1:3">
+      <c r="A99">
+        <v>1060</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C99" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="100" customFormat="1" spans="1:3">
+      <c r="A100">
+        <v>1070</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C100" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="101" customFormat="1" ht="26" spans="1:3">
+      <c r="A101">
+        <v>1080</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C101" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="102" customFormat="1" spans="1:3">
+      <c r="A102">
         <v>1090</v>
       </c>
-      <c r="B98" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="C98" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="99" customFormat="1" ht="26" spans="1:3">
-      <c r="A99">
+      <c r="B102" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C102" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="103" customFormat="1" ht="26" spans="1:3">
+      <c r="A103">
         <v>1100</v>
       </c>
-      <c r="B99" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="C99" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
-      <c r="A100">
-        <v>2000</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="C100" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="101" ht="26" spans="1:3">
-      <c r="A101">
-        <v>2010</v>
-      </c>
-      <c r="B101" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="C101" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
-      <c r="A102">
-        <v>3000</v>
-      </c>
-      <c r="B102" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="C102" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3">
-      <c r="A103">
-        <v>3001</v>
-      </c>
       <c r="B103" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C103" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104">
-        <v>3002</v>
+        <v>2000</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C104" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="105" ht="26" spans="1:3">
       <c r="A105">
-        <v>3003</v>
+        <v>2010</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C105" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106">
-        <v>3004</v>
+        <v>3000</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C106" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107">
-        <v>3010</v>
+        <v>3001</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C107" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108">
-        <v>3011</v>
+        <v>3002</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C108" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109">
-        <v>3012</v>
+        <v>3003</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C109" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110">
-        <v>3013</v>
+        <v>3004</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C110" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111">
-        <v>3020</v>
+        <v>3010</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C111" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112">
-        <v>3021</v>
+        <v>3011</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C112" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113">
-        <v>3030</v>
+        <v>3012</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C113" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114">
-        <v>3031</v>
+        <v>3013</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C114" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115">
-        <v>3040</v>
+        <v>3020</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C115" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116">
-        <v>3050</v>
+        <v>3021</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>26</v>
+        <v>199</v>
       </c>
       <c r="C116" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117">
-        <v>3051</v>
+        <v>3030</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C117" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118">
-        <v>3052</v>
+        <v>3031</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C118" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119">
-        <v>3060</v>
+        <v>3040</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C119" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120">
-        <v>4000</v>
+        <v>3050</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>201</v>
+        <v>27</v>
       </c>
       <c r="C120" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121">
-        <v>4010</v>
+        <v>3051</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C121" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122">
-        <v>4011</v>
+        <v>3052</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C122" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123">
-        <v>5000</v>
+        <v>3060</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C123" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124">
-        <v>5001</v>
+        <v>4000</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>84</v>
+        <v>206</v>
       </c>
       <c r="C124" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125">
-        <v>5002</v>
+        <v>4010</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C125" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126">
-        <v>11010</v>
-      </c>
-      <c r="B126" t="s">
-        <v>206</v>
+        <v>4011</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>208</v>
       </c>
       <c r="C126" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127">
-        <v>11020</v>
-      </c>
-      <c r="B127" t="s">
-        <v>207</v>
+        <v>5000</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>209</v>
       </c>
       <c r="C127" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128">
-        <v>11030</v>
-      </c>
-      <c r="B128" t="s">
-        <v>208</v>
+        <v>5001</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="C128" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129">
-        <v>11040</v>
-      </c>
-      <c r="B129" t="s">
-        <v>209</v>
+        <v>5002</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>210</v>
       </c>
       <c r="C129" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130">
-        <v>11050</v>
+        <v>11010</v>
       </c>
       <c r="B130" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C130" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131">
-        <v>11060</v>
+        <v>11020</v>
       </c>
       <c r="B131" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C131" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132">
-        <v>11070</v>
+        <v>11030</v>
       </c>
       <c r="B132" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C132" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133">
-        <v>11080</v>
+        <v>11040</v>
       </c>
       <c r="B133" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C133" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134">
-        <v>11090</v>
+        <v>11050</v>
       </c>
       <c r="B134" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C134" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="135" ht="26" spans="1:3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
       <c r="A135">
-        <v>11100</v>
-      </c>
-      <c r="B135" s="2" t="s">
-        <v>215</v>
+        <v>11060</v>
+      </c>
+      <c r="B135" t="s">
+        <v>216</v>
       </c>
       <c r="C135" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136">
-        <v>13010</v>
+        <v>11070</v>
       </c>
       <c r="B136" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C136" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137">
-        <v>14010</v>
+        <v>11080</v>
       </c>
       <c r="B137" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C137" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138">
-        <v>14020</v>
+        <v>11090</v>
       </c>
       <c r="B138" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C138" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="139" ht="26" spans="1:3">
       <c r="A139">
-        <v>14030</v>
-      </c>
-      <c r="B139" t="s">
-        <v>219</v>
+        <v>11100</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>220</v>
       </c>
       <c r="C139" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140">
-        <v>14040</v>
+        <v>13010</v>
       </c>
       <c r="B140" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C140" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141">
-        <v>14041</v>
+        <v>14010</v>
       </c>
       <c r="B141" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C141" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142">
-        <v>14042</v>
+        <v>14020</v>
       </c>
       <c r="B142" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C142" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143">
-        <v>14051</v>
+        <v>14030</v>
       </c>
       <c r="B143" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C143" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144">
-        <v>14060</v>
+        <v>14040</v>
       </c>
       <c r="B144" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C144" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145">
-        <v>14070</v>
+        <v>14041</v>
       </c>
       <c r="B145" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C145" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146">
-        <v>14071</v>
+        <v>14042</v>
       </c>
       <c r="B146" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C146" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147">
-        <v>15010</v>
+        <v>14051</v>
       </c>
       <c r="B147" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C147" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148">
-        <v>15020</v>
+        <v>14060</v>
       </c>
       <c r="B148" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C148" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149">
-        <v>15030</v>
+        <v>14070</v>
       </c>
       <c r="B149" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C149" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150">
-        <v>16010</v>
+        <v>14071</v>
       </c>
       <c r="B150" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C150" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151">
-        <v>16020</v>
+        <v>15010</v>
       </c>
       <c r="B151" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C151" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="A152">
+        <v>15020</v>
+      </c>
+      <c r="B152" t="s">
+        <v>233</v>
+      </c>
+      <c r="C152" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153">
+        <v>15030</v>
+      </c>
+      <c r="B153" t="s">
+        <v>234</v>
+      </c>
+      <c r="C153" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154">
+        <v>16010</v>
+      </c>
+      <c r="B154" t="s">
+        <v>235</v>
+      </c>
+      <c r="C154" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155">
+        <v>16020</v>
+      </c>
+      <c r="B155" t="s">
+        <v>236</v>
+      </c>
+      <c r="C155" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156">
         <v>16030</v>
       </c>
-      <c r="B152" t="s">
-        <v>232</v>
-      </c>
-      <c r="C152" t="s">
-        <v>84</v>
+      <c r="B156" t="s">
+        <v>237</v>
+      </c>
+      <c r="C156" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/Data/System.xlsx
+++ b/Assets/Resources/Data/System.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7070" firstSheet="3" activeTab="5"/>
+    <workbookView windowWidth="19200" windowHeight="7070" firstSheet="3" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="TacticsComand" sheetId="1" r:id="rId1"/>
@@ -472,7 +472,7 @@
     <t xml:space="preserve"> - バトルアニメーション演出表示の有無を切り替えます</t>
   </si>
   <si>
-    <t>Input Type</t>
+    <t>Enable InputKey</t>
   </si>
   <si>
     <t xml:space="preserve"> - キーボード・ゲームパッド操作を有効にするか変更します</t>
@@ -499,10 +499,10 @@
     <t>表示する</t>
   </si>
   <si>
-    <t>マウス</t>
-  </si>
-  <si>
-    <t>キーボード・ゲームパッド</t>
+    <t>マウスのみ</t>
+  </si>
+  <si>
+    <t>有効にする</t>
   </si>
   <si>
     <t>版権表示</t>
@@ -747,8 +747,8 @@
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -780,15 +780,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -801,14 +795,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -816,6 +802,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -823,9 +810,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -848,16 +834,24 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -885,9 +879,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -908,6 +901,13 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -924,7 +924,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -948,19 +948,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -972,19 +978,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1002,31 +996,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1038,13 +1032,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1056,49 +1092,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1112,11 +1112,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1139,23 +1145,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1171,6 +1162,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1217,145 +1217,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3790,7 +3790,7 @@
   <sheetPr/>
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -3871,8 +3871,8 @@
   <sheetPr/>
   <dimension ref="A1:G156"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="B63" sqref="B63"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="B64" sqref="B64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="6"/>

--- a/Assets/Resources/Data/System.xlsx
+++ b/Assets/Resources/Data/System.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7070" firstSheet="3" activeTab="6"/>
+    <workbookView windowWidth="19200" windowHeight="7070" firstSheet="3" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="TacticsComand" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="239">
   <si>
     <t>Id</t>
   </si>
@@ -548,6 +548,9 @@
   </si>
   <si>
     <t>項目切替</t>
+  </si>
+  <si>
+    <t>敵味方切替</t>
   </si>
   <si>
     <t>(Nu)</t>
@@ -746,8 +749,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="21">
@@ -765,14 +768,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -780,46 +775,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -833,22 +790,8 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
@@ -863,11 +806,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -880,7 +838,60 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -894,16 +905,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -918,7 +921,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -930,25 +969,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -966,24 +993,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -996,7 +1005,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1008,7 +1047,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1020,19 +1059,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1044,13 +1071,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1062,19 +1089,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1086,19 +1101,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1112,17 +1115,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1146,7 +1143,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1177,9 +1174,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1198,17 +1212,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1217,7 +1220,7 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1226,7 +1229,7 @@
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1235,127 +1238,127 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2112,10 +2115,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D120"/>
+  <dimension ref="A1:D124"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="C68" sqref="C68"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="A81" sqref="A81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="3"/>
@@ -3210,13 +3213,13 @@
         <v>51</v>
       </c>
       <c r="B80">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C80">
-        <v>808</v>
+        <v>815</v>
       </c>
       <c r="D80" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -3224,13 +3227,13 @@
         <v>51</v>
       </c>
       <c r="B81">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C81">
         <v>800</v>
       </c>
       <c r="D81" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -3238,13 +3241,13 @@
         <v>51</v>
       </c>
       <c r="B82">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C82">
-        <v>801</v>
+        <v>808</v>
       </c>
       <c r="D82" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -3252,41 +3255,41 @@
         <v>51</v>
       </c>
       <c r="B83">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C83">
         <v>800</v>
       </c>
       <c r="D83" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B84">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C84">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="D84" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B85">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C85">
-        <v>804</v>
+        <v>800</v>
       </c>
       <c r="D85" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -3294,13 +3297,13 @@
         <v>52</v>
       </c>
       <c r="B86">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C86">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="D86" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -3308,74 +3311,74 @@
         <v>52</v>
       </c>
       <c r="B87">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C87">
-        <v>800</v>
+        <v>804</v>
       </c>
       <c r="D87" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" t="s">
-        <v>8</v>
+        <v>52</v>
       </c>
       <c r="B88">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C88">
-        <v>811</v>
+        <v>815</v>
       </c>
       <c r="D88" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" t="s">
+        <v>52</v>
+      </c>
+      <c r="B89">
         <v>8</v>
       </c>
-      <c r="B89">
-        <v>5</v>
-      </c>
       <c r="C89">
-        <v>804</v>
+        <v>800</v>
       </c>
       <c r="D89" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" t="s">
-        <v>8</v>
+        <v>52</v>
       </c>
       <c r="B90">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C90">
-        <v>810</v>
+        <v>801</v>
       </c>
       <c r="D90" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" t="s">
-        <v>8</v>
+        <v>52</v>
       </c>
       <c r="B91">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C91">
         <v>800</v>
       </c>
       <c r="D91" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" t="s">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="B92">
         <v>4</v>
@@ -3389,41 +3392,41 @@
     </row>
     <row r="93" spans="1:4">
       <c r="A93" t="s">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="B93">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C93">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="D93" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" t="s">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="B94">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C94">
-        <v>804</v>
+        <v>810</v>
       </c>
       <c r="D94" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" t="s">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="B95">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C95">
-        <v>810</v>
+        <v>800</v>
       </c>
       <c r="D95" t="s">
         <v>50</v>
@@ -3434,32 +3437,32 @@
         <v>53</v>
       </c>
       <c r="B96">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C96">
-        <v>800</v>
+        <v>811</v>
       </c>
       <c r="D96" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B97">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C97">
-        <v>812</v>
+        <v>802</v>
       </c>
       <c r="D97" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B98">
         <v>5</v>
@@ -3473,13 +3476,13 @@
     </row>
     <row r="99" spans="1:4">
       <c r="A99" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B99">
         <v>9</v>
       </c>
       <c r="C99">
-        <v>806</v>
+        <v>810</v>
       </c>
       <c r="D99" t="s">
         <v>50</v>
@@ -3487,7 +3490,7 @@
     </row>
     <row r="100" spans="1:4">
       <c r="A100" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B100">
         <v>8</v>
@@ -3504,13 +3507,13 @@
         <v>54</v>
       </c>
       <c r="B101">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C101">
-        <v>801</v>
+        <v>812</v>
       </c>
       <c r="D101" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -3518,38 +3521,38 @@
         <v>54</v>
       </c>
       <c r="B102">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C102">
-        <v>800</v>
+        <v>804</v>
       </c>
       <c r="D102" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B103">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C103">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="D103" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B104">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C104">
-        <v>806</v>
+        <v>800</v>
       </c>
       <c r="D104" t="s">
         <v>50</v>
@@ -3557,30 +3560,30 @@
     </row>
     <row r="105" spans="1:4">
       <c r="A105" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B105">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C105">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="D105" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C106">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="D106" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -3588,38 +3591,38 @@
         <v>55</v>
       </c>
       <c r="B107">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C107">
-        <v>800</v>
+        <v>804</v>
       </c>
       <c r="D107" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B108">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C108">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="D108" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B109">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C109">
-        <v>813</v>
+        <v>800</v>
       </c>
       <c r="D109" t="s">
         <v>50</v>
@@ -3627,30 +3630,30 @@
     </row>
     <row r="110" spans="1:4">
       <c r="A110" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B110">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C110">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="D110" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C111">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="D111" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -3658,38 +3661,38 @@
         <v>56</v>
       </c>
       <c r="B112">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C112">
-        <v>800</v>
+        <v>804</v>
       </c>
       <c r="D112" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B113">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C113">
-        <v>804</v>
+        <v>813</v>
       </c>
       <c r="D113" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
     </row>
     <row r="114" spans="1:4">
       <c r="A114" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B114">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C114">
-        <v>814</v>
+        <v>800</v>
       </c>
       <c r="D114" t="s">
         <v>50</v>
@@ -3697,30 +3700,30 @@
     </row>
     <row r="115" spans="1:4">
       <c r="A115" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B115">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C115">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="D115" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C116">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="D116" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -3728,54 +3731,110 @@
         <v>57</v>
       </c>
       <c r="B117">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C117">
-        <v>800</v>
+        <v>804</v>
       </c>
       <c r="D117" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="118" spans="1:4">
       <c r="A118" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B118">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C118">
-        <v>804</v>
+        <v>814</v>
       </c>
       <c r="D118" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
     </row>
     <row r="119" spans="1:4">
       <c r="A119" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B119">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C119">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="D119" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="A120" t="s">
+        <v>57</v>
+      </c>
+      <c r="B120">
+        <v>1</v>
+      </c>
+      <c r="C120">
+        <v>801</v>
+      </c>
+      <c r="D120" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" t="s">
+        <v>57</v>
+      </c>
+      <c r="B121">
+        <v>0</v>
+      </c>
+      <c r="C121">
+        <v>800</v>
+      </c>
+      <c r="D121" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" t="s">
         <v>58</v>
       </c>
-      <c r="B120">
+      <c r="B122">
+        <v>5</v>
+      </c>
+      <c r="C122">
+        <v>804</v>
+      </c>
+      <c r="D122" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" t="s">
+        <v>58</v>
+      </c>
+      <c r="B123">
+        <v>1</v>
+      </c>
+      <c r="C123">
+        <v>801</v>
+      </c>
+      <c r="D123" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" t="s">
+        <v>58</v>
+      </c>
+      <c r="B124">
         <v>0</v>
       </c>
-      <c r="C120">
+      <c r="C124">
         <v>800</v>
       </c>
-      <c r="D120" t="s">
+      <c r="D124" t="s">
         <v>37</v>
       </c>
     </row>
@@ -3869,10 +3928,10 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G156"/>
+  <dimension ref="A1:G157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="B64" sqref="B64"/>
+    <sheetView topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="B93" sqref="B93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="6"/>
@@ -4903,7 +4962,7 @@
     </row>
     <row r="93" spans="1:3">
       <c r="A93">
-        <v>1000</v>
+        <v>815</v>
       </c>
       <c r="B93" t="s">
         <v>176</v>
@@ -4914,7 +4973,7 @@
     </row>
     <row r="94" spans="1:3">
       <c r="A94">
-        <v>1010</v>
+        <v>1000</v>
       </c>
       <c r="B94" t="s">
         <v>177</v>
@@ -4925,7 +4984,7 @@
     </row>
     <row r="95" spans="1:3">
       <c r="A95">
-        <v>1020</v>
+        <v>1010</v>
       </c>
       <c r="B95" t="s">
         <v>178</v>
@@ -4934,20 +4993,20 @@
         <v>85</v>
       </c>
     </row>
-    <row r="96" ht="26" spans="1:3">
+    <row r="96" spans="1:3">
       <c r="A96">
+        <v>1020</v>
+      </c>
+      <c r="B96" t="s">
+        <v>179</v>
+      </c>
+      <c r="C96" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="97" ht="26" spans="1:3">
+      <c r="A97">
         <v>1030</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="C96" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="97" customFormat="1" spans="1:3">
-      <c r="A97">
-        <v>1040</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>180</v>
@@ -4958,7 +5017,7 @@
     </row>
     <row r="98" customFormat="1" spans="1:3">
       <c r="A98">
-        <v>1050</v>
+        <v>1040</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>181</v>
@@ -4969,7 +5028,7 @@
     </row>
     <row r="99" customFormat="1" spans="1:3">
       <c r="A99">
-        <v>1060</v>
+        <v>1050</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>182</v>
@@ -4980,7 +5039,7 @@
     </row>
     <row r="100" customFormat="1" spans="1:3">
       <c r="A100">
-        <v>1070</v>
+        <v>1060</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>183</v>
@@ -4989,9 +5048,9 @@
         <v>85</v>
       </c>
     </row>
-    <row r="101" customFormat="1" ht="26" spans="1:3">
+    <row r="101" customFormat="1" spans="1:3">
       <c r="A101">
-        <v>1080</v>
+        <v>1070</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>184</v>
@@ -5000,9 +5059,9 @@
         <v>85</v>
       </c>
     </row>
-    <row r="102" customFormat="1" spans="1:3">
+    <row r="102" customFormat="1" ht="26" spans="1:3">
       <c r="A102">
-        <v>1090</v>
+        <v>1080</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>185</v>
@@ -5011,9 +5070,9 @@
         <v>85</v>
       </c>
     </row>
-    <row r="103" customFormat="1" ht="26" spans="1:3">
+    <row r="103" customFormat="1" spans="1:3">
       <c r="A103">
-        <v>1100</v>
+        <v>1090</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>186</v>
@@ -5022,9 +5081,9 @@
         <v>85</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" customFormat="1" ht="26" spans="1:3">
       <c r="A104">
-        <v>2000</v>
+        <v>1100</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>187</v>
@@ -5033,9 +5092,9 @@
         <v>85</v>
       </c>
     </row>
-    <row r="105" ht="26" spans="1:3">
+    <row r="105" spans="1:3">
       <c r="A105">
-        <v>2010</v>
+        <v>2000</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>188</v>
@@ -5044,9 +5103,9 @@
         <v>85</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" ht="26" spans="1:3">
       <c r="A106">
-        <v>3000</v>
+        <v>2010</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>189</v>
@@ -5057,7 +5116,7 @@
     </row>
     <row r="107" spans="1:3">
       <c r="A107">
-        <v>3001</v>
+        <v>3000</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>190</v>
@@ -5068,7 +5127,7 @@
     </row>
     <row r="108" spans="1:3">
       <c r="A108">
-        <v>3002</v>
+        <v>3001</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>191</v>
@@ -5079,7 +5138,7 @@
     </row>
     <row r="109" spans="1:3">
       <c r="A109">
-        <v>3003</v>
+        <v>3002</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>192</v>
@@ -5090,7 +5149,7 @@
     </row>
     <row r="110" spans="1:3">
       <c r="A110">
-        <v>3004</v>
+        <v>3003</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>193</v>
@@ -5101,7 +5160,7 @@
     </row>
     <row r="111" spans="1:3">
       <c r="A111">
-        <v>3010</v>
+        <v>3004</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>194</v>
@@ -5112,7 +5171,7 @@
     </row>
     <row r="112" spans="1:3">
       <c r="A112">
-        <v>3011</v>
+        <v>3010</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>195</v>
@@ -5123,7 +5182,7 @@
     </row>
     <row r="113" spans="1:3">
       <c r="A113">
-        <v>3012</v>
+        <v>3011</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>196</v>
@@ -5134,7 +5193,7 @@
     </row>
     <row r="114" spans="1:3">
       <c r="A114">
-        <v>3013</v>
+        <v>3012</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>197</v>
@@ -5145,7 +5204,7 @@
     </row>
     <row r="115" spans="1:3">
       <c r="A115">
-        <v>3020</v>
+        <v>3013</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>198</v>
@@ -5156,7 +5215,7 @@
     </row>
     <row r="116" spans="1:3">
       <c r="A116">
-        <v>3021</v>
+        <v>3020</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>199</v>
@@ -5167,7 +5226,7 @@
     </row>
     <row r="117" spans="1:3">
       <c r="A117">
-        <v>3030</v>
+        <v>3021</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>200</v>
@@ -5178,7 +5237,7 @@
     </row>
     <row r="118" spans="1:3">
       <c r="A118">
-        <v>3031</v>
+        <v>3030</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>201</v>
@@ -5189,7 +5248,7 @@
     </row>
     <row r="119" spans="1:3">
       <c r="A119">
-        <v>3040</v>
+        <v>3031</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>202</v>
@@ -5200,10 +5259,10 @@
     </row>
     <row r="120" spans="1:3">
       <c r="A120">
-        <v>3050</v>
+        <v>3040</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>27</v>
+        <v>203</v>
       </c>
       <c r="C120" t="s">
         <v>85</v>
@@ -5211,10 +5270,10 @@
     </row>
     <row r="121" spans="1:3">
       <c r="A121">
-        <v>3051</v>
+        <v>3050</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>203</v>
+        <v>27</v>
       </c>
       <c r="C121" t="s">
         <v>85</v>
@@ -5222,7 +5281,7 @@
     </row>
     <row r="122" spans="1:3">
       <c r="A122">
-        <v>3052</v>
+        <v>3051</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>204</v>
@@ -5233,7 +5292,7 @@
     </row>
     <row r="123" spans="1:3">
       <c r="A123">
-        <v>3060</v>
+        <v>3052</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>205</v>
@@ -5244,7 +5303,7 @@
     </row>
     <row r="124" spans="1:3">
       <c r="A124">
-        <v>4000</v>
+        <v>3060</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>206</v>
@@ -5255,7 +5314,7 @@
     </row>
     <row r="125" spans="1:3">
       <c r="A125">
-        <v>4010</v>
+        <v>4000</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>207</v>
@@ -5266,7 +5325,7 @@
     </row>
     <row r="126" spans="1:3">
       <c r="A126">
-        <v>4011</v>
+        <v>4010</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>208</v>
@@ -5277,7 +5336,7 @@
     </row>
     <row r="127" spans="1:3">
       <c r="A127">
-        <v>5000</v>
+        <v>4011</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>209</v>
@@ -5288,10 +5347,10 @@
     </row>
     <row r="128" spans="1:3">
       <c r="A128">
-        <v>5001</v>
+        <v>5000</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>85</v>
+        <v>210</v>
       </c>
       <c r="C128" t="s">
         <v>85</v>
@@ -5299,10 +5358,10 @@
     </row>
     <row r="129" spans="1:3">
       <c r="A129">
-        <v>5002</v>
+        <v>5001</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>210</v>
+        <v>85</v>
       </c>
       <c r="C129" t="s">
         <v>85</v>
@@ -5310,9 +5369,9 @@
     </row>
     <row r="130" spans="1:3">
       <c r="A130">
-        <v>11010</v>
-      </c>
-      <c r="B130" t="s">
+        <v>5002</v>
+      </c>
+      <c r="B130" s="2" t="s">
         <v>211</v>
       </c>
       <c r="C130" t="s">
@@ -5321,7 +5380,7 @@
     </row>
     <row r="131" spans="1:3">
       <c r="A131">
-        <v>11020</v>
+        <v>11010</v>
       </c>
       <c r="B131" t="s">
         <v>212</v>
@@ -5332,7 +5391,7 @@
     </row>
     <row r="132" spans="1:3">
       <c r="A132">
-        <v>11030</v>
+        <v>11020</v>
       </c>
       <c r="B132" t="s">
         <v>213</v>
@@ -5343,7 +5402,7 @@
     </row>
     <row r="133" spans="1:3">
       <c r="A133">
-        <v>11040</v>
+        <v>11030</v>
       </c>
       <c r="B133" t="s">
         <v>214</v>
@@ -5354,7 +5413,7 @@
     </row>
     <row r="134" spans="1:3">
       <c r="A134">
-        <v>11050</v>
+        <v>11040</v>
       </c>
       <c r="B134" t="s">
         <v>215</v>
@@ -5365,7 +5424,7 @@
     </row>
     <row r="135" spans="1:3">
       <c r="A135">
-        <v>11060</v>
+        <v>11050</v>
       </c>
       <c r="B135" t="s">
         <v>216</v>
@@ -5376,7 +5435,7 @@
     </row>
     <row r="136" spans="1:3">
       <c r="A136">
-        <v>11070</v>
+        <v>11060</v>
       </c>
       <c r="B136" t="s">
         <v>217</v>
@@ -5387,7 +5446,7 @@
     </row>
     <row r="137" spans="1:3">
       <c r="A137">
-        <v>11080</v>
+        <v>11070</v>
       </c>
       <c r="B137" t="s">
         <v>218</v>
@@ -5398,7 +5457,7 @@
     </row>
     <row r="138" spans="1:3">
       <c r="A138">
-        <v>11090</v>
+        <v>11080</v>
       </c>
       <c r="B138" t="s">
         <v>219</v>
@@ -5407,22 +5466,22 @@
         <v>85</v>
       </c>
     </row>
-    <row r="139" ht="26" spans="1:3">
+    <row r="139" spans="1:3">
       <c r="A139">
+        <v>11090</v>
+      </c>
+      <c r="B139" t="s">
+        <v>220</v>
+      </c>
+      <c r="C139" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="140" ht="26" spans="1:3">
+      <c r="A140">
         <v>11100</v>
       </c>
-      <c r="B139" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="C139" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3">
-      <c r="A140">
-        <v>13010</v>
-      </c>
-      <c r="B140" t="s">
+      <c r="B140" s="2" t="s">
         <v>221</v>
       </c>
       <c r="C140" t="s">
@@ -5431,7 +5490,7 @@
     </row>
     <row r="141" spans="1:3">
       <c r="A141">
-        <v>14010</v>
+        <v>13010</v>
       </c>
       <c r="B141" t="s">
         <v>222</v>
@@ -5442,7 +5501,7 @@
     </row>
     <row r="142" spans="1:3">
       <c r="A142">
-        <v>14020</v>
+        <v>14010</v>
       </c>
       <c r="B142" t="s">
         <v>223</v>
@@ -5453,7 +5512,7 @@
     </row>
     <row r="143" spans="1:3">
       <c r="A143">
-        <v>14030</v>
+        <v>14020</v>
       </c>
       <c r="B143" t="s">
         <v>224</v>
@@ -5464,7 +5523,7 @@
     </row>
     <row r="144" spans="1:3">
       <c r="A144">
-        <v>14040</v>
+        <v>14030</v>
       </c>
       <c r="B144" t="s">
         <v>225</v>
@@ -5475,7 +5534,7 @@
     </row>
     <row r="145" spans="1:3">
       <c r="A145">
-        <v>14041</v>
+        <v>14040</v>
       </c>
       <c r="B145" t="s">
         <v>226</v>
@@ -5486,7 +5545,7 @@
     </row>
     <row r="146" spans="1:3">
       <c r="A146">
-        <v>14042</v>
+        <v>14041</v>
       </c>
       <c r="B146" t="s">
         <v>227</v>
@@ -5497,7 +5556,7 @@
     </row>
     <row r="147" spans="1:3">
       <c r="A147">
-        <v>14051</v>
+        <v>14042</v>
       </c>
       <c r="B147" t="s">
         <v>228</v>
@@ -5508,7 +5567,7 @@
     </row>
     <row r="148" spans="1:3">
       <c r="A148">
-        <v>14060</v>
+        <v>14051</v>
       </c>
       <c r="B148" t="s">
         <v>229</v>
@@ -5519,7 +5578,7 @@
     </row>
     <row r="149" spans="1:3">
       <c r="A149">
-        <v>14070</v>
+        <v>14060</v>
       </c>
       <c r="B149" t="s">
         <v>230</v>
@@ -5530,7 +5589,7 @@
     </row>
     <row r="150" spans="1:3">
       <c r="A150">
-        <v>14071</v>
+        <v>14070</v>
       </c>
       <c r="B150" t="s">
         <v>231</v>
@@ -5541,7 +5600,7 @@
     </row>
     <row r="151" spans="1:3">
       <c r="A151">
-        <v>15010</v>
+        <v>14071</v>
       </c>
       <c r="B151" t="s">
         <v>232</v>
@@ -5552,7 +5611,7 @@
     </row>
     <row r="152" spans="1:3">
       <c r="A152">
-        <v>15020</v>
+        <v>15010</v>
       </c>
       <c r="B152" t="s">
         <v>233</v>
@@ -5563,7 +5622,7 @@
     </row>
     <row r="153" spans="1:3">
       <c r="A153">
-        <v>15030</v>
+        <v>15020</v>
       </c>
       <c r="B153" t="s">
         <v>234</v>
@@ -5574,7 +5633,7 @@
     </row>
     <row r="154" spans="1:3">
       <c r="A154">
-        <v>16010</v>
+        <v>15030</v>
       </c>
       <c r="B154" t="s">
         <v>235</v>
@@ -5585,7 +5644,7 @@
     </row>
     <row r="155" spans="1:3">
       <c r="A155">
-        <v>16020</v>
+        <v>16010</v>
       </c>
       <c r="B155" t="s">
         <v>236</v>
@@ -5596,12 +5655,23 @@
     </row>
     <row r="156" spans="1:3">
       <c r="A156">
-        <v>16030</v>
+        <v>16020</v>
       </c>
       <c r="B156" t="s">
         <v>237</v>
       </c>
       <c r="C156" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
+      <c r="A157">
+        <v>16030</v>
+      </c>
+      <c r="B157" t="s">
+        <v>238</v>
+      </c>
+      <c r="C157" t="s">
         <v>85</v>
       </c>
     </row>

--- a/Assets/Resources/Data/System.xlsx
+++ b/Assets/Resources/Data/System.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="246">
   <si>
     <t>Id</t>
   </si>
@@ -109,18 +109,24 @@
     <t>オプション</t>
   </si>
   <si>
+    <t>上</t>
+  </si>
+  <si>
+    <t>下</t>
+  </si>
+  <si>
+    <t>SIDEMENU</t>
+  </si>
+  <si>
+    <t>キャンセル</t>
+  </si>
+  <si>
     <t>左</t>
   </si>
   <si>
     <t>右</t>
   </si>
   <si>
-    <t>SIDEMENU</t>
-  </si>
-  <si>
-    <t>キャンセル</t>
-  </si>
-  <si>
     <t>OPTION</t>
   </si>
   <si>
@@ -130,12 +136,6 @@
     <t>TACTICS</t>
   </si>
   <si>
-    <t>上</t>
-  </si>
-  <si>
-    <t>下</t>
-  </si>
-  <si>
     <t>ALCHEMY_ATTRIBUTE</t>
   </si>
   <si>
@@ -199,6 +199,18 @@
     <t>RULING</t>
   </si>
   <si>
+    <t>ADV_READING</t>
+  </si>
+  <si>
+    <t>ADV_SELECTING</t>
+  </si>
+  <si>
+    <t>ADV_SELECTING_ONE</t>
+  </si>
+  <si>
+    <t>RESULT</t>
+  </si>
+  <si>
     <t>ActorId</t>
   </si>
   <si>
@@ -551,6 +563,15 @@
   </si>
   <si>
     <t>敵味方切替</t>
+  </si>
+  <si>
+    <t>選択肢上を選択</t>
+  </si>
+  <si>
+    <t>選択肢下を選択</t>
+  </si>
+  <si>
+    <t>文字送り</t>
   </si>
   <si>
     <t>(Nu)</t>
@@ -749,9 +770,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -782,19 +803,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -813,6 +826,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -821,9 +857,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -837,27 +894,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -866,32 +911,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -906,7 +927,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -921,7 +942,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -933,73 +1080,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1011,67 +1104,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1089,19 +1122,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1115,11 +1136,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1148,21 +1190,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1174,26 +1201,20 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1220,145 +1241,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2115,10 +2136,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D124"/>
+  <dimension ref="A1:D132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="A81" sqref="A81"/>
+    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="B129" sqref="B129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="3"/>
@@ -2232,7 +2253,7 @@
         <v>801</v>
       </c>
       <c r="D8" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2246,12 +2267,12 @@
         <v>800</v>
       </c>
       <c r="D9" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B10">
         <v>5</v>
@@ -2265,7 +2286,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B11">
         <v>3</v>
@@ -2276,7 +2297,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B12">
         <v>2</v>
@@ -2287,7 +2308,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -2298,7 +2319,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -2309,7 +2330,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B15">
         <v>5</v>
@@ -2323,7 +2344,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B16">
         <v>4</v>
@@ -2337,7 +2358,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B17">
         <v>6</v>
@@ -2351,7 +2372,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B18">
         <v>3</v>
@@ -2360,12 +2381,12 @@
         <v>801</v>
       </c>
       <c r="D18" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B19">
         <v>2</v>
@@ -2374,7 +2395,7 @@
         <v>800</v>
       </c>
       <c r="D19" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -2416,7 +2437,7 @@
         <v>801</v>
       </c>
       <c r="D22" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -2430,7 +2451,7 @@
         <v>800</v>
       </c>
       <c r="D23" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -2472,7 +2493,7 @@
         <v>801</v>
       </c>
       <c r="D26" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -2486,7 +2507,7 @@
         <v>800</v>
       </c>
       <c r="D27" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -2528,7 +2549,7 @@
         <v>801</v>
       </c>
       <c r="D30" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -2542,7 +2563,7 @@
         <v>800</v>
       </c>
       <c r="D31" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -2584,7 +2605,7 @@
         <v>801</v>
       </c>
       <c r="D34" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -2598,7 +2619,7 @@
         <v>800</v>
       </c>
       <c r="D35" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -2662,7 +2683,7 @@
         <v>801</v>
       </c>
       <c r="D40" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -2676,7 +2697,7 @@
         <v>800</v>
       </c>
       <c r="D41" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -2732,7 +2753,7 @@
         <v>801</v>
       </c>
       <c r="D45" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -2746,7 +2767,7 @@
         <v>800</v>
       </c>
       <c r="D46" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -2760,7 +2781,7 @@
         <v>800</v>
       </c>
       <c r="D47" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -2774,7 +2795,7 @@
         <v>800</v>
       </c>
       <c r="D48" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -2816,7 +2837,7 @@
         <v>801</v>
       </c>
       <c r="D51" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -2830,7 +2851,7 @@
         <v>800</v>
       </c>
       <c r="D52" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -2872,7 +2893,7 @@
         <v>801</v>
       </c>
       <c r="D55" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -2886,7 +2907,7 @@
         <v>800</v>
       </c>
       <c r="D56" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -2939,7 +2960,7 @@
         <v>801</v>
       </c>
       <c r="D60" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -2953,7 +2974,7 @@
         <v>800</v>
       </c>
       <c r="D61" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -2981,7 +3002,7 @@
         <v>801</v>
       </c>
       <c r="D63" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -2995,7 +3016,7 @@
         <v>800</v>
       </c>
       <c r="D64" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -3051,7 +3072,7 @@
         <v>801</v>
       </c>
       <c r="D68" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -3065,7 +3086,7 @@
         <v>800</v>
       </c>
       <c r="D69" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -3149,7 +3170,7 @@
         <v>801</v>
       </c>
       <c r="D75" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -3163,7 +3184,7 @@
         <v>800</v>
       </c>
       <c r="D76" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -3247,7 +3268,7 @@
         <v>808</v>
       </c>
       <c r="D82" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -3261,7 +3282,7 @@
         <v>800</v>
       </c>
       <c r="D83" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -3275,7 +3296,7 @@
         <v>801</v>
       </c>
       <c r="D84" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -3289,7 +3310,7 @@
         <v>800</v>
       </c>
       <c r="D85" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -3359,7 +3380,7 @@
         <v>801</v>
       </c>
       <c r="D90" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -3373,7 +3394,7 @@
         <v>800</v>
       </c>
       <c r="D91" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -3569,7 +3590,7 @@
         <v>801</v>
       </c>
       <c r="D105" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -3583,7 +3604,7 @@
         <v>800</v>
       </c>
       <c r="D106" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -3639,7 +3660,7 @@
         <v>801</v>
       </c>
       <c r="D110" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -3653,7 +3674,7 @@
         <v>800</v>
       </c>
       <c r="D111" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -3709,7 +3730,7 @@
         <v>801</v>
       </c>
       <c r="D115" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -3723,7 +3744,7 @@
         <v>800</v>
       </c>
       <c r="D116" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -3779,7 +3800,7 @@
         <v>801</v>
       </c>
       <c r="D120" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -3793,7 +3814,7 @@
         <v>800</v>
       </c>
       <c r="D121" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -3821,7 +3842,7 @@
         <v>801</v>
       </c>
       <c r="D123" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -3835,7 +3856,119 @@
         <v>800</v>
       </c>
       <c r="D124" t="s">
-        <v>37</v>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" t="s">
+        <v>59</v>
+      </c>
+      <c r="B125">
+        <v>5</v>
+      </c>
+      <c r="C125">
+        <v>818</v>
+      </c>
+      <c r="D125" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" t="s">
+        <v>59</v>
+      </c>
+      <c r="B126">
+        <v>4</v>
+      </c>
+      <c r="C126">
+        <v>800</v>
+      </c>
+      <c r="D126" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" t="s">
+        <v>60</v>
+      </c>
+      <c r="B127">
+        <v>9</v>
+      </c>
+      <c r="C127">
+        <v>817</v>
+      </c>
+      <c r="D127" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" t="s">
+        <v>60</v>
+      </c>
+      <c r="B128">
+        <v>8</v>
+      </c>
+      <c r="C128">
+        <v>816</v>
+      </c>
+      <c r="D128" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" t="s">
+        <v>61</v>
+      </c>
+      <c r="B129">
+        <v>8</v>
+      </c>
+      <c r="C129">
+        <v>817</v>
+      </c>
+      <c r="D129" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" t="s">
+        <v>62</v>
+      </c>
+      <c r="B130">
+        <v>4</v>
+      </c>
+      <c r="C130">
+        <v>802</v>
+      </c>
+      <c r="D130" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" t="s">
+        <v>62</v>
+      </c>
+      <c r="B131">
+        <v>3</v>
+      </c>
+      <c r="C131">
+        <v>801</v>
+      </c>
+      <c r="D131" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" t="s">
+        <v>62</v>
+      </c>
+      <c r="B132">
+        <v>2</v>
+      </c>
+      <c r="C132">
+        <v>800</v>
+      </c>
+      <c r="D132" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -3860,20 +3993,20 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B2" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B3" s="3">
         <v>5</v>
@@ -3881,7 +4014,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B4">
         <v>4</v>
@@ -3889,7 +4022,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -3897,7 +4030,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B6">
         <v>3</v>
@@ -3905,7 +4038,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B7">
         <v>4</v>
@@ -3913,7 +4046,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B8">
         <v>3</v>
@@ -3928,10 +4061,10 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G157"/>
+  <dimension ref="A1:G160"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="B93" sqref="B93"/>
+    <sheetView topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="B97" sqref="B97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="6"/>
@@ -3945,10 +4078,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" ht="14" spans="1:7">
@@ -3956,10 +4089,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="G2" s="1"/>
     </row>
@@ -3968,10 +4101,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C3" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3979,10 +4112,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C4" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3990,10 +4123,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -4001,10 +4134,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C6" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -4012,10 +4145,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C7" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -4023,10 +4156,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C8" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" ht="14" spans="1:7">
@@ -4034,10 +4167,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C9" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="G9" s="1"/>
     </row>
@@ -4046,10 +4179,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C10" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="G10" s="1"/>
     </row>
@@ -4058,10 +4191,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C11" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -4069,10 +4202,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C12" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -4080,10 +4213,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C13" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -4091,10 +4224,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C14" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15" ht="14" spans="1:7">
@@ -4102,10 +4235,10 @@
         <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C15" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="G15" s="1"/>
     </row>
@@ -4114,10 +4247,10 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C16" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="G16" s="1"/>
     </row>
@@ -4126,10 +4259,10 @@
         <v>101</v>
       </c>
       <c r="B17" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C17" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -4137,10 +4270,10 @@
         <v>102</v>
       </c>
       <c r="B18" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C18" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -4148,10 +4281,10 @@
         <v>103</v>
       </c>
       <c r="B19" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C19" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -4159,10 +4292,10 @@
         <v>201</v>
       </c>
       <c r="B20" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C20" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -4170,10 +4303,10 @@
         <v>202</v>
       </c>
       <c r="B21" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C21" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="22" customFormat="1" spans="1:3">
@@ -4181,10 +4314,10 @@
         <v>300</v>
       </c>
       <c r="B22" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C22" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -4192,10 +4325,10 @@
         <v>301</v>
       </c>
       <c r="B23" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="C23" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -4203,10 +4336,10 @@
         <v>302</v>
       </c>
       <c r="B24" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C24" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -4214,10 +4347,10 @@
         <v>303</v>
       </c>
       <c r="B25" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C25" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -4225,10 +4358,10 @@
         <v>304</v>
       </c>
       <c r="B26" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C26" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -4236,10 +4369,10 @@
         <v>310</v>
       </c>
       <c r="B27" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C27" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -4247,10 +4380,10 @@
         <v>311</v>
       </c>
       <c r="B28" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C28" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -4258,10 +4391,10 @@
         <v>312</v>
       </c>
       <c r="B29" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C29" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -4269,10 +4402,10 @@
         <v>313</v>
       </c>
       <c r="B30" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C30" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -4280,10 +4413,10 @@
         <v>314</v>
       </c>
       <c r="B31" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C31" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -4291,10 +4424,10 @@
         <v>315</v>
       </c>
       <c r="B32" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C32" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -4302,10 +4435,10 @@
         <v>316</v>
       </c>
       <c r="B33" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C33" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -4313,10 +4446,10 @@
         <v>317</v>
       </c>
       <c r="B34" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C34" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -4324,10 +4457,10 @@
         <v>321</v>
       </c>
       <c r="B35" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C35" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -4335,10 +4468,10 @@
         <v>322</v>
       </c>
       <c r="B36" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C36" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -4346,10 +4479,10 @@
         <v>323</v>
       </c>
       <c r="B37" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C37" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -4357,10 +4490,10 @@
         <v>324</v>
       </c>
       <c r="B38" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C38" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -4368,10 +4501,10 @@
         <v>325</v>
       </c>
       <c r="B39" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C39" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -4379,10 +4512,10 @@
         <v>326</v>
       </c>
       <c r="B40" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C40" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -4390,10 +4523,10 @@
         <v>327</v>
       </c>
       <c r="B41" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C41" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -4401,10 +4534,10 @@
         <v>328</v>
       </c>
       <c r="B42" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C42" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -4412,10 +4545,10 @@
         <v>330</v>
       </c>
       <c r="B43" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C43" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -4423,10 +4556,10 @@
         <v>331</v>
       </c>
       <c r="B44" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="C44" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -4434,10 +4567,10 @@
         <v>332</v>
       </c>
       <c r="B45" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C45" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -4445,10 +4578,10 @@
         <v>333</v>
       </c>
       <c r="B46" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="C46" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -4456,10 +4589,10 @@
         <v>334</v>
       </c>
       <c r="B47" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="C47" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -4467,13 +4600,13 @@
         <v>400</v>
       </c>
       <c r="B48" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C48" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="D48" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -4481,10 +4614,10 @@
         <v>401</v>
       </c>
       <c r="B49" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="C49" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -4492,10 +4625,10 @@
         <v>402</v>
       </c>
       <c r="B50" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C50" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -4503,10 +4636,10 @@
         <v>403</v>
       </c>
       <c r="B51" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C51" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -4514,10 +4647,10 @@
         <v>404</v>
       </c>
       <c r="B52" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="C52" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -4525,10 +4658,10 @@
         <v>405</v>
       </c>
       <c r="B53" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="C53" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -4536,10 +4669,10 @@
         <v>410</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="C54" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -4547,10 +4680,10 @@
         <v>500</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C55" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -4558,10 +4691,10 @@
         <v>501</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="C56" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -4569,10 +4702,10 @@
         <v>502</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="C57" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -4580,10 +4713,10 @@
         <v>503</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="C58" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -4591,10 +4724,10 @@
         <v>504</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="C59" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -4602,10 +4735,10 @@
         <v>505</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="C60" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -4613,10 +4746,10 @@
         <v>506</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="C61" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -4624,10 +4757,10 @@
         <v>507</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="C62" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -4635,10 +4768,10 @@
         <v>508</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="C63" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -4646,10 +4779,10 @@
         <v>521</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="C64" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -4657,10 +4790,10 @@
         <v>522</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="C65" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -4668,10 +4801,10 @@
         <v>526</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="C66" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -4679,10 +4812,10 @@
         <v>527</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="C67" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -4690,10 +4823,10 @@
         <v>531</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="C68" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -4701,10 +4834,10 @@
         <v>532</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C69" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -4712,10 +4845,10 @@
         <v>536</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="C70" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -4723,10 +4856,10 @@
         <v>541</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="C71" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -4734,10 +4867,10 @@
         <v>542</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="C72" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -4745,10 +4878,10 @@
         <v>700</v>
       </c>
       <c r="B73" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="C73" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -4759,7 +4892,7 @@
         <v>28</v>
       </c>
       <c r="C74" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -4767,10 +4900,10 @@
         <v>702</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C75" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -4778,10 +4911,10 @@
         <v>703</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C76" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -4789,10 +4922,10 @@
         <v>704</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C77" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -4800,10 +4933,10 @@
         <v>800</v>
       </c>
       <c r="B78" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C78" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -4811,10 +4944,10 @@
         <v>801</v>
       </c>
       <c r="B79" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="C79" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -4825,7 +4958,7 @@
         <v>27</v>
       </c>
       <c r="C80" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -4836,7 +4969,7 @@
         <v>28</v>
       </c>
       <c r="C81" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -4844,10 +4977,10 @@
         <v>804</v>
       </c>
       <c r="B82" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="C82" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -4855,10 +4988,10 @@
         <v>805</v>
       </c>
       <c r="B83" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="C83" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -4866,10 +4999,10 @@
         <v>806</v>
       </c>
       <c r="B84" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="C84" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -4877,10 +5010,10 @@
         <v>807</v>
       </c>
       <c r="B85" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="C85" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -4888,10 +5021,10 @@
         <v>808</v>
       </c>
       <c r="B86" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="C86" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -4899,10 +5032,10 @@
         <v>809</v>
       </c>
       <c r="B87" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="C87" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -4910,10 +5043,10 @@
         <v>810</v>
       </c>
       <c r="B88" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="C88" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -4921,10 +5054,10 @@
         <v>811</v>
       </c>
       <c r="B89" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C89" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -4932,10 +5065,10 @@
         <v>812</v>
       </c>
       <c r="B90" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="C90" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -4943,10 +5076,10 @@
         <v>813</v>
       </c>
       <c r="B91" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="C91" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -4954,10 +5087,10 @@
         <v>814</v>
       </c>
       <c r="B92" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="C92" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -4965,714 +5098,747 @@
         <v>815</v>
       </c>
       <c r="B93" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="C93" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94">
-        <v>1000</v>
+        <v>816</v>
       </c>
       <c r="B94" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="C94" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95">
-        <v>1010</v>
+        <v>817</v>
       </c>
       <c r="B95" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="C95" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96">
+        <v>818</v>
+      </c>
+      <c r="B96" t="s">
+        <v>183</v>
+      </c>
+      <c r="C96" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97">
+        <v>1000</v>
+      </c>
+      <c r="B97" t="s">
+        <v>184</v>
+      </c>
+      <c r="C97" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98">
+        <v>1010</v>
+      </c>
+      <c r="B98" t="s">
+        <v>185</v>
+      </c>
+      <c r="C98" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99">
         <v>1020</v>
       </c>
-      <c r="B96" t="s">
-        <v>179</v>
-      </c>
-      <c r="C96" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="97" ht="26" spans="1:3">
-      <c r="A97">
+      <c r="B99" t="s">
+        <v>186</v>
+      </c>
+      <c r="C99" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="100" ht="26" spans="1:3">
+      <c r="A100">
         <v>1030</v>
       </c>
-      <c r="B97" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="C97" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="98" customFormat="1" spans="1:3">
-      <c r="A98">
-        <v>1040</v>
-      </c>
-      <c r="B98" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="C98" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="99" customFormat="1" spans="1:3">
-      <c r="A99">
-        <v>1050</v>
-      </c>
-      <c r="B99" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="C99" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="100" customFormat="1" spans="1:3">
-      <c r="A100">
-        <v>1060</v>
-      </c>
       <c r="B100" s="2" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="C100" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="101" customFormat="1" spans="1:3">
       <c r="A101">
-        <v>1070</v>
+        <v>1040</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="C101" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="102" customFormat="1" ht="26" spans="1:3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="102" customFormat="1" spans="1:3">
       <c r="A102">
-        <v>1080</v>
+        <v>1050</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="C102" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="103" customFormat="1" spans="1:3">
       <c r="A103">
+        <v>1060</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C103" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="104" customFormat="1" spans="1:3">
+      <c r="A104">
+        <v>1070</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C104" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="105" customFormat="1" ht="26" spans="1:3">
+      <c r="A105">
+        <v>1080</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C105" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="106" customFormat="1" spans="1:3">
+      <c r="A106">
         <v>1090</v>
       </c>
-      <c r="B103" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="C103" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="104" customFormat="1" ht="26" spans="1:3">
-      <c r="A104">
+      <c r="B106" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C106" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="107" customFormat="1" ht="26" spans="1:3">
+      <c r="A107">
         <v>1100</v>
       </c>
-      <c r="B104" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="C104" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3">
-      <c r="A105">
-        <v>2000</v>
-      </c>
-      <c r="B105" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="C105" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="106" ht="26" spans="1:3">
-      <c r="A106">
-        <v>2010</v>
-      </c>
-      <c r="B106" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="C106" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3">
-      <c r="A107">
-        <v>3000</v>
-      </c>
       <c r="B107" s="2" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="C107" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108">
-        <v>3001</v>
+        <v>2000</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="C108" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="109" ht="26" spans="1:3">
       <c r="A109">
-        <v>3002</v>
+        <v>2010</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="C109" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110">
-        <v>3003</v>
+        <v>3000</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="C110" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111">
-        <v>3004</v>
+        <v>3001</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="C111" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112">
-        <v>3010</v>
+        <v>3002</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="C112" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113">
-        <v>3011</v>
+        <v>3003</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="C113" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114">
-        <v>3012</v>
+        <v>3004</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="C114" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115">
-        <v>3013</v>
+        <v>3010</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="C115" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116">
-        <v>3020</v>
+        <v>3011</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="C116" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117">
-        <v>3021</v>
+        <v>3012</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="C117" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118">
-        <v>3030</v>
+        <v>3013</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="C118" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119">
-        <v>3031</v>
+        <v>3020</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="C119" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120">
-        <v>3040</v>
+        <v>3021</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="C120" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121">
-        <v>3050</v>
+        <v>3030</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>27</v>
+        <v>208</v>
       </c>
       <c r="C121" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122">
-        <v>3051</v>
+        <v>3031</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="C122" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123">
-        <v>3052</v>
+        <v>3040</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="C123" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124">
-        <v>3060</v>
+        <v>3050</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>206</v>
+        <v>27</v>
       </c>
       <c r="C124" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125">
-        <v>4000</v>
+        <v>3051</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="C125" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126">
-        <v>4010</v>
+        <v>3052</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="C126" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127">
-        <v>4011</v>
+        <v>3060</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="C127" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="C128" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129">
-        <v>5001</v>
+        <v>4010</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>85</v>
+        <v>215</v>
       </c>
       <c r="C129" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130">
-        <v>5002</v>
+        <v>4011</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="C130" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131">
-        <v>11010</v>
-      </c>
-      <c r="B131" t="s">
-        <v>212</v>
+        <v>5000</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>217</v>
       </c>
       <c r="C131" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132">
-        <v>11020</v>
-      </c>
-      <c r="B132" t="s">
-        <v>213</v>
+        <v>5001</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>89</v>
       </c>
       <c r="C132" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133">
-        <v>11030</v>
-      </c>
-      <c r="B133" t="s">
-        <v>214</v>
+        <v>5002</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>218</v>
       </c>
       <c r="C133" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134">
-        <v>11040</v>
+        <v>11010</v>
       </c>
       <c r="B134" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="C134" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135">
-        <v>11050</v>
+        <v>11020</v>
       </c>
       <c r="B135" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="C135" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136">
-        <v>11060</v>
+        <v>11030</v>
       </c>
       <c r="B136" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="C136" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137">
-        <v>11070</v>
+        <v>11040</v>
       </c>
       <c r="B137" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="C137" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138">
-        <v>11080</v>
+        <v>11050</v>
       </c>
       <c r="B138" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="C138" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139">
-        <v>11090</v>
+        <v>11060</v>
       </c>
       <c r="B139" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="C139" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="140" ht="26" spans="1:3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
       <c r="A140">
-        <v>11100</v>
-      </c>
-      <c r="B140" s="2" t="s">
-        <v>221</v>
+        <v>11070</v>
+      </c>
+      <c r="B140" t="s">
+        <v>225</v>
       </c>
       <c r="C140" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141">
-        <v>13010</v>
+        <v>11080</v>
       </c>
       <c r="B141" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="C141" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142">
-        <v>14010</v>
+        <v>11090</v>
       </c>
       <c r="B142" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="C142" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="143" ht="26" spans="1:3">
       <c r="A143">
-        <v>14020</v>
-      </c>
-      <c r="B143" t="s">
-        <v>224</v>
+        <v>11100</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>228</v>
       </c>
       <c r="C143" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144">
-        <v>14030</v>
+        <v>13010</v>
       </c>
       <c r="B144" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="C144" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145">
-        <v>14040</v>
+        <v>14010</v>
       </c>
       <c r="B145" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="C145" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146">
-        <v>14041</v>
+        <v>14020</v>
       </c>
       <c r="B146" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="C146" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147">
-        <v>14042</v>
+        <v>14030</v>
       </c>
       <c r="B147" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="C147" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148">
-        <v>14051</v>
+        <v>14040</v>
       </c>
       <c r="B148" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="C148" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149">
-        <v>14060</v>
+        <v>14041</v>
       </c>
       <c r="B149" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="C149" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150">
-        <v>14070</v>
+        <v>14042</v>
       </c>
       <c r="B150" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="C150" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151">
-        <v>14071</v>
+        <v>14051</v>
       </c>
       <c r="B151" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="C151" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="A152">
-        <v>15010</v>
+        <v>14060</v>
       </c>
       <c r="B152" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="C152" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153">
-        <v>15020</v>
+        <v>14070</v>
       </c>
       <c r="B153" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="C153" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154">
-        <v>15030</v>
+        <v>14071</v>
       </c>
       <c r="B154" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="C154" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155">
-        <v>16010</v>
+        <v>15010</v>
       </c>
       <c r="B155" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="C155" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="156" spans="1:3">
       <c r="A156">
-        <v>16020</v>
+        <v>15020</v>
       </c>
       <c r="B156" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="C156" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157">
+        <v>15030</v>
+      </c>
+      <c r="B157" t="s">
+        <v>242</v>
+      </c>
+      <c r="C157" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
+      <c r="A158">
+        <v>16010</v>
+      </c>
+      <c r="B158" t="s">
+        <v>243</v>
+      </c>
+      <c r="C158" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
+      <c r="A159">
+        <v>16020</v>
+      </c>
+      <c r="B159" t="s">
+        <v>244</v>
+      </c>
+      <c r="C159" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
+      <c r="A160">
         <v>16030</v>
       </c>
-      <c r="B157" t="s">
-        <v>238</v>
-      </c>
-      <c r="C157" t="s">
-        <v>85</v>
+      <c r="B160" t="s">
+        <v>245</v>
+      </c>
+      <c r="C160" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/Data/System.xlsx
+++ b/Assets/Resources/Data/System.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7070" firstSheet="3" activeTab="4"/>
+    <workbookView windowWidth="19200" windowHeight="7070" firstSheet="3" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="TacticsComand" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="248">
   <si>
     <t>Id</t>
   </si>
@@ -211,6 +211,9 @@
     <t>RESULT</t>
   </si>
   <si>
+    <t>RANKING</t>
+  </si>
+  <si>
     <t>ActorId</t>
   </si>
   <si>
@@ -572,6 +575,9 @@
   </si>
   <si>
     <t>文字送り</t>
+  </si>
+  <si>
+    <t>結果表示切替</t>
   </si>
   <si>
     <t>(Nu)</t>
@@ -769,10 +775,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -790,68 +796,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -871,11 +816,87 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -887,7 +908,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
@@ -895,7 +916,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
@@ -917,21 +938,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -942,7 +948,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -954,13 +1074,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -972,79 +1092,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1062,67 +1110,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1133,6 +1139,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1147,6 +1177,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1166,35 +1211,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1218,21 +1239,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1241,145 +1247,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1941,8 +1947,8 @@
   <sheetPr/>
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="5"/>
@@ -2136,10 +2142,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D132"/>
+  <dimension ref="A1:D137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="B129" sqref="B129"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="C66" sqref="C66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="3"/>
@@ -3021,44 +3027,44 @@
     </row>
     <row r="65" spans="1:4">
       <c r="A65" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B65">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C65">
-        <v>802</v>
+        <v>819</v>
       </c>
       <c r="D65" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B66">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C66">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="D66" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B67">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C67">
-        <v>809</v>
+        <v>802</v>
       </c>
       <c r="D67" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -3066,13 +3072,13 @@
         <v>48</v>
       </c>
       <c r="B68">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C68">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="D68" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -3080,41 +3086,41 @@
         <v>48</v>
       </c>
       <c r="B69">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C69">
-        <v>800</v>
+        <v>809</v>
       </c>
       <c r="D69" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" t="s">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="B70">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C70">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="D70" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" t="s">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="B71">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C71">
-        <v>807</v>
+        <v>800</v>
       </c>
       <c r="D71" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -3122,13 +3128,13 @@
         <v>6</v>
       </c>
       <c r="B72">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C72">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D72" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -3136,13 +3142,13 @@
         <v>6</v>
       </c>
       <c r="B73">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C73">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="D73" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -3150,13 +3156,13 @@
         <v>6</v>
       </c>
       <c r="B74">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C74">
-        <v>800</v>
+        <v>803</v>
       </c>
       <c r="D74" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -3164,13 +3170,13 @@
         <v>6</v>
       </c>
       <c r="B75">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C75">
-        <v>801</v>
+        <v>806</v>
       </c>
       <c r="D75" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -3178,41 +3184,41 @@
         <v>6</v>
       </c>
       <c r="B76">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C76">
         <v>800</v>
       </c>
       <c r="D76" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" t="s">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="B77">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C77">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="D77" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" t="s">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="B78">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C78">
-        <v>804</v>
+        <v>800</v>
       </c>
       <c r="D78" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -3220,13 +3226,13 @@
         <v>51</v>
       </c>
       <c r="B79">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C79">
-        <v>809</v>
+        <v>802</v>
       </c>
       <c r="D79" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -3234,13 +3240,13 @@
         <v>51</v>
       </c>
       <c r="B80">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C80">
-        <v>815</v>
+        <v>804</v>
       </c>
       <c r="D80" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -3248,13 +3254,13 @@
         <v>51</v>
       </c>
       <c r="B81">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C81">
-        <v>800</v>
+        <v>809</v>
       </c>
       <c r="D81" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -3262,13 +3268,13 @@
         <v>51</v>
       </c>
       <c r="B82">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C82">
-        <v>808</v>
+        <v>815</v>
       </c>
       <c r="D82" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -3276,13 +3282,13 @@
         <v>51</v>
       </c>
       <c r="B83">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C83">
         <v>800</v>
       </c>
       <c r="D83" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -3290,13 +3296,13 @@
         <v>51</v>
       </c>
       <c r="B84">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C84">
-        <v>801</v>
+        <v>808</v>
       </c>
       <c r="D84" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -3304,41 +3310,41 @@
         <v>51</v>
       </c>
       <c r="B85">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C85">
         <v>800</v>
       </c>
       <c r="D85" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B86">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C86">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="D86" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B87">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C87">
-        <v>804</v>
+        <v>800</v>
       </c>
       <c r="D87" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -3346,13 +3352,13 @@
         <v>52</v>
       </c>
       <c r="B88">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C88">
-        <v>815</v>
+        <v>802</v>
       </c>
       <c r="D88" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -3360,13 +3366,13 @@
         <v>52</v>
       </c>
       <c r="B89">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C89">
-        <v>800</v>
+        <v>804</v>
       </c>
       <c r="D89" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -3374,13 +3380,13 @@
         <v>52</v>
       </c>
       <c r="B90">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C90">
-        <v>801</v>
+        <v>815</v>
       </c>
       <c r="D90" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -3388,41 +3394,41 @@
         <v>52</v>
       </c>
       <c r="B91">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C91">
         <v>800</v>
       </c>
       <c r="D91" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" t="s">
-        <v>8</v>
+        <v>52</v>
       </c>
       <c r="B92">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C92">
-        <v>811</v>
+        <v>801</v>
       </c>
       <c r="D92" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" t="s">
-        <v>8</v>
+        <v>52</v>
       </c>
       <c r="B93">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C93">
-        <v>804</v>
+        <v>800</v>
       </c>
       <c r="D93" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -3430,13 +3436,13 @@
         <v>8</v>
       </c>
       <c r="B94">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C94">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="D94" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -3444,41 +3450,41 @@
         <v>8</v>
       </c>
       <c r="B95">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C95">
-        <v>800</v>
+        <v>804</v>
       </c>
       <c r="D95" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" t="s">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="B96">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C96">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="D96" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" t="s">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="B97">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C97">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="D97" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -3486,13 +3492,13 @@
         <v>53</v>
       </c>
       <c r="B98">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C98">
-        <v>804</v>
+        <v>811</v>
       </c>
       <c r="D98" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -3500,13 +3506,13 @@
         <v>53</v>
       </c>
       <c r="B99">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C99">
-        <v>810</v>
+        <v>802</v>
       </c>
       <c r="D99" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -3514,41 +3520,41 @@
         <v>53</v>
       </c>
       <c r="B100">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C100">
-        <v>800</v>
+        <v>804</v>
       </c>
       <c r="D100" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B101">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C101">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="D101" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B102">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C102">
-        <v>804</v>
+        <v>800</v>
       </c>
       <c r="D102" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -3556,13 +3562,13 @@
         <v>54</v>
       </c>
       <c r="B103">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C103">
-        <v>806</v>
+        <v>812</v>
       </c>
       <c r="D103" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -3570,13 +3576,13 @@
         <v>54</v>
       </c>
       <c r="B104">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C104">
-        <v>800</v>
+        <v>804</v>
       </c>
       <c r="D104" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -3584,13 +3590,13 @@
         <v>54</v>
       </c>
       <c r="B105">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C105">
-        <v>801</v>
+        <v>806</v>
       </c>
       <c r="D105" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -3598,41 +3604,41 @@
         <v>54</v>
       </c>
       <c r="B106">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C106">
         <v>800</v>
       </c>
       <c r="D106" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B107">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C107">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="D107" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B108">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C108">
-        <v>806</v>
+        <v>800</v>
       </c>
       <c r="D108" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -3640,13 +3646,13 @@
         <v>55</v>
       </c>
       <c r="B109">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C109">
-        <v>800</v>
+        <v>804</v>
       </c>
       <c r="D109" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -3654,13 +3660,13 @@
         <v>55</v>
       </c>
       <c r="B110">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C110">
-        <v>801</v>
+        <v>806</v>
       </c>
       <c r="D110" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -3668,41 +3674,41 @@
         <v>55</v>
       </c>
       <c r="B111">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C111">
         <v>800</v>
       </c>
       <c r="D111" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B112">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C112">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="D112" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B113">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C113">
-        <v>813</v>
+        <v>800</v>
       </c>
       <c r="D113" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -3710,13 +3716,13 @@
         <v>56</v>
       </c>
       <c r="B114">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C114">
-        <v>800</v>
+        <v>804</v>
       </c>
       <c r="D114" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -3724,13 +3730,13 @@
         <v>56</v>
       </c>
       <c r="B115">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C115">
-        <v>801</v>
+        <v>813</v>
       </c>
       <c r="D115" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -3738,41 +3744,41 @@
         <v>56</v>
       </c>
       <c r="B116">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C116">
         <v>800</v>
       </c>
       <c r="D116" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B117">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C117">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="D117" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="118" spans="1:4">
       <c r="A118" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B118">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C118">
-        <v>814</v>
+        <v>800</v>
       </c>
       <c r="D118" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -3780,13 +3786,13 @@
         <v>57</v>
       </c>
       <c r="B119">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C119">
-        <v>800</v>
+        <v>804</v>
       </c>
       <c r="D119" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -3794,13 +3800,13 @@
         <v>57</v>
       </c>
       <c r="B120">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C120">
-        <v>801</v>
+        <v>814</v>
       </c>
       <c r="D120" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -3808,41 +3814,41 @@
         <v>57</v>
       </c>
       <c r="B121">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C121">
         <v>800</v>
       </c>
       <c r="D121" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="122" spans="1:4">
       <c r="A122" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B122">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C122">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="D122" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="123" spans="1:4">
       <c r="A123" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C123">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="D123" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -3850,52 +3856,52 @@
         <v>58</v>
       </c>
       <c r="B124">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C124">
-        <v>800</v>
+        <v>804</v>
       </c>
       <c r="D124" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="125" spans="1:4">
       <c r="A125" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B125">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C125">
-        <v>818</v>
+        <v>801</v>
       </c>
       <c r="D125" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
     </row>
     <row r="126" spans="1:4">
       <c r="A126" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B126">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C126">
         <v>800</v>
       </c>
       <c r="D126" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="127" spans="1:4">
       <c r="A127" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B127">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C127">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="D127" t="s">
         <v>50</v>
@@ -3903,13 +3909,13 @@
     </row>
     <row r="128" spans="1:4">
       <c r="A128" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B128">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C128">
-        <v>816</v>
+        <v>800</v>
       </c>
       <c r="D128" t="s">
         <v>50</v>
@@ -3917,10 +3923,10 @@
     </row>
     <row r="129" spans="1:4">
       <c r="A129" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B129">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C129">
         <v>817</v>
@@ -3931,30 +3937,30 @@
     </row>
     <row r="130" spans="1:4">
       <c r="A130" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B130">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C130">
-        <v>802</v>
+        <v>816</v>
       </c>
       <c r="D130" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
     </row>
     <row r="131" spans="1:4">
       <c r="A131" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B131">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C131">
-        <v>801</v>
+        <v>817</v>
       </c>
       <c r="D131" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -3962,13 +3968,83 @@
         <v>62</v>
       </c>
       <c r="B132">
+        <v>4</v>
+      </c>
+      <c r="C132">
+        <v>802</v>
+      </c>
+      <c r="D132" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" t="s">
+        <v>62</v>
+      </c>
+      <c r="B133">
+        <v>3</v>
+      </c>
+      <c r="C133">
+        <v>801</v>
+      </c>
+      <c r="D133" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" t="s">
+        <v>62</v>
+      </c>
+      <c r="B134">
         <v>2</v>
       </c>
-      <c r="C132">
+      <c r="C134">
         <v>800</v>
       </c>
-      <c r="D132" t="s">
+      <c r="D134" t="s">
         <v>34</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" t="s">
+        <v>63</v>
+      </c>
+      <c r="B135">
+        <v>5</v>
+      </c>
+      <c r="C135">
+        <v>804</v>
+      </c>
+      <c r="D135" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" t="s">
+        <v>63</v>
+      </c>
+      <c r="B136">
+        <v>1</v>
+      </c>
+      <c r="C136">
+        <v>801</v>
+      </c>
+      <c r="D136" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" t="s">
+        <v>63</v>
+      </c>
+      <c r="B137">
+        <v>0</v>
+      </c>
+      <c r="C137">
+        <v>800</v>
+      </c>
+      <c r="D137" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -3993,20 +4069,20 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B3" s="3">
         <v>5</v>
@@ -4014,7 +4090,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B4">
         <v>4</v>
@@ -4022,7 +4098,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -4030,7 +4106,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B6">
         <v>3</v>
@@ -4038,7 +4114,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B7">
         <v>4</v>
@@ -4046,7 +4122,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B8">
         <v>3</v>
@@ -4061,10 +4137,10 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G160"/>
+  <dimension ref="A1:G161"/>
   <sheetViews>
-    <sheetView topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="B97" sqref="B97"/>
+    <sheetView topLeftCell="A80" workbookViewId="0">
+      <selection activeCell="B98" sqref="B98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="6"/>
@@ -4078,10 +4154,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" ht="14" spans="1:7">
@@ -4089,10 +4165,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G2" s="1"/>
     </row>
@@ -4101,10 +4177,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -4112,10 +4188,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -4123,10 +4199,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -4134,10 +4210,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -4145,10 +4221,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -4156,10 +4232,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" ht="14" spans="1:7">
@@ -4167,10 +4243,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C9" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G9" s="1"/>
     </row>
@@ -4179,10 +4255,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C10" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G10" s="1"/>
     </row>
@@ -4191,10 +4267,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C11" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -4202,10 +4278,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C12" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -4213,10 +4289,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C13" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -4224,10 +4300,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C14" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" ht="14" spans="1:7">
@@ -4235,10 +4311,10 @@
         <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C15" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G15" s="1"/>
     </row>
@@ -4247,10 +4323,10 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C16" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G16" s="1"/>
     </row>
@@ -4259,10 +4335,10 @@
         <v>101</v>
       </c>
       <c r="B17" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C17" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -4270,10 +4346,10 @@
         <v>102</v>
       </c>
       <c r="B18" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C18" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -4281,10 +4357,10 @@
         <v>103</v>
       </c>
       <c r="B19" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C19" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -4292,10 +4368,10 @@
         <v>201</v>
       </c>
       <c r="B20" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C20" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -4303,10 +4379,10 @@
         <v>202</v>
       </c>
       <c r="B21" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C21" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="22" customFormat="1" spans="1:3">
@@ -4314,10 +4390,10 @@
         <v>300</v>
       </c>
       <c r="B22" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C22" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -4325,10 +4401,10 @@
         <v>301</v>
       </c>
       <c r="B23" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C23" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -4336,10 +4412,10 @@
         <v>302</v>
       </c>
       <c r="B24" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C24" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -4347,10 +4423,10 @@
         <v>303</v>
       </c>
       <c r="B25" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C25" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -4358,10 +4434,10 @@
         <v>304</v>
       </c>
       <c r="B26" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C26" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -4369,10 +4445,10 @@
         <v>310</v>
       </c>
       <c r="B27" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C27" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -4380,10 +4456,10 @@
         <v>311</v>
       </c>
       <c r="B28" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C28" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -4391,10 +4467,10 @@
         <v>312</v>
       </c>
       <c r="B29" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C29" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -4402,10 +4478,10 @@
         <v>313</v>
       </c>
       <c r="B30" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C30" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -4413,10 +4489,10 @@
         <v>314</v>
       </c>
       <c r="B31" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C31" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -4424,10 +4500,10 @@
         <v>315</v>
       </c>
       <c r="B32" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C32" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -4435,10 +4511,10 @@
         <v>316</v>
       </c>
       <c r="B33" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C33" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -4446,10 +4522,10 @@
         <v>317</v>
       </c>
       <c r="B34" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C34" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -4457,10 +4533,10 @@
         <v>321</v>
       </c>
       <c r="B35" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C35" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -4468,10 +4544,10 @@
         <v>322</v>
       </c>
       <c r="B36" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C36" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -4479,10 +4555,10 @@
         <v>323</v>
       </c>
       <c r="B37" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C37" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -4490,10 +4566,10 @@
         <v>324</v>
       </c>
       <c r="B38" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C38" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -4501,10 +4577,10 @@
         <v>325</v>
       </c>
       <c r="B39" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C39" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -4512,10 +4588,10 @@
         <v>326</v>
       </c>
       <c r="B40" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C40" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -4523,10 +4599,10 @@
         <v>327</v>
       </c>
       <c r="B41" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C41" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -4534,10 +4610,10 @@
         <v>328</v>
       </c>
       <c r="B42" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C42" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -4545,10 +4621,10 @@
         <v>330</v>
       </c>
       <c r="B43" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C43" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -4556,10 +4632,10 @@
         <v>331</v>
       </c>
       <c r="B44" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C44" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -4567,10 +4643,10 @@
         <v>332</v>
       </c>
       <c r="B45" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C45" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -4578,10 +4654,10 @@
         <v>333</v>
       </c>
       <c r="B46" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C46" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -4589,10 +4665,10 @@
         <v>334</v>
       </c>
       <c r="B47" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C47" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -4600,13 +4676,13 @@
         <v>400</v>
       </c>
       <c r="B48" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C48" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D48" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -4614,10 +4690,10 @@
         <v>401</v>
       </c>
       <c r="B49" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C49" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -4625,10 +4701,10 @@
         <v>402</v>
       </c>
       <c r="B50" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C50" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -4636,10 +4712,10 @@
         <v>403</v>
       </c>
       <c r="B51" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C51" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -4647,10 +4723,10 @@
         <v>404</v>
       </c>
       <c r="B52" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C52" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -4658,10 +4734,10 @@
         <v>405</v>
       </c>
       <c r="B53" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C53" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -4669,10 +4745,10 @@
         <v>410</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C54" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -4680,10 +4756,10 @@
         <v>500</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C55" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -4691,10 +4767,10 @@
         <v>501</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C56" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -4702,10 +4778,10 @@
         <v>502</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C57" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -4713,10 +4789,10 @@
         <v>503</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C58" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -4724,10 +4800,10 @@
         <v>504</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C59" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -4735,10 +4811,10 @@
         <v>505</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C60" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -4746,10 +4822,10 @@
         <v>506</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C61" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -4757,10 +4833,10 @@
         <v>507</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C62" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -4768,10 +4844,10 @@
         <v>508</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C63" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -4779,10 +4855,10 @@
         <v>521</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C64" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -4790,10 +4866,10 @@
         <v>522</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C65" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -4801,10 +4877,10 @@
         <v>526</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C66" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -4812,10 +4888,10 @@
         <v>527</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C67" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -4823,10 +4899,10 @@
         <v>531</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C68" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -4834,10 +4910,10 @@
         <v>532</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C69" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -4845,10 +4921,10 @@
         <v>536</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C70" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -4856,10 +4932,10 @@
         <v>541</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C71" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -4867,10 +4943,10 @@
         <v>542</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C72" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -4878,10 +4954,10 @@
         <v>700</v>
       </c>
       <c r="B73" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C73" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -4892,7 +4968,7 @@
         <v>28</v>
       </c>
       <c r="C74" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -4900,10 +4976,10 @@
         <v>702</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C75" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -4911,10 +4987,10 @@
         <v>703</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C76" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -4922,10 +4998,10 @@
         <v>704</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C77" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -4933,10 +5009,10 @@
         <v>800</v>
       </c>
       <c r="B78" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C78" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -4944,10 +5020,10 @@
         <v>801</v>
       </c>
       <c r="B79" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C79" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -4958,7 +5034,7 @@
         <v>27</v>
       </c>
       <c r="C80" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -4969,7 +5045,7 @@
         <v>28</v>
       </c>
       <c r="C81" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -4977,10 +5053,10 @@
         <v>804</v>
       </c>
       <c r="B82" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C82" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -4988,10 +5064,10 @@
         <v>805</v>
       </c>
       <c r="B83" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C83" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -4999,10 +5075,10 @@
         <v>806</v>
       </c>
       <c r="B84" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C84" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -5010,10 +5086,10 @@
         <v>807</v>
       </c>
       <c r="B85" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C85" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -5021,10 +5097,10 @@
         <v>808</v>
       </c>
       <c r="B86" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C86" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -5032,10 +5108,10 @@
         <v>809</v>
       </c>
       <c r="B87" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C87" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -5043,10 +5119,10 @@
         <v>810</v>
       </c>
       <c r="B88" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C88" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -5054,10 +5130,10 @@
         <v>811</v>
       </c>
       <c r="B89" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C89" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -5065,10 +5141,10 @@
         <v>812</v>
       </c>
       <c r="B90" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C90" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -5076,10 +5152,10 @@
         <v>813</v>
       </c>
       <c r="B91" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C91" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -5087,10 +5163,10 @@
         <v>814</v>
       </c>
       <c r="B92" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C92" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -5098,10 +5174,10 @@
         <v>815</v>
       </c>
       <c r="B93" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C93" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -5109,10 +5185,10 @@
         <v>816</v>
       </c>
       <c r="B94" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C94" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -5120,10 +5196,10 @@
         <v>817</v>
       </c>
       <c r="B95" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C95" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -5131,714 +5207,725 @@
         <v>818</v>
       </c>
       <c r="B96" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C96" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97">
-        <v>1000</v>
+        <v>819</v>
       </c>
       <c r="B97" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C97" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98">
-        <v>1010</v>
+        <v>1000</v>
       </c>
       <c r="B98" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C98" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99">
+        <v>1010</v>
+      </c>
+      <c r="B99" t="s">
+        <v>187</v>
+      </c>
+      <c r="C99" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100">
         <v>1020</v>
       </c>
-      <c r="B99" t="s">
-        <v>186</v>
-      </c>
-      <c r="C99" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="100" ht="26" spans="1:3">
-      <c r="A100">
+      <c r="B100" t="s">
+        <v>188</v>
+      </c>
+      <c r="C100" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="101" ht="26" spans="1:3">
+      <c r="A101">
         <v>1030</v>
       </c>
-      <c r="B100" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="C100" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="101" customFormat="1" spans="1:3">
-      <c r="A101">
-        <v>1040</v>
-      </c>
       <c r="B101" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C101" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="102" customFormat="1" spans="1:3">
       <c r="A102">
-        <v>1050</v>
+        <v>1040</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C102" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="103" customFormat="1" spans="1:3">
       <c r="A103">
-        <v>1060</v>
+        <v>1050</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C103" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="104" customFormat="1" spans="1:3">
       <c r="A104">
+        <v>1060</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C104" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="105" customFormat="1" spans="1:3">
+      <c r="A105">
         <v>1070</v>
       </c>
-      <c r="B104" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="C104" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="105" customFormat="1" ht="26" spans="1:3">
-      <c r="A105">
+      <c r="B105" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C105" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="106" customFormat="1" ht="26" spans="1:3">
+      <c r="A106">
         <v>1080</v>
       </c>
-      <c r="B105" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="C105" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="106" customFormat="1" spans="1:3">
-      <c r="A106">
+      <c r="B106" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C106" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="107" customFormat="1" spans="1:3">
+      <c r="A107">
         <v>1090</v>
       </c>
-      <c r="B106" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="C106" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="107" customFormat="1" ht="26" spans="1:3">
-      <c r="A107">
+      <c r="B107" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C107" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="108" customFormat="1" ht="26" spans="1:3">
+      <c r="A108">
         <v>1100</v>
       </c>
-      <c r="B107" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="C107" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3">
-      <c r="A108">
+      <c r="B108" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C108" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109">
         <v>2000</v>
       </c>
-      <c r="B108" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="C108" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="109" ht="26" spans="1:3">
-      <c r="A109">
+      <c r="B109" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C109" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="110" ht="26" spans="1:3">
+      <c r="A110">
         <v>2010</v>
       </c>
-      <c r="B109" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="C109" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3">
-      <c r="A110">
-        <v>3000</v>
-      </c>
       <c r="B110" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C110" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111">
-        <v>3001</v>
+        <v>3000</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C111" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112">
-        <v>3002</v>
+        <v>3001</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C112" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113">
-        <v>3003</v>
+        <v>3002</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C113" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114">
-        <v>3004</v>
+        <v>3003</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C114" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115">
-        <v>3010</v>
+        <v>3004</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C115" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116">
-        <v>3011</v>
+        <v>3010</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C116" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117">
-        <v>3012</v>
+        <v>3011</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C117" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118">
-        <v>3013</v>
+        <v>3012</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C118" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119">
-        <v>3020</v>
+        <v>3013</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C119" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120">
-        <v>3021</v>
+        <v>3020</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C120" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121">
-        <v>3030</v>
+        <v>3021</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C121" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122">
-        <v>3031</v>
+        <v>3030</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C122" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123">
-        <v>3040</v>
+        <v>3031</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C123" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124">
-        <v>3050</v>
+        <v>3040</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>27</v>
+        <v>212</v>
       </c>
       <c r="C124" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125">
-        <v>3051</v>
+        <v>3050</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>211</v>
+        <v>27</v>
       </c>
       <c r="C125" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126">
-        <v>3052</v>
+        <v>3051</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C126" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127">
-        <v>3060</v>
+        <v>3052</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C127" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128">
-        <v>4000</v>
+        <v>3060</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C128" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129">
-        <v>4010</v>
+        <v>4000</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C129" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130">
-        <v>4011</v>
+        <v>4010</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C130" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131">
-        <v>5000</v>
+        <v>4011</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C131" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132">
-        <v>5001</v>
+        <v>5000</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>89</v>
+        <v>219</v>
       </c>
       <c r="C132" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133">
-        <v>5002</v>
+        <v>5001</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>218</v>
+        <v>90</v>
       </c>
       <c r="C133" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134">
-        <v>11010</v>
-      </c>
-      <c r="B134" t="s">
-        <v>219</v>
+        <v>5002</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>220</v>
       </c>
       <c r="C134" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135">
-        <v>11020</v>
+        <v>11010</v>
       </c>
       <c r="B135" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C135" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136">
-        <v>11030</v>
+        <v>11020</v>
       </c>
       <c r="B136" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C136" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137">
-        <v>11040</v>
+        <v>11030</v>
       </c>
       <c r="B137" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C137" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138">
-        <v>11050</v>
+        <v>11040</v>
       </c>
       <c r="B138" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C138" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139">
-        <v>11060</v>
+        <v>11050</v>
       </c>
       <c r="B139" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C139" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140">
-        <v>11070</v>
+        <v>11060</v>
       </c>
       <c r="B140" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C140" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141">
-        <v>11080</v>
+        <v>11070</v>
       </c>
       <c r="B141" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C141" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142">
+        <v>11080</v>
+      </c>
+      <c r="B142" t="s">
+        <v>228</v>
+      </c>
+      <c r="C142" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143">
         <v>11090</v>
       </c>
-      <c r="B142" t="s">
-        <v>227</v>
-      </c>
-      <c r="C142" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="143" ht="26" spans="1:3">
-      <c r="A143">
+      <c r="B143" t="s">
+        <v>229</v>
+      </c>
+      <c r="C143" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="144" ht="26" spans="1:3">
+      <c r="A144">
         <v>11100</v>
       </c>
-      <c r="B143" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="C143" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3">
-      <c r="A144">
-        <v>13010</v>
-      </c>
-      <c r="B144" t="s">
-        <v>229</v>
+      <c r="B144" s="2" t="s">
+        <v>230</v>
       </c>
       <c r="C144" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145">
-        <v>14010</v>
+        <v>13010</v>
       </c>
       <c r="B145" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C145" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146">
-        <v>14020</v>
+        <v>14010</v>
       </c>
       <c r="B146" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C146" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147">
-        <v>14030</v>
+        <v>14020</v>
       </c>
       <c r="B147" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C147" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148">
-        <v>14040</v>
+        <v>14030</v>
       </c>
       <c r="B148" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C148" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149">
-        <v>14041</v>
+        <v>14040</v>
       </c>
       <c r="B149" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C149" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150">
-        <v>14042</v>
+        <v>14041</v>
       </c>
       <c r="B150" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C150" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151">
-        <v>14051</v>
+        <v>14042</v>
       </c>
       <c r="B151" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C151" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="A152">
-        <v>14060</v>
+        <v>14051</v>
       </c>
       <c r="B152" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C152" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153">
-        <v>14070</v>
+        <v>14060</v>
       </c>
       <c r="B153" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C153" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154">
-        <v>14071</v>
+        <v>14070</v>
       </c>
       <c r="B154" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C154" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155">
-        <v>15010</v>
+        <v>14071</v>
       </c>
       <c r="B155" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C155" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="156" spans="1:3">
       <c r="A156">
-        <v>15020</v>
+        <v>15010</v>
       </c>
       <c r="B156" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C156" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157">
-        <v>15030</v>
+        <v>15020</v>
       </c>
       <c r="B157" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C157" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158">
-        <v>16010</v>
+        <v>15030</v>
       </c>
       <c r="B158" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C158" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159">
-        <v>16020</v>
+        <v>16010</v>
       </c>
       <c r="B159" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C159" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="160" spans="1:3">
       <c r="A160">
+        <v>16020</v>
+      </c>
+      <c r="B160" t="s">
+        <v>246</v>
+      </c>
+      <c r="C160" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161">
         <v>16030</v>
       </c>
-      <c r="B160" t="s">
-        <v>245</v>
-      </c>
-      <c r="C160" t="s">
-        <v>89</v>
+      <c r="B161" t="s">
+        <v>247</v>
+      </c>
+      <c r="C161" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/Data/System.xlsx
+++ b/Assets/Resources/Data/System.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7070" firstSheet="3" activeTab="3"/>
+    <workbookView windowWidth="19200" windowHeight="7070" firstSheet="3" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="TacticsComand" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="254">
   <si>
     <t>Id</t>
   </si>
@@ -383,6 +383,9 @@
   </si>
   <si>
     <t>Attribute</t>
+  </si>
+  <si>
+    <t>転生思念</t>
   </si>
   <si>
     <t>S</t>
@@ -768,6 +771,23 @@
   </si>
   <si>
     <t>転生中…</t>
+  </si>
+  <si>
+    <t>ヒロインの思念が新たに刻まれました</t>
+  </si>
+  <si>
+    <t>ヒロインの思念が新たに刻まれました
+※超過しているため思念を消失してください</t>
+  </si>
+  <si>
+    <t>思念所持数が超過しているため消失する思念を選択してください</t>
+  </si>
+  <si>
+    <t>思念を消失しますか？
+!消失した思念は元に戻せません!</t>
+  </si>
+  <si>
+    <t>思念を継承するアルケミストを選んでください</t>
   </si>
 </sst>
 </file>
@@ -775,9 +795,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="21">
@@ -796,21 +816,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -824,24 +830,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -861,6 +852,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -868,9 +874,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -887,21 +907,6 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -925,7 +930,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -948,13 +968,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -972,25 +992,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1002,7 +1010,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1014,31 +1064,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1056,7 +1082,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1068,67 +1142,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1139,15 +1159,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1167,6 +1178,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -1181,32 +1207,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1229,6 +1234,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1247,46 +1267,46 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1295,106 +1315,109 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1947,7 +1970,7 @@
   <sheetPr/>
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -4084,7 +4107,7 @@
       <c r="A3" t="s">
         <v>67</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="4">
         <v>5</v>
       </c>
     </row>
@@ -4137,10 +4160,10 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G161"/>
+  <dimension ref="A1:G167"/>
   <sheetViews>
-    <sheetView topLeftCell="A80" workbookViewId="0">
-      <selection activeCell="B98" sqref="B98"/>
+    <sheetView tabSelected="1" topLeftCell="A147" workbookViewId="0">
+      <selection activeCell="A164" sqref="A164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="6"/>
@@ -4530,7 +4553,7 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="B35" t="s">
         <v>121</v>
@@ -4541,7 +4564,7 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B36" t="s">
         <v>122</v>
@@ -4552,7 +4575,7 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B37" t="s">
         <v>123</v>
@@ -4563,7 +4586,7 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B38" t="s">
         <v>124</v>
@@ -4574,7 +4597,7 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B39" t="s">
         <v>125</v>
@@ -4585,7 +4608,7 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B40" t="s">
         <v>126</v>
@@ -4596,7 +4619,7 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B41" t="s">
         <v>127</v>
@@ -4607,7 +4630,7 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B42" t="s">
         <v>128</v>
@@ -4618,7 +4641,7 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B43" t="s">
         <v>129</v>
@@ -4629,7 +4652,7 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B44" t="s">
         <v>130</v>
@@ -4640,7 +4663,7 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B45" t="s">
         <v>131</v>
@@ -4651,7 +4674,7 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B46" t="s">
         <v>132</v>
@@ -4662,7 +4685,7 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B47" t="s">
         <v>133</v>
@@ -4671,34 +4694,34 @@
         <v>90</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:3">
       <c r="A48">
+        <v>334</v>
+      </c>
+      <c r="B48" t="s">
+        <v>134</v>
+      </c>
+      <c r="C48" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49">
         <v>400</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B49" t="s">
         <v>116</v>
       </c>
-      <c r="C48" t="s">
-        <v>90</v>
-      </c>
-      <c r="D48" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49">
-        <v>401</v>
-      </c>
-      <c r="B49" t="s">
+      <c r="C49" t="s">
+        <v>90</v>
+      </c>
+      <c r="D49" t="s">
         <v>135</v>
-      </c>
-      <c r="C49" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B50" t="s">
         <v>136</v>
@@ -4709,7 +4732,7 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B51" t="s">
         <v>137</v>
@@ -4720,7 +4743,7 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B52" t="s">
         <v>138</v>
@@ -4731,7 +4754,7 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B53" t="s">
         <v>139</v>
@@ -4742,9 +4765,9 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54">
-        <v>410</v>
-      </c>
-      <c r="B54" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="B54" t="s">
         <v>140</v>
       </c>
       <c r="C54" t="s">
@@ -4753,117 +4776,117 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55">
-        <v>500</v>
+        <v>410</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>90</v>
+        <v>141</v>
       </c>
       <c r="C55" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>141</v>
+        <v>90</v>
       </c>
       <c r="C56" t="s">
-        <v>142</v>
+        <v>103</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B57" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C57" t="s">
         <v>143</v>
-      </c>
-      <c r="C57" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B58" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C58" t="s">
         <v>145</v>
-      </c>
-      <c r="C58" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B59" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C59" t="s">
         <v>147</v>
-      </c>
-      <c r="C59" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B60" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C60" t="s">
         <v>149</v>
-      </c>
-      <c r="C60" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B61" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C61" t="s">
         <v>151</v>
-      </c>
-      <c r="C61" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B62" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C62" t="s">
         <v>153</v>
-      </c>
-      <c r="C62" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B63" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C63" t="s">
         <v>155</v>
-      </c>
-      <c r="C63" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64">
-        <v>521</v>
+        <v>508</v>
       </c>
       <c r="B64" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C64" t="s">
         <v>157</v>
-      </c>
-      <c r="C64" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>158</v>
@@ -4874,7 +4897,7 @@
     </row>
     <row r="66" spans="1:3">
       <c r="A66">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>159</v>
@@ -4885,7 +4908,7 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>160</v>
@@ -4896,7 +4919,7 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>161</v>
@@ -4907,7 +4930,7 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>162</v>
@@ -4918,7 +4941,7 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>163</v>
@@ -4929,7 +4952,7 @@
     </row>
     <row r="71" spans="1:3">
       <c r="A71">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>164</v>
@@ -4940,7 +4963,7 @@
     </row>
     <row r="72" spans="1:3">
       <c r="A72">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>165</v>
@@ -4951,9 +4974,9 @@
     </row>
     <row r="73" spans="1:3">
       <c r="A73">
-        <v>700</v>
-      </c>
-      <c r="B73" t="s">
+        <v>542</v>
+      </c>
+      <c r="B73" s="2" t="s">
         <v>166</v>
       </c>
       <c r="C73" t="s">
@@ -4962,32 +4985,32 @@
     </row>
     <row r="74" spans="1:3">
       <c r="A74">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B74" t="s">
-        <v>28</v>
+        <v>167</v>
       </c>
       <c r="C74" t="s">
-        <v>167</v>
+        <v>90</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75">
-        <v>702</v>
-      </c>
-      <c r="B75" s="2" t="s">
+        <v>701</v>
+      </c>
+      <c r="B75" t="s">
+        <v>28</v>
+      </c>
+      <c r="C75" t="s">
         <v>168</v>
-      </c>
-      <c r="C75" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>96</v>
+        <v>169</v>
       </c>
       <c r="C76" t="s">
         <v>90</v>
@@ -4995,10 +5018,10 @@
     </row>
     <row r="77" spans="1:3">
       <c r="A77">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C77" t="s">
         <v>90</v>
@@ -5006,10 +5029,10 @@
     </row>
     <row r="78" spans="1:3">
       <c r="A78">
-        <v>800</v>
-      </c>
-      <c r="B78" t="s">
-        <v>90</v>
+        <v>704</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>97</v>
       </c>
       <c r="C78" t="s">
         <v>90</v>
@@ -5017,10 +5040,10 @@
     </row>
     <row r="79" spans="1:3">
       <c r="A79">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B79" t="s">
-        <v>169</v>
+        <v>90</v>
       </c>
       <c r="C79" t="s">
         <v>90</v>
@@ -5028,10 +5051,10 @@
     </row>
     <row r="80" spans="1:3">
       <c r="A80">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="B80" t="s">
-        <v>27</v>
+        <v>170</v>
       </c>
       <c r="C80" t="s">
         <v>90</v>
@@ -5039,10 +5062,10 @@
     </row>
     <row r="81" spans="1:3">
       <c r="A81">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="B81" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C81" t="s">
         <v>90</v>
@@ -5050,10 +5073,10 @@
     </row>
     <row r="82" spans="1:3">
       <c r="A82">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="B82" t="s">
-        <v>170</v>
+        <v>28</v>
       </c>
       <c r="C82" t="s">
         <v>90</v>
@@ -5061,7 +5084,7 @@
     </row>
     <row r="83" spans="1:3">
       <c r="A83">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="B83" t="s">
         <v>171</v>
@@ -5072,7 +5095,7 @@
     </row>
     <row r="84" spans="1:3">
       <c r="A84">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B84" t="s">
         <v>172</v>
@@ -5083,7 +5106,7 @@
     </row>
     <row r="85" spans="1:3">
       <c r="A85">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="B85" t="s">
         <v>173</v>
@@ -5094,7 +5117,7 @@
     </row>
     <row r="86" spans="1:3">
       <c r="A86">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="B86" t="s">
         <v>174</v>
@@ -5105,32 +5128,32 @@
     </row>
     <row r="87" spans="1:3">
       <c r="A87">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="B87" t="s">
         <v>175</v>
       </c>
       <c r="C87" t="s">
-        <v>176</v>
+        <v>90</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="B88" t="s">
+        <v>176</v>
+      </c>
+      <c r="C88" t="s">
         <v>177</v>
-      </c>
-      <c r="C88" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="B89" t="s">
-        <v>106</v>
+        <v>178</v>
       </c>
       <c r="C89" t="s">
         <v>90</v>
@@ -5138,10 +5161,10 @@
     </row>
     <row r="90" spans="1:3">
       <c r="A90">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B90" t="s">
-        <v>178</v>
+        <v>106</v>
       </c>
       <c r="C90" t="s">
         <v>90</v>
@@ -5149,7 +5172,7 @@
     </row>
     <row r="91" spans="1:3">
       <c r="A91">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="B91" t="s">
         <v>179</v>
@@ -5160,7 +5183,7 @@
     </row>
     <row r="92" spans="1:3">
       <c r="A92">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="B92" t="s">
         <v>180</v>
@@ -5171,7 +5194,7 @@
     </row>
     <row r="93" spans="1:3">
       <c r="A93">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B93" t="s">
         <v>181</v>
@@ -5182,7 +5205,7 @@
     </row>
     <row r="94" spans="1:3">
       <c r="A94">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="B94" t="s">
         <v>182</v>
@@ -5193,7 +5216,7 @@
     </row>
     <row r="95" spans="1:3">
       <c r="A95">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B95" t="s">
         <v>183</v>
@@ -5204,7 +5227,7 @@
     </row>
     <row r="96" spans="1:3">
       <c r="A96">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B96" t="s">
         <v>184</v>
@@ -5215,7 +5238,7 @@
     </row>
     <row r="97" spans="1:3">
       <c r="A97">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B97" t="s">
         <v>185</v>
@@ -5226,7 +5249,7 @@
     </row>
     <row r="98" spans="1:3">
       <c r="A98">
-        <v>1000</v>
+        <v>819</v>
       </c>
       <c r="B98" t="s">
         <v>186</v>
@@ -5237,7 +5260,7 @@
     </row>
     <row r="99" spans="1:3">
       <c r="A99">
-        <v>1010</v>
+        <v>1000</v>
       </c>
       <c r="B99" t="s">
         <v>187</v>
@@ -5248,7 +5271,7 @@
     </row>
     <row r="100" spans="1:3">
       <c r="A100">
-        <v>1020</v>
+        <v>1010</v>
       </c>
       <c r="B100" t="s">
         <v>188</v>
@@ -5257,20 +5280,20 @@
         <v>90</v>
       </c>
     </row>
-    <row r="101" ht="26" spans="1:3">
+    <row r="101" spans="1:3">
       <c r="A101">
+        <v>1020</v>
+      </c>
+      <c r="B101" t="s">
+        <v>189</v>
+      </c>
+      <c r="C101" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="102" ht="26" spans="1:3">
+      <c r="A102">
         <v>1030</v>
-      </c>
-      <c r="B101" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="C101" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="102" customFormat="1" spans="1:3">
-      <c r="A102">
-        <v>1040</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>190</v>
@@ -5281,7 +5304,7 @@
     </row>
     <row r="103" customFormat="1" spans="1:3">
       <c r="A103">
-        <v>1050</v>
+        <v>1040</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>191</v>
@@ -5292,7 +5315,7 @@
     </row>
     <row r="104" customFormat="1" spans="1:3">
       <c r="A104">
-        <v>1060</v>
+        <v>1050</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>192</v>
@@ -5303,7 +5326,7 @@
     </row>
     <row r="105" customFormat="1" spans="1:3">
       <c r="A105">
-        <v>1070</v>
+        <v>1060</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>193</v>
@@ -5312,9 +5335,9 @@
         <v>90</v>
       </c>
     </row>
-    <row r="106" customFormat="1" ht="26" spans="1:3">
+    <row r="106" customFormat="1" spans="1:3">
       <c r="A106">
-        <v>1080</v>
+        <v>1070</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>194</v>
@@ -5323,9 +5346,9 @@
         <v>90</v>
       </c>
     </row>
-    <row r="107" customFormat="1" spans="1:3">
+    <row r="107" customFormat="1" ht="26" spans="1:3">
       <c r="A107">
-        <v>1090</v>
+        <v>1080</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>195</v>
@@ -5334,9 +5357,9 @@
         <v>90</v>
       </c>
     </row>
-    <row r="108" customFormat="1" ht="26" spans="1:3">
+    <row r="108" customFormat="1" spans="1:3">
       <c r="A108">
-        <v>1100</v>
+        <v>1090</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>196</v>
@@ -5345,9 +5368,9 @@
         <v>90</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
+    <row r="109" customFormat="1" ht="26" spans="1:3">
       <c r="A109">
-        <v>2000</v>
+        <v>1100</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>197</v>
@@ -5356,9 +5379,9 @@
         <v>90</v>
       </c>
     </row>
-    <row r="110" ht="26" spans="1:3">
+    <row r="110" spans="1:3">
       <c r="A110">
-        <v>2010</v>
+        <v>2000</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>198</v>
@@ -5367,9 +5390,9 @@
         <v>90</v>
       </c>
     </row>
-    <row r="111" spans="1:3">
+    <row r="111" ht="26" spans="1:3">
       <c r="A111">
-        <v>3000</v>
+        <v>2010</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>199</v>
@@ -5380,7 +5403,7 @@
     </row>
     <row r="112" spans="1:3">
       <c r="A112">
-        <v>3001</v>
+        <v>3000</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>200</v>
@@ -5391,7 +5414,7 @@
     </row>
     <row r="113" spans="1:3">
       <c r="A113">
-        <v>3002</v>
+        <v>3001</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>201</v>
@@ -5402,7 +5425,7 @@
     </row>
     <row r="114" spans="1:3">
       <c r="A114">
-        <v>3003</v>
+        <v>3002</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>202</v>
@@ -5413,7 +5436,7 @@
     </row>
     <row r="115" spans="1:3">
       <c r="A115">
-        <v>3004</v>
+        <v>3003</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>203</v>
@@ -5424,7 +5447,7 @@
     </row>
     <row r="116" spans="1:3">
       <c r="A116">
-        <v>3010</v>
+        <v>3004</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>204</v>
@@ -5435,7 +5458,7 @@
     </row>
     <row r="117" spans="1:3">
       <c r="A117">
-        <v>3011</v>
+        <v>3010</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>205</v>
@@ -5446,7 +5469,7 @@
     </row>
     <row r="118" spans="1:3">
       <c r="A118">
-        <v>3012</v>
+        <v>3011</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>206</v>
@@ -5457,7 +5480,7 @@
     </row>
     <row r="119" spans="1:3">
       <c r="A119">
-        <v>3013</v>
+        <v>3012</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>207</v>
@@ -5468,7 +5491,7 @@
     </row>
     <row r="120" spans="1:3">
       <c r="A120">
-        <v>3020</v>
+        <v>3013</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>208</v>
@@ -5479,7 +5502,7 @@
     </row>
     <row r="121" spans="1:3">
       <c r="A121">
-        <v>3021</v>
+        <v>3020</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>209</v>
@@ -5490,7 +5513,7 @@
     </row>
     <row r="122" spans="1:3">
       <c r="A122">
-        <v>3030</v>
+        <v>3021</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>210</v>
@@ -5501,7 +5524,7 @@
     </row>
     <row r="123" spans="1:3">
       <c r="A123">
-        <v>3031</v>
+        <v>3030</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>211</v>
@@ -5512,7 +5535,7 @@
     </row>
     <row r="124" spans="1:3">
       <c r="A124">
-        <v>3040</v>
+        <v>3031</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>212</v>
@@ -5523,10 +5546,10 @@
     </row>
     <row r="125" spans="1:3">
       <c r="A125">
-        <v>3050</v>
+        <v>3040</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>27</v>
+        <v>213</v>
       </c>
       <c r="C125" t="s">
         <v>90</v>
@@ -5534,10 +5557,10 @@
     </row>
     <row r="126" spans="1:3">
       <c r="A126">
-        <v>3051</v>
+        <v>3050</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>213</v>
+        <v>27</v>
       </c>
       <c r="C126" t="s">
         <v>90</v>
@@ -5545,7 +5568,7 @@
     </row>
     <row r="127" spans="1:3">
       <c r="A127">
-        <v>3052</v>
+        <v>3051</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>214</v>
@@ -5556,7 +5579,7 @@
     </row>
     <row r="128" spans="1:3">
       <c r="A128">
-        <v>3060</v>
+        <v>3052</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>215</v>
@@ -5567,7 +5590,7 @@
     </row>
     <row r="129" spans="1:3">
       <c r="A129">
-        <v>4000</v>
+        <v>3060</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>216</v>
@@ -5578,7 +5601,7 @@
     </row>
     <row r="130" spans="1:3">
       <c r="A130">
-        <v>4010</v>
+        <v>4000</v>
       </c>
       <c r="B130" s="2" t="s">
         <v>217</v>
@@ -5589,7 +5612,7 @@
     </row>
     <row r="131" spans="1:3">
       <c r="A131">
-        <v>4011</v>
+        <v>4010</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>218</v>
@@ -5600,7 +5623,7 @@
     </row>
     <row r="132" spans="1:3">
       <c r="A132">
-        <v>5000</v>
+        <v>4011</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>219</v>
@@ -5611,10 +5634,10 @@
     </row>
     <row r="133" spans="1:3">
       <c r="A133">
-        <v>5001</v>
+        <v>5000</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>90</v>
+        <v>220</v>
       </c>
       <c r="C133" t="s">
         <v>90</v>
@@ -5622,10 +5645,10 @@
     </row>
     <row r="134" spans="1:3">
       <c r="A134">
-        <v>5002</v>
+        <v>5001</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>220</v>
+        <v>90</v>
       </c>
       <c r="C134" t="s">
         <v>90</v>
@@ -5633,9 +5656,9 @@
     </row>
     <row r="135" spans="1:3">
       <c r="A135">
-        <v>11010</v>
-      </c>
-      <c r="B135" t="s">
+        <v>5002</v>
+      </c>
+      <c r="B135" s="2" t="s">
         <v>221</v>
       </c>
       <c r="C135" t="s">
@@ -5644,7 +5667,7 @@
     </row>
     <row r="136" spans="1:3">
       <c r="A136">
-        <v>11020</v>
+        <v>11010</v>
       </c>
       <c r="B136" t="s">
         <v>222</v>
@@ -5655,7 +5678,7 @@
     </row>
     <row r="137" spans="1:3">
       <c r="A137">
-        <v>11030</v>
+        <v>11020</v>
       </c>
       <c r="B137" t="s">
         <v>223</v>
@@ -5666,7 +5689,7 @@
     </row>
     <row r="138" spans="1:3">
       <c r="A138">
-        <v>11040</v>
+        <v>11030</v>
       </c>
       <c r="B138" t="s">
         <v>224</v>
@@ -5677,7 +5700,7 @@
     </row>
     <row r="139" spans="1:3">
       <c r="A139">
-        <v>11050</v>
+        <v>11040</v>
       </c>
       <c r="B139" t="s">
         <v>225</v>
@@ -5688,7 +5711,7 @@
     </row>
     <row r="140" spans="1:3">
       <c r="A140">
-        <v>11060</v>
+        <v>11050</v>
       </c>
       <c r="B140" t="s">
         <v>226</v>
@@ -5699,7 +5722,7 @@
     </row>
     <row r="141" spans="1:3">
       <c r="A141">
-        <v>11070</v>
+        <v>11060</v>
       </c>
       <c r="B141" t="s">
         <v>227</v>
@@ -5710,7 +5733,7 @@
     </row>
     <row r="142" spans="1:3">
       <c r="A142">
-        <v>11080</v>
+        <v>11070</v>
       </c>
       <c r="B142" t="s">
         <v>228</v>
@@ -5721,7 +5744,7 @@
     </row>
     <row r="143" spans="1:3">
       <c r="A143">
-        <v>11090</v>
+        <v>11080</v>
       </c>
       <c r="B143" t="s">
         <v>229</v>
@@ -5730,22 +5753,22 @@
         <v>90</v>
       </c>
     </row>
-    <row r="144" ht="26" spans="1:3">
+    <row r="144" spans="1:3">
       <c r="A144">
+        <v>11090</v>
+      </c>
+      <c r="B144" t="s">
+        <v>230</v>
+      </c>
+      <c r="C144" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="145" ht="26" spans="1:3">
+      <c r="A145">
         <v>11100</v>
       </c>
-      <c r="B144" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="C144" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3">
-      <c r="A145">
-        <v>13010</v>
-      </c>
-      <c r="B145" t="s">
+      <c r="B145" s="2" t="s">
         <v>231</v>
       </c>
       <c r="C145" t="s">
@@ -5754,7 +5777,7 @@
     </row>
     <row r="146" spans="1:3">
       <c r="A146">
-        <v>14010</v>
+        <v>13010</v>
       </c>
       <c r="B146" t="s">
         <v>232</v>
@@ -5765,7 +5788,7 @@
     </row>
     <row r="147" spans="1:3">
       <c r="A147">
-        <v>14020</v>
+        <v>14010</v>
       </c>
       <c r="B147" t="s">
         <v>233</v>
@@ -5776,7 +5799,7 @@
     </row>
     <row r="148" spans="1:3">
       <c r="A148">
-        <v>14030</v>
+        <v>14020</v>
       </c>
       <c r="B148" t="s">
         <v>234</v>
@@ -5787,7 +5810,7 @@
     </row>
     <row r="149" spans="1:3">
       <c r="A149">
-        <v>14040</v>
+        <v>14030</v>
       </c>
       <c r="B149" t="s">
         <v>235</v>
@@ -5798,7 +5821,7 @@
     </row>
     <row r="150" spans="1:3">
       <c r="A150">
-        <v>14041</v>
+        <v>14040</v>
       </c>
       <c r="B150" t="s">
         <v>236</v>
@@ -5809,7 +5832,7 @@
     </row>
     <row r="151" spans="1:3">
       <c r="A151">
-        <v>14042</v>
+        <v>14041</v>
       </c>
       <c r="B151" t="s">
         <v>237</v>
@@ -5820,7 +5843,7 @@
     </row>
     <row r="152" spans="1:3">
       <c r="A152">
-        <v>14051</v>
+        <v>14042</v>
       </c>
       <c r="B152" t="s">
         <v>238</v>
@@ -5831,7 +5854,7 @@
     </row>
     <row r="153" spans="1:3">
       <c r="A153">
-        <v>14060</v>
+        <v>14051</v>
       </c>
       <c r="B153" t="s">
         <v>239</v>
@@ -5842,7 +5865,7 @@
     </row>
     <row r="154" spans="1:3">
       <c r="A154">
-        <v>14070</v>
+        <v>14060</v>
       </c>
       <c r="B154" t="s">
         <v>240</v>
@@ -5853,7 +5876,7 @@
     </row>
     <row r="155" spans="1:3">
       <c r="A155">
-        <v>14071</v>
+        <v>14070</v>
       </c>
       <c r="B155" t="s">
         <v>241</v>
@@ -5864,7 +5887,7 @@
     </row>
     <row r="156" spans="1:3">
       <c r="A156">
-        <v>15010</v>
+        <v>14071</v>
       </c>
       <c r="B156" t="s">
         <v>242</v>
@@ -5875,7 +5898,7 @@
     </row>
     <row r="157" spans="1:3">
       <c r="A157">
-        <v>15020</v>
+        <v>15010</v>
       </c>
       <c r="B157" t="s">
         <v>243</v>
@@ -5886,7 +5909,7 @@
     </row>
     <row r="158" spans="1:3">
       <c r="A158">
-        <v>15030</v>
+        <v>15020</v>
       </c>
       <c r="B158" t="s">
         <v>244</v>
@@ -5897,7 +5920,7 @@
     </row>
     <row r="159" spans="1:3">
       <c r="A159">
-        <v>16010</v>
+        <v>15030</v>
       </c>
       <c r="B159" t="s">
         <v>245</v>
@@ -5908,7 +5931,7 @@
     </row>
     <row r="160" spans="1:3">
       <c r="A160">
-        <v>16020</v>
+        <v>16010</v>
       </c>
       <c r="B160" t="s">
         <v>246</v>
@@ -5919,12 +5942,78 @@
     </row>
     <row r="161" spans="1:3">
       <c r="A161">
-        <v>16030</v>
+        <v>16020</v>
       </c>
       <c r="B161" t="s">
         <v>247</v>
       </c>
       <c r="C161" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
+      <c r="A162">
+        <v>16030</v>
+      </c>
+      <c r="B162" t="s">
+        <v>248</v>
+      </c>
+      <c r="C162" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
+      <c r="A163">
+        <v>16040</v>
+      </c>
+      <c r="B163" t="s">
+        <v>249</v>
+      </c>
+      <c r="C163" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="164" ht="26" spans="1:3">
+      <c r="A164">
+        <v>16050</v>
+      </c>
+      <c r="B164" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="C164" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="165" ht="26" spans="1:3">
+      <c r="A165">
+        <v>16051</v>
+      </c>
+      <c r="B165" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="C165" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="166" ht="26" spans="1:3">
+      <c r="A166">
+        <v>16060</v>
+      </c>
+      <c r="B166" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="C166" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
+      <c r="A167">
+        <v>17010</v>
+      </c>
+      <c r="B167" t="s">
+        <v>253</v>
+      </c>
+      <c r="C167" t="s">
         <v>90</v>
       </c>
     </row>

--- a/Assets/Resources/Data/System.xlsx
+++ b/Assets/Resources/Data/System.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="260">
   <si>
     <t>Id</t>
   </si>
@@ -212,6 +212,9 @@
   </si>
   <si>
     <t>RANKING</t>
+  </si>
+  <si>
+    <t>REBORN</t>
   </si>
   <si>
     <t>ActorId</t>
@@ -676,6 +679,15 @@
     <t>\dがロストしました…</t>
   </si>
   <si>
+    <t>\dが</t>
+  </si>
+  <si>
+    <t>\dアップ！</t>
+  </si>
+  <si>
+    <t>最大HpとMpが\dアップ！</t>
+  </si>
+  <si>
     <t>Numinosを\d消費して\eを習得しますか？</t>
   </si>
   <si>
@@ -788,6 +800,12 @@
   </si>
   <si>
     <t>思念を継承するアルケミストを選んでください</t>
+  </si>
+  <si>
+    <t>選択した思念を継承しますか？</t>
+  </si>
+  <si>
+    <t>思念継承中…</t>
   </si>
 </sst>
 </file>
@@ -795,10 +813,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -815,8 +833,37 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -829,8 +876,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -844,6 +899,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -854,34 +924,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
@@ -890,7 +932,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -913,33 +955,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -951,9 +970,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -974,7 +992,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -986,7 +1046,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -998,49 +1106,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1052,7 +1154,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1064,91 +1166,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1159,6 +1177,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1173,6 +1200,50 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1192,48 +1263,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1248,17 +1277,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1267,157 +1285,154 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2165,10 +2180,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D137"/>
+  <dimension ref="A1:D140"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="C66" sqref="C66"/>
+    <sheetView topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="A138" sqref="A138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="3"/>
@@ -4067,6 +4082,48 @@
         <v>800</v>
       </c>
       <c r="D137" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" t="s">
+        <v>64</v>
+      </c>
+      <c r="B138">
+        <v>4</v>
+      </c>
+      <c r="C138">
+        <v>802</v>
+      </c>
+      <c r="D138" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" t="s">
+        <v>64</v>
+      </c>
+      <c r="B139">
+        <v>1</v>
+      </c>
+      <c r="C139">
+        <v>801</v>
+      </c>
+      <c r="D139" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" t="s">
+        <v>64</v>
+      </c>
+      <c r="B140">
+        <v>0</v>
+      </c>
+      <c r="C140">
+        <v>800</v>
+      </c>
+      <c r="D140" t="s">
         <v>30</v>
       </c>
     </row>
@@ -4092,28 +4149,28 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B3" s="4">
+        <v>68</v>
+      </c>
+      <c r="B3" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B4">
         <v>4</v>
@@ -4121,7 +4178,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -4129,7 +4186,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B6">
         <v>3</v>
@@ -4137,7 +4194,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B7">
         <v>4</v>
@@ -4145,7 +4202,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B8">
         <v>3</v>
@@ -4160,10 +4217,10 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G167"/>
+  <dimension ref="A1:G173"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A147" workbookViewId="0">
-      <selection activeCell="A164" sqref="A164"/>
+    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
+      <selection activeCell="A166" sqref="A166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="6"/>
@@ -4177,10 +4234,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" ht="14" spans="1:7">
@@ -4188,10 +4245,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G2" s="1"/>
     </row>
@@ -4200,10 +4257,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -4211,10 +4268,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -4222,10 +4279,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -4233,10 +4290,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -4244,10 +4301,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -4255,10 +4312,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" ht="14" spans="1:7">
@@ -4266,10 +4323,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C9" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G9" s="1"/>
     </row>
@@ -4278,10 +4335,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C10" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G10" s="1"/>
     </row>
@@ -4290,10 +4347,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C11" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -4301,10 +4358,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C12" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -4312,10 +4369,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C13" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -4323,10 +4380,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C14" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" ht="14" spans="1:7">
@@ -4334,10 +4391,10 @@
         <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C15" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G15" s="1"/>
     </row>
@@ -4346,10 +4403,10 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C16" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G16" s="1"/>
     </row>
@@ -4358,10 +4415,10 @@
         <v>101</v>
       </c>
       <c r="B17" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C17" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -4369,10 +4426,10 @@
         <v>102</v>
       </c>
       <c r="B18" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C18" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -4380,10 +4437,10 @@
         <v>103</v>
       </c>
       <c r="B19" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C19" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -4391,10 +4448,10 @@
         <v>201</v>
       </c>
       <c r="B20" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C20" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -4402,10 +4459,10 @@
         <v>202</v>
       </c>
       <c r="B21" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C21" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="22" customFormat="1" spans="1:3">
@@ -4413,10 +4470,10 @@
         <v>300</v>
       </c>
       <c r="B22" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C22" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -4424,10 +4481,10 @@
         <v>301</v>
       </c>
       <c r="B23" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C23" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -4435,10 +4492,10 @@
         <v>302</v>
       </c>
       <c r="B24" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C24" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -4446,10 +4503,10 @@
         <v>303</v>
       </c>
       <c r="B25" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C25" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -4457,10 +4514,10 @@
         <v>304</v>
       </c>
       <c r="B26" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C26" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -4468,10 +4525,10 @@
         <v>310</v>
       </c>
       <c r="B27" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C27" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -4479,10 +4536,10 @@
         <v>311</v>
       </c>
       <c r="B28" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C28" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -4490,10 +4547,10 @@
         <v>312</v>
       </c>
       <c r="B29" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C29" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -4501,10 +4558,10 @@
         <v>313</v>
       </c>
       <c r="B30" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C30" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -4512,10 +4569,10 @@
         <v>314</v>
       </c>
       <c r="B31" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C31" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -4523,10 +4580,10 @@
         <v>315</v>
       </c>
       <c r="B32" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C32" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -4534,10 +4591,10 @@
         <v>316</v>
       </c>
       <c r="B33" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C33" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -4545,10 +4602,10 @@
         <v>317</v>
       </c>
       <c r="B34" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C34" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -4556,10 +4613,10 @@
         <v>318</v>
       </c>
       <c r="B35" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C35" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -4567,10 +4624,10 @@
         <v>321</v>
       </c>
       <c r="B36" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C36" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -4578,10 +4635,10 @@
         <v>322</v>
       </c>
       <c r="B37" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C37" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -4589,10 +4646,10 @@
         <v>323</v>
       </c>
       <c r="B38" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C38" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -4600,10 +4657,10 @@
         <v>324</v>
       </c>
       <c r="B39" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C39" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -4611,10 +4668,10 @@
         <v>325</v>
       </c>
       <c r="B40" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C40" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -4622,10 +4679,10 @@
         <v>326</v>
       </c>
       <c r="B41" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C41" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -4633,10 +4690,10 @@
         <v>327</v>
       </c>
       <c r="B42" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C42" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -4644,10 +4701,10 @@
         <v>328</v>
       </c>
       <c r="B43" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C43" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -4655,10 +4712,10 @@
         <v>330</v>
       </c>
       <c r="B44" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C44" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -4666,10 +4723,10 @@
         <v>331</v>
       </c>
       <c r="B45" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C45" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -4677,10 +4734,10 @@
         <v>332</v>
       </c>
       <c r="B46" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C46" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -4688,10 +4745,10 @@
         <v>333</v>
       </c>
       <c r="B47" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C47" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -4699,10 +4756,10 @@
         <v>334</v>
       </c>
       <c r="B48" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C48" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -4710,13 +4767,13 @@
         <v>400</v>
       </c>
       <c r="B49" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C49" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D49" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -4724,10 +4781,10 @@
         <v>401</v>
       </c>
       <c r="B50" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C50" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -4735,10 +4792,10 @@
         <v>402</v>
       </c>
       <c r="B51" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C51" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -4746,10 +4803,10 @@
         <v>403</v>
       </c>
       <c r="B52" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C52" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -4757,10 +4814,10 @@
         <v>404</v>
       </c>
       <c r="B53" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C53" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -4768,10 +4825,10 @@
         <v>405</v>
       </c>
       <c r="B54" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C54" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -4779,10 +4836,10 @@
         <v>410</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C55" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -4790,10 +4847,10 @@
         <v>500</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C56" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -4801,10 +4858,10 @@
         <v>501</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C57" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -4812,10 +4869,10 @@
         <v>502</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C58" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -4823,10 +4880,10 @@
         <v>503</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C59" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -4834,10 +4891,10 @@
         <v>504</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C60" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -4845,10 +4902,10 @@
         <v>505</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C61" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -4856,10 +4913,10 @@
         <v>506</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C62" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -4867,10 +4924,10 @@
         <v>507</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C63" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -4878,10 +4935,10 @@
         <v>508</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C64" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -4889,10 +4946,10 @@
         <v>521</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C65" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -4900,10 +4957,10 @@
         <v>522</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C66" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -4911,10 +4968,10 @@
         <v>526</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C67" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -4922,10 +4979,10 @@
         <v>527</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C68" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -4933,10 +4990,10 @@
         <v>531</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C69" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -4944,10 +5001,10 @@
         <v>532</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C70" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -4955,10 +5012,10 @@
         <v>536</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C71" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -4966,10 +5023,10 @@
         <v>541</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C72" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -4977,10 +5034,10 @@
         <v>542</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C73" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -4988,10 +5045,10 @@
         <v>700</v>
       </c>
       <c r="B74" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C74" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -5002,7 +5059,7 @@
         <v>28</v>
       </c>
       <c r="C75" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -5010,10 +5067,10 @@
         <v>702</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C76" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -5021,10 +5078,10 @@
         <v>703</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C77" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -5032,10 +5089,10 @@
         <v>704</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C78" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -5043,10 +5100,10 @@
         <v>800</v>
       </c>
       <c r="B79" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C79" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -5054,10 +5111,10 @@
         <v>801</v>
       </c>
       <c r="B80" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C80" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -5068,7 +5125,7 @@
         <v>27</v>
       </c>
       <c r="C81" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -5079,7 +5136,7 @@
         <v>28</v>
       </c>
       <c r="C82" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -5087,10 +5144,10 @@
         <v>804</v>
       </c>
       <c r="B83" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C83" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -5098,10 +5155,10 @@
         <v>805</v>
       </c>
       <c r="B84" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C84" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -5109,10 +5166,10 @@
         <v>806</v>
       </c>
       <c r="B85" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C85" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -5120,10 +5177,10 @@
         <v>807</v>
       </c>
       <c r="B86" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C86" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -5131,10 +5188,10 @@
         <v>808</v>
       </c>
       <c r="B87" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C87" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -5142,10 +5199,10 @@
         <v>809</v>
       </c>
       <c r="B88" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C88" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -5153,10 +5210,10 @@
         <v>810</v>
       </c>
       <c r="B89" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C89" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -5164,10 +5221,10 @@
         <v>811</v>
       </c>
       <c r="B90" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C90" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -5175,10 +5232,10 @@
         <v>812</v>
       </c>
       <c r="B91" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C91" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -5186,10 +5243,10 @@
         <v>813</v>
       </c>
       <c r="B92" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C92" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -5197,10 +5254,10 @@
         <v>814</v>
       </c>
       <c r="B93" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C93" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -5208,10 +5265,10 @@
         <v>815</v>
       </c>
       <c r="B94" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C94" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -5219,10 +5276,10 @@
         <v>816</v>
       </c>
       <c r="B95" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C95" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -5230,10 +5287,10 @@
         <v>817</v>
       </c>
       <c r="B96" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C96" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -5241,10 +5298,10 @@
         <v>818</v>
       </c>
       <c r="B97" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C97" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -5252,10 +5309,10 @@
         <v>819</v>
       </c>
       <c r="B98" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C98" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -5263,10 +5320,10 @@
         <v>1000</v>
       </c>
       <c r="B99" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C99" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -5274,10 +5331,10 @@
         <v>1010</v>
       </c>
       <c r="B100" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C100" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -5285,10 +5342,10 @@
         <v>1020</v>
       </c>
       <c r="B101" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C101" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="102" ht="26" spans="1:3">
@@ -5296,10 +5353,10 @@
         <v>1030</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C102" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="103" customFormat="1" spans="1:3">
@@ -5307,10 +5364,10 @@
         <v>1040</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C103" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="104" customFormat="1" spans="1:3">
@@ -5318,10 +5375,10 @@
         <v>1050</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C104" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="105" customFormat="1" spans="1:3">
@@ -5329,10 +5386,10 @@
         <v>1060</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C105" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="106" customFormat="1" spans="1:3">
@@ -5340,10 +5397,10 @@
         <v>1070</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C106" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="107" customFormat="1" ht="26" spans="1:3">
@@ -5351,10 +5408,10 @@
         <v>1080</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C107" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="108" customFormat="1" spans="1:3">
@@ -5362,10 +5419,10 @@
         <v>1090</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C108" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="109" customFormat="1" ht="26" spans="1:3">
@@ -5373,10 +5430,10 @@
         <v>1100</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C109" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -5384,10 +5441,10 @@
         <v>2000</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C110" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="111" ht="26" spans="1:3">
@@ -5395,10 +5452,10 @@
         <v>2010</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C111" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -5406,10 +5463,10 @@
         <v>3000</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C112" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -5417,10 +5474,10 @@
         <v>3001</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C113" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -5428,10 +5485,10 @@
         <v>3002</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C114" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -5439,10 +5496,10 @@
         <v>3003</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C115" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -5450,10 +5507,10 @@
         <v>3004</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C116" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -5461,10 +5518,10 @@
         <v>3010</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C117" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -5472,10 +5529,10 @@
         <v>3011</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C118" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -5483,10 +5540,10 @@
         <v>3012</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C119" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -5494,10 +5551,10 @@
         <v>3013</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C120" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -5505,10 +5562,10 @@
         <v>3020</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C121" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -5516,10 +5573,10 @@
         <v>3021</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C122" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -5527,10 +5584,10 @@
         <v>3030</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C123" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -5538,10 +5595,10 @@
         <v>3031</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C124" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -5549,10 +5606,10 @@
         <v>3040</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C125" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -5563,7 +5620,7 @@
         <v>27</v>
       </c>
       <c r="C126" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -5571,10 +5628,10 @@
         <v>3051</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C127" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -5582,10 +5639,10 @@
         <v>3052</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C128" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -5593,428 +5650,494 @@
         <v>3060</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C129" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130">
-        <v>4000</v>
+        <v>3070</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="C130" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131">
-        <v>4010</v>
+        <v>3071</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>218</v>
       </c>
       <c r="C131" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132">
-        <v>4011</v>
+        <v>3072</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>219</v>
       </c>
       <c r="C132" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133">
-        <v>5000</v>
+        <v>3073</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>220</v>
       </c>
       <c r="C133" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134">
-        <v>5001</v>
+        <v>4000</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>90</v>
+        <v>221</v>
       </c>
       <c r="C134" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135">
-        <v>5002</v>
+        <v>4010</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C135" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136">
-        <v>11010</v>
-      </c>
-      <c r="B136" t="s">
-        <v>222</v>
+        <v>4011</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>223</v>
       </c>
       <c r="C136" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137">
-        <v>11020</v>
-      </c>
-      <c r="B137" t="s">
-        <v>223</v>
+        <v>5000</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>224</v>
       </c>
       <c r="C137" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138">
-        <v>11030</v>
-      </c>
-      <c r="B138" t="s">
-        <v>224</v>
+        <v>5001</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>91</v>
       </c>
       <c r="C138" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139">
-        <v>11040</v>
-      </c>
-      <c r="B139" t="s">
+        <v>5002</v>
+      </c>
+      <c r="B139" s="2" t="s">
         <v>225</v>
       </c>
       <c r="C139" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140">
-        <v>11050</v>
+        <v>11010</v>
       </c>
       <c r="B140" t="s">
         <v>226</v>
       </c>
       <c r="C140" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141">
-        <v>11060</v>
+        <v>11020</v>
       </c>
       <c r="B141" t="s">
         <v>227</v>
       </c>
       <c r="C141" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142">
-        <v>11070</v>
+        <v>11030</v>
       </c>
       <c r="B142" t="s">
         <v>228</v>
       </c>
       <c r="C142" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143">
-        <v>11080</v>
+        <v>11040</v>
       </c>
       <c r="B143" t="s">
         <v>229</v>
       </c>
       <c r="C143" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144">
-        <v>11090</v>
+        <v>11050</v>
       </c>
       <c r="B144" t="s">
         <v>230</v>
       </c>
       <c r="C144" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="145" ht="26" spans="1:3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
       <c r="A145">
-        <v>11100</v>
-      </c>
-      <c r="B145" s="2" t="s">
+        <v>11060</v>
+      </c>
+      <c r="B145" t="s">
         <v>231</v>
       </c>
       <c r="C145" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146">
-        <v>13010</v>
+        <v>11070</v>
       </c>
       <c r="B146" t="s">
         <v>232</v>
       </c>
       <c r="C146" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147">
-        <v>14010</v>
+        <v>11080</v>
       </c>
       <c r="B147" t="s">
         <v>233</v>
       </c>
       <c r="C147" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148">
-        <v>14020</v>
+        <v>11090</v>
       </c>
       <c r="B148" t="s">
         <v>234</v>
       </c>
       <c r="C148" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="149" ht="26" spans="1:3">
       <c r="A149">
-        <v>14030</v>
-      </c>
-      <c r="B149" t="s">
+        <v>11100</v>
+      </c>
+      <c r="B149" s="2" t="s">
         <v>235</v>
       </c>
       <c r="C149" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150">
-        <v>14040</v>
+        <v>13010</v>
       </c>
       <c r="B150" t="s">
         <v>236</v>
       </c>
       <c r="C150" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151">
-        <v>14041</v>
+        <v>14010</v>
       </c>
       <c r="B151" t="s">
         <v>237</v>
       </c>
       <c r="C151" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="A152">
-        <v>14042</v>
+        <v>14020</v>
       </c>
       <c r="B152" t="s">
         <v>238</v>
       </c>
       <c r="C152" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153">
-        <v>14051</v>
+        <v>14030</v>
       </c>
       <c r="B153" t="s">
         <v>239</v>
       </c>
       <c r="C153" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154">
-        <v>14060</v>
+        <v>14040</v>
       </c>
       <c r="B154" t="s">
         <v>240</v>
       </c>
       <c r="C154" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155">
-        <v>14070</v>
+        <v>14041</v>
       </c>
       <c r="B155" t="s">
         <v>241</v>
       </c>
       <c r="C155" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="156" spans="1:3">
       <c r="A156">
-        <v>14071</v>
+        <v>14042</v>
       </c>
       <c r="B156" t="s">
         <v>242</v>
       </c>
       <c r="C156" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157">
-        <v>15010</v>
+        <v>14051</v>
       </c>
       <c r="B157" t="s">
         <v>243</v>
       </c>
       <c r="C157" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158">
-        <v>15020</v>
+        <v>14060</v>
       </c>
       <c r="B158" t="s">
         <v>244</v>
       </c>
       <c r="C158" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159">
-        <v>15030</v>
+        <v>14070</v>
       </c>
       <c r="B159" t="s">
         <v>245</v>
       </c>
       <c r="C159" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="160" spans="1:3">
       <c r="A160">
-        <v>16010</v>
+        <v>14071</v>
       </c>
       <c r="B160" t="s">
         <v>246</v>
       </c>
       <c r="C160" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161">
-        <v>16020</v>
+        <v>15010</v>
       </c>
       <c r="B161" t="s">
         <v>247</v>
       </c>
       <c r="C161" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162">
-        <v>16030</v>
+        <v>15020</v>
       </c>
       <c r="B162" t="s">
         <v>248</v>
       </c>
       <c r="C162" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163">
-        <v>16040</v>
+        <v>15030</v>
       </c>
       <c r="B163" t="s">
         <v>249</v>
       </c>
       <c r="C163" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="164" ht="26" spans="1:3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
       <c r="A164">
-        <v>16050</v>
-      </c>
-      <c r="B164" s="3" t="s">
+        <v>16010</v>
+      </c>
+      <c r="B164" t="s">
         <v>250</v>
       </c>
       <c r="C164" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="165" ht="26" spans="1:3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
       <c r="A165">
-        <v>16051</v>
-      </c>
-      <c r="B165" s="3" t="s">
+        <v>16020</v>
+      </c>
+      <c r="B165" t="s">
         <v>251</v>
       </c>
       <c r="C165" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="166" ht="26" spans="1:3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
       <c r="A166">
-        <v>16060</v>
-      </c>
-      <c r="B166" s="3" t="s">
+        <v>16030</v>
+      </c>
+      <c r="B166" t="s">
         <v>252</v>
       </c>
       <c r="C166" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="167" spans="1:3">
       <c r="A167">
-        <v>17010</v>
+        <v>16040</v>
       </c>
       <c r="B167" t="s">
         <v>253</v>
       </c>
       <c r="C167" t="s">
-        <v>90</v>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="168" ht="26" spans="1:3">
+      <c r="A168">
+        <v>16050</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="C168" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="169" ht="26" spans="1:3">
+      <c r="A169">
+        <v>16051</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="C169" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="170" ht="26" spans="1:3">
+      <c r="A170">
+        <v>16060</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C170" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3">
+      <c r="A171">
+        <v>17010</v>
+      </c>
+      <c r="B171" t="s">
+        <v>257</v>
+      </c>
+      <c r="C171" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3">
+      <c r="A172">
+        <v>17020</v>
+      </c>
+      <c r="B172" t="s">
+        <v>258</v>
+      </c>
+      <c r="C172" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3">
+      <c r="A173">
+        <v>17030</v>
+      </c>
+      <c r="B173" t="s">
+        <v>259</v>
+      </c>
+      <c r="C173" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/Data/System.xlsx
+++ b/Assets/Resources/Data/System.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7070" firstSheet="3" activeTab="6"/>
+    <workbookView windowWidth="19200" windowHeight="7070" firstSheet="3" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="TacticsComand" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="261">
   <si>
     <t>Id</t>
   </si>
@@ -584,6 +584,9 @@
   </si>
   <si>
     <t>結果表示切替</t>
+  </si>
+  <si>
+    <t>思念選択移動</t>
   </si>
   <si>
     <t>(Nu)</t>
@@ -814,9 +817,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -831,6 +834,29 @@
       <color theme="1"/>
       <name val="装甲明朝"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -848,15 +874,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF0000FF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -876,6 +896,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -885,7 +912,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -893,38 +920,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -946,6 +942,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -954,24 +973,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -992,7 +995,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1010,163 +1163,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1177,15 +1180,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1204,12 +1198,25 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1227,7 +1234,18 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1262,21 +1280,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1285,145 +1288,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2180,10 +2183,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D140"/>
+  <dimension ref="A1:D143"/>
   <sheetViews>
-    <sheetView topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="A138" sqref="A138"/>
+    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="D138" sqref="D138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="3"/>
@@ -4090,13 +4093,13 @@
         <v>64</v>
       </c>
       <c r="B138">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C138">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="D138" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -4104,13 +4107,13 @@
         <v>64</v>
       </c>
       <c r="B139">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C139">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="D139" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -4118,12 +4121,54 @@
         <v>64</v>
       </c>
       <c r="B140">
+        <v>9</v>
+      </c>
+      <c r="C140">
+        <v>820</v>
+      </c>
+      <c r="D140" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" t="s">
+        <v>64</v>
+      </c>
+      <c r="B141">
+        <v>8</v>
+      </c>
+      <c r="C141">
+        <v>800</v>
+      </c>
+      <c r="D141" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" t="s">
+        <v>64</v>
+      </c>
+      <c r="B142">
+        <v>1</v>
+      </c>
+      <c r="C142">
+        <v>801</v>
+      </c>
+      <c r="D142" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143" t="s">
+        <v>64</v>
+      </c>
+      <c r="B143">
         <v>0</v>
       </c>
-      <c r="C140">
+      <c r="C143">
         <v>800</v>
       </c>
-      <c r="D140" t="s">
+      <c r="D143" t="s">
         <v>30</v>
       </c>
     </row>
@@ -4217,10 +4262,10 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G173"/>
+  <dimension ref="A1:G174"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
-      <selection activeCell="A166" sqref="A166"/>
+    <sheetView topLeftCell="A90" workbookViewId="0">
+      <selection activeCell="B100" sqref="B100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="6"/>
@@ -5317,7 +5362,7 @@
     </row>
     <row r="99" spans="1:3">
       <c r="A99">
-        <v>1000</v>
+        <v>820</v>
       </c>
       <c r="B99" t="s">
         <v>188</v>
@@ -5328,7 +5373,7 @@
     </row>
     <row r="100" spans="1:3">
       <c r="A100">
-        <v>1010</v>
+        <v>1000</v>
       </c>
       <c r="B100" t="s">
         <v>189</v>
@@ -5339,7 +5384,7 @@
     </row>
     <row r="101" spans="1:3">
       <c r="A101">
-        <v>1020</v>
+        <v>1010</v>
       </c>
       <c r="B101" t="s">
         <v>190</v>
@@ -5348,20 +5393,20 @@
         <v>91</v>
       </c>
     </row>
-    <row r="102" ht="26" spans="1:3">
+    <row r="102" spans="1:3">
       <c r="A102">
+        <v>1020</v>
+      </c>
+      <c r="B102" t="s">
+        <v>191</v>
+      </c>
+      <c r="C102" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="103" ht="26" spans="1:3">
+      <c r="A103">
         <v>1030</v>
-      </c>
-      <c r="B102" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="C102" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="103" customFormat="1" spans="1:3">
-      <c r="A103">
-        <v>1040</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>192</v>
@@ -5372,7 +5417,7 @@
     </row>
     <row r="104" customFormat="1" spans="1:3">
       <c r="A104">
-        <v>1050</v>
+        <v>1040</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>193</v>
@@ -5383,7 +5428,7 @@
     </row>
     <row r="105" customFormat="1" spans="1:3">
       <c r="A105">
-        <v>1060</v>
+        <v>1050</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>194</v>
@@ -5394,7 +5439,7 @@
     </row>
     <row r="106" customFormat="1" spans="1:3">
       <c r="A106">
-        <v>1070</v>
+        <v>1060</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>195</v>
@@ -5403,9 +5448,9 @@
         <v>91</v>
       </c>
     </row>
-    <row r="107" customFormat="1" ht="26" spans="1:3">
+    <row r="107" customFormat="1" spans="1:3">
       <c r="A107">
-        <v>1080</v>
+        <v>1070</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>196</v>
@@ -5414,9 +5459,9 @@
         <v>91</v>
       </c>
     </row>
-    <row r="108" customFormat="1" spans="1:3">
+    <row r="108" customFormat="1" ht="26" spans="1:3">
       <c r="A108">
-        <v>1090</v>
+        <v>1080</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>197</v>
@@ -5425,9 +5470,9 @@
         <v>91</v>
       </c>
     </row>
-    <row r="109" customFormat="1" ht="26" spans="1:3">
+    <row r="109" customFormat="1" spans="1:3">
       <c r="A109">
-        <v>1100</v>
+        <v>1090</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>198</v>
@@ -5436,9 +5481,9 @@
         <v>91</v>
       </c>
     </row>
-    <row r="110" spans="1:3">
+    <row r="110" customFormat="1" ht="26" spans="1:3">
       <c r="A110">
-        <v>2000</v>
+        <v>1100</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>199</v>
@@ -5447,9 +5492,9 @@
         <v>91</v>
       </c>
     </row>
-    <row r="111" ht="26" spans="1:3">
+    <row r="111" spans="1:3">
       <c r="A111">
-        <v>2010</v>
+        <v>2000</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>200</v>
@@ -5458,9 +5503,9 @@
         <v>91</v>
       </c>
     </row>
-    <row r="112" spans="1:3">
+    <row r="112" ht="26" spans="1:3">
       <c r="A112">
-        <v>3000</v>
+        <v>2010</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>201</v>
@@ -5471,7 +5516,7 @@
     </row>
     <row r="113" spans="1:3">
       <c r="A113">
-        <v>3001</v>
+        <v>3000</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>202</v>
@@ -5482,7 +5527,7 @@
     </row>
     <row r="114" spans="1:3">
       <c r="A114">
-        <v>3002</v>
+        <v>3001</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>203</v>
@@ -5493,7 +5538,7 @@
     </row>
     <row r="115" spans="1:3">
       <c r="A115">
-        <v>3003</v>
+        <v>3002</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>204</v>
@@ -5504,7 +5549,7 @@
     </row>
     <row r="116" spans="1:3">
       <c r="A116">
-        <v>3004</v>
+        <v>3003</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>205</v>
@@ -5515,7 +5560,7 @@
     </row>
     <row r="117" spans="1:3">
       <c r="A117">
-        <v>3010</v>
+        <v>3004</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>206</v>
@@ -5526,7 +5571,7 @@
     </row>
     <row r="118" spans="1:3">
       <c r="A118">
-        <v>3011</v>
+        <v>3010</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>207</v>
@@ -5537,7 +5582,7 @@
     </row>
     <row r="119" spans="1:3">
       <c r="A119">
-        <v>3012</v>
+        <v>3011</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>208</v>
@@ -5548,7 +5593,7 @@
     </row>
     <row r="120" spans="1:3">
       <c r="A120">
-        <v>3013</v>
+        <v>3012</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>209</v>
@@ -5559,7 +5604,7 @@
     </row>
     <row r="121" spans="1:3">
       <c r="A121">
-        <v>3020</v>
+        <v>3013</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>210</v>
@@ -5570,7 +5615,7 @@
     </row>
     <row r="122" spans="1:3">
       <c r="A122">
-        <v>3021</v>
+        <v>3020</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>211</v>
@@ -5581,7 +5626,7 @@
     </row>
     <row r="123" spans="1:3">
       <c r="A123">
-        <v>3030</v>
+        <v>3021</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>212</v>
@@ -5592,7 +5637,7 @@
     </row>
     <row r="124" spans="1:3">
       <c r="A124">
-        <v>3031</v>
+        <v>3030</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>213</v>
@@ -5603,7 +5648,7 @@
     </row>
     <row r="125" spans="1:3">
       <c r="A125">
-        <v>3040</v>
+        <v>3031</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>214</v>
@@ -5614,10 +5659,10 @@
     </row>
     <row r="126" spans="1:3">
       <c r="A126">
-        <v>3050</v>
+        <v>3040</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>27</v>
+        <v>215</v>
       </c>
       <c r="C126" t="s">
         <v>91</v>
@@ -5625,10 +5670,10 @@
     </row>
     <row r="127" spans="1:3">
       <c r="A127">
-        <v>3051</v>
+        <v>3050</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>215</v>
+        <v>27</v>
       </c>
       <c r="C127" t="s">
         <v>91</v>
@@ -5636,7 +5681,7 @@
     </row>
     <row r="128" spans="1:3">
       <c r="A128">
-        <v>3052</v>
+        <v>3051</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>216</v>
@@ -5647,7 +5692,7 @@
     </row>
     <row r="129" spans="1:3">
       <c r="A129">
-        <v>3060</v>
+        <v>3052</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>217</v>
@@ -5658,10 +5703,10 @@
     </row>
     <row r="130" spans="1:3">
       <c r="A130">
-        <v>3070</v>
+        <v>3060</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="C130" t="s">
         <v>91</v>
@@ -5669,10 +5714,10 @@
     </row>
     <row r="131" spans="1:3">
       <c r="A131">
-        <v>3071</v>
+        <v>3070</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="C131" t="s">
         <v>91</v>
@@ -5680,7 +5725,7 @@
     </row>
     <row r="132" spans="1:3">
       <c r="A132">
-        <v>3072</v>
+        <v>3071</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>219</v>
@@ -5691,7 +5736,7 @@
     </row>
     <row r="133" spans="1:3">
       <c r="A133">
-        <v>3073</v>
+        <v>3072</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>220</v>
@@ -5702,7 +5747,7 @@
     </row>
     <row r="134" spans="1:3">
       <c r="A134">
-        <v>4000</v>
+        <v>3073</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>221</v>
@@ -5713,7 +5758,7 @@
     </row>
     <row r="135" spans="1:3">
       <c r="A135">
-        <v>4010</v>
+        <v>4000</v>
       </c>
       <c r="B135" s="2" t="s">
         <v>222</v>
@@ -5724,7 +5769,7 @@
     </row>
     <row r="136" spans="1:3">
       <c r="A136">
-        <v>4011</v>
+        <v>4010</v>
       </c>
       <c r="B136" s="2" t="s">
         <v>223</v>
@@ -5735,7 +5780,7 @@
     </row>
     <row r="137" spans="1:3">
       <c r="A137">
-        <v>5000</v>
+        <v>4011</v>
       </c>
       <c r="B137" s="2" t="s">
         <v>224</v>
@@ -5746,10 +5791,10 @@
     </row>
     <row r="138" spans="1:3">
       <c r="A138">
-        <v>5001</v>
+        <v>5000</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>91</v>
+        <v>225</v>
       </c>
       <c r="C138" t="s">
         <v>91</v>
@@ -5757,10 +5802,10 @@
     </row>
     <row r="139" spans="1:3">
       <c r="A139">
-        <v>5002</v>
+        <v>5001</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>225</v>
+        <v>91</v>
       </c>
       <c r="C139" t="s">
         <v>91</v>
@@ -5768,9 +5813,9 @@
     </row>
     <row r="140" spans="1:3">
       <c r="A140">
-        <v>11010</v>
-      </c>
-      <c r="B140" t="s">
+        <v>5002</v>
+      </c>
+      <c r="B140" s="2" t="s">
         <v>226</v>
       </c>
       <c r="C140" t="s">
@@ -5779,7 +5824,7 @@
     </row>
     <row r="141" spans="1:3">
       <c r="A141">
-        <v>11020</v>
+        <v>11010</v>
       </c>
       <c r="B141" t="s">
         <v>227</v>
@@ -5790,7 +5835,7 @@
     </row>
     <row r="142" spans="1:3">
       <c r="A142">
-        <v>11030</v>
+        <v>11020</v>
       </c>
       <c r="B142" t="s">
         <v>228</v>
@@ -5801,7 +5846,7 @@
     </row>
     <row r="143" spans="1:3">
       <c r="A143">
-        <v>11040</v>
+        <v>11030</v>
       </c>
       <c r="B143" t="s">
         <v>229</v>
@@ -5812,7 +5857,7 @@
     </row>
     <row r="144" spans="1:3">
       <c r="A144">
-        <v>11050</v>
+        <v>11040</v>
       </c>
       <c r="B144" t="s">
         <v>230</v>
@@ -5823,7 +5868,7 @@
     </row>
     <row r="145" spans="1:3">
       <c r="A145">
-        <v>11060</v>
+        <v>11050</v>
       </c>
       <c r="B145" t="s">
         <v>231</v>
@@ -5834,7 +5879,7 @@
     </row>
     <row r="146" spans="1:3">
       <c r="A146">
-        <v>11070</v>
+        <v>11060</v>
       </c>
       <c r="B146" t="s">
         <v>232</v>
@@ -5845,7 +5890,7 @@
     </row>
     <row r="147" spans="1:3">
       <c r="A147">
-        <v>11080</v>
+        <v>11070</v>
       </c>
       <c r="B147" t="s">
         <v>233</v>
@@ -5856,7 +5901,7 @@
     </row>
     <row r="148" spans="1:3">
       <c r="A148">
-        <v>11090</v>
+        <v>11080</v>
       </c>
       <c r="B148" t="s">
         <v>234</v>
@@ -5865,22 +5910,22 @@
         <v>91</v>
       </c>
     </row>
-    <row r="149" ht="26" spans="1:3">
+    <row r="149" spans="1:3">
       <c r="A149">
+        <v>11090</v>
+      </c>
+      <c r="B149" t="s">
+        <v>235</v>
+      </c>
+      <c r="C149" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="150" ht="26" spans="1:3">
+      <c r="A150">
         <v>11100</v>
       </c>
-      <c r="B149" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="C149" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3">
-      <c r="A150">
-        <v>13010</v>
-      </c>
-      <c r="B150" t="s">
+      <c r="B150" s="2" t="s">
         <v>236</v>
       </c>
       <c r="C150" t="s">
@@ -5889,7 +5934,7 @@
     </row>
     <row r="151" spans="1:3">
       <c r="A151">
-        <v>14010</v>
+        <v>13010</v>
       </c>
       <c r="B151" t="s">
         <v>237</v>
@@ -5900,7 +5945,7 @@
     </row>
     <row r="152" spans="1:3">
       <c r="A152">
-        <v>14020</v>
+        <v>14010</v>
       </c>
       <c r="B152" t="s">
         <v>238</v>
@@ -5911,7 +5956,7 @@
     </row>
     <row r="153" spans="1:3">
       <c r="A153">
-        <v>14030</v>
+        <v>14020</v>
       </c>
       <c r="B153" t="s">
         <v>239</v>
@@ -5922,7 +5967,7 @@
     </row>
     <row r="154" spans="1:3">
       <c r="A154">
-        <v>14040</v>
+        <v>14030</v>
       </c>
       <c r="B154" t="s">
         <v>240</v>
@@ -5933,7 +5978,7 @@
     </row>
     <row r="155" spans="1:3">
       <c r="A155">
-        <v>14041</v>
+        <v>14040</v>
       </c>
       <c r="B155" t="s">
         <v>241</v>
@@ -5944,7 +5989,7 @@
     </row>
     <row r="156" spans="1:3">
       <c r="A156">
-        <v>14042</v>
+        <v>14041</v>
       </c>
       <c r="B156" t="s">
         <v>242</v>
@@ -5955,7 +6000,7 @@
     </row>
     <row r="157" spans="1:3">
       <c r="A157">
-        <v>14051</v>
+        <v>14042</v>
       </c>
       <c r="B157" t="s">
         <v>243</v>
@@ -5966,7 +6011,7 @@
     </row>
     <row r="158" spans="1:3">
       <c r="A158">
-        <v>14060</v>
+        <v>14051</v>
       </c>
       <c r="B158" t="s">
         <v>244</v>
@@ -5977,7 +6022,7 @@
     </row>
     <row r="159" spans="1:3">
       <c r="A159">
-        <v>14070</v>
+        <v>14060</v>
       </c>
       <c r="B159" t="s">
         <v>245</v>
@@ -5988,7 +6033,7 @@
     </row>
     <row r="160" spans="1:3">
       <c r="A160">
-        <v>14071</v>
+        <v>14070</v>
       </c>
       <c r="B160" t="s">
         <v>246</v>
@@ -5999,7 +6044,7 @@
     </row>
     <row r="161" spans="1:3">
       <c r="A161">
-        <v>15010</v>
+        <v>14071</v>
       </c>
       <c r="B161" t="s">
         <v>247</v>
@@ -6010,7 +6055,7 @@
     </row>
     <row r="162" spans="1:3">
       <c r="A162">
-        <v>15020</v>
+        <v>15010</v>
       </c>
       <c r="B162" t="s">
         <v>248</v>
@@ -6021,7 +6066,7 @@
     </row>
     <row r="163" spans="1:3">
       <c r="A163">
-        <v>15030</v>
+        <v>15020</v>
       </c>
       <c r="B163" t="s">
         <v>249</v>
@@ -6032,7 +6077,7 @@
     </row>
     <row r="164" spans="1:3">
       <c r="A164">
-        <v>16010</v>
+        <v>15030</v>
       </c>
       <c r="B164" t="s">
         <v>250</v>
@@ -6043,7 +6088,7 @@
     </row>
     <row r="165" spans="1:3">
       <c r="A165">
-        <v>16020</v>
+        <v>16010</v>
       </c>
       <c r="B165" t="s">
         <v>251</v>
@@ -6054,7 +6099,7 @@
     </row>
     <row r="166" spans="1:3">
       <c r="A166">
-        <v>16030</v>
+        <v>16020</v>
       </c>
       <c r="B166" t="s">
         <v>252</v>
@@ -6065,7 +6110,7 @@
     </row>
     <row r="167" spans="1:3">
       <c r="A167">
-        <v>16040</v>
+        <v>16030</v>
       </c>
       <c r="B167" t="s">
         <v>253</v>
@@ -6074,11 +6119,11 @@
         <v>91</v>
       </c>
     </row>
-    <row r="168" ht="26" spans="1:3">
+    <row r="168" spans="1:3">
       <c r="A168">
-        <v>16050</v>
-      </c>
-      <c r="B168" s="2" t="s">
+        <v>16040</v>
+      </c>
+      <c r="B168" t="s">
         <v>254</v>
       </c>
       <c r="C168" t="s">
@@ -6087,7 +6132,7 @@
     </row>
     <row r="169" ht="26" spans="1:3">
       <c r="A169">
-        <v>16051</v>
+        <v>16050</v>
       </c>
       <c r="B169" s="2" t="s">
         <v>255</v>
@@ -6098,7 +6143,7 @@
     </row>
     <row r="170" ht="26" spans="1:3">
       <c r="A170">
-        <v>16060</v>
+        <v>16051</v>
       </c>
       <c r="B170" s="2" t="s">
         <v>256</v>
@@ -6107,11 +6152,11 @@
         <v>91</v>
       </c>
     </row>
-    <row r="171" spans="1:3">
+    <row r="171" ht="26" spans="1:3">
       <c r="A171">
-        <v>17010</v>
-      </c>
-      <c r="B171" t="s">
+        <v>16060</v>
+      </c>
+      <c r="B171" s="2" t="s">
         <v>257</v>
       </c>
       <c r="C171" t="s">
@@ -6120,7 +6165,7 @@
     </row>
     <row r="172" spans="1:3">
       <c r="A172">
-        <v>17020</v>
+        <v>17010</v>
       </c>
       <c r="B172" t="s">
         <v>258</v>
@@ -6131,12 +6176,23 @@
     </row>
     <row r="173" spans="1:3">
       <c r="A173">
-        <v>17030</v>
+        <v>17020</v>
       </c>
       <c r="B173" t="s">
         <v>259</v>
       </c>
       <c r="C173" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3">
+      <c r="A174">
+        <v>17030</v>
+      </c>
+      <c r="B174" t="s">
+        <v>260</v>
+      </c>
+      <c r="C174" t="s">
         <v>91</v>
       </c>
     </row>

--- a/Assets/Resources/Data/System.xlsx
+++ b/Assets/Resources/Data/System.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7070" firstSheet="3" activeTab="4"/>
+    <workbookView windowWidth="19200" windowHeight="7070" firstSheet="3" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="TacticsComand" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="268">
   <si>
     <t>Id</t>
   </si>
@@ -217,6 +217,9 @@
     <t>REBORN</t>
   </si>
   <si>
+    <t>SLOT</t>
+  </si>
+  <si>
     <t>ActorId</t>
   </si>
   <si>
@@ -535,6 +538,9 @@
     <t>全体順位</t>
   </si>
   <si>
+    <t>編成述懐</t>
+  </si>
+  <si>
     <t>カーソル移動</t>
   </si>
   <si>
@@ -587,6 +593,12 @@
   </si>
   <si>
     <t>思念選択移動</t>
+  </si>
+  <si>
+    <t>保持切替</t>
+  </si>
+  <si>
+    <t>ステータス確認</t>
   </si>
   <si>
     <t>(Nu)</t>
@@ -809,6 +821,15 @@
   </si>
   <si>
     <t>思念継承中…</t>
+  </si>
+  <si>
+    <t>転生した術者を確認します</t>
+  </si>
+  <si>
+    <t>保持されています</t>
+  </si>
+  <si>
+    <t>登録されていません</t>
   </si>
 </sst>
 </file>
@@ -816,10 +837,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -837,7 +858,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -852,23 +881,22 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -883,36 +911,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -926,9 +932,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -942,16 +954,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -965,11 +970,27 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -989,7 +1010,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1001,7 +1034,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1013,67 +1130,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1085,37 +1142,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1133,31 +1172,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1169,7 +1184,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1184,16 +1205,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1215,18 +1236,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1236,17 +1265,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1266,17 +1284,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1288,145 +1309,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2183,10 +2204,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D143"/>
+  <dimension ref="A1:D148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="D138" sqref="D138"/>
+    <sheetView topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="C146" sqref="C146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="3"/>
@@ -4169,6 +4190,76 @@
         <v>800</v>
       </c>
       <c r="D143" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144" t="s">
+        <v>65</v>
+      </c>
+      <c r="B144">
+        <v>5</v>
+      </c>
+      <c r="C144">
+        <v>804</v>
+      </c>
+      <c r="D144" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145" t="s">
+        <v>65</v>
+      </c>
+      <c r="B145">
+        <v>6</v>
+      </c>
+      <c r="C145">
+        <v>822</v>
+      </c>
+      <c r="D145" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" t="s">
+        <v>65</v>
+      </c>
+      <c r="B146">
+        <v>4</v>
+      </c>
+      <c r="C146">
+        <v>821</v>
+      </c>
+      <c r="D146" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" t="s">
+        <v>65</v>
+      </c>
+      <c r="B147">
+        <v>1</v>
+      </c>
+      <c r="C147">
+        <v>801</v>
+      </c>
+      <c r="D147" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" t="s">
+        <v>65</v>
+      </c>
+      <c r="B148">
+        <v>0</v>
+      </c>
+      <c r="C148">
+        <v>800</v>
+      </c>
+      <c r="D148" t="s">
         <v>30</v>
       </c>
     </row>
@@ -4194,20 +4285,20 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B3" s="3">
         <v>5</v>
@@ -4215,7 +4306,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B4">
         <v>4</v>
@@ -4223,7 +4314,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -4231,7 +4322,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B6">
         <v>3</v>
@@ -4239,7 +4330,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B7">
         <v>4</v>
@@ -4247,7 +4338,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B8">
         <v>3</v>
@@ -4262,10 +4353,10 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G174"/>
+  <dimension ref="A1:G180"/>
   <sheetViews>
-    <sheetView topLeftCell="A90" workbookViewId="0">
-      <selection activeCell="B100" sqref="B100"/>
+    <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
+      <selection activeCell="B181" sqref="B181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="6"/>
@@ -4279,10 +4370,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" ht="14" spans="1:7">
@@ -4290,10 +4381,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G2" s="1"/>
     </row>
@@ -4302,10 +4393,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -4313,10 +4404,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -4324,10 +4415,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -4335,10 +4426,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -4346,10 +4437,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -4357,10 +4448,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" ht="14" spans="1:7">
@@ -4368,10 +4459,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C9" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G9" s="1"/>
     </row>
@@ -4380,10 +4471,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C10" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G10" s="1"/>
     </row>
@@ -4392,10 +4483,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C11" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -4403,10 +4494,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C12" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -4414,10 +4505,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C13" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -4425,10 +4516,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C14" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" ht="14" spans="1:7">
@@ -4436,10 +4527,10 @@
         <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C15" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G15" s="1"/>
     </row>
@@ -4448,10 +4539,10 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C16" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G16" s="1"/>
     </row>
@@ -4460,10 +4551,10 @@
         <v>101</v>
       </c>
       <c r="B17" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C17" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -4471,10 +4562,10 @@
         <v>102</v>
       </c>
       <c r="B18" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C18" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -4482,10 +4573,10 @@
         <v>103</v>
       </c>
       <c r="B19" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C19" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -4493,10 +4584,10 @@
         <v>201</v>
       </c>
       <c r="B20" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C20" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -4504,10 +4595,10 @@
         <v>202</v>
       </c>
       <c r="B21" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C21" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="22" customFormat="1" spans="1:3">
@@ -4515,10 +4606,10 @@
         <v>300</v>
       </c>
       <c r="B22" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C22" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -4526,10 +4617,10 @@
         <v>301</v>
       </c>
       <c r="B23" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C23" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -4537,10 +4628,10 @@
         <v>302</v>
       </c>
       <c r="B24" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C24" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -4548,10 +4639,10 @@
         <v>303</v>
       </c>
       <c r="B25" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C25" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -4559,10 +4650,10 @@
         <v>304</v>
       </c>
       <c r="B26" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C26" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -4570,10 +4661,10 @@
         <v>310</v>
       </c>
       <c r="B27" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C27" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -4581,10 +4672,10 @@
         <v>311</v>
       </c>
       <c r="B28" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C28" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -4592,10 +4683,10 @@
         <v>312</v>
       </c>
       <c r="B29" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C29" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -4603,10 +4694,10 @@
         <v>313</v>
       </c>
       <c r="B30" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C30" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -4614,10 +4705,10 @@
         <v>314</v>
       </c>
       <c r="B31" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C31" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -4625,10 +4716,10 @@
         <v>315</v>
       </c>
       <c r="B32" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C32" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -4636,10 +4727,10 @@
         <v>316</v>
       </c>
       <c r="B33" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C33" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -4647,10 +4738,10 @@
         <v>317</v>
       </c>
       <c r="B34" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C34" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -4658,10 +4749,10 @@
         <v>318</v>
       </c>
       <c r="B35" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C35" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -4669,10 +4760,10 @@
         <v>321</v>
       </c>
       <c r="B36" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C36" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -4680,10 +4771,10 @@
         <v>322</v>
       </c>
       <c r="B37" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C37" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -4691,10 +4782,10 @@
         <v>323</v>
       </c>
       <c r="B38" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C38" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -4702,10 +4793,10 @@
         <v>324</v>
       </c>
       <c r="B39" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C39" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -4713,10 +4804,10 @@
         <v>325</v>
       </c>
       <c r="B40" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C40" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -4724,10 +4815,10 @@
         <v>326</v>
       </c>
       <c r="B41" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C41" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -4735,10 +4826,10 @@
         <v>327</v>
       </c>
       <c r="B42" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C42" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -4746,10 +4837,10 @@
         <v>328</v>
       </c>
       <c r="B43" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C43" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -4757,10 +4848,10 @@
         <v>330</v>
       </c>
       <c r="B44" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C44" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -4768,10 +4859,10 @@
         <v>331</v>
       </c>
       <c r="B45" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C45" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -4779,10 +4870,10 @@
         <v>332</v>
       </c>
       <c r="B46" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C46" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -4790,10 +4881,10 @@
         <v>333</v>
       </c>
       <c r="B47" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C47" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -4801,10 +4892,10 @@
         <v>334</v>
       </c>
       <c r="B48" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C48" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -4812,13 +4903,13 @@
         <v>400</v>
       </c>
       <c r="B49" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C49" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D49" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -4826,10 +4917,10 @@
         <v>401</v>
       </c>
       <c r="B50" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C50" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -4837,10 +4928,10 @@
         <v>402</v>
       </c>
       <c r="B51" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C51" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -4848,10 +4939,10 @@
         <v>403</v>
       </c>
       <c r="B52" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C52" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -4859,10 +4950,10 @@
         <v>404</v>
       </c>
       <c r="B53" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C53" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -4870,10 +4961,10 @@
         <v>405</v>
       </c>
       <c r="B54" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C54" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -4881,10 +4972,10 @@
         <v>410</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C55" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -4892,10 +4983,10 @@
         <v>500</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C56" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -4903,10 +4994,10 @@
         <v>501</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C57" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -4914,10 +5005,10 @@
         <v>502</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C58" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -4925,10 +5016,10 @@
         <v>503</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C59" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -4936,10 +5027,10 @@
         <v>504</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C60" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -4947,10 +5038,10 @@
         <v>505</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C61" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -4958,10 +5049,10 @@
         <v>506</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C62" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -4969,10 +5060,10 @@
         <v>507</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C63" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -4980,10 +5071,10 @@
         <v>508</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C64" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -4991,10 +5082,10 @@
         <v>521</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C65" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -5002,10 +5093,10 @@
         <v>522</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C66" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -5013,10 +5104,10 @@
         <v>526</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C67" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -5024,10 +5115,10 @@
         <v>527</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C68" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -5035,10 +5126,10 @@
         <v>531</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C69" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -5046,10 +5137,10 @@
         <v>532</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C70" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -5057,10 +5148,10 @@
         <v>536</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C71" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -5068,10 +5159,10 @@
         <v>541</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C72" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -5079,10 +5170,10 @@
         <v>542</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C73" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -5090,10 +5181,10 @@
         <v>700</v>
       </c>
       <c r="B74" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C74" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -5104,7 +5195,7 @@
         <v>28</v>
       </c>
       <c r="C75" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -5112,10 +5203,10 @@
         <v>702</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C76" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -5123,10 +5214,10 @@
         <v>703</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C77" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -5134,1066 +5225,1132 @@
         <v>704</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C78" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79">
-        <v>800</v>
-      </c>
-      <c r="B79" t="s">
-        <v>91</v>
+        <v>705</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>172</v>
       </c>
       <c r="C79" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B80" t="s">
-        <v>171</v>
+        <v>92</v>
       </c>
       <c r="C80" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="B81" t="s">
-        <v>27</v>
+        <v>173</v>
       </c>
       <c r="C81" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="B82" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C82" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="B83" t="s">
-        <v>172</v>
+        <v>28</v>
       </c>
       <c r="C83" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="B84" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C84" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B85" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C85" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="B86" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C86" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="B87" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C87" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="B88" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C88" t="s">
-        <v>178</v>
+        <v>92</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="B89" t="s">
         <v>179</v>
       </c>
       <c r="C89" t="s">
-        <v>91</v>
+        <v>180</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="B90" t="s">
-        <v>107</v>
+        <v>181</v>
       </c>
       <c r="C90" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B91" t="s">
-        <v>180</v>
+        <v>108</v>
       </c>
       <c r="C91" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="B92" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C92" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="B93" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C93" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B94" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C94" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="B95" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C95" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B96" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C96" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B97" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C97" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B98" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C98" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B99" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C99" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100">
-        <v>1000</v>
+        <v>820</v>
       </c>
       <c r="B100" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C100" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101">
-        <v>1010</v>
+        <v>821</v>
       </c>
       <c r="B101" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C101" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102">
+        <v>822</v>
+      </c>
+      <c r="B102" t="s">
+        <v>192</v>
+      </c>
+      <c r="C102" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103">
+        <v>1000</v>
+      </c>
+      <c r="B103" t="s">
+        <v>193</v>
+      </c>
+      <c r="C103" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104">
+        <v>1010</v>
+      </c>
+      <c r="B104" t="s">
+        <v>194</v>
+      </c>
+      <c r="C104" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105">
         <v>1020</v>
       </c>
-      <c r="B102" t="s">
-        <v>191</v>
-      </c>
-      <c r="C102" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="103" ht="26" spans="1:3">
-      <c r="A103">
+      <c r="B105" t="s">
+        <v>195</v>
+      </c>
+      <c r="C105" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="106" ht="26" spans="1:3">
+      <c r="A106">
         <v>1030</v>
       </c>
-      <c r="B103" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="C103" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="104" customFormat="1" spans="1:3">
-      <c r="A104">
-        <v>1040</v>
-      </c>
-      <c r="B104" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="C104" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="105" customFormat="1" spans="1:3">
-      <c r="A105">
-        <v>1050</v>
-      </c>
-      <c r="B105" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="C105" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="106" customFormat="1" spans="1:3">
-      <c r="A106">
-        <v>1060</v>
-      </c>
       <c r="B106" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C106" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="107" customFormat="1" spans="1:3">
       <c r="A107">
-        <v>1070</v>
+        <v>1040</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C107" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="108" customFormat="1" ht="26" spans="1:3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="108" customFormat="1" spans="1:3">
       <c r="A108">
-        <v>1080</v>
+        <v>1050</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C108" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="109" customFormat="1" spans="1:3">
       <c r="A109">
+        <v>1060</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C109" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="110" customFormat="1" spans="1:3">
+      <c r="A110">
+        <v>1070</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C110" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="111" customFormat="1" ht="26" spans="1:3">
+      <c r="A111">
+        <v>1080</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C111" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="112" customFormat="1" spans="1:3">
+      <c r="A112">
         <v>1090</v>
       </c>
-      <c r="B109" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="C109" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="110" customFormat="1" ht="26" spans="1:3">
-      <c r="A110">
+      <c r="B112" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C112" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="113" customFormat="1" ht="26" spans="1:3">
+      <c r="A113">
         <v>1100</v>
       </c>
-      <c r="B110" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="C110" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3">
-      <c r="A111">
-        <v>2000</v>
-      </c>
-      <c r="B111" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="C111" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="112" ht="26" spans="1:3">
-      <c r="A112">
-        <v>2010</v>
-      </c>
-      <c r="B112" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="C112" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3">
-      <c r="A113">
-        <v>3000</v>
-      </c>
       <c r="B113" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C113" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114">
-        <v>3001</v>
+        <v>2000</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C114" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="115" ht="26" spans="1:3">
       <c r="A115">
-        <v>3002</v>
+        <v>2010</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C115" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116">
-        <v>3003</v>
+        <v>3000</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C116" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117">
-        <v>3004</v>
+        <v>3001</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C117" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118">
-        <v>3010</v>
+        <v>3002</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C118" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119">
-        <v>3011</v>
+        <v>3003</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C119" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120">
-        <v>3012</v>
+        <v>3004</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C120" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121">
-        <v>3013</v>
+        <v>3010</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C121" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122">
-        <v>3020</v>
+        <v>3011</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C122" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123">
-        <v>3021</v>
+        <v>3012</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C123" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124">
-        <v>3030</v>
+        <v>3013</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C124" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125">
-        <v>3031</v>
+        <v>3020</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C125" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126">
-        <v>3040</v>
+        <v>3021</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C126" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127">
-        <v>3050</v>
+        <v>3030</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>27</v>
+        <v>217</v>
       </c>
       <c r="C127" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128">
-        <v>3051</v>
+        <v>3031</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C128" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129">
-        <v>3052</v>
+        <v>3040</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C129" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130">
-        <v>3060</v>
+        <v>3050</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>218</v>
+        <v>27</v>
       </c>
       <c r="C130" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131">
-        <v>3070</v>
+        <v>3051</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="C131" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132">
-        <v>3071</v>
+        <v>3052</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C132" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133">
-        <v>3072</v>
+        <v>3060</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C133" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134">
-        <v>3073</v>
+        <v>3070</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="C134" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135">
-        <v>4000</v>
+        <v>3071</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C135" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136">
-        <v>4010</v>
+        <v>3072</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C136" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137">
-        <v>4011</v>
+        <v>3073</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C137" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C138" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139">
-        <v>5001</v>
+        <v>4010</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>91</v>
+        <v>227</v>
       </c>
       <c r="C139" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140">
-        <v>5002</v>
+        <v>4011</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C140" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141">
-        <v>11010</v>
-      </c>
-      <c r="B141" t="s">
-        <v>227</v>
+        <v>5000</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>229</v>
       </c>
       <c r="C141" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142">
-        <v>11020</v>
-      </c>
-      <c r="B142" t="s">
-        <v>228</v>
+        <v>5001</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>92</v>
       </c>
       <c r="C142" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143">
-        <v>11030</v>
-      </c>
-      <c r="B143" t="s">
-        <v>229</v>
+        <v>5002</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>230</v>
       </c>
       <c r="C143" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144">
-        <v>11040</v>
+        <v>11010</v>
       </c>
       <c r="B144" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C144" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145">
-        <v>11050</v>
+        <v>11020</v>
       </c>
       <c r="B145" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C145" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146">
-        <v>11060</v>
+        <v>11030</v>
       </c>
       <c r="B146" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C146" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147">
-        <v>11070</v>
+        <v>11040</v>
       </c>
       <c r="B147" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C147" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148">
-        <v>11080</v>
+        <v>11050</v>
       </c>
       <c r="B148" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C148" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149">
-        <v>11090</v>
+        <v>11060</v>
       </c>
       <c r="B149" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C149" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="150" ht="26" spans="1:3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
       <c r="A150">
-        <v>11100</v>
-      </c>
-      <c r="B150" s="2" t="s">
-        <v>236</v>
+        <v>11070</v>
+      </c>
+      <c r="B150" t="s">
+        <v>237</v>
       </c>
       <c r="C150" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151">
-        <v>13010</v>
+        <v>11080</v>
       </c>
       <c r="B151" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C151" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="A152">
-        <v>14010</v>
+        <v>11090</v>
       </c>
       <c r="B152" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C152" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="153" ht="26" spans="1:3">
       <c r="A153">
-        <v>14020</v>
-      </c>
-      <c r="B153" t="s">
-        <v>239</v>
+        <v>11100</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>240</v>
       </c>
       <c r="C153" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154">
-        <v>14030</v>
+        <v>13010</v>
       </c>
       <c r="B154" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C154" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155">
-        <v>14040</v>
+        <v>14010</v>
       </c>
       <c r="B155" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C155" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="156" spans="1:3">
       <c r="A156">
-        <v>14041</v>
+        <v>14020</v>
       </c>
       <c r="B156" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C156" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157">
-        <v>14042</v>
+        <v>14030</v>
       </c>
       <c r="B157" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C157" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158">
-        <v>14051</v>
+        <v>14040</v>
       </c>
       <c r="B158" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C158" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159">
-        <v>14060</v>
+        <v>14041</v>
       </c>
       <c r="B159" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C159" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="160" spans="1:3">
       <c r="A160">
-        <v>14070</v>
+        <v>14042</v>
       </c>
       <c r="B160" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C160" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161">
-        <v>14071</v>
+        <v>14051</v>
       </c>
       <c r="B161" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C161" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162">
-        <v>15010</v>
+        <v>14060</v>
       </c>
       <c r="B162" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C162" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163">
-        <v>15020</v>
+        <v>14070</v>
       </c>
       <c r="B163" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C163" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164">
-        <v>15030</v>
+        <v>14071</v>
       </c>
       <c r="B164" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C164" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165">
-        <v>16010</v>
+        <v>15010</v>
       </c>
       <c r="B165" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C165" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="166" spans="1:3">
       <c r="A166">
-        <v>16020</v>
+        <v>15020</v>
       </c>
       <c r="B166" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C166" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="167" spans="1:3">
       <c r="A167">
-        <v>16030</v>
+        <v>15030</v>
       </c>
       <c r="B167" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C167" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="168" spans="1:3">
       <c r="A168">
+        <v>16010</v>
+      </c>
+      <c r="B168" t="s">
+        <v>255</v>
+      </c>
+      <c r="C168" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3">
+      <c r="A169">
+        <v>16020</v>
+      </c>
+      <c r="B169" t="s">
+        <v>256</v>
+      </c>
+      <c r="C169" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3">
+      <c r="A170">
+        <v>16030</v>
+      </c>
+      <c r="B170" t="s">
+        <v>257</v>
+      </c>
+      <c r="C170" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3">
+      <c r="A171">
         <v>16040</v>
       </c>
-      <c r="B168" t="s">
-        <v>254</v>
-      </c>
-      <c r="C168" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="169" ht="26" spans="1:3">
-      <c r="A169">
+      <c r="B171" t="s">
+        <v>258</v>
+      </c>
+      <c r="C171" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="172" ht="26" spans="1:3">
+      <c r="A172">
         <v>16050</v>
       </c>
-      <c r="B169" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="C169" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="170" ht="26" spans="1:3">
-      <c r="A170">
+      <c r="B172" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="C172" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="173" ht="26" spans="1:3">
+      <c r="A173">
         <v>16051</v>
       </c>
-      <c r="B170" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="C170" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="171" ht="26" spans="1:3">
-      <c r="A171">
+      <c r="B173" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="C173" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="174" ht="26" spans="1:3">
+      <c r="A174">
         <v>16060</v>
       </c>
-      <c r="B171" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="C171" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3">
-      <c r="A172">
+      <c r="B174" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="C174" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3">
+      <c r="A175">
         <v>17010</v>
       </c>
-      <c r="B172" t="s">
-        <v>258</v>
-      </c>
-      <c r="C172" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3">
-      <c r="A173">
+      <c r="B175" t="s">
+        <v>262</v>
+      </c>
+      <c r="C175" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3">
+      <c r="A176">
         <v>17020</v>
       </c>
-      <c r="B173" t="s">
-        <v>259</v>
-      </c>
-      <c r="C173" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3">
-      <c r="A174">
+      <c r="B176" t="s">
+        <v>263</v>
+      </c>
+      <c r="C176" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3">
+      <c r="A177">
         <v>17030</v>
       </c>
-      <c r="B174" t="s">
-        <v>260</v>
-      </c>
-      <c r="C174" t="s">
-        <v>91</v>
+      <c r="B177" t="s">
+        <v>264</v>
+      </c>
+      <c r="C177" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3">
+      <c r="A178">
+        <v>18010</v>
+      </c>
+      <c r="B178" t="s">
+        <v>265</v>
+      </c>
+      <c r="C178" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3">
+      <c r="A179">
+        <v>18020</v>
+      </c>
+      <c r="B179" t="s">
+        <v>266</v>
+      </c>
+      <c r="C179" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3">
+      <c r="A180">
+        <v>18030</v>
+      </c>
+      <c r="B180" t="s">
+        <v>267</v>
+      </c>
+      <c r="C180" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/Data/System.xlsx
+++ b/Assets/Resources/Data/System.xlsx
@@ -858,31 +858,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -896,29 +879,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -933,30 +910,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -995,7 +972,30 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1010,13 +1010,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1028,43 +1034,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1082,13 +1082,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1100,97 +1190,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1205,6 +1205,45 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -1215,6 +1254,24 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1244,63 +1301,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1309,7 +1309,7 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1318,7 +1318,7 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1327,127 +1327,127 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2206,8 +2206,8 @@
   <sheetPr/>
   <dimension ref="A1:D148"/>
   <sheetViews>
-    <sheetView topLeftCell="A139" workbookViewId="0">
-      <selection activeCell="C146" sqref="C146"/>
+    <sheetView topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="A98" sqref="A98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="3"/>
@@ -4355,7 +4355,7 @@
   <sheetPr/>
   <dimension ref="A1:G180"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A137" workbookViewId="0">
       <selection activeCell="B181" sqref="B181"/>
     </sheetView>
   </sheetViews>

--- a/Assets/Resources/Data/System.xlsx
+++ b/Assets/Resources/Data/System.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7070" firstSheet="3" activeTab="6"/>
+    <workbookView windowWidth="19200" windowHeight="7070" firstSheet="3" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="TacticsComand" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="271">
   <si>
     <t>Id</t>
   </si>
@@ -169,6 +169,9 @@
     <t>STRATEGY_BATTLE</t>
   </si>
   <si>
+    <t>STRATEGY_BATTLE_SKIP</t>
+  </si>
+  <si>
     <t>オプション２</t>
   </si>
   <si>
@@ -599,6 +602,9 @@
   </si>
   <si>
     <t>ステータス確認</t>
+  </si>
+  <si>
+    <t>バトルスキップ切替</t>
   </si>
   <si>
     <t>(Nu)</t>
@@ -780,6 +786,9 @@
   </si>
   <si>
     <t>ステータス強化</t>
+  </si>
+  <si>
+    <t>この救済執行を術者に任せる</t>
   </si>
   <si>
     <t>行動選択中…</t>
@@ -837,10 +846,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -858,7 +867,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -871,15 +880,62 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -893,24 +949,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -918,14 +966,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -940,10 +980,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -955,39 +995,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1010,13 +1019,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1028,43 +1073,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1082,19 +1097,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1106,13 +1157,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1124,43 +1181,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1172,25 +1199,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1201,6 +1210,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1219,6 +1237,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1230,6 +1257,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1260,39 +1302,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1309,145 +1318,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2204,10 +2213,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D148"/>
+  <dimension ref="A1:D153"/>
   <sheetViews>
-    <sheetView topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="A98" sqref="A98"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="A76" sqref="A76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="3"/>
@@ -3187,7 +3196,7 @@
     </row>
     <row r="72" spans="1:4">
       <c r="A72" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="B72">
         <v>4</v>
@@ -3201,58 +3210,58 @@
     </row>
     <row r="73" spans="1:4">
       <c r="A73" t="s">
+        <v>49</v>
+      </c>
+      <c r="B73">
         <v>6</v>
       </c>
-      <c r="B73">
-        <v>7</v>
-      </c>
       <c r="C73">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="D73" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="B74">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C74">
-        <v>803</v>
+        <v>823</v>
       </c>
       <c r="D74" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="B75">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C75">
-        <v>806</v>
+        <v>801</v>
       </c>
       <c r="D75" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="B76">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C76">
         <v>800</v>
       </c>
       <c r="D76" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -3260,13 +3269,13 @@
         <v>6</v>
       </c>
       <c r="B77">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C77">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="D77" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -3274,139 +3283,139 @@
         <v>6</v>
       </c>
       <c r="B78">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C78">
-        <v>800</v>
+        <v>807</v>
       </c>
       <c r="D78" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" t="s">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="B79">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C79">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="D79" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" t="s">
+        <v>6</v>
+      </c>
+      <c r="B80">
+        <v>9</v>
+      </c>
+      <c r="C80">
+        <v>806</v>
+      </c>
+      <c r="D80" t="s">
         <v>51</v>
-      </c>
-      <c r="B80">
-        <v>5</v>
-      </c>
-      <c r="C80">
-        <v>804</v>
-      </c>
-      <c r="D80" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" t="s">
+        <v>6</v>
+      </c>
+      <c r="B81">
+        <v>8</v>
+      </c>
+      <c r="C81">
+        <v>800</v>
+      </c>
+      <c r="D81" t="s">
         <v>51</v>
-      </c>
-      <c r="B81">
-        <v>6</v>
-      </c>
-      <c r="C81">
-        <v>809</v>
-      </c>
-      <c r="D81" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" t="s">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="B82">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C82">
-        <v>815</v>
+        <v>801</v>
       </c>
       <c r="D82" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" t="s">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="B83">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C83">
         <v>800</v>
       </c>
       <c r="D83" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B84">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C84">
-        <v>808</v>
+        <v>802</v>
       </c>
       <c r="D84" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B85">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C85">
-        <v>800</v>
+        <v>804</v>
       </c>
       <c r="D85" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B86">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C86">
-        <v>801</v>
+        <v>809</v>
       </c>
       <c r="D86" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" t="s">
+        <v>52</v>
+      </c>
+      <c r="B87">
+        <v>9</v>
+      </c>
+      <c r="C87">
+        <v>815</v>
+      </c>
+      <c r="D87" t="s">
         <v>51</v>
-      </c>
-      <c r="B87">
-        <v>2</v>
-      </c>
-      <c r="C87">
-        <v>800</v>
-      </c>
-      <c r="D87" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -3414,13 +3423,13 @@
         <v>52</v>
       </c>
       <c r="B88">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C88">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="D88" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -3428,13 +3437,13 @@
         <v>52</v>
       </c>
       <c r="B89">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C89">
-        <v>804</v>
+        <v>808</v>
       </c>
       <c r="D89" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -3442,13 +3451,13 @@
         <v>52</v>
       </c>
       <c r="B90">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C90">
-        <v>815</v>
+        <v>800</v>
       </c>
       <c r="D90" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -3456,13 +3465,13 @@
         <v>52</v>
       </c>
       <c r="B91">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C91">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="D91" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -3470,83 +3479,83 @@
         <v>52</v>
       </c>
       <c r="B92">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C92">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="D92" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B93">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C93">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="D93" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="B94">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C94">
-        <v>811</v>
+        <v>804</v>
       </c>
       <c r="D94" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="B95">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C95">
-        <v>804</v>
+        <v>815</v>
       </c>
       <c r="D95" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" t="s">
+        <v>53</v>
+      </c>
+      <c r="B96">
         <v>8</v>
       </c>
-      <c r="B96">
-        <v>9</v>
-      </c>
       <c r="C96">
-        <v>810</v>
+        <v>800</v>
       </c>
       <c r="D96" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="B97">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C97">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="D97" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -3554,32 +3563,32 @@
         <v>53</v>
       </c>
       <c r="B98">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C98">
-        <v>811</v>
+        <v>800</v>
       </c>
       <c r="D98" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" t="s">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="B99">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C99">
-        <v>802</v>
+        <v>811</v>
       </c>
       <c r="D99" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" t="s">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="B100">
         <v>5</v>
@@ -3593,7 +3602,7 @@
     </row>
     <row r="101" spans="1:4">
       <c r="A101" t="s">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="B101">
         <v>9</v>
@@ -3602,12 +3611,12 @@
         <v>810</v>
       </c>
       <c r="D101" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" t="s">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="B102">
         <v>8</v>
@@ -3616,7 +3625,7 @@
         <v>800</v>
       </c>
       <c r="D102" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -3627,7 +3636,7 @@
         <v>4</v>
       </c>
       <c r="C103">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="D103" t="s">
         <v>27</v>
@@ -3638,13 +3647,13 @@
         <v>54</v>
       </c>
       <c r="B104">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C104">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="D104" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -3652,13 +3661,13 @@
         <v>54</v>
       </c>
       <c r="B105">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C105">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="D105" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -3666,13 +3675,13 @@
         <v>54</v>
       </c>
       <c r="B106">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C106">
-        <v>800</v>
+        <v>810</v>
       </c>
       <c r="D106" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -3680,27 +3689,27 @@
         <v>54</v>
       </c>
       <c r="B107">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C107">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="D107" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B108">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C108">
-        <v>800</v>
+        <v>812</v>
       </c>
       <c r="D108" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -3728,7 +3737,7 @@
         <v>806</v>
       </c>
       <c r="D110" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -3742,7 +3751,7 @@
         <v>800</v>
       </c>
       <c r="D111" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -3795,10 +3804,10 @@
         <v>9</v>
       </c>
       <c r="C115">
-        <v>813</v>
+        <v>806</v>
       </c>
       <c r="D115" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -3812,7 +3821,7 @@
         <v>800</v>
       </c>
       <c r="D116" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -3865,10 +3874,10 @@
         <v>9</v>
       </c>
       <c r="C120">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="D120" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -3882,7 +3891,7 @@
         <v>800</v>
       </c>
       <c r="D121" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -3932,13 +3941,13 @@
         <v>58</v>
       </c>
       <c r="B125">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C125">
-        <v>801</v>
+        <v>814</v>
       </c>
       <c r="D125" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -3946,153 +3955,153 @@
         <v>58</v>
       </c>
       <c r="B126">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C126">
         <v>800</v>
       </c>
       <c r="D126" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
     </row>
     <row r="127" spans="1:4">
       <c r="A127" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B127">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C127">
-        <v>818</v>
+        <v>801</v>
       </c>
       <c r="D127" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
     </row>
     <row r="128" spans="1:4">
       <c r="A128" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B128">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C128">
         <v>800</v>
       </c>
       <c r="D128" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="129" spans="1:4">
       <c r="A129" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B129">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C129">
-        <v>817</v>
+        <v>804</v>
       </c>
       <c r="D129" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
     </row>
     <row r="130" spans="1:4">
       <c r="A130" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B130">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C130">
-        <v>816</v>
+        <v>801</v>
       </c>
       <c r="D130" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
     </row>
     <row r="131" spans="1:4">
       <c r="A131" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B131">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C131">
-        <v>817</v>
+        <v>800</v>
       </c>
       <c r="D131" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="132" spans="1:4">
       <c r="A132" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B132">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C132">
-        <v>802</v>
+        <v>818</v>
       </c>
       <c r="D132" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
     </row>
     <row r="133" spans="1:4">
       <c r="A133" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B133">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C133">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="D133" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
     </row>
     <row r="134" spans="1:4">
       <c r="A134" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B134">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C134">
-        <v>800</v>
+        <v>817</v>
       </c>
       <c r="D134" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
     </row>
     <row r="135" spans="1:4">
       <c r="A135" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B135">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C135">
-        <v>804</v>
+        <v>816</v>
       </c>
       <c r="D135" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
     </row>
     <row r="136" spans="1:4">
       <c r="A136" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B136">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C136">
-        <v>801</v>
+        <v>817</v>
       </c>
       <c r="D136" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -4100,41 +4109,41 @@
         <v>63</v>
       </c>
       <c r="B137">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C137">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="D137" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="138" spans="1:4">
       <c r="A138" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B138">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C138">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="D138" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="139" spans="1:4">
       <c r="A139" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B139">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C139">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="D139" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -4142,13 +4151,13 @@
         <v>64</v>
       </c>
       <c r="B140">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C140">
-        <v>820</v>
+        <v>804</v>
       </c>
       <c r="D140" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -4156,13 +4165,13 @@
         <v>64</v>
       </c>
       <c r="B141">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C141">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="D141" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -4170,27 +4179,27 @@
         <v>64</v>
       </c>
       <c r="B142">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C142">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="D142" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="143" spans="1:4">
       <c r="A143" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B143">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C143">
-        <v>800</v>
+        <v>804</v>
       </c>
       <c r="D143" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -4198,13 +4207,13 @@
         <v>65</v>
       </c>
       <c r="B144">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C144">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="D144" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -4212,13 +4221,13 @@
         <v>65</v>
       </c>
       <c r="B145">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C145">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="D145" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -4226,13 +4235,13 @@
         <v>65</v>
       </c>
       <c r="B146">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C146">
-        <v>821</v>
+        <v>800</v>
       </c>
       <c r="D146" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -4260,6 +4269,76 @@
         <v>800</v>
       </c>
       <c r="D148" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" t="s">
+        <v>66</v>
+      </c>
+      <c r="B149">
+        <v>5</v>
+      </c>
+      <c r="C149">
+        <v>804</v>
+      </c>
+      <c r="D149" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" t="s">
+        <v>66</v>
+      </c>
+      <c r="B150">
+        <v>6</v>
+      </c>
+      <c r="C150">
+        <v>822</v>
+      </c>
+      <c r="D150" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151" t="s">
+        <v>66</v>
+      </c>
+      <c r="B151">
+        <v>4</v>
+      </c>
+      <c r="C151">
+        <v>821</v>
+      </c>
+      <c r="D151" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152" t="s">
+        <v>66</v>
+      </c>
+      <c r="B152">
+        <v>1</v>
+      </c>
+      <c r="C152">
+        <v>801</v>
+      </c>
+      <c r="D152" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153" t="s">
+        <v>66</v>
+      </c>
+      <c r="B153">
+        <v>0</v>
+      </c>
+      <c r="C153">
+        <v>800</v>
+      </c>
+      <c r="D153" t="s">
         <v>30</v>
       </c>
     </row>
@@ -4285,20 +4364,20 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B3" s="3">
         <v>5</v>
@@ -4306,7 +4385,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B4">
         <v>4</v>
@@ -4314,7 +4393,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -4322,7 +4401,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B6">
         <v>3</v>
@@ -4330,7 +4409,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B7">
         <v>4</v>
@@ -4338,7 +4417,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B8">
         <v>3</v>
@@ -4353,10 +4432,10 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G180"/>
+  <dimension ref="A1:G182"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A137" workbookViewId="0">
-      <selection activeCell="B181" sqref="B181"/>
+    <sheetView topLeftCell="A84" workbookViewId="0">
+      <selection activeCell="B104" sqref="B104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="6"/>
@@ -4370,10 +4449,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" ht="14" spans="1:7">
@@ -4381,10 +4460,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G2" s="1"/>
     </row>
@@ -4393,10 +4472,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -4404,10 +4483,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -4415,10 +4494,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -4426,10 +4505,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -4437,10 +4516,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -4448,10 +4527,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" ht="14" spans="1:7">
@@ -4459,10 +4538,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C9" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G9" s="1"/>
     </row>
@@ -4471,10 +4550,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G10" s="1"/>
     </row>
@@ -4483,10 +4562,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C11" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -4494,10 +4573,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C12" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -4505,10 +4584,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C13" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -4516,10 +4595,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C14" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" ht="14" spans="1:7">
@@ -4527,10 +4606,10 @@
         <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C15" t="